--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="20925" windowHeight="9840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="前期" sheetId="6" r:id="rId6"/>
     <sheet name="武将表" sheetId="7" r:id="rId7"/>
     <sheet name="养成框架" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="经济框架" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1061">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -3124,6 +3124,87 @@
   </si>
   <si>
     <t>亲密度</t>
+  </si>
+  <si>
+    <t>时长</t>
+  </si>
+  <si>
+    <t>玩法</t>
+  </si>
+  <si>
+    <t>产出点</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>养成</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>烧鸡</t>
+  </si>
+  <si>
+    <t>单位星级</t>
+  </si>
+  <si>
+    <t>战役宝箱</t>
+  </si>
+  <si>
+    <t>玉阙宝箱</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t>占领城池</t>
+  </si>
+  <si>
+    <t>神秘商人</t>
+  </si>
+  <si>
+    <t>觉醒材料</t>
+  </si>
+  <si>
+    <t>武将觉醒</t>
+  </si>
+  <si>
+    <t>装备锻造</t>
+  </si>
+  <si>
+    <t>装备材料</t>
+  </si>
+  <si>
+    <t>武将装备</t>
+  </si>
+  <si>
+    <t>装备的时候要不要有消耗？</t>
+  </si>
+  <si>
+    <t>大事件</t>
+  </si>
+  <si>
+    <t>大地图宝箱</t>
+  </si>
+  <si>
+    <t>药品、酒</t>
+  </si>
+  <si>
+    <t>武将状态</t>
+  </si>
+  <si>
+    <t>城池产出</t>
+  </si>
+  <si>
+    <t>粮草、辎重</t>
+  </si>
+  <si>
+    <t>武将血量和辅助血量</t>
+  </si>
+  <si>
+    <t>资源运输</t>
   </si>
 </sst>
 </file>
@@ -3132,13 +3213,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3147,6 +3228,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -3213,13 +3314,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA26DF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3240,23 +3334,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3271,29 +3372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3313,16 +3392,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3338,7 +3431,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3346,10 +3439,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3360,23 +3468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3481,13 +3575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3499,7 +3593,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3511,19 +3629,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3535,19 +3731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,109 +3749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3686,45 +3780,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3768,6 +3823,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3795,10 +3889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3807,147 +3901,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -3965,22 +4071,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -3992,7 +4098,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
@@ -4010,25 +4116,25 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -4040,10 +4146,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4067,19 +4173,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4140,8 +4246,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00FA26DF"/>
       <color rgb="00000000"/>
-      <color rgb="00FA26DF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4150,6 +4256,1468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="1590675"/>
+          <a:ext cx="628650" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5419725" y="1276350"/>
+          <a:ext cx="638175" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6521450" y="1200150"/>
+          <a:ext cx="936625" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6613525" y="1165225"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1073150" y="1200150"/>
+          <a:ext cx="4727575" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1127125" y="1593850"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101725" y="1139825"/>
+          <a:ext cx="889000" cy="384175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400685</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2458085" y="1590675"/>
+          <a:ext cx="866140" cy="8255"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2695575" y="1685925"/>
+          <a:ext cx="3390900" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2552700" y="1752600"/>
+          <a:ext cx="3571875" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="3673475"/>
+          <a:ext cx="2057400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918325" y="3238500"/>
+          <a:ext cx="558800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6931025" y="2851150"/>
+          <a:ext cx="558800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6956425" y="4086225"/>
+          <a:ext cx="1911350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5470525" y="3270250"/>
+          <a:ext cx="628650" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5330825" y="2816225"/>
+          <a:ext cx="628650" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="2857500"/>
+          <a:ext cx="752475" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="2838450"/>
+          <a:ext cx="704850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="2943225"/>
+          <a:ext cx="866775" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4048125" y="4171950"/>
+          <a:ext cx="2085975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5435600" y="4102100"/>
+          <a:ext cx="688975" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5549900" y="3673475"/>
+          <a:ext cx="628650" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="2857500"/>
+          <a:ext cx="590550" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5556250" y="3324225"/>
+          <a:ext cx="673100" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5518150" y="1771650"/>
+          <a:ext cx="692150" cy="1822450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2847975"/>
+          <a:ext cx="650875" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3879850" y="1569085"/>
+          <a:ext cx="805815" cy="8255"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4117975" y="2841625"/>
+          <a:ext cx="704850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3921125" y="3238500"/>
+          <a:ext cx="860425" cy="225425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="3505200"/>
+          <a:ext cx="904875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603500" y="2898775"/>
+          <a:ext cx="825500" cy="568325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4447,16 +6015,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="25"/>
+    <col min="1" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4478,1386 +6046,1386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.55833333333333" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" style="25" customWidth="1"/>
-    <col min="4" max="9" width="8.89166666666667" style="25" customWidth="1"/>
-    <col min="10" max="10" width="2.10833333333333" style="40" customWidth="1"/>
-    <col min="11" max="11" width="4.225" style="25" customWidth="1"/>
-    <col min="12" max="16" width="9" style="25"/>
-    <col min="17" max="17" width="4.44166666666667" style="25" customWidth="1"/>
-    <col min="18" max="19" width="9" style="25"/>
-    <col min="20" max="20" width="10.1083333333333" style="25" customWidth="1"/>
-    <col min="21" max="21" width="4" style="25" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="5.55833333333333" style="30" customWidth="1"/>
+    <col min="2" max="2" width="7" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="29" customWidth="1"/>
+    <col min="4" max="9" width="8.89166666666667" style="29" customWidth="1"/>
+    <col min="10" max="10" width="2.10833333333333" style="44" customWidth="1"/>
+    <col min="11" max="11" width="4.225" style="29" customWidth="1"/>
+    <col min="12" max="16" width="9" style="29"/>
+    <col min="17" max="17" width="4.44166666666667" style="29" customWidth="1"/>
+    <col min="18" max="19" width="9" style="29"/>
+    <col min="20" max="20" width="10.1083333333333" style="29" customWidth="1"/>
+    <col min="21" max="21" width="4" style="29" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42">
+      <c r="D1" s="46">
         <v>1</v>
       </c>
-      <c r="E1" s="42">
+      <c r="E1" s="46">
         <v>2</v>
       </c>
-      <c r="F1" s="42">
+      <c r="F1" s="46">
         <v>3</v>
       </c>
-      <c r="G1" s="42">
+      <c r="G1" s="46">
         <v>4</v>
       </c>
-      <c r="H1" s="42">
+      <c r="H1" s="46">
         <v>5</v>
       </c>
-      <c r="I1" s="42">
+      <c r="I1" s="46">
         <v>6</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="29">
         <v>2</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="46">
         <f>T3</f>
         <v>250</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="46">
         <f>T4</f>
         <v>375</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="46">
         <f>T5</f>
         <v>500</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="46">
         <f>T6</f>
         <v>625</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="46">
         <f>T7</f>
         <v>750</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="46">
         <f>T8</f>
         <v>875</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="49"/>
+      <c r="L2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="42">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="46">
         <f t="shared" ref="C3:C8" si="0">O3</f>
         <v>50</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="47">
         <f>D$2/$C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="47">
         <f>E$2/$C3</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="47">
         <f>F$2/$C3</f>
         <v>10</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="47">
         <f>G$2/$C3</f>
         <v>12.5</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="47">
         <f>H$2/$C3</f>
         <v>15</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="47">
         <f>I$2/$C3</f>
         <v>17.5</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="49">
         <v>1</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="29">
         <v>50</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="29">
         <v>0</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="29">
         <f>L3*$N$1</f>
         <v>100</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="50">
         <f t="shared" ref="O3:O8" si="1">M3*N3+(1-M3)*L3</f>
         <v>50</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="49">
         <v>1</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="52">
         <v>250</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="29">
         <v>0</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="50">
         <f t="shared" ref="T3:T8" si="2">R3*(1+S3)</f>
         <v>250</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="42">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="46">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="47">
         <f>D$2/$C4</f>
         <v>3.17460317460317</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="47">
         <f>E$2/$C4</f>
         <v>4.76190476190476</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="47">
         <f>F$2/$C4</f>
         <v>6.34920634920635</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="47">
         <f>G$2/$C4</f>
         <v>7.93650793650794</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="47">
         <f>H$2/$C4</f>
         <v>9.52380952380952</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="47">
         <f>I$2/$C4</f>
         <v>11.1111111111111</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="49">
         <v>2</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="29">
         <v>75</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="29">
         <v>0.05</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="29">
         <f>L4*$N$1</f>
         <v>150</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="50">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="49">
         <v>2</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="52">
         <f>R3+125</f>
         <v>375</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="29">
         <v>0</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="50">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="42">
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="46">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="47">
         <f>D$2/$C5</f>
         <v>2.27272727272727</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="47">
         <f>E$2/$C5</f>
         <v>3.40909090909091</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="47">
         <f>F$2/$C5</f>
         <v>4.54545454545455</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="47">
         <f>G$2/$C5</f>
         <v>5.68181818181818</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="47">
         <f>H$2/$C5</f>
         <v>6.81818181818182</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="47">
         <f>I$2/$C5</f>
         <v>7.95454545454545</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="49">
         <v>3</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="29">
         <v>100</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="29">
         <v>0.1</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="29">
         <f>L5*$N$1</f>
         <v>200</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="50">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="49">
         <v>3</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="52">
         <f>R4+125</f>
         <v>500</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="29">
         <v>0</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="50">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="42">
+      <c r="B6" s="46">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="46">
         <f t="shared" si="0"/>
         <v>143.75</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="47">
         <f>D$2/$C6</f>
         <v>1.73913043478261</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="47">
         <f>E$2/$C6</f>
         <v>2.60869565217391</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="47">
         <f>F$2/$C6</f>
         <v>3.47826086956522</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="47">
         <f>G$2/$C6</f>
         <v>4.34782608695652</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="47">
         <f>H$2/$C6</f>
         <v>5.21739130434783</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="47">
         <f>I$2/$C6</f>
         <v>6.08695652173913</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="49">
         <v>4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="29">
         <v>125</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="29">
         <v>0.15</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="29">
         <f>L6*$N$1</f>
         <v>250</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="50">
         <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="49">
         <v>4</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="52">
         <f>R5+125</f>
         <v>625</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="29">
         <v>0</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="50">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="42">
+      <c r="B7" s="46">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="46">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="47">
         <f>D$2/$C7</f>
         <v>1.38888888888889</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="47">
         <f>E$2/$C7</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="47">
         <f>F$2/$C7</f>
         <v>2.77777777777778</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="47">
         <f>G$2/$C7</f>
         <v>3.47222222222222</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="47">
         <f>H$2/$C7</f>
         <v>4.16666666666667</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="47">
         <f>I$2/$C7</f>
         <v>4.86111111111111</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="49">
         <v>5</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="29">
         <v>150</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="29">
         <v>0.2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="29">
         <f>L7*$N$1</f>
         <v>300</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="50">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="49">
         <v>5</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="52">
         <f>R6+125</f>
         <v>750</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="29">
         <v>0</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="50">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="42">
+      <c r="B8" s="46">
         <v>6</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="46">
         <f t="shared" si="0"/>
         <v>218.75</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="47">
         <f>D$2/$C8</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="47">
         <f>E$2/$C8</f>
         <v>1.71428571428571</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="47">
         <f>F$2/$C8</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="47">
         <f>G$2/$C8</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="47">
         <f>H$2/$C8</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="47">
         <f>I$2/$C8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="49">
         <v>6</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="29">
         <v>175</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="29">
         <v>0.25</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="29">
         <f>L8*$N$1</f>
         <v>350</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="50">
         <f t="shared" si="1"/>
         <v>218.75</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="49">
         <v>6</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="52">
         <f>R7+125</f>
         <v>875</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="29">
         <v>0</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="50">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="46">
         <v>1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="46">
         <v>2</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="46">
         <v>3</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="46">
         <v>4</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="46">
         <v>5</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="46">
         <v>6</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="29">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="46">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="46">
         <f>T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="46">
         <f>T14</f>
         <v>588.235294117647</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="46">
         <f>T15</f>
         <v>781.25</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="46">
         <f>T16</f>
         <v>1000</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="46">
         <f>T17</f>
         <v>1250</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45" t="s">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="42">
+      <c r="B12" s="46">
         <v>1</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="48">
         <f t="shared" ref="C12:C17" si="3">O12</f>
         <v>51.25</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="47">
         <f t="shared" ref="D12:D17" si="4">D$11/$C12</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="47">
         <f t="shared" ref="E12:E17" si="5">E$11/$C12</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="47">
         <f t="shared" ref="F12:F17" si="6">F$11/$C12</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="47">
         <f t="shared" ref="G12:G17" si="7">G$11/$C12</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="47">
         <f t="shared" ref="H12:H17" si="8">H$11/$C12</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="47">
         <f t="shared" ref="I12:I17" si="9">I$11/$C12</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="49">
         <v>1</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="29">
         <f t="shared" ref="L12:L17" si="10">L3</f>
         <v>50</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="29">
         <v>0.05</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="31">
         <f t="shared" ref="N12:N17" si="11">L12*$N$10</f>
         <v>75</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="51">
         <f>M3*N3+M12*N12+(1-M12-M3)*L12</f>
         <v>51.25</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="49">
         <v>1</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="31">
         <f t="shared" ref="R12:R17" si="12">T3</f>
         <v>250</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="29">
         <v>0.05</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="50">
         <f>R12/(1-S12)</f>
         <v>263.157894736842</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="42">
+      <c r="B13" s="46">
         <v>2</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="48">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="47">
         <f t="shared" si="4"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="47">
         <f t="shared" si="5"/>
         <v>5.05050505050505</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="47">
         <f t="shared" si="6"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="47">
         <f t="shared" si="7"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="47">
         <f t="shared" si="8"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="47">
         <f t="shared" si="9"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="49">
         <v>2</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="29">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="29">
         <v>0.1</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="31">
         <f t="shared" si="11"/>
         <v>112.5</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="51">
         <f t="shared" ref="O12:O17" si="13">M4*N4+M13*N13+(1-M13-M4)*L13</f>
         <v>82.5</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="49">
         <v>2</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="31">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="29">
         <v>0.1</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="50">
         <f t="shared" ref="T12:T17" si="14">R13/(1-S13)</f>
         <v>416.666666666667</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="42">
+      <c r="B14" s="46">
         <v>3</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="48">
         <f t="shared" si="3"/>
         <v>117.5</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="47">
         <f t="shared" si="4"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="47">
         <f t="shared" si="5"/>
         <v>3.54609929078014</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="47">
         <f t="shared" si="6"/>
         <v>5.00625782227785</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="47">
         <f t="shared" si="7"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="47">
         <f t="shared" si="8"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="47">
         <f t="shared" si="9"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="49">
         <v>3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="29">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="29">
         <v>0.15</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="31">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="51">
         <f t="shared" si="13"/>
         <v>117.5</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="49">
         <v>3</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="31">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="29">
         <v>0.15</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="50">
         <f t="shared" si="14"/>
         <v>588.235294117647</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="42">
+      <c r="B15" s="46">
         <v>4</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="48">
         <f t="shared" si="3"/>
         <v>156.25</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="47">
         <f t="shared" si="4"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="47">
         <f t="shared" si="5"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="47">
         <f t="shared" si="6"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="47">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="47">
         <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="47">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="49">
         <v>4</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="29">
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="29">
         <v>0.2</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="31">
         <f t="shared" si="11"/>
         <v>187.5</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="51">
         <f t="shared" si="13"/>
         <v>156.25</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="49">
         <v>4</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="31">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="29">
         <v>0.2</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="50">
         <f t="shared" si="14"/>
         <v>781.25</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="42">
+      <c r="B16" s="46">
         <v>5</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="48">
         <f t="shared" si="3"/>
         <v>198.75</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="47">
         <f t="shared" si="4"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="47">
         <f t="shared" si="5"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="47">
         <f t="shared" si="6"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="47">
         <f t="shared" si="7"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="47">
         <f t="shared" si="8"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="47">
         <f t="shared" si="9"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="49">
         <v>5</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="29">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="29">
         <v>0.25</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="31">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="51">
         <f t="shared" si="13"/>
         <v>198.75</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="49">
         <v>5</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="31">
         <f t="shared" si="12"/>
         <v>750</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S16" s="29">
         <v>0.25</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="50">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="42">
+      <c r="B17" s="46">
         <v>6</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="48">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="47">
         <f t="shared" si="4"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="47">
         <f t="shared" si="5"/>
         <v>1.70068027210884</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="47">
         <f t="shared" si="6"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="47">
         <f t="shared" si="7"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="47">
         <f t="shared" si="8"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="47">
         <f t="shared" si="9"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="49">
         <v>6</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="29">
         <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="29">
         <v>0.3</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="31">
         <f t="shared" si="11"/>
         <v>262.5</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="51">
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="49">
         <v>6</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="31">
         <f t="shared" si="12"/>
         <v>875</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17" s="29">
         <v>0.3</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="50">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="46">
         <v>1</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="46">
         <v>2</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="46">
         <v>3</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="46">
         <v>4</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="46">
         <v>5</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="46">
         <f>S21</f>
         <v>394.736842105263</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="46">
         <f>S22</f>
         <v>625.000000000001</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="46">
         <f>S23</f>
         <v>882.35294117647</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="46">
         <f>S24</f>
         <v>1171.875</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="46">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="46">
         <f>S26</f>
         <v>1875</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45" t="s">
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="45" t="s">
+      <c r="S20" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="42">
+      <c r="B21" s="46">
         <v>1</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="48">
         <f t="shared" ref="C21:C26" si="15">M21</f>
         <v>76.875</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="47">
         <f t="shared" ref="D21:D26" si="16">D$20/$C21</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="47">
         <f t="shared" ref="E21:E26" si="17">E$20/$C21</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="47">
         <f t="shared" ref="F21:F26" si="18">F$20/$C21</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="47">
         <f t="shared" ref="G21:G26" si="19">G$20/$C21</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="47">
         <f t="shared" ref="H21:H26" si="20">H$20/$C21</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="47">
         <f t="shared" ref="I21:I26" si="21">I$20/$C21</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="49">
         <v>1</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="31">
         <f>O12</f>
         <v>51.25</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="31">
         <f t="shared" ref="M21:M26" si="22">L21*1.5</f>
         <v>76.875</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="49">
         <v>1</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="31">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="31">
         <f>R21*1.5</f>
         <v>394.736842105263</v>
       </c>
-      <c r="T21" s="27"/>
+      <c r="T21" s="31"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="42">
+      <c r="B22" s="46">
         <v>2</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="48">
         <f t="shared" si="15"/>
         <v>123.75</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="47">
         <f t="shared" si="16"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="47">
         <f t="shared" si="17"/>
         <v>5.05050505050506</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="47">
         <f t="shared" si="18"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="47">
         <f t="shared" si="19"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="47">
         <f t="shared" si="20"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="47">
         <f t="shared" si="21"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="49">
         <v>2</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="31">
         <f>O13</f>
         <v>82.5</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="31">
         <f t="shared" si="22"/>
         <v>123.75</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="49">
         <v>2</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="31">
         <f t="shared" ref="R21:R26" si="23">T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="31">
         <f t="shared" ref="S21:S26" si="24">R22*1.5</f>
         <v>625.000000000001</v>
       </c>
-      <c r="T22" s="27"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="42">
+      <c r="B23" s="46">
         <v>3</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="48">
         <f t="shared" si="15"/>
         <v>176.25</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="47">
         <f t="shared" si="16"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="47">
         <f t="shared" si="17"/>
         <v>3.54609929078015</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="47">
         <f t="shared" si="18"/>
         <v>5.00625782227784</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="47">
         <f t="shared" si="19"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="47">
         <f t="shared" si="20"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="47">
         <f t="shared" si="21"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="49">
         <v>3</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="31">
         <f t="shared" ref="L21:L26" si="25">O14</f>
         <v>117.5</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="31">
         <f t="shared" si="22"/>
         <v>176.25</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="49">
         <v>3</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="31">
         <f t="shared" si="23"/>
         <v>588.235294117647</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="31">
         <f t="shared" si="24"/>
         <v>882.35294117647</v>
       </c>
-      <c r="T23" s="27"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="42">
+      <c r="B24" s="46">
         <v>4</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="48">
         <f t="shared" si="15"/>
         <v>234.375</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="47">
         <f t="shared" si="16"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="47">
         <f t="shared" si="17"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="47">
         <f t="shared" si="18"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="47">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="47">
         <f t="shared" si="20"/>
         <v>6.4</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="47">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="49">
         <v>4</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="31">
         <f t="shared" si="25"/>
         <v>156.25</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="31">
         <f t="shared" si="22"/>
         <v>234.375</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="49">
         <v>4</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="31">
         <f t="shared" si="23"/>
         <v>781.25</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="31">
         <f t="shared" si="24"/>
         <v>1171.875</v>
       </c>
-      <c r="T24" s="27"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="42">
+      <c r="B25" s="46">
         <v>5</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="48">
         <f t="shared" si="15"/>
         <v>298.125</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="47">
         <f t="shared" si="16"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="47">
         <f t="shared" si="17"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="47">
         <f t="shared" si="18"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="47">
         <f t="shared" si="19"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="47">
         <f t="shared" si="20"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="47">
         <f t="shared" si="21"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="49">
         <v>5</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="31">
         <f t="shared" si="25"/>
         <v>198.75</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="31">
         <f t="shared" si="22"/>
         <v>298.125</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="49">
         <v>5</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="31">
         <f t="shared" si="23"/>
         <v>1000</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="31">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="T25" s="27"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="42">
+      <c r="B26" s="46">
         <v>6</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="48">
         <f t="shared" si="15"/>
         <v>367.5</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="47">
         <f t="shared" si="16"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="47">
         <f t="shared" si="17"/>
         <v>1.70068027210885</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="47">
         <f t="shared" si="18"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="47">
         <f t="shared" si="19"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="47">
         <f t="shared" si="20"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="47">
         <f t="shared" si="21"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="49">
         <v>6</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="31">
         <f t="shared" si="25"/>
         <v>245</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="31">
         <f t="shared" si="22"/>
         <v>367.5</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="49">
         <v>6</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="31">
         <f t="shared" si="23"/>
         <v>1250</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="31">
         <f t="shared" si="24"/>
         <v>1875</v>
       </c>
-      <c r="T26" s="27"/>
+      <c r="T26" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5877,43 +7445,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="25"/>
+    <col min="1" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="29">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="29">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="29">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5928,997 +7496,997 @@
   <sheetPr/>
   <dimension ref="A2:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.89166666666667" style="25"/>
-    <col min="3" max="3" width="9.10833333333333" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9" style="25"/>
-    <col min="5" max="5" width="9" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="7.55833333333333" style="25" customWidth="1"/>
-    <col min="8" max="8" width="9.775" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.10833333333333" style="25"/>
-    <col min="10" max="10" width="9.25" style="25"/>
-    <col min="11" max="11" width="8.75" style="25" customWidth="1"/>
-    <col min="12" max="26" width="8.89166666666667" style="25"/>
-    <col min="27" max="27" width="9" style="25"/>
-    <col min="28" max="16384" width="8.89166666666667" style="25"/>
+    <col min="1" max="2" width="8.89166666666667" style="29"/>
+    <col min="3" max="3" width="9.10833333333333" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9" style="29"/>
+    <col min="5" max="5" width="9" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="7.55833333333333" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.775" style="29" customWidth="1"/>
+    <col min="9" max="9" width="9.10833333333333" style="29"/>
+    <col min="10" max="10" width="9.25" style="29"/>
+    <col min="11" max="11" width="8.75" style="29" customWidth="1"/>
+    <col min="12" max="26" width="8.89166666666667" style="29"/>
+    <col min="27" max="27" width="9" style="29"/>
+    <col min="28" max="16384" width="8.89166666666667" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="25">
+      <c r="B3" s="29">
         <v>6</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="29">
         <v>22</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="29">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="29">
         <v>5</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="30">
         <v>0.5</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="29">
         <v>500</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="29">
         <v>24</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="30">
         <f>F3*I3</f>
         <v>12</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="29">
         <f>G3*J3</f>
         <v>6000</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="29">
         <f>J3*7+U15</f>
         <v>94</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="29">
         <v>12</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="36">
         <v>1</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="36">
         <v>2</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="36">
         <v>3</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="36">
         <v>4</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="36">
         <v>5</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="25">
+      <c r="B4" s="29">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="29">
         <v>55</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="29">
         <v>10</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="29">
         <v>200</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="31">
         <f>(F4/E4)/(F3/E3)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="29">
         <v>24</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="30">
         <f>F4*I4</f>
         <v>24</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="29">
         <f>G4*J4</f>
         <v>4800</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="29">
         <f>J4*7+T14*2</f>
         <v>188</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="36" t="s">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="25">
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="25">
+      <c r="B5" s="29">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="29">
         <v>98</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="29">
         <v>4</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="29">
         <v>10</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="29">
         <v>100</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="31">
         <f>(F5/E5)/(F$4/E$4)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="29">
         <v>24</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="30">
         <f>F5*I5</f>
         <v>24</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="29">
         <f>G5*J5</f>
         <v>2400</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="29">
         <f>J5*7+S15+S14*2</f>
         <v>168</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="36" t="s">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="25">
+      <c r="U5" s="37"/>
+      <c r="V5" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="28">
+      <c r="B6" s="32">
         <v>3</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="32">
         <v>261</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="32">
         <v>10</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="32">
         <v>5</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="33">
         <v>0.75</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="32">
         <v>50</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="34">
         <f>(F6/E6)/(F$5/E$5)</f>
         <v>1.5</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="32">
         <v>24</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="33">
         <f t="shared" ref="J6:J12" si="0">F6*I6</f>
         <v>18</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="32">
         <f t="shared" ref="K6:K12" si="1">G6*J6</f>
         <v>900</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="32">
         <f>J6*7+Q14*2+R15</f>
         <v>141</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="36" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="33"/>
-      <c r="V6" s="25">
+      <c r="U6" s="37"/>
+      <c r="V6" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:23">
-      <c r="B7" s="28">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="32">
         <v>364</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="32">
         <v>13</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="32">
         <v>5</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="33">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="32">
         <v>20</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="34">
         <f>(F7/E7)/(F6/E6)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="32">
         <v>24</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="32">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="32">
         <f>J7*7</f>
         <v>168</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="36" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="36" t="s">
+      <c r="U7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="29">
         <v>50</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="29">
         <f>V7*玩家等级!H6</f>
         <v>2300</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="28">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="32">
         <v>91</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28">
+      <c r="F8" s="33"/>
+      <c r="G8" s="32">
         <v>10</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="O8" s="33" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="O8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="36" t="s">
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="36" t="s">
+      <c r="U8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="25">
+      <c r="C9" s="29">
         <f>SUM(C3:C8)</f>
         <v>891</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="29">
         <f>SUM(E3:E8)</f>
         <v>35</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="K9" s="34">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="K9" s="38">
         <f>SUM(K3:K8)</f>
         <v>14580</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="36" t="s">
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="36" t="s">
+      <c r="U9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="29">
         <v>4</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="29">
         <v>16</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="29">
         <v>15</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="30">
         <v>1</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="29">
         <v>10</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="31">
         <f>(F11/E11)/(F$4/E$4)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="39">
         <v>12</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="29">
         <f>F11*I11</f>
         <v>12</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="29">
         <f>J11*7</f>
         <v>84</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="29">
         <v>3</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="29">
         <v>10</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="29">
         <v>10</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="29">
         <v>5</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="31">
         <f>(F12/E12)/(F$5/E$5)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="39">
         <v>12</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="29">
         <f>J12*7</f>
         <v>84</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="36">
         <v>1</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="36">
         <v>2</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="41">
         <v>3</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="36">
         <v>5</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="14:27">
-      <c r="N13" s="25">
+      <c r="N13" s="29">
         <v>12</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="38" t="s">
+      <c r="P13" s="37"/>
+      <c r="Q13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R13" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="S13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="25">
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="29">
         <v>50</v>
       </c>
-      <c r="W13" s="25">
+      <c r="W13" s="29">
         <f>V13*16</f>
         <v>800</v>
       </c>
-      <c r="AA13" s="25">
+      <c r="AA13" s="29">
         <f>1.5*60*60</f>
         <v>5400</v>
       </c>
     </row>
     <row r="14" spans="9:27">
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="29">
         <v>20</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="29">
         <f>W19</f>
         <v>5020</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="36">
+      <c r="P14" s="37"/>
+      <c r="Q14" s="40">
         <v>5</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="40">
         <v>5</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="36">
+      <c r="S14" s="37"/>
+      <c r="T14" s="40">
         <v>10</v>
       </c>
-      <c r="U14" s="33"/>
-      <c r="V14" s="25">
+      <c r="U14" s="37"/>
+      <c r="V14" s="29">
         <v>300</v>
       </c>
-      <c r="X14" s="25">
+      <c r="X14" s="29">
         <v>98</v>
       </c>
-      <c r="Y14" s="25" t="s">
+      <c r="Y14" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AA14" s="29">
         <f>3.5*24*60*60</f>
         <v>302400</v>
       </c>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="36">
+      <c r="P15" s="37"/>
+      <c r="Q15" s="40">
         <v>5</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="40">
         <v>5</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="36">
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="40">
         <v>10</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="29">
         <v>1000</v>
       </c>
-      <c r="X15" s="25">
+      <c r="X15" s="29">
         <v>298</v>
       </c>
-      <c r="Y15" s="25" t="s">
+      <c r="Y15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AA15" s="29">
         <f>7*24*60*60</f>
         <v>604800</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="31">
+      <c r="B16" s="35">
         <v>1</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="35">
         <v>5</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="35">
         <v>100</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="29">
         <f>SUM(C$16:C16)*$J$14</f>
         <v>100</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="31">
         <f>F16/$L$3</f>
         <v>1.06382978723404</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="29">
         <f>SUM(D$16:D16)*$J$14</f>
         <v>2000</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="31">
         <f>J16/$L$14</f>
         <v>0.398406374501992</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="31">
+      <c r="B17" s="35">
         <v>2</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="35">
         <v>5</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="35">
         <v>500</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="29">
         <f>SUM(C$16:C17)*$J$14</f>
         <v>200</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="31">
         <f t="shared" ref="G17:G26" si="2">F17/$L$3</f>
         <v>2.12765957446808</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="29">
         <f>SUM(D$16:D17)*$J$14</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="31">
         <f t="shared" ref="K17:K26" si="3">J17/$L$14</f>
         <v>2.39043824701195</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="31">
+      <c r="B18" s="35">
         <v>3</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="35">
         <v>10</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="35">
         <v>1000</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="29">
         <f>SUM(C$16:C18)*$J$14</f>
         <v>400</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="31">
         <f t="shared" si="2"/>
         <v>4.25531914893617</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="29">
         <f>SUM(D$16:D18)*$J$14</f>
         <v>32000</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="31">
         <f t="shared" si="3"/>
         <v>6.37450199203187</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="29">
         <f>((100+20)/2)*2</f>
         <v>120</v>
       </c>
-      <c r="W18" s="25">
+      <c r="W18" s="29">
         <f>V18*16</f>
         <v>1920</v>
       </c>
-      <c r="X18" s="25" t="s">
+      <c r="X18" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="31">
+      <c r="B19" s="35">
         <v>4</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="35">
         <v>20</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="35">
         <v>2000</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="29">
         <f>SUM(C$16:C19)*$J$14</f>
         <v>800</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="31">
         <f t="shared" si="2"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="29">
         <f>SUM(D$16:D19)*$J$14</f>
         <v>72000</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="31">
         <f t="shared" si="3"/>
         <v>14.3426294820717</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="38">
         <f>SUM(W4:W18)</f>
         <v>5020</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="31">
+      <c r="B20" s="35">
         <v>5</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="35">
         <v>40</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="35">
         <v>4000</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="29">
         <f>SUM(C$16:C20)*$J$14</f>
         <v>1600</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="31">
         <f t="shared" si="2"/>
         <v>17.0212765957447</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="29">
         <f>SUM(D$16:D20)*$J$14</f>
         <v>152000</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="31">
         <f t="shared" si="3"/>
         <v>30.2788844621514</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="31">
+      <c r="B21" s="35">
         <v>6</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="35">
         <v>60</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="35">
         <v>8000</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="29">
         <f>SUM(C$16:C21)*$J$14</f>
         <v>2800</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="31">
         <f t="shared" si="2"/>
         <v>29.7872340425532</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="29">
         <f>SUM(D$16:D21)*$J$14</f>
         <v>312000</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="31">
         <f t="shared" si="3"/>
         <v>62.1513944223108</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="31">
+      <c r="B22" s="35">
         <v>7</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="35">
         <v>100</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="35">
         <v>15000</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="29">
         <f>SUM(C$16:C22)*$J$14</f>
         <v>4800</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="31">
         <f t="shared" si="2"/>
         <v>51.063829787234</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="29">
         <f>SUM(D$16:D22)*$J$14</f>
         <v>612000</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="31">
         <f t="shared" si="3"/>
         <v>121.91235059761</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="31">
+      <c r="B23" s="35">
         <v>8</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="35">
         <v>150</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="35">
         <v>30000</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="29">
         <f>SUM(C$16:C23)*$J$14</f>
         <v>7800</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="31">
         <f t="shared" si="2"/>
         <v>82.9787234042553</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="29">
         <f>SUM(D$16:D23)*$J$14</f>
         <v>1212000</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="31">
         <f t="shared" si="3"/>
         <v>241.434262948207</v>
       </c>
-      <c r="V23" s="35"/>
+      <c r="V23" s="39"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="31">
+      <c r="B24" s="35">
         <v>9</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="35">
         <v>200</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="35">
         <v>45000</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="29">
         <f>SUM(C$16:C24)*$J$14</f>
         <v>11800</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="31">
         <f t="shared" si="2"/>
         <v>125.531914893617</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="29">
         <f>SUM(D$16:D24)*$J$14</f>
         <v>2112000</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="31">
         <f t="shared" si="3"/>
         <v>420.717131474104</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="31">
+      <c r="B25" s="35">
         <v>10</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="35">
         <v>300</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="35">
         <v>60000</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="29">
         <f>SUM(C$16:C25)*$J$14</f>
         <v>17800</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="31">
         <f t="shared" si="2"/>
         <v>189.36170212766</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="29">
         <f>SUM(D$16:D25)*$J$14</f>
         <v>3312000</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="31">
         <f t="shared" si="3"/>
         <v>659.760956175299</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="31">
+      <c r="B26" s="35">
         <v>11</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="35">
         <v>500</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="35">
         <v>80000</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="29">
         <f>SUM(C$16:C26)*$J$14</f>
         <v>27800</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="31">
         <f t="shared" si="2"/>
         <v>295.744680851064</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="29">
         <f>SUM(D$16:D26)*$J$14</f>
         <v>4912000</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="31">
         <f t="shared" si="3"/>
         <v>978.486055776892</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="29">
         <f>SUM(C16:C26)</f>
         <v>1390</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="29">
         <f>SUM(D16:D26)</f>
         <v>245600</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="25">
+      <c r="C29" s="29">
         <f>C27*22</f>
         <v>30580</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="25">
+      <c r="C30" s="29">
         <f>C29/J3</f>
         <v>2548.33333333333</v>
       </c>
@@ -6983,7 +8551,7 @@
       <c r="D2">
         <v>255</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="28">
         <f>C2/$D$2</f>
         <v>0</v>
       </c>
@@ -7014,7 +8582,7 @@
         <f>SUM(B$2:B3)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="28">
         <f>C3/$D$2</f>
         <v>0.0117647058823529</v>
       </c>
@@ -7048,7 +8616,7 @@
         <f>SUM(B$2:B4)</f>
         <v>9</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="28">
         <f t="shared" ref="E3:E19" si="0">C4/$D$2</f>
         <v>0.0352941176470588</v>
       </c>
@@ -7078,7 +8646,7 @@
         <f>SUM(B$2:B5)</f>
         <v>19</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>0.0745098039215686</v>
       </c>
@@ -7094,7 +8662,7 @@
         <f>SUM(B$2:B6)</f>
         <v>39</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>0.152941176470588</v>
       </c>
@@ -7126,7 +8694,7 @@
         <f>SUM(B$2:B7)</f>
         <v>89</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>0.349019607843137</v>
       </c>
@@ -7142,7 +8710,7 @@
         <f>SUM(B$2:B8)</f>
         <v>189</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>0.741176470588235</v>
       </c>
@@ -7158,7 +8726,7 @@
         <f>SUM(B$2:B9)</f>
         <v>389</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>1.52549019607843</v>
       </c>
@@ -7174,7 +8742,7 @@
         <f>SUM(B$2:B10)</f>
         <v>689</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>2.70196078431373</v>
       </c>
@@ -7190,7 +8758,7 @@
         <f>SUM(B$2:B11)</f>
         <v>1109</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>4.34901960784314</v>
       </c>
@@ -7206,7 +8774,7 @@
         <f>SUM(B$2:B12)</f>
         <v>1649</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>6.46666666666667</v>
       </c>
@@ -7222,7 +8790,7 @@
         <f>SUM(B$2:B13)</f>
         <v>2309</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
         <v>9.05490196078431</v>
       </c>
@@ -7238,7 +8806,7 @@
         <f>SUM(B$2:B14)</f>
         <v>3089</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="28">
         <f t="shared" si="0"/>
         <v>12.1137254901961</v>
       </c>
@@ -7254,7 +8822,7 @@
         <f>SUM(B$2:B15)</f>
         <v>3989</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>15.643137254902</v>
       </c>
@@ -7270,7 +8838,7 @@
         <f>SUM(B$2:B16)</f>
         <v>5189</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="28">
         <f t="shared" si="0"/>
         <v>20.3490196078431</v>
       </c>
@@ -7286,7 +8854,7 @@
         <f>SUM(B$2:B17)</f>
         <v>6789</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>26.6235294117647</v>
       </c>
@@ -7302,7 +8870,7 @@
         <f>SUM(B$2:B18)</f>
         <v>8989</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>35.2509803921569</v>
       </c>
@@ -7318,7 +8886,7 @@
         <f>SUM(B$2:B19)</f>
         <v>11989</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>47.0156862745098</v>
       </c>
@@ -7348,7 +8916,7 @@
       <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
@@ -7358,7 +8926,7 @@
         <f>VLOOKUP(C2,武将表!A:B,2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="7"/>
       <c r="G2" t="s">
         <v>78</v>
       </c>
@@ -7389,7 +8957,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I3" t="s">
@@ -7398,7 +8966,7 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L3" t="s">
@@ -7407,7 +8975,7 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="O3" t="s">
@@ -7416,7 +8984,7 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="R3" t="s">
@@ -7440,25 +9008,25 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
         <v>88</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="23" t="s">
         <v>89</v>
       </c>
       <c r="O4" t="s">
@@ -7467,7 +9035,7 @@
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="19" t="s">
         <v>91</v>
       </c>
       <c r="R4" t="s">
@@ -7484,7 +9052,7 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I5" t="s">
@@ -7493,7 +9061,7 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="10" t="s">
         <v>93</v>
       </c>
       <c r="L5" t="s">
@@ -7502,7 +9070,7 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="24" t="s">
         <v>95</v>
       </c>
       <c r="O5" t="s">
@@ -7511,7 +9079,7 @@
       <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="24" t="s">
         <v>95</v>
       </c>
       <c r="R5" t="s">
@@ -7528,7 +9096,7 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="11" t="s">
         <v>97</v>
       </c>
       <c r="I6" t="s">
@@ -7537,7 +9105,7 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L6" t="s">
@@ -7546,7 +9114,7 @@
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="25" t="s">
         <v>99</v>
       </c>
       <c r="O6" t="s">
@@ -7555,7 +9123,7 @@
       <c r="P6">
         <v>4</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="27" t="s">
         <v>101</v>
       </c>
       <c r="R6" t="s">
@@ -7569,11 +9137,11 @@
       </c>
     </row>
     <row r="7" spans="5:21">
-      <c r="E7" s="3"/>
+      <c r="E7" s="7"/>
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="I7" t="s">
@@ -7582,7 +9150,7 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="L7" t="s">
@@ -7591,7 +9159,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="19" t="s">
         <v>105</v>
       </c>
       <c r="O7" t="s">
@@ -7600,7 +9168,7 @@
       <c r="P7">
         <v>5</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="19" t="s">
         <v>105</v>
       </c>
       <c r="R7" t="s">
@@ -7614,7 +9182,7 @@
       </c>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>107</v>
       </c>
       <c r="C8" t="s">
@@ -7623,7 +9191,7 @@
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I8" t="s">
@@ -7632,7 +9200,7 @@
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L8" t="s">
@@ -7641,7 +9209,7 @@
       <c r="M8">
         <v>6</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="O8" t="s">
@@ -7650,7 +9218,7 @@
       <c r="P8">
         <v>6</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="R8" t="s">
@@ -7670,19 +9238,19 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="26" t="s">
         <v>109</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="26" t="s">
         <v>109</v>
       </c>
       <c r="M9">
@@ -7697,7 +9265,7 @@
       <c r="P9">
         <v>7</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="25" t="s">
         <v>99</v>
       </c>
       <c r="R9" t="s">
@@ -7717,25 +9285,25 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="M10">
         <v>8</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="27" t="s">
         <v>101</v>
       </c>
       <c r="O10" t="s">
@@ -7744,7 +9312,7 @@
       <c r="P10">
         <v>8</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="24" t="s">
         <v>95</v>
       </c>
       <c r="R10" t="s">
@@ -7761,7 +9329,7 @@
       <c r="G11">
         <v>9</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I11" t="s">
@@ -7770,7 +9338,7 @@
       <c r="J11">
         <v>9</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="10" t="s">
         <v>93</v>
       </c>
       <c r="L11" t="s">
@@ -7779,7 +9347,7 @@
       <c r="M11">
         <v>9</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="O11" t="s">
@@ -7788,7 +9356,7 @@
       <c r="P11">
         <v>9</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="27" t="s">
         <v>101</v>
       </c>
       <c r="R11" t="s">
@@ -7808,7 +9376,7 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="11" t="s">
         <v>97</v>
       </c>
       <c r="I12" t="s">
@@ -7817,7 +9385,7 @@
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L12" t="s">
@@ -7826,7 +9394,7 @@
       <c r="M12">
         <v>10</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="25" t="s">
         <v>99</v>
       </c>
       <c r="O12" t="s">
@@ -7852,13 +9420,13 @@
       <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>35</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I13" t="s">
@@ -7867,7 +9435,7 @@
       <c r="J13">
         <v>11</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L13" t="s">
@@ -7876,7 +9444,7 @@
       <c r="M13">
         <v>11</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="O13" t="s">
@@ -7885,7 +9453,7 @@
       <c r="P13">
         <v>11</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="25" t="s">
         <v>99</v>
       </c>
       <c r="R13" t="s">
@@ -7899,7 +9467,7 @@
       </c>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C14" t="s">
@@ -7909,31 +9477,31 @@
         <f>VLOOKUP(C14,武将表!A:B,2,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <v>75</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="M14">
         <v>12</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="19" t="s">
         <v>116</v>
       </c>
       <c r="O14" t="s">
@@ -7942,7 +9510,7 @@
       <c r="P14">
         <v>12</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="24" t="s">
         <v>95</v>
       </c>
       <c r="R14" t="s">
@@ -7956,7 +9524,7 @@
       </c>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C15" t="s">
@@ -7966,13 +9534,13 @@
         <f>VLOOKUP(C15,武将表!A:B,2,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
         <v>40</v>
       </c>
       <c r="G15">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I15" t="s">
@@ -7981,7 +9549,7 @@
       <c r="J15">
         <v>13</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="10" t="s">
         <v>93</v>
       </c>
       <c r="L15" t="s">
@@ -7990,7 +9558,7 @@
       <c r="M15">
         <v>13</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="24" t="s">
         <v>95</v>
       </c>
       <c r="O15" t="s">
@@ -8013,7 +9581,7 @@
       </c>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="14"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>95</v>
       </c>
@@ -8021,13 +9589,13 @@
         <f>VLOOKUP(C16,武将表!A:B,2,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="16">
         <v>40</v>
       </c>
       <c r="G16">
         <v>14</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="11" t="s">
         <v>97</v>
       </c>
       <c r="I16" t="s">
@@ -8036,7 +9604,7 @@
       <c r="J16">
         <v>14</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L16" t="s">
@@ -8045,7 +9613,7 @@
       <c r="M16">
         <v>14</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="27" t="s">
         <v>101</v>
       </c>
       <c r="O16" t="s">
@@ -8054,7 +9622,7 @@
       <c r="P16">
         <v>14</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="27" t="s">
         <v>101</v>
       </c>
       <c r="R16" t="s">
@@ -8068,7 +9636,7 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="14"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>101</v>
       </c>
@@ -8076,13 +9644,13 @@
         <f>VLOOKUP(C17,武将表!A:B,2,FALSE)</f>
         <v>136</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>40</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="19" t="s">
         <v>116</v>
       </c>
       <c r="I17" t="s">
@@ -8091,7 +9659,7 @@
       <c r="J17">
         <v>15</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="23" t="s">
         <v>89</v>
       </c>
       <c r="L17" t="s">
@@ -8100,7 +9668,7 @@
       <c r="M17">
         <v>15</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="21" t="s">
         <v>121</v>
       </c>
       <c r="O17" t="s">
@@ -8109,7 +9677,7 @@
       <c r="P17">
         <v>15</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="25" t="s">
         <v>99</v>
       </c>
       <c r="R17" t="s">
@@ -8123,7 +9691,7 @@
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="14"/>
+      <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>99</v>
       </c>
@@ -8131,13 +9699,13 @@
         <f>VLOOKUP(C18,武将表!A:B,2,FALSE)</f>
         <v>82</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>40</v>
       </c>
       <c r="G18">
         <v>16</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I18" t="s">
@@ -8146,7 +9714,7 @@
       <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L18" t="s">
@@ -8155,7 +9723,7 @@
       <c r="M18">
         <v>16</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="8" t="s">
         <v>85</v>
       </c>
       <c r="O18" t="s">
@@ -8178,20 +9746,20 @@
       </c>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="14"/>
+      <c r="B19" s="18"/>
       <c r="G19">
         <v>17</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J19">
         <v>17</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="24" t="s">
         <v>95</v>
       </c>
       <c r="L19" t="s">
@@ -8200,7 +9768,7 @@
       <c r="M19">
         <v>17</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="27" t="s">
         <v>101</v>
       </c>
       <c r="O19" t="s">
@@ -8209,7 +9777,7 @@
       <c r="P19">
         <v>17</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="27" t="s">
         <v>101</v>
       </c>
       <c r="R19" t="s">
@@ -8230,13 +9798,13 @@
         <f>VLOOKUP(C20,武将表!A:B,2,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="15">
         <v>10</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I20" t="s">
@@ -8245,7 +9813,7 @@
       <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="10" t="s">
         <v>93</v>
       </c>
       <c r="L20" t="s">
@@ -8254,7 +9822,7 @@
       <c r="M20">
         <v>18</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="25" t="s">
         <v>99</v>
       </c>
       <c r="O20" t="s">
@@ -8263,7 +9831,7 @@
       <c r="P20">
         <v>18</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="25" t="s">
         <v>99</v>
       </c>
       <c r="R20" t="s">
@@ -8284,13 +9852,13 @@
         <f>VLOOKUP(C21,武将表!A:B,2,FALSE)</f>
         <v>46</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>10</v>
       </c>
       <c r="G21">
         <v>19</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="20" t="s">
         <v>123</v>
       </c>
       <c r="I21" t="s">
@@ -8299,7 +9867,7 @@
       <c r="J21">
         <v>19</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="20" t="s">
         <v>125</v>
       </c>
       <c r="L21" t="s">
@@ -8308,7 +9876,7 @@
       <c r="M21">
         <v>19</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="24" t="s">
         <v>95</v>
       </c>
       <c r="O21" t="s">
@@ -8317,7 +9885,7 @@
       <c r="P21">
         <v>19</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="24" t="s">
         <v>95</v>
       </c>
       <c r="R21" t="s">
@@ -8338,13 +9906,13 @@
         <f>VLOOKUP(C22,武将表!A:B,2,FALSE)</f>
         <v>66</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="15">
         <v>10</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I22" t="s">
@@ -8353,7 +9921,7 @@
       <c r="J22">
         <v>20</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="27" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -8362,7 +9930,7 @@
       <c r="M22">
         <v>20</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="25" t="s">
         <v>99</v>
       </c>
       <c r="O22" t="s">
@@ -8371,7 +9939,7 @@
       <c r="P22">
         <v>20</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="8" t="s">
         <v>85</v>
       </c>
       <c r="R22" t="s">
@@ -8385,7 +9953,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C23" t="s">
@@ -8395,12 +9963,12 @@
         <f>VLOOKUP(C23,武将表!A:B,2,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>128</v>
       </c>
       <c r="C24" t="s">
@@ -8410,7 +9978,7 @@
         <f>VLOOKUP(C24,武将表!A:B,2,FALSE)</f>
         <v>79</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="15">
         <v>5</v>
       </c>
     </row>
@@ -8418,7 +9986,7 @@
       <c r="B26" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="15">
         <v>35</v>
       </c>
     </row>
@@ -8426,7 +9994,7 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>10</v>
       </c>
     </row>
@@ -8434,7 +10002,7 @@
       <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="15">
         <v>10</v>
       </c>
     </row>
@@ -8442,7 +10010,7 @@
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>10</v>
       </c>
     </row>
@@ -8450,7 +10018,7 @@
       <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="15">
         <v>10</v>
       </c>
     </row>
@@ -8458,7 +10026,7 @@
       <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="15">
         <v>5</v>
       </c>
     </row>
@@ -8466,7 +10034,7 @@
       <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="15">
         <v>5</v>
       </c>
     </row>
@@ -8474,31 +10042,31 @@
       <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="14"/>
+      <c r="B35" s="18"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="14"/>
+      <c r="B36" s="18"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="14"/>
+      <c r="B37" s="18"/>
       <c r="E37">
         <f>SUM(E13:E34)</f>
         <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="14"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="14"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="14"/>
+      <c r="B40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15841,7 +17409,7 @@
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -15914,15 +17482,163 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="4" spans="10:10">
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="D14" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="16" spans="8:16">
+      <c r="H16" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14">
+      <c r="H18" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14">
+      <c r="H20" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" activeTab="8"/>
+    <workbookView windowWidth="20925" windowHeight="9840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1061">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -3102,13 +3102,10 @@
     <t>材料</t>
   </si>
   <si>
-    <t>1星~11星</t>
-  </si>
-  <si>
     <t>碎片</t>
   </si>
   <si>
-    <t>1品~5品</t>
+    <t>觉醒</t>
   </si>
   <si>
     <t>成就</t>
@@ -3124,6 +3121,9 @@
   </si>
   <si>
     <t>亲密度</t>
+  </si>
+  <si>
+    <t>装备</t>
   </si>
   <si>
     <t>时长</t>
@@ -3212,12 +3212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3332,9 +3332,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3348,60 +3392,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3422,9 +3423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3432,14 +3433,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3455,7 +3448,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3463,14 +3471,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3575,25 +3575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3605,13 +3587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3629,6 +3605,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3641,13 +3713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,13 +3725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3677,13 +3737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3695,67 +3749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3780,6 +3780,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3814,15 +3829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3847,17 +3853,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3873,11 +3875,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3889,10 +3889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3901,34 +3901,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3937,97 +3937,97 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4116,7 +4116,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4125,7 +4125,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4134,7 +4134,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -4173,19 +4173,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5717,6 +5717,100 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4905375" y="1190625"/>
+          <a:ext cx="1238250" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4908550" y="695325"/>
+          <a:ext cx="1292225" cy="3308350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17406,10 +17500,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C16"/>
+  <dimension ref="B3:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -17429,10 +17523,10 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -17442,25 +17536,25 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="3:3">
@@ -17470,6 +17564,14 @@
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -17484,8 +17586,8 @@
   <sheetPr/>
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17552,7 +17654,7 @@
         <v>1042</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="4:4">

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" activeTab="7"/>
+    <workbookView windowWidth="20925" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -3212,12 +3212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3340,7 +3340,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3354,16 +3406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3386,15 +3431,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3408,71 +3468,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3575,19 +3575,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,7 +3617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3611,61 +3629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3683,6 +3647,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3695,55 +3683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3756,6 +3714,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3780,6 +3780,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3829,55 +3873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3889,10 +3889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3904,134 +3904,134 @@
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4117,6 +4117,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6109,16 +6115,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="29"/>
+    <col min="1" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6140,1386 +6146,1386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.55833333333333" style="30" customWidth="1"/>
-    <col min="2" max="2" width="7" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" style="29" customWidth="1"/>
-    <col min="4" max="9" width="8.89166666666667" style="29" customWidth="1"/>
-    <col min="10" max="10" width="2.10833333333333" style="44" customWidth="1"/>
-    <col min="11" max="11" width="4.225" style="29" customWidth="1"/>
-    <col min="12" max="16" width="9" style="29"/>
-    <col min="17" max="17" width="4.44166666666667" style="29" customWidth="1"/>
-    <col min="18" max="19" width="9" style="29"/>
-    <col min="20" max="20" width="10.1083333333333" style="29" customWidth="1"/>
-    <col min="21" max="21" width="4" style="29" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="5.55833333333333" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="31" customWidth="1"/>
+    <col min="4" max="9" width="8.89166666666667" style="31" customWidth="1"/>
+    <col min="10" max="10" width="2.10833333333333" style="46" customWidth="1"/>
+    <col min="11" max="11" width="4.225" style="31" customWidth="1"/>
+    <col min="12" max="16" width="9" style="31"/>
+    <col min="17" max="17" width="4.44166666666667" style="31" customWidth="1"/>
+    <col min="18" max="19" width="9" style="31"/>
+    <col min="20" max="20" width="10.1083333333333" style="31" customWidth="1"/>
+    <col min="21" max="21" width="4" style="31" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46">
+      <c r="D1" s="48">
         <v>1</v>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="48">
         <v>2</v>
       </c>
-      <c r="F1" s="46">
+      <c r="F1" s="48">
         <v>3</v>
       </c>
-      <c r="G1" s="46">
+      <c r="G1" s="48">
         <v>4</v>
       </c>
-      <c r="H1" s="46">
+      <c r="H1" s="48">
         <v>5</v>
       </c>
-      <c r="I1" s="46">
+      <c r="I1" s="48">
         <v>6</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="31">
         <v>2</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="48">
         <f>T3</f>
         <v>250</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="48">
         <f>T4</f>
         <v>375</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="48">
         <f>T5</f>
         <v>500</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="48">
         <f>T6</f>
         <v>625</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="48">
         <f>T7</f>
         <v>750</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="48">
         <f>T8</f>
         <v>875</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="46">
+      <c r="B3" s="48">
         <v>1</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="48">
         <f t="shared" ref="C3:C8" si="0">O3</f>
         <v>50</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="49">
         <f>D$2/$C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="49">
         <f>E$2/$C3</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="49">
         <f>F$2/$C3</f>
         <v>10</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="49">
         <f>G$2/$C3</f>
         <v>12.5</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="49">
         <f>H$2/$C3</f>
         <v>15</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="49">
         <f>I$2/$C3</f>
         <v>17.5</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="51">
         <v>1</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="31">
         <v>50</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="31">
         <v>0</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="31">
         <f>L3*$N$1</f>
         <v>100</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="52">
         <f t="shared" ref="O3:O8" si="1">M3*N3+(1-M3)*L3</f>
         <v>50</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="51">
         <v>1</v>
       </c>
-      <c r="R3" s="52">
+      <c r="R3" s="54">
         <v>250</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="31">
         <v>0</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3" s="52">
         <f t="shared" ref="T3:T8" si="2">R3*(1+S3)</f>
         <v>250</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="W3" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="46">
+      <c r="B4" s="48">
         <v>2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="48">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="49">
         <f>D$2/$C4</f>
         <v>3.17460317460317</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="49">
         <f>E$2/$C4</f>
         <v>4.76190476190476</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="49">
         <f>F$2/$C4</f>
         <v>6.34920634920635</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="49">
         <f>G$2/$C4</f>
         <v>7.93650793650794</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="49">
         <f>H$2/$C4</f>
         <v>9.52380952380952</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="49">
         <f>I$2/$C4</f>
         <v>11.1111111111111</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="51">
         <v>2</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="31">
         <v>75</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="31">
         <v>0.05</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="31">
         <f>L4*$N$1</f>
         <v>150</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="52">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="51">
         <v>2</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="54">
         <f>R3+125</f>
         <v>375</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="31">
         <v>0</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4" s="52">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="46">
+      <c r="B5" s="48">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="48">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="49">
         <f>D$2/$C5</f>
         <v>2.27272727272727</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="49">
         <f>E$2/$C5</f>
         <v>3.40909090909091</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="49">
         <f>F$2/$C5</f>
         <v>4.54545454545455</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="49">
         <f>G$2/$C5</f>
         <v>5.68181818181818</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="49">
         <f>H$2/$C5</f>
         <v>6.81818181818182</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="49">
         <f>I$2/$C5</f>
         <v>7.95454545454545</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="51">
         <v>3</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="31">
         <v>100</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="31">
         <v>0.1</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="31">
         <f>L5*$N$1</f>
         <v>200</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="52">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="51">
         <v>3</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="54">
         <f>R4+125</f>
         <v>500</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="31">
         <v>0</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="52">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="46">
+      <c r="B6" s="48">
         <v>4</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="48">
         <f t="shared" si="0"/>
         <v>143.75</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="49">
         <f>D$2/$C6</f>
         <v>1.73913043478261</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="49">
         <f>E$2/$C6</f>
         <v>2.60869565217391</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="49">
         <f>F$2/$C6</f>
         <v>3.47826086956522</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="49">
         <f>G$2/$C6</f>
         <v>4.34782608695652</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="49">
         <f>H$2/$C6</f>
         <v>5.21739130434783</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="49">
         <f>I$2/$C6</f>
         <v>6.08695652173913</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="51">
         <v>4</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="31">
         <v>125</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="31">
         <v>0.15</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="31">
         <f>L6*$N$1</f>
         <v>250</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="52">
         <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="51">
         <v>4</v>
       </c>
-      <c r="R6" s="52">
+      <c r="R6" s="54">
         <f>R5+125</f>
         <v>625</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="31">
         <v>0</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="52">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="46">
+      <c r="B7" s="48">
         <v>5</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="48">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="49">
         <f>D$2/$C7</f>
         <v>1.38888888888889</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="49">
         <f>E$2/$C7</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="49">
         <f>F$2/$C7</f>
         <v>2.77777777777778</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="49">
         <f>G$2/$C7</f>
         <v>3.47222222222222</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="49">
         <f>H$2/$C7</f>
         <v>4.16666666666667</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="49">
         <f>I$2/$C7</f>
         <v>4.86111111111111</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="51">
         <v>5</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="31">
         <v>150</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="31">
         <v>0.2</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="31">
         <f>L7*$N$1</f>
         <v>300</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="52">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="51">
         <v>5</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="54">
         <f>R6+125</f>
         <v>750</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="31">
         <v>0</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="52">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="46">
+      <c r="B8" s="48">
         <v>6</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="48">
         <f t="shared" si="0"/>
         <v>218.75</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="49">
         <f>D$2/$C8</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="49">
         <f>E$2/$C8</f>
         <v>1.71428571428571</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="49">
         <f>F$2/$C8</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="49">
         <f>G$2/$C8</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="49">
         <f>H$2/$C8</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="49">
         <f>I$2/$C8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="51">
         <v>6</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="31">
         <v>175</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="31">
         <v>0.25</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="31">
         <f>L8*$N$1</f>
         <v>350</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="52">
         <f t="shared" si="1"/>
         <v>218.75</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="51">
         <v>6</v>
       </c>
-      <c r="R8" s="52">
+      <c r="R8" s="54">
         <f>R7+125</f>
         <v>875</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="31">
         <v>0</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="52">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="48">
         <v>1</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="48">
         <v>2</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="48">
         <v>3</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="48">
         <v>4</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="48">
         <v>5</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="48">
         <v>6</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="48">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="48">
         <f>T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="48">
         <f>T14</f>
         <v>588.235294117647</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="48">
         <f>T15</f>
         <v>781.25</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="48">
         <f>T16</f>
         <v>1000</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="48">
         <f>T17</f>
         <v>1250</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49" t="s">
+      <c r="K11" s="51"/>
+      <c r="L11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="49" t="s">
+      <c r="N11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49" t="s">
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="49" t="s">
+      <c r="T11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="46">
+      <c r="B12" s="48">
         <v>1</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="50">
         <f t="shared" ref="C12:C17" si="3">O12</f>
         <v>51.25</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="49">
         <f t="shared" ref="D12:D17" si="4">D$11/$C12</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="49">
         <f t="shared" ref="E12:E17" si="5">E$11/$C12</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="49">
         <f t="shared" ref="F12:F17" si="6">F$11/$C12</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="49">
         <f t="shared" ref="G12:G17" si="7">G$11/$C12</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="49">
         <f t="shared" ref="H12:H17" si="8">H$11/$C12</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="49">
         <f t="shared" ref="I12:I17" si="9">I$11/$C12</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="51">
         <v>1</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="31">
         <f t="shared" ref="L12:L17" si="10">L3</f>
         <v>50</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="31">
         <v>0.05</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="33">
         <f t="shared" ref="N12:N17" si="11">L12*$N$10</f>
         <v>75</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="53">
         <f>M3*N3+M12*N12+(1-M12-M3)*L12</f>
         <v>51.25</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="51">
         <v>1</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="33">
         <f t="shared" ref="R12:R17" si="12">T3</f>
         <v>250</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="31">
         <v>0.05</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="52">
         <f>R12/(1-S12)</f>
         <v>263.157894736842</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="46">
+      <c r="B13" s="48">
         <v>2</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="50">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="49">
         <f t="shared" si="4"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="49">
         <f t="shared" si="5"/>
         <v>5.05050505050505</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="49">
         <f t="shared" si="6"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="49">
         <f t="shared" si="7"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="49">
         <f t="shared" si="8"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="49">
         <f t="shared" si="9"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="51">
         <v>2</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="31">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="31">
         <v>0.1</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="33">
         <f t="shared" si="11"/>
         <v>112.5</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="53">
         <f t="shared" ref="O12:O17" si="13">M4*N4+M13*N13+(1-M13-M4)*L13</f>
         <v>82.5</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="51">
         <v>2</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="33">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="31">
         <v>0.1</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13" s="52">
         <f t="shared" ref="T12:T17" si="14">R13/(1-S13)</f>
         <v>416.666666666667</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="46">
+      <c r="B14" s="48">
         <v>3</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="50">
         <f t="shared" si="3"/>
         <v>117.5</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="49">
         <f t="shared" si="4"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="49">
         <f t="shared" si="5"/>
         <v>3.54609929078014</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="49">
         <f t="shared" si="6"/>
         <v>5.00625782227785</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="49">
         <f t="shared" si="7"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="49">
         <f t="shared" si="8"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="49">
         <f t="shared" si="9"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="51">
         <v>3</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="31">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="31">
         <v>0.15</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="33">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="53">
         <f t="shared" si="13"/>
         <v>117.5</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="51">
         <v>3</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="33">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="31">
         <v>0.15</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="52">
         <f t="shared" si="14"/>
         <v>588.235294117647</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="46">
+      <c r="B15" s="48">
         <v>4</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="50">
         <f t="shared" si="3"/>
         <v>156.25</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="49">
         <f t="shared" si="4"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="49">
         <f t="shared" si="5"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="49">
         <f t="shared" si="6"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="49">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="49">
         <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="49">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="51">
         <v>4</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="31">
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="31">
         <v>0.2</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="33">
         <f t="shared" si="11"/>
         <v>187.5</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="53">
         <f t="shared" si="13"/>
         <v>156.25</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="51">
         <v>4</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="33">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="31">
         <v>0.2</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="52">
         <f t="shared" si="14"/>
         <v>781.25</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="46">
+      <c r="B16" s="48">
         <v>5</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="50">
         <f t="shared" si="3"/>
         <v>198.75</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="49">
         <f t="shared" si="4"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="49">
         <f t="shared" si="5"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="49">
         <f t="shared" si="6"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="49">
         <f t="shared" si="7"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="49">
         <f t="shared" si="8"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="49">
         <f t="shared" si="9"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="51">
         <v>5</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="31">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="31">
         <v>0.25</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="33">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="53">
         <f t="shared" si="13"/>
         <v>198.75</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="51">
         <v>5</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="33">
         <f t="shared" si="12"/>
         <v>750</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="31">
         <v>0.25</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16" s="52">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="46">
+      <c r="B17" s="48">
         <v>6</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="50">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="49">
         <f t="shared" si="4"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="49">
         <f t="shared" si="5"/>
         <v>1.70068027210884</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="49">
         <f t="shared" si="6"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="49">
         <f t="shared" si="7"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="49">
         <f t="shared" si="8"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="49">
         <f t="shared" si="9"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="51">
         <v>6</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="31">
         <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="31">
         <v>0.3</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="33">
         <f t="shared" si="11"/>
         <v>262.5</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="53">
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="51">
         <v>6</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="33">
         <f t="shared" si="12"/>
         <v>875</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="31">
         <v>0.3</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17" s="52">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="48">
         <v>1</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="48">
         <v>2</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="48">
         <v>3</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="48">
         <v>4</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="48">
         <v>5</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="48">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="48">
         <f>S21</f>
         <v>394.736842105263</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="48">
         <f>S22</f>
         <v>625.000000000001</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="48">
         <f>S23</f>
         <v>882.35294117647</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="48">
         <f>S24</f>
         <v>1171.875</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="48">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="48">
         <f>S26</f>
         <v>1875</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49" t="s">
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="46">
+      <c r="B21" s="48">
         <v>1</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="50">
         <f t="shared" ref="C21:C26" si="15">M21</f>
         <v>76.875</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="49">
         <f t="shared" ref="D21:D26" si="16">D$20/$C21</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="49">
         <f t="shared" ref="E21:E26" si="17">E$20/$C21</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="49">
         <f t="shared" ref="F21:F26" si="18">F$20/$C21</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="49">
         <f t="shared" ref="G21:G26" si="19">G$20/$C21</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="49">
         <f t="shared" ref="H21:H26" si="20">H$20/$C21</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="49">
         <f t="shared" ref="I21:I26" si="21">I$20/$C21</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="51">
         <v>1</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="33">
         <f>O12</f>
         <v>51.25</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="33">
         <f t="shared" ref="M21:M26" si="22">L21*1.5</f>
         <v>76.875</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="51">
         <v>1</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="33">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="33">
         <f>R21*1.5</f>
         <v>394.736842105263</v>
       </c>
-      <c r="T21" s="31"/>
+      <c r="T21" s="33"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="46">
+      <c r="B22" s="48">
         <v>2</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="50">
         <f t="shared" si="15"/>
         <v>123.75</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="49">
         <f t="shared" si="16"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="49">
         <f t="shared" si="17"/>
         <v>5.05050505050506</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="49">
         <f t="shared" si="18"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="49">
         <f t="shared" si="19"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="49">
         <f t="shared" si="20"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="49">
         <f t="shared" si="21"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="51">
         <v>2</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="33">
         <f>O13</f>
         <v>82.5</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="33">
         <f t="shared" si="22"/>
         <v>123.75</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="51">
         <v>2</v>
       </c>
-      <c r="R22" s="31">
+      <c r="R22" s="33">
         <f t="shared" ref="R21:R26" si="23">T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="S22" s="31">
+      <c r="S22" s="33">
         <f t="shared" ref="S21:S26" si="24">R22*1.5</f>
         <v>625.000000000001</v>
       </c>
-      <c r="T22" s="31"/>
+      <c r="T22" s="33"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="46">
+      <c r="B23" s="48">
         <v>3</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="50">
         <f t="shared" si="15"/>
         <v>176.25</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="49">
         <f t="shared" si="16"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="49">
         <f t="shared" si="17"/>
         <v>3.54609929078015</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="49">
         <f t="shared" si="18"/>
         <v>5.00625782227784</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="49">
         <f t="shared" si="19"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="49">
         <f t="shared" si="20"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="49">
         <f t="shared" si="21"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="51">
         <v>3</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="33">
         <f t="shared" ref="L21:L26" si="25">O14</f>
         <v>117.5</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="33">
         <f t="shared" si="22"/>
         <v>176.25</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="51">
         <v>3</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="33">
         <f t="shared" si="23"/>
         <v>588.235294117647</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="33">
         <f t="shared" si="24"/>
         <v>882.35294117647</v>
       </c>
-      <c r="T23" s="31"/>
+      <c r="T23" s="33"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="46">
+      <c r="B24" s="48">
         <v>4</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="50">
         <f t="shared" si="15"/>
         <v>234.375</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="49">
         <f t="shared" si="16"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="49">
         <f t="shared" si="17"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="49">
         <f t="shared" si="18"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="49">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="49">
         <f t="shared" si="20"/>
         <v>6.4</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="49">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="51">
         <v>4</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="33">
         <f t="shared" si="25"/>
         <v>156.25</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="33">
         <f t="shared" si="22"/>
         <v>234.375</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="51">
         <v>4</v>
       </c>
-      <c r="R24" s="31">
+      <c r="R24" s="33">
         <f t="shared" si="23"/>
         <v>781.25</v>
       </c>
-      <c r="S24" s="31">
+      <c r="S24" s="33">
         <f t="shared" si="24"/>
         <v>1171.875</v>
       </c>
-      <c r="T24" s="31"/>
+      <c r="T24" s="33"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="46">
+      <c r="B25" s="48">
         <v>5</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="50">
         <f t="shared" si="15"/>
         <v>298.125</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="49">
         <f t="shared" si="16"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="49">
         <f t="shared" si="17"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="49">
         <f t="shared" si="18"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="49">
         <f t="shared" si="19"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="49">
         <f t="shared" si="20"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="49">
         <f t="shared" si="21"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="51">
         <v>5</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="33">
         <f t="shared" si="25"/>
         <v>198.75</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="33">
         <f t="shared" si="22"/>
         <v>298.125</v>
       </c>
-      <c r="Q25" s="49">
+      <c r="Q25" s="51">
         <v>5</v>
       </c>
-      <c r="R25" s="31">
+      <c r="R25" s="33">
         <f t="shared" si="23"/>
         <v>1000</v>
       </c>
-      <c r="S25" s="31">
+      <c r="S25" s="33">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="T25" s="31"/>
+      <c r="T25" s="33"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="46">
+      <c r="B26" s="48">
         <v>6</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="50">
         <f t="shared" si="15"/>
         <v>367.5</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="49">
         <f t="shared" si="16"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="49">
         <f t="shared" si="17"/>
         <v>1.70068027210885</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="49">
         <f t="shared" si="18"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="49">
         <f t="shared" si="19"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="49">
         <f t="shared" si="20"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="49">
         <f t="shared" si="21"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="51">
         <v>6</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="33">
         <f t="shared" si="25"/>
         <v>245</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="33">
         <f t="shared" si="22"/>
         <v>367.5</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="51">
         <v>6</v>
       </c>
-      <c r="R26" s="31">
+      <c r="R26" s="33">
         <f t="shared" si="23"/>
         <v>1250</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="33">
         <f t="shared" si="24"/>
         <v>1875</v>
       </c>
-      <c r="T26" s="31"/>
+      <c r="T26" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7539,43 +7545,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="29"/>
+    <col min="1" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="31">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="31">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7596,991 +7602,991 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.89166666666667" style="29"/>
-    <col min="3" max="3" width="9.10833333333333" style="29" customWidth="1"/>
-    <col min="4" max="4" width="9" style="29"/>
-    <col min="5" max="5" width="9" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="7.55833333333333" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.775" style="29" customWidth="1"/>
-    <col min="9" max="9" width="9.10833333333333" style="29"/>
-    <col min="10" max="10" width="9.25" style="29"/>
-    <col min="11" max="11" width="8.75" style="29" customWidth="1"/>
-    <col min="12" max="26" width="8.89166666666667" style="29"/>
-    <col min="27" max="27" width="9" style="29"/>
-    <col min="28" max="16384" width="8.89166666666667" style="29"/>
+    <col min="1" max="2" width="8.89166666666667" style="31"/>
+    <col min="3" max="3" width="9.10833333333333" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9" style="31"/>
+    <col min="5" max="5" width="9" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="7.55833333333333" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.775" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.10833333333333" style="31"/>
+    <col min="10" max="10" width="9.25" style="31"/>
+    <col min="11" max="11" width="8.75" style="31" customWidth="1"/>
+    <col min="12" max="26" width="8.89166666666667" style="31"/>
+    <col min="27" max="27" width="9" style="31"/>
+    <col min="28" max="16384" width="8.89166666666667" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>6</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="31">
         <v>22</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="31">
         <v>5</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="32">
         <v>0.5</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="31">
         <v>500</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="31">
         <v>24</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="32">
         <f>F3*I3</f>
         <v>12</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="31">
         <f>G3*J3</f>
         <v>6000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="31">
         <f>J3*7+U15</f>
         <v>94</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="31">
         <v>12</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="38">
         <v>1</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="38">
         <v>2</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="38">
         <v>3</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="38">
         <v>4</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="38">
         <v>5</v>
       </c>
-      <c r="U3" s="36">
+      <c r="U3" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="29">
+      <c r="B4" s="31">
         <v>5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="31">
         <v>55</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <v>2</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <v>10</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="32">
         <v>1</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="31">
         <v>200</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="33">
         <f>(F4/E4)/(F3/E3)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="31">
         <v>24</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="32">
         <f>F4*I4</f>
         <v>24</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="31">
         <f>G4*J4</f>
         <v>4800</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="31">
         <f>J4*7+T14*2</f>
         <v>188</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="40" t="s">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="29">
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="29">
+      <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="31">
         <v>98</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="31">
         <v>4</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>10</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="32">
         <v>1</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="31">
         <v>100</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="33">
         <f>(F5/E5)/(F$4/E$4)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="31">
         <v>24</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="32">
         <f>F5*I5</f>
         <v>24</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="31">
         <f>G5*J5</f>
         <v>2400</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="31">
         <f>J5*7+S15+S14*2</f>
         <v>168</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="40" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="29">
+      <c r="U5" s="39"/>
+      <c r="V5" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="32">
+      <c r="B6" s="34">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="34">
         <v>261</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <v>10</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="34">
         <v>5</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="35">
         <v>0.75</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="34">
         <v>50</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="36">
         <f>(F6/E6)/(F$5/E$5)</f>
         <v>1.5</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="34">
         <v>24</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="35">
         <f t="shared" ref="J6:J12" si="0">F6*I6</f>
         <v>18</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="34">
         <f t="shared" ref="K6:K12" si="1">G6*J6</f>
         <v>900</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="34">
         <f>J6*7+Q14*2+R15</f>
         <v>141</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="40" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="29">
+      <c r="U6" s="39"/>
+      <c r="V6" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:23">
-      <c r="B7" s="32">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="34">
         <v>364</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34">
         <v>13</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="34">
         <v>5</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="35">
         <v>1</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="34">
         <v>20</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="36">
         <f>(F7/E7)/(F6/E6)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="34">
         <v>24</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="35">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="34">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="34">
         <f>J7*7</f>
         <v>168</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="40" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="T7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="31">
         <v>50</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="31">
         <f>V7*玩家等级!H6</f>
         <v>2300</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="32">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="34">
         <v>91</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34">
         <v>0</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32">
+      <c r="F8" s="35"/>
+      <c r="G8" s="34">
         <v>10</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="O8" s="37" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="O8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="40" t="s">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="T8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="40" t="s">
+      <c r="U8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="29">
+      <c r="C9" s="31">
         <f>SUM(C3:C8)</f>
         <v>891</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <f>SUM(E3:E8)</f>
         <v>35</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="K9" s="38">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="K9" s="40">
         <f>SUM(K3:K8)</f>
         <v>14580</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="40" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="40" t="s">
+      <c r="U9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="31">
         <v>4</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="31">
         <v>16</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <v>15</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="32">
         <v>1</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="31">
         <v>10</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="33">
         <f>(F11/E11)/(F$4/E$4)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="41">
         <v>12</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="31">
         <f>F11*I11</f>
         <v>12</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="31">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="31">
         <f>J11*7</f>
         <v>84</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="31">
         <v>3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>10</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <v>10</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="32">
         <v>1</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="31">
         <v>5</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="33">
         <f>(F12/E12)/(F$5/E$5)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="41">
         <v>12</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="31">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="31">
         <f>J12*7</f>
         <v>84</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="38">
         <v>1</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="38">
         <v>2</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="43">
         <v>3</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="38">
         <v>5</v>
       </c>
-      <c r="U12" s="36">
+      <c r="U12" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="14:27">
-      <c r="N13" s="29">
+      <c r="N13" s="31">
         <v>12</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="42" t="s">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="29">
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="31">
         <v>50</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="31">
         <f>V13*16</f>
         <v>800</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13" s="31">
         <f>1.5*60*60</f>
         <v>5400</v>
       </c>
     </row>
     <row r="14" spans="9:27">
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="31">
         <v>20</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="31">
         <f>W19</f>
         <v>5020</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="40">
+      <c r="P14" s="39"/>
+      <c r="Q14" s="42">
         <v>5</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="42">
         <v>5</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="40">
+      <c r="S14" s="39"/>
+      <c r="T14" s="42">
         <v>10</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="29">
+      <c r="U14" s="39"/>
+      <c r="V14" s="31">
         <v>300</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="31">
         <v>98</v>
       </c>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="29">
+      <c r="AA14" s="31">
         <f>3.5*24*60*60</f>
         <v>302400</v>
       </c>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="40">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="42">
         <v>5</v>
       </c>
-      <c r="R15" s="40">
+      <c r="R15" s="42">
         <v>5</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="40">
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="42">
         <v>10</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="31">
         <v>1000</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="31">
         <v>298</v>
       </c>
-      <c r="Y15" s="29" t="s">
+      <c r="Y15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="31">
         <f>7*24*60*60</f>
         <v>604800</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="35">
+      <c r="B16" s="37">
         <v>1</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="37">
         <v>5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="37">
         <v>100</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="31">
         <f>SUM(C$16:C16)*$J$14</f>
         <v>100</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="33">
         <f>F16/$L$3</f>
         <v>1.06382978723404</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="31">
         <f>SUM(D$16:D16)*$J$14</f>
         <v>2000</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="33">
         <f>J16/$L$14</f>
         <v>0.398406374501992</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="35">
+      <c r="B17" s="37">
         <v>2</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="37">
         <v>5</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="37">
         <v>500</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="31">
         <f>SUM(C$16:C17)*$J$14</f>
         <v>200</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="33">
         <f t="shared" ref="G17:G26" si="2">F17/$L$3</f>
         <v>2.12765957446808</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="31">
         <f>SUM(D$16:D17)*$J$14</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="33">
         <f t="shared" ref="K17:K26" si="3">J17/$L$14</f>
         <v>2.39043824701195</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="35">
+      <c r="B18" s="37">
         <v>3</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="37">
         <v>10</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="37">
         <v>1000</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="31">
         <f>SUM(C$16:C18)*$J$14</f>
         <v>400</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="33">
         <f t="shared" si="2"/>
         <v>4.25531914893617</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="31">
         <f>SUM(D$16:D18)*$J$14</f>
         <v>32000</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="33">
         <f t="shared" si="3"/>
         <v>6.37450199203187</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="31">
         <f>((100+20)/2)*2</f>
         <v>120</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="31">
         <f>V18*16</f>
         <v>1920</v>
       </c>
-      <c r="X18" s="29" t="s">
+      <c r="X18" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="35">
+      <c r="B19" s="37">
         <v>4</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="37">
         <v>20</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="37">
         <v>2000</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="31">
         <f>SUM(C$16:C19)*$J$14</f>
         <v>800</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="33">
         <f t="shared" si="2"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="31">
         <f>SUM(D$16:D19)*$J$14</f>
         <v>72000</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="33">
         <f t="shared" si="3"/>
         <v>14.3426294820717</v>
       </c>
-      <c r="W19" s="38">
+      <c r="W19" s="40">
         <f>SUM(W4:W18)</f>
         <v>5020</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="35">
+      <c r="B20" s="37">
         <v>5</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="37">
         <v>40</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="37">
         <v>4000</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="31">
         <f>SUM(C$16:C20)*$J$14</f>
         <v>1600</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="33">
         <f t="shared" si="2"/>
         <v>17.0212765957447</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="31">
         <f>SUM(D$16:D20)*$J$14</f>
         <v>152000</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="33">
         <f t="shared" si="3"/>
         <v>30.2788844621514</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="35">
+      <c r="B21" s="37">
         <v>6</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="37">
         <v>60</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="37">
         <v>8000</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="31">
         <f>SUM(C$16:C21)*$J$14</f>
         <v>2800</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="33">
         <f t="shared" si="2"/>
         <v>29.7872340425532</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="31">
         <f>SUM(D$16:D21)*$J$14</f>
         <v>312000</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="33">
         <f t="shared" si="3"/>
         <v>62.1513944223108</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="35">
+      <c r="B22" s="37">
         <v>7</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="37">
         <v>100</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="37">
         <v>15000</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="31">
         <f>SUM(C$16:C22)*$J$14</f>
         <v>4800</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="33">
         <f t="shared" si="2"/>
         <v>51.063829787234</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="31">
         <f>SUM(D$16:D22)*$J$14</f>
         <v>612000</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="33">
         <f t="shared" si="3"/>
         <v>121.91235059761</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="35">
+      <c r="B23" s="37">
         <v>8</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="37">
         <v>150</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="37">
         <v>30000</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="31">
         <f>SUM(C$16:C23)*$J$14</f>
         <v>7800</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="33">
         <f t="shared" si="2"/>
         <v>82.9787234042553</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="31">
         <f>SUM(D$16:D23)*$J$14</f>
         <v>1212000</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="33">
         <f t="shared" si="3"/>
         <v>241.434262948207</v>
       </c>
-      <c r="V23" s="39"/>
+      <c r="V23" s="41"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="35">
+      <c r="B24" s="37">
         <v>9</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="37">
         <v>200</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="37">
         <v>45000</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="31">
         <f>SUM(C$16:C24)*$J$14</f>
         <v>11800</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="33">
         <f t="shared" si="2"/>
         <v>125.531914893617</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="31">
         <f>SUM(D$16:D24)*$J$14</f>
         <v>2112000</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="33">
         <f t="shared" si="3"/>
         <v>420.717131474104</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="35">
+      <c r="B25" s="37">
         <v>10</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="37">
         <v>300</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="37">
         <v>60000</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="31">
         <f>SUM(C$16:C25)*$J$14</f>
         <v>17800</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="33">
         <f t="shared" si="2"/>
         <v>189.36170212766</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="31">
         <f>SUM(D$16:D25)*$J$14</f>
         <v>3312000</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="33">
         <f t="shared" si="3"/>
         <v>659.760956175299</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="35">
+      <c r="B26" s="37">
         <v>11</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="37">
         <v>500</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="37">
         <v>80000</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="31">
         <f>SUM(C$16:C26)*$J$14</f>
         <v>27800</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="33">
         <f t="shared" si="2"/>
         <v>295.744680851064</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="31">
         <f>SUM(D$16:D26)*$J$14</f>
         <v>4912000</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="33">
         <f t="shared" si="3"/>
         <v>978.486055776892</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="31">
         <f>SUM(C16:C26)</f>
         <v>1390</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="31">
         <f>SUM(D16:D26)</f>
         <v>245600</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="29">
+      <c r="C29" s="31">
         <f>C27*22</f>
         <v>30580</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="29">
+      <c r="C30" s="31">
         <f>C29/J3</f>
         <v>2548.33333333333</v>
       </c>
@@ -8596,8 +8602,8 @@
   <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -8794,7 +8800,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8">
@@ -8842,7 +8848,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11">
@@ -8874,7 +8880,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
       <c r="B13">
@@ -8890,7 +8896,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
       <c r="B14">
@@ -8906,7 +8912,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
       <c r="B15">
@@ -8922,7 +8928,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
       <c r="B16">
@@ -17502,7 +17508,7 @@
   <sheetPr/>
   <dimension ref="B3:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -3212,12 +3212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3332,6 +3332,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3340,15 +3395,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3362,6 +3416,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -3370,37 +3440,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3416,63 +3456,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3575,7 +3575,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3587,85 +3731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3677,79 +3743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3784,13 +3784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3804,11 +3808,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3828,56 +3871,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3889,10 +3889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3901,137 +3901,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4117,9 +4117,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6115,16 +6112,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="31"/>
+    <col min="1" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6146,1386 +6143,1386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.55833333333333" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" style="31" customWidth="1"/>
-    <col min="4" max="9" width="8.89166666666667" style="31" customWidth="1"/>
-    <col min="10" max="10" width="2.10833333333333" style="46" customWidth="1"/>
-    <col min="11" max="11" width="4.225" style="31" customWidth="1"/>
-    <col min="12" max="16" width="9" style="31"/>
-    <col min="17" max="17" width="4.44166666666667" style="31" customWidth="1"/>
-    <col min="18" max="19" width="9" style="31"/>
-    <col min="20" max="20" width="10.1083333333333" style="31" customWidth="1"/>
-    <col min="21" max="21" width="4" style="31" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="5.55833333333333" style="31" customWidth="1"/>
+    <col min="2" max="2" width="7" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="30" customWidth="1"/>
+    <col min="4" max="9" width="8.89166666666667" style="30" customWidth="1"/>
+    <col min="10" max="10" width="2.10833333333333" style="45" customWidth="1"/>
+    <col min="11" max="11" width="4.225" style="30" customWidth="1"/>
+    <col min="12" max="16" width="9" style="30"/>
+    <col min="17" max="17" width="4.44166666666667" style="30" customWidth="1"/>
+    <col min="18" max="19" width="9" style="30"/>
+    <col min="20" max="20" width="10.1083333333333" style="30" customWidth="1"/>
+    <col min="21" max="21" width="4" style="30" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="47">
         <v>1</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="47">
         <v>2</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="47">
         <v>3</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="47">
         <v>4</v>
       </c>
-      <c r="H1" s="48">
+      <c r="H1" s="47">
         <v>5</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="47">
         <v>6</v>
       </c>
-      <c r="N1" s="31">
+      <c r="N1" s="30">
         <v>2</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <f>T3</f>
         <v>250</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <f>T4</f>
         <v>375</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <f>T5</f>
         <v>500</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="47">
         <f>T6</f>
         <v>625</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="47">
         <f>T7</f>
         <v>750</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="47">
         <f>T8</f>
         <v>875</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="48">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <f t="shared" ref="C3:C8" si="0">O3</f>
         <v>50</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f>D$2/$C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f>E$2/$C3</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="48">
         <f>F$2/$C3</f>
         <v>10</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <f>G$2/$C3</f>
         <v>12.5</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <f>H$2/$C3</f>
         <v>15</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="48">
         <f>I$2/$C3</f>
         <v>17.5</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="50">
         <v>1</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <v>50</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <v>0</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <f>L3*$N$1</f>
         <v>100</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="51">
         <f t="shared" ref="O3:O8" si="1">M3*N3+(1-M3)*L3</f>
         <v>50</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="50">
         <v>1</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="53">
         <v>250</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="30">
         <v>0</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="51">
         <f t="shared" ref="T3:T8" si="2">R3*(1+S3)</f>
         <v>250</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <f>D$2/$C4</f>
         <v>3.17460317460317</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <f>E$2/$C4</f>
         <v>4.76190476190476</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="48">
         <f>F$2/$C4</f>
         <v>6.34920634920635</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <f>G$2/$C4</f>
         <v>7.93650793650794</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <f>H$2/$C4</f>
         <v>9.52380952380952</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <f>I$2/$C4</f>
         <v>11.1111111111111</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="50">
         <v>2</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <v>75</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <v>0.05</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="30">
         <f>L4*$N$1</f>
         <v>150</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="51">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="50">
         <v>2</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="53">
         <f>R3+125</f>
         <v>375</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="30">
         <v>0</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T4" s="51">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="48">
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <f>D$2/$C5</f>
         <v>2.27272727272727</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f>E$2/$C5</f>
         <v>3.40909090909091</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="48">
         <f>F$2/$C5</f>
         <v>4.54545454545455</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="48">
         <f>G$2/$C5</f>
         <v>5.68181818181818</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <f>H$2/$C5</f>
         <v>6.81818181818182</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <f>I$2/$C5</f>
         <v>7.95454545454545</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="50">
         <v>3</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <v>100</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <v>0.1</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <f>L5*$N$1</f>
         <v>200</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="51">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="50">
         <v>3</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="53">
         <f>R4+125</f>
         <v>500</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="30">
         <v>0</v>
       </c>
-      <c r="T5" s="52">
+      <c r="T5" s="51">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <f t="shared" si="0"/>
         <v>143.75</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <f>D$2/$C6</f>
         <v>1.73913043478261</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <f>E$2/$C6</f>
         <v>2.60869565217391</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <f>F$2/$C6</f>
         <v>3.47826086956522</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <f>G$2/$C6</f>
         <v>4.34782608695652</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <f>H$2/$C6</f>
         <v>5.21739130434783</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <f>I$2/$C6</f>
         <v>6.08695652173913</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <v>4</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>125</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <v>0.15</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <f>L6*$N$1</f>
         <v>250</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="51">
         <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="50">
         <v>4</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="53">
         <f>R5+125</f>
         <v>625</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="30">
         <v>0</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="51">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="48">
+      <c r="B7" s="47">
         <v>5</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <f>D$2/$C7</f>
         <v>1.38888888888889</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <f>E$2/$C7</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <f>F$2/$C7</f>
         <v>2.77777777777778</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <f>G$2/$C7</f>
         <v>3.47222222222222</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <f>H$2/$C7</f>
         <v>4.16666666666667</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <f>I$2/$C7</f>
         <v>4.86111111111111</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="50">
         <v>5</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>150</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>0.2</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <f>L7*$N$1</f>
         <v>300</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="51">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="50">
         <v>5</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="53">
         <f>R6+125</f>
         <v>750</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="30">
         <v>0</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="51">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="48">
+      <c r="B8" s="47">
         <v>6</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <f t="shared" si="0"/>
         <v>218.75</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <f>D$2/$C8</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <f>E$2/$C8</f>
         <v>1.71428571428571</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <f>F$2/$C8</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <f>G$2/$C8</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <f>H$2/$C8</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="48">
         <f>I$2/$C8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="50">
         <v>6</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <v>175</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <v>0.25</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <f>L8*$N$1</f>
         <v>350</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="51">
         <f t="shared" si="1"/>
         <v>218.75</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="50">
         <v>6</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="53">
         <f>R7+125</f>
         <v>875</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="30">
         <v>0</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="51">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <v>2</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <v>3</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <v>4</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <v>5</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <v>6</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <f>T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <f>T14</f>
         <v>588.235294117647</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="47">
         <f>T15</f>
         <v>781.25</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="47">
         <f>T16</f>
         <v>1000</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="47">
         <f>T17</f>
         <v>1250</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51" t="s">
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="51" t="s">
+      <c r="O11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51" t="s">
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="51" t="s">
+      <c r="T11" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <f t="shared" ref="C12:C17" si="3">O12</f>
         <v>51.25</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <f t="shared" ref="D12:D17" si="4">D$11/$C12</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <f t="shared" ref="E12:E17" si="5">E$11/$C12</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f t="shared" ref="F12:F17" si="6">F$11/$C12</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <f t="shared" ref="G12:G17" si="7">G$11/$C12</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="48">
         <f t="shared" ref="H12:H17" si="8">H$11/$C12</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="48">
         <f t="shared" ref="I12:I17" si="9">I$11/$C12</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="50">
         <v>1</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <f t="shared" ref="L12:L17" si="10">L3</f>
         <v>50</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <v>0.05</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="32">
         <f t="shared" ref="N12:N17" si="11">L12*$N$10</f>
         <v>75</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="52">
         <f>M3*N3+M12*N12+(1-M12-M3)*L12</f>
         <v>51.25</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="50">
         <v>1</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="32">
         <f t="shared" ref="R12:R17" si="12">T3</f>
         <v>250</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="30">
         <v>0.05</v>
       </c>
-      <c r="T12" s="52">
+      <c r="T12" s="51">
         <f>R12/(1-S12)</f>
         <v>263.157894736842</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>2</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="48">
         <f t="shared" si="4"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="48">
         <f t="shared" si="5"/>
         <v>5.05050505050505</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <f t="shared" si="6"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <f t="shared" si="7"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="48">
         <f t="shared" si="8"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="48">
         <f t="shared" si="9"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="50">
         <v>2</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>0.1</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="32">
         <f t="shared" si="11"/>
         <v>112.5</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="52">
         <f t="shared" ref="O12:O17" si="13">M4*N4+M13*N13+(1-M13-M4)*L13</f>
         <v>82.5</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="50">
         <v>2</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="32">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="30">
         <v>0.1</v>
       </c>
-      <c r="T13" s="52">
+      <c r="T13" s="51">
         <f t="shared" ref="T12:T17" si="14">R13/(1-S13)</f>
         <v>416.666666666667</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>3</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <f t="shared" si="3"/>
         <v>117.5</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="48">
         <f t="shared" si="4"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="48">
         <f t="shared" si="5"/>
         <v>3.54609929078014</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <f t="shared" si="6"/>
         <v>5.00625782227785</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="48">
         <f t="shared" si="7"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <f t="shared" si="8"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="48">
         <f t="shared" si="9"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="50">
         <v>3</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>0.15</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="32">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <f t="shared" si="13"/>
         <v>117.5</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="50">
         <v>3</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="32">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <v>0.15</v>
       </c>
-      <c r="T14" s="52">
+      <c r="T14" s="51">
         <f t="shared" si="14"/>
         <v>588.235294117647</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="48">
+      <c r="B15" s="47">
         <v>4</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <f t="shared" si="3"/>
         <v>156.25</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <f t="shared" si="4"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <f t="shared" si="5"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <f t="shared" si="6"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="48">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="48">
         <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="48">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="50">
         <v>4</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>0.2</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <f t="shared" si="11"/>
         <v>187.5</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="52">
         <f t="shared" si="13"/>
         <v>156.25</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="50">
         <v>4</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="32">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <v>0.2</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="51">
         <f t="shared" si="14"/>
         <v>781.25</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="48">
+      <c r="B16" s="47">
         <v>5</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <f t="shared" si="3"/>
         <v>198.75</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="48">
         <f t="shared" si="4"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <f t="shared" si="5"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="48">
         <f t="shared" si="6"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <f t="shared" si="7"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="48">
         <f t="shared" si="8"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="48">
         <f t="shared" si="9"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="50">
         <v>5</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="30">
         <v>0.25</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="32">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="52">
         <f t="shared" si="13"/>
         <v>198.75</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="50">
         <v>5</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="32">
         <f t="shared" si="12"/>
         <v>750</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="30">
         <v>0.25</v>
       </c>
-      <c r="T16" s="52">
+      <c r="T16" s="51">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="48">
+      <c r="B17" s="47">
         <v>6</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="49">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="48">
         <f t="shared" si="4"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <f t="shared" si="5"/>
         <v>1.70068027210884</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <f t="shared" si="6"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <f t="shared" si="7"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <f t="shared" si="8"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <f t="shared" si="9"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="50">
         <v>6</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="30">
         <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <v>0.3</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="32">
         <f t="shared" si="11"/>
         <v>262.5</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="52">
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="50">
         <v>6</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="32">
         <f t="shared" si="12"/>
         <v>875</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <v>0.3</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="51">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <v>1</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="47">
         <v>2</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <v>3</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <v>4</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="47">
         <v>5</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <f>S21</f>
         <v>394.736842105263</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <f>S22</f>
         <v>625.000000000001</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="47">
         <f>S23</f>
         <v>882.35294117647</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="47">
         <f>S24</f>
         <v>1171.875</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="47">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <f>S26</f>
         <v>1875</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51" t="s">
+      <c r="K20" s="50"/>
+      <c r="L20" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51" t="s">
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="51" t="s">
+      <c r="S20" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="48">
+      <c r="B21" s="47">
         <v>1</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <f t="shared" ref="C21:C26" si="15">M21</f>
         <v>76.875</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="48">
         <f t="shared" ref="D21:D26" si="16">D$20/$C21</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="48">
         <f t="shared" ref="E21:E26" si="17">E$20/$C21</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="48">
         <f t="shared" ref="F21:F26" si="18">F$20/$C21</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="48">
         <f t="shared" ref="G21:G26" si="19">G$20/$C21</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="48">
         <f t="shared" ref="H21:H26" si="20">H$20/$C21</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="48">
         <f t="shared" ref="I21:I26" si="21">I$20/$C21</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="50">
         <v>1</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="32">
         <f>O12</f>
         <v>51.25</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="32">
         <f t="shared" ref="M21:M26" si="22">L21*1.5</f>
         <v>76.875</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="50">
         <v>1</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="32">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="S21" s="33">
+      <c r="S21" s="32">
         <f>R21*1.5</f>
         <v>394.736842105263</v>
       </c>
-      <c r="T21" s="33"/>
+      <c r="T21" s="32"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="48">
+      <c r="B22" s="47">
         <v>2</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="49">
         <f t="shared" si="15"/>
         <v>123.75</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="48">
         <f t="shared" si="16"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="48">
         <f t="shared" si="17"/>
         <v>5.05050505050506</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="48">
         <f t="shared" si="18"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="48">
         <f t="shared" si="19"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="48">
         <f t="shared" si="20"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="48">
         <f t="shared" si="21"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="50">
         <v>2</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="32">
         <f>O13</f>
         <v>82.5</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="32">
         <f t="shared" si="22"/>
         <v>123.75</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="50">
         <v>2</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="32">
         <f t="shared" ref="R21:R26" si="23">T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="32">
         <f t="shared" ref="S21:S26" si="24">R22*1.5</f>
         <v>625.000000000001</v>
       </c>
-      <c r="T22" s="33"/>
+      <c r="T22" s="32"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="48">
+      <c r="B23" s="47">
         <v>3</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <f t="shared" si="15"/>
         <v>176.25</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="48">
         <f t="shared" si="16"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f t="shared" si="17"/>
         <v>3.54609929078015</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="48">
         <f t="shared" si="18"/>
         <v>5.00625782227784</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="48">
         <f t="shared" si="19"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="48">
         <f t="shared" si="20"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="48">
         <f t="shared" si="21"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="50">
         <v>3</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="32">
         <f t="shared" ref="L21:L26" si="25">O14</f>
         <v>117.5</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <f t="shared" si="22"/>
         <v>176.25</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="50">
         <v>3</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="32">
         <f t="shared" si="23"/>
         <v>588.235294117647</v>
       </c>
-      <c r="S23" s="33">
+      <c r="S23" s="32">
         <f t="shared" si="24"/>
         <v>882.35294117647</v>
       </c>
-      <c r="T23" s="33"/>
+      <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="48">
+      <c r="B24" s="47">
         <v>4</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="49">
         <f t="shared" si="15"/>
         <v>234.375</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <f t="shared" si="16"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="48">
         <f t="shared" si="17"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="48">
         <f t="shared" si="18"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="48">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="48">
         <f t="shared" si="20"/>
         <v>6.4</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="48">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="50">
         <v>4</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="32">
         <f t="shared" si="25"/>
         <v>156.25</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <f t="shared" si="22"/>
         <v>234.375</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="50">
         <v>4</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="32">
         <f t="shared" si="23"/>
         <v>781.25</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="32">
         <f t="shared" si="24"/>
         <v>1171.875</v>
       </c>
-      <c r="T24" s="33"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="48">
+      <c r="B25" s="47">
         <v>5</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="49">
         <f t="shared" si="15"/>
         <v>298.125</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="48">
         <f t="shared" si="16"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="48">
         <f t="shared" si="17"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="48">
         <f t="shared" si="18"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="48">
         <f t="shared" si="19"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="48">
         <f t="shared" si="20"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="48">
         <f t="shared" si="21"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="50">
         <v>5</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="32">
         <f t="shared" si="25"/>
         <v>198.75</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <f t="shared" si="22"/>
         <v>298.125</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="50">
         <v>5</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="32">
         <f t="shared" si="23"/>
         <v>1000</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="32">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="T25" s="33"/>
+      <c r="T25" s="32"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="48">
+      <c r="B26" s="47">
         <v>6</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="49">
         <f t="shared" si="15"/>
         <v>367.5</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="48">
         <f t="shared" si="16"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="48">
         <f t="shared" si="17"/>
         <v>1.70068027210885</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="48">
         <f t="shared" si="18"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="48">
         <f t="shared" si="19"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="48">
         <f t="shared" si="20"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="48">
         <f t="shared" si="21"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <v>6</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="32">
         <f t="shared" si="25"/>
         <v>245</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="32">
         <f t="shared" si="22"/>
         <v>367.5</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="50">
         <v>6</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="32">
         <f t="shared" si="23"/>
         <v>1250</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="32">
         <f t="shared" si="24"/>
         <v>1875</v>
       </c>
-      <c r="T26" s="33"/>
+      <c r="T26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7545,43 +7542,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="31"/>
+    <col min="1" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7602,991 +7599,991 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.89166666666667" style="31"/>
-    <col min="3" max="3" width="9.10833333333333" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9" style="31"/>
-    <col min="5" max="5" width="9" style="31" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.55833333333333" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.775" style="31" customWidth="1"/>
-    <col min="9" max="9" width="9.10833333333333" style="31"/>
-    <col min="10" max="10" width="9.25" style="31"/>
-    <col min="11" max="11" width="8.75" style="31" customWidth="1"/>
-    <col min="12" max="26" width="8.89166666666667" style="31"/>
-    <col min="27" max="27" width="9" style="31"/>
-    <col min="28" max="16384" width="8.89166666666667" style="31"/>
+    <col min="1" max="2" width="8.89166666666667" style="30"/>
+    <col min="3" max="3" width="9.10833333333333" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9" style="30"/>
+    <col min="5" max="5" width="9" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="7.55833333333333" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.775" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.10833333333333" style="30"/>
+    <col min="10" max="10" width="9.25" style="30"/>
+    <col min="11" max="11" width="8.75" style="30" customWidth="1"/>
+    <col min="12" max="26" width="8.89166666666667" style="30"/>
+    <col min="27" max="27" width="9" style="30"/>
+    <col min="28" max="16384" width="8.89166666666667" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>6</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>22</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>1</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>5</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>0.5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>500</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>24</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <f>F3*I3</f>
         <v>12</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="30">
         <f>G3*J3</f>
         <v>6000</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <f>J3*7+U15</f>
         <v>94</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <v>12</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="37">
         <v>1</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="37">
         <v>2</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R3" s="37">
         <v>3</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3" s="37">
         <v>4</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="37">
         <v>5</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>5</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>55</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>10</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>1</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>200</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <f>(F4/E4)/(F3/E3)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <v>24</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <f>F4*I4</f>
         <v>24</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="30">
         <f>G4*J4</f>
         <v>4800</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <f>J4*7+T14*2</f>
         <v>188</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="42" t="s">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="31">
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>4</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>98</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>4</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>10</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>1</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>100</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="32">
         <f>(F5/E5)/(F$4/E$4)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>24</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="31">
         <f>F5*I5</f>
         <v>24</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <f>G5*J5</f>
         <v>2400</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <f>J5*7+S15+S14*2</f>
         <v>168</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="42" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="39"/>
-      <c r="V5" s="31">
+      <c r="U5" s="38"/>
+      <c r="V5" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>3</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>261</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>10</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>0.75</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>50</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <f>(F6/E6)/(F$5/E$5)</f>
         <v>1.5</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>24</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <f t="shared" ref="J6:J12" si="0">F6*I6</f>
         <v>18</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <f t="shared" ref="K6:K12" si="1">G6*J6</f>
         <v>900</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <f>J6*7+Q14*2+R15</f>
         <v>141</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="42" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="39"/>
-      <c r="V6" s="31">
+      <c r="U6" s="38"/>
+      <c r="V6" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:23">
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>364</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>13</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>5</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>20</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <f>(F7/E7)/(F6/E6)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>24</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="33">
         <f>J7*7</f>
         <v>168</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="42" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="42" t="s">
+      <c r="U7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="30">
         <v>50</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="30">
         <f>V7*玩家等级!H6</f>
         <v>2300</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>91</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34">
+      <c r="F8" s="34"/>
+      <c r="G8" s="33">
         <v>10</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="O8" s="39" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="O8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="42" t="s">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="42" t="s">
+      <c r="U8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <f>SUM(C3:C8)</f>
         <v>891</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f>SUM(E3:E8)</f>
         <v>35</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="K9" s="40">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="K9" s="39">
         <f>SUM(K3:K8)</f>
         <v>14580</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="42" t="s">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="T9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="42" t="s">
+      <c r="U9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>4</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>16</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>15</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>10</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="32">
         <f>(F11/E11)/(F$4/E$4)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <v>12</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <f>F11*I11</f>
         <v>12</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <f>J11*7</f>
         <v>84</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>3</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>10</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>10</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>1</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>5</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <f>(F12/E12)/(F$5/E$5)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="40">
         <v>12</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <f>J12*7</f>
         <v>84</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="37">
         <v>2</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <v>3</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="37">
         <v>5</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="14:27">
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <v>12</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="44" t="s">
+      <c r="P13" s="38"/>
+      <c r="Q13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="44" t="s">
+      <c r="R13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="31">
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="30">
         <v>50</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="30">
         <f>V13*16</f>
         <v>800</v>
       </c>
-      <c r="AA13" s="31">
+      <c r="AA13" s="30">
         <f>1.5*60*60</f>
         <v>5400</v>
       </c>
     </row>
     <row r="14" spans="9:27">
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="30">
         <v>20</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <f>W19</f>
         <v>5020</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="42">
+      <c r="P14" s="38"/>
+      <c r="Q14" s="41">
         <v>5</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <v>5</v>
       </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="42">
+      <c r="S14" s="38"/>
+      <c r="T14" s="41">
         <v>10</v>
       </c>
-      <c r="U14" s="39"/>
-      <c r="V14" s="31">
+      <c r="U14" s="38"/>
+      <c r="V14" s="30">
         <v>300</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X14" s="30">
         <v>98</v>
       </c>
-      <c r="Y14" s="31" t="s">
+      <c r="Y14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="31">
+      <c r="AA14" s="30">
         <f>3.5*24*60*60</f>
         <v>302400</v>
       </c>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="42">
+      <c r="P15" s="38"/>
+      <c r="Q15" s="41">
         <v>5</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="41">
         <v>5</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="42">
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="41">
         <v>10</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="30">
         <v>1000</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="30">
         <v>298</v>
       </c>
-      <c r="Y15" s="31" t="s">
+      <c r="Y15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="30">
         <f>7*24*60*60</f>
         <v>604800</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>1</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>5</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>100</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <f>SUM(C$16:C16)*$J$14</f>
         <v>100</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <f>F16/$L$3</f>
         <v>1.06382978723404</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="30">
         <f>SUM(D$16:D16)*$J$14</f>
         <v>2000</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <f>J16/$L$14</f>
         <v>0.398406374501992</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>2</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>5</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>500</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <f>SUM(C$16:C17)*$J$14</f>
         <v>200</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <f t="shared" ref="G17:G26" si="2">F17/$L$3</f>
         <v>2.12765957446808</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="30">
         <f>SUM(D$16:D17)*$J$14</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <f t="shared" ref="K17:K26" si="3">J17/$L$14</f>
         <v>2.39043824701195</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>3</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>10</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>1000</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <f>SUM(C$16:C18)*$J$14</f>
         <v>400</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <f t="shared" si="2"/>
         <v>4.25531914893617</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="30">
         <f>SUM(D$16:D18)*$J$14</f>
         <v>32000</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <f t="shared" si="3"/>
         <v>6.37450199203187</v>
       </c>
-      <c r="V18" s="31">
+      <c r="V18" s="30">
         <f>((100+20)/2)*2</f>
         <v>120</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="30">
         <f>V18*16</f>
         <v>1920</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="X18" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>4</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>20</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>2000</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <f>SUM(C$16:C19)*$J$14</f>
         <v>800</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <f t="shared" si="2"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <f>SUM(D$16:D19)*$J$14</f>
         <v>72000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <f t="shared" si="3"/>
         <v>14.3426294820717</v>
       </c>
-      <c r="W19" s="40">
+      <c r="W19" s="39">
         <f>SUM(W4:W18)</f>
         <v>5020</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>5</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>40</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>4000</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <f>SUM(C$16:C20)*$J$14</f>
         <v>1600</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <f t="shared" si="2"/>
         <v>17.0212765957447</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="30">
         <f>SUM(D$16:D20)*$J$14</f>
         <v>152000</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="32">
         <f t="shared" si="3"/>
         <v>30.2788844621514</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>6</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>60</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>8000</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <f>SUM(C$16:C21)*$J$14</f>
         <v>2800</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <f t="shared" si="2"/>
         <v>29.7872340425532</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <f>SUM(D$16:D21)*$J$14</f>
         <v>312000</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <f t="shared" si="3"/>
         <v>62.1513944223108</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>7</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>100</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>15000</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <f>SUM(C$16:C22)*$J$14</f>
         <v>4800</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="32">
         <f t="shared" si="2"/>
         <v>51.063829787234</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="30">
         <f>SUM(D$16:D22)*$J$14</f>
         <v>612000</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="32">
         <f t="shared" si="3"/>
         <v>121.91235059761</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>8</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>150</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>30000</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="30">
         <f>SUM(C$16:C23)*$J$14</f>
         <v>7800</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <f t="shared" si="2"/>
         <v>82.9787234042553</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="30">
         <f>SUM(D$16:D23)*$J$14</f>
         <v>1212000</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="32">
         <f t="shared" si="3"/>
         <v>241.434262948207</v>
       </c>
-      <c r="V23" s="41"/>
+      <c r="V23" s="40"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>9</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>200</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>45000</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="30">
         <f>SUM(C$16:C24)*$J$14</f>
         <v>11800</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f t="shared" si="2"/>
         <v>125.531914893617</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <f>SUM(D$16:D24)*$J$14</f>
         <v>2112000</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="32">
         <f t="shared" si="3"/>
         <v>420.717131474104</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>10</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>300</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>60000</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <f>SUM(C$16:C25)*$J$14</f>
         <v>17800</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <f t="shared" si="2"/>
         <v>189.36170212766</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <f>SUM(D$16:D25)*$J$14</f>
         <v>3312000</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <f t="shared" si="3"/>
         <v>659.760956175299</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>11</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>500</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>80000</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <f>SUM(C$16:C26)*$J$14</f>
         <v>27800</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <f t="shared" si="2"/>
         <v>295.744680851064</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="30">
         <f>SUM(D$16:D26)*$J$14</f>
         <v>4912000</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="32">
         <f t="shared" si="3"/>
         <v>978.486055776892</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <f>SUM(C16:C26)</f>
         <v>1390</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <f>SUM(D16:D26)</f>
         <v>245600</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <f>C27*22</f>
         <v>30580</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <f>C29/J3</f>
         <v>2548.33333333333</v>
       </c>
@@ -8600,10 +8597,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -8800,7 +8797,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8">
@@ -8848,7 +8845,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11">
@@ -8880,7 +8877,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
       <c r="B13">
@@ -8896,7 +8893,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14">
@@ -8912,7 +8909,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15">
@@ -8928,7 +8925,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16">
@@ -8989,6 +8986,38 @@
       <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>47.0156862745098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4500</v>
+      </c>
+      <c r="C20">
+        <f>SUM(B$2:B20)</f>
+        <v>16489</v>
+      </c>
+      <c r="E20" s="28">
+        <f>C20/$D$2</f>
+        <v>64.6627450980392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6000</v>
+      </c>
+      <c r="C21">
+        <f>SUM(B$2:B21)</f>
+        <v>22489</v>
+      </c>
+      <c r="E21" s="28">
+        <f>C21/$D$2</f>
+        <v>88.1921568627451</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -3552,10 +3552,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
@@ -3623,17 +3623,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3645,11 +3646,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3662,6 +3670,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3681,6 +3704,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3689,46 +3720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3744,7 +3738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3752,15 +3746,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3829,7 +3829,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,7 +3913,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3853,25 +3943,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3889,43 +3991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3937,79 +4003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4048,6 +4048,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4058,15 +4073,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4088,35 +4094,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4135,6 +4115,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4143,10 +4143,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4155,16 +4155,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4173,115 +4173,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8847,7 +8847,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -3574,11 +3574,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="28">
@@ -3644,15 +3644,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3667,31 +3683,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3711,16 +3705,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3735,17 +3756,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3759,30 +3780,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3851,7 +3851,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3863,13 +3899,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3881,157 +4025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,6 +4070,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4080,6 +4106,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4108,21 +4143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4137,26 +4157,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4165,10 +4165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4177,133 +4177,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9573,8 +9573,8 @@
   <sheetPr/>
   <dimension ref="A2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="13"/>
-      <c r="O27" t="s">
+      <c r="O27" s="12" t="s">
         <v>124</v>
       </c>
     </row>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1123">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -536,6 +536,9 @@
     <t>0,43,5</t>
   </si>
   <si>
+    <t>严颜</t>
+  </si>
+  <si>
     <t>李典</t>
   </si>
   <si>
@@ -548,12 +551,12 @@
     <t>曹操</t>
   </si>
   <si>
+    <t>孙权</t>
+  </si>
+  <si>
     <t>典韦</t>
   </si>
   <si>
-    <t>孙权</t>
-  </si>
-  <si>
     <t>曹仁</t>
   </si>
   <si>
@@ -563,12 +566,12 @@
     <t>程普</t>
   </si>
   <si>
+    <t>凌统</t>
+  </si>
+  <si>
     <t>周瑜</t>
   </si>
   <si>
-    <t>凌统</t>
-  </si>
-  <si>
     <t>张辽</t>
   </si>
   <si>
@@ -921,9 +924,6 @@
   </si>
   <si>
     <t>蒋琬</t>
-  </si>
-  <si>
-    <t>严颜</t>
   </si>
   <si>
     <t>董允</t>
@@ -3575,10 +3575,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="28">
@@ -3644,31 +3644,58 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3683,42 +3710,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3726,22 +3717,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3756,9 +3757,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3775,14 +3783,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3851,7 +3851,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3863,25 +3989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3893,37 +4001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3935,37 +4013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3977,61 +4025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4063,8 +4063,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4096,39 +4144,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4142,21 +4157,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4165,10 +4165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4177,133 +4177,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9571,10 +9571,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:V38"/>
+  <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -9852,13 +9852,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="13" t="s">
-        <v>100</v>
+    <row r="8" spans="2:21">
+      <c r="B8" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(B8,武将表!$A:$B,2,FALSE)</f>
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="F8" s="12">
         <v>6</v>
@@ -9874,17 +9873,17 @@
         <v>6</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,$B:$C,2,FALSE),",5")</f>
-        <v>0,147,5</v>
+        <v>0,136,5</v>
       </c>
       <c r="L8" s="12">
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,$B:$C,2,FALSE),",5")</f>
@@ -9894,7 +9893,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,$B:$C,2,FALSE),",5")</f>
@@ -9906,17 +9905,14 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
-      <c r="V8">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <f>VLOOKUP(B9,武将表!$A:$B,2,FALSE)</f>
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -9945,16 +9941,16 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="10" t="s">
-        <v>114</v>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C10">
         <f>VLOOKUP(B10,武将表!$A:$B,2,FALSE)</f>
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -9980,22 +9976,19 @@
         <v>8</v>
       </c>
       <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
       <c r="V10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C11">
         <f>VLOOKUP(B11,武将表!$A:$B,2,FALSE)</f>
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12">
         <v>9</v>
@@ -10011,7 +10004,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,$B:$C,2,FALSE),",5")</f>
@@ -10021,7 +10014,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,$B:$C,2,FALSE),",5")</f>
@@ -10041,17 +10034,22 @@
         <v>9</v>
       </c>
       <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
       <c r="V11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(B12,武将表!$A:$B,2,FALSE)</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
-      <c r="B12" s="8"/>
-      <c r="C12" t="e">
-        <f>VLOOKUP(B12,武将表!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -10080,16 +10078,14 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="8"/>
+      <c r="C13" t="e">
         <f>VLOOKUP(B13,武将表!$A:$B,2,FALSE)</f>
-        <v>39</v>
+        <v>#N/A</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -10118,16 +10114,16 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <f>VLOOKUP(B14,武将表!$A:$B,2,FALSE)</f>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F14" s="12">
         <v>12</v>
@@ -10143,17 +10139,17 @@
         <v>12</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,$B:$C,2,FALSE),",5")</f>
-        <v>0,147,5</v>
+        <v>0,136,5</v>
       </c>
       <c r="L14" s="12">
         <v>12</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,$B:$C,2,FALSE),",5")</f>
@@ -10163,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,$B:$C,2,FALSE),",5")</f>
@@ -10173,19 +10169,19 @@
         <v>12</v>
       </c>
       <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
       <c r="V14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="14" t="s">
-        <v>112</v>
+      <c r="B15" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C15">
         <f>VLOOKUP(B15,武将表!$A:$B,2,FALSE)</f>
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -10211,19 +10207,19 @@
         <v>13</v>
       </c>
       <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
       <c r="V15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:22">
       <c r="B16" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C16">
         <f>VLOOKUP(B16,武将表!$A:$B,2,FALSE)</f>
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -10252,16 +10248,16 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="13" t="s">
-        <v>102</v>
+      <c r="B17" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C17">
         <f>VLOOKUP(B17,武将表!$A:$B,2,FALSE)</f>
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="F17" s="12">
         <v>15</v>
@@ -10287,7 +10283,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N17" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,$B:$C,2,FALSE),",5")</f>
@@ -10297,7 +10293,7 @@
         <v>15</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,$B:$C,2,FALSE),",5")</f>
@@ -10310,14 +10306,16 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="13"/>
-      <c r="C18" t="e">
+      <c r="B18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18">
         <f>VLOOKUP(B18,武将表!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>256</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -10346,10 +10344,15 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="6:22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="13"/>
+      <c r="C19" t="e">
+        <f>VLOOKUP(B19,武将表!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F19">
         <v>17</v>
       </c>
@@ -10374,23 +10377,13 @@
         <v>17</v>
       </c>
       <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
       <c r="V19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20">
-        <f>VLOOKUP(B20,武将表!$A:$B,2,FALSE)</f>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:22">
       <c r="F20" s="12">
         <v>18</v>
       </c>
@@ -10415,7 +10408,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N20" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,$B:$C,2,FALSE),",5")</f>
@@ -10435,17 +10428,22 @@
         <v>18</v>
       </c>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
       <c r="V20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="8"/>
-      <c r="C21" t="e">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21">
         <f>VLOOKUP(B21,武将表!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -10474,16 +10472,14 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="8"/>
+      <c r="C22" t="e">
         <f>VLOOKUP(B22,武将表!$A:$B,2,FALSE)</f>
-        <v>26</v>
+        <v>#N/A</v>
       </c>
       <c r="F22" s="12">
         <v>20</v>
@@ -10509,7 +10505,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N22" s="9" t="e">
         <f>CONCATENATE("0,",VLOOKUP(M22,$B:$C,2,FALSE),",5")</f>
@@ -10519,7 +10515,7 @@
         <v>20</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P22,$B:$C,2,FALSE),",5")</f>
@@ -10532,74 +10528,83 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <f>VLOOKUP(B23,武将表!$A:$B,2,FALSE)</f>
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="14" t="s">
-        <v>120</v>
+      <c r="B24" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C24">
         <f>VLOOKUP(B24,武将表!$A:$B,2,FALSE)</f>
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <f>VLOOKUP(B25,武将表!$A:$B,2,FALSE)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="13" t="s">
-        <v>103</v>
+      <c r="B26" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C26">
         <f>VLOOKUP(B26,武将表!$A:$B,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(B27,武将表!$A:$B,2,FALSE)</f>
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="13"/>
-      <c r="O27" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="15:15">
-      <c r="O28" t="s">
+    <row r="28" spans="2:15">
+      <c r="B28" s="13"/>
+      <c r="O28" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="15:15">
-      <c r="O33" t="s">
-        <v>126</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="15:15">
+      <c r="O32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="15:15">
@@ -10612,14 +10617,24 @@
         <v>128</v>
       </c>
     </row>
+    <row r="36" spans="15:15">
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15">
-      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -10641,7 +10656,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="7">
         <v>0</v>
@@ -10649,7 +10664,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -10657,7 +10672,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -10665,7 +10680,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -10673,7 +10688,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -10681,7 +10696,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -10689,7 +10704,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -10705,7 +10720,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -10713,7 +10728,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
@@ -10729,7 +10744,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
@@ -10737,7 +10752,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -10761,7 +10776,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -10785,7 +10800,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
@@ -10793,7 +10808,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
@@ -10801,7 +10816,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -10809,7 +10824,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
@@ -10817,7 +10832,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
@@ -10825,7 +10840,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
@@ -10833,7 +10848,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
@@ -10841,7 +10856,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
@@ -10857,7 +10872,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="7">
         <v>27</v>
@@ -10865,7 +10880,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
@@ -10873,7 +10888,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
@@ -10881,7 +10896,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
@@ -10889,7 +10904,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
@@ -10897,7 +10912,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B33" s="7">
         <v>32</v>
@@ -10913,7 +10928,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
@@ -10921,7 +10936,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
@@ -10929,7 +10944,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
@@ -10937,7 +10952,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
@@ -10945,7 +10960,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
@@ -10953,7 +10968,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
@@ -10961,7 +10976,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" s="7">
         <v>40</v>
@@ -10969,7 +10984,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="7">
         <v>41</v>
@@ -10977,7 +10992,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
@@ -10993,7 +11008,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
@@ -11001,7 +11016,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
@@ -11009,7 +11024,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B47" s="7">
         <v>46</v>
@@ -11017,7 +11032,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" s="7">
         <v>47</v>
@@ -11025,7 +11040,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B49" s="7">
         <v>48</v>
@@ -11033,7 +11048,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" s="7">
         <v>49</v>
@@ -11041,7 +11056,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" s="7">
         <v>50</v>
@@ -11049,7 +11064,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" s="7">
         <v>51</v>
@@ -11057,7 +11072,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B53" s="7">
         <v>52</v>
@@ -11065,7 +11080,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" s="7">
         <v>53</v>
@@ -11073,7 +11088,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="7">
         <v>54</v>
@@ -11081,7 +11096,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" s="7">
         <v>55</v>
@@ -11089,7 +11104,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B57" s="7">
         <v>56</v>
@@ -11097,7 +11112,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B58" s="7">
         <v>57</v>
@@ -11105,7 +11120,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B59" s="7">
         <v>58</v>
@@ -11121,7 +11136,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B61" s="7">
         <v>60</v>
@@ -11137,7 +11152,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B63" s="7">
         <v>62</v>
@@ -11145,7 +11160,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B64" s="7">
         <v>63</v>
@@ -11153,7 +11168,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" s="7">
         <v>64</v>
@@ -11161,7 +11176,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B66" s="7">
         <v>65</v>
@@ -11169,7 +11184,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B67" s="7">
         <v>66</v>
@@ -11177,7 +11192,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B68" s="7">
         <v>67</v>
@@ -11185,7 +11200,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="7">
         <v>68</v>
@@ -11193,7 +11208,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B70" s="7">
         <v>69</v>
@@ -11201,7 +11216,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B71" s="7">
         <v>70</v>
@@ -11209,7 +11224,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B72" s="7">
         <v>71</v>
@@ -11217,7 +11232,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B73" s="7">
         <v>72</v>
@@ -11225,7 +11240,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B74" s="7">
         <v>73</v>
@@ -11233,7 +11248,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B75" s="7">
         <v>74</v>
@@ -11241,7 +11256,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B76" s="7">
         <v>75</v>
@@ -11249,7 +11264,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B77" s="7">
         <v>76</v>
@@ -11257,7 +11272,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B78" s="7">
         <v>77</v>
@@ -11265,7 +11280,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B79" s="7">
         <v>78</v>
@@ -11273,7 +11288,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="7">
         <v>79</v>
@@ -11281,7 +11296,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B81" s="7">
         <v>80</v>
@@ -11289,7 +11304,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B82" s="7">
         <v>81</v>
@@ -11297,7 +11312,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B83" s="7">
         <v>82</v>
@@ -11305,7 +11320,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="7">
         <v>83</v>
@@ -11313,7 +11328,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" s="7">
         <v>84</v>
@@ -11321,7 +11336,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" s="7">
         <v>85</v>
@@ -11329,7 +11344,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" s="7">
         <v>86</v>
@@ -11337,7 +11352,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" s="7">
         <v>87</v>
@@ -11345,7 +11360,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" s="7">
         <v>88</v>
@@ -11353,7 +11368,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" s="7">
         <v>89</v>
@@ -11361,7 +11376,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" s="7">
         <v>90</v>
@@ -11369,7 +11384,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" s="7">
         <v>91</v>
@@ -11377,7 +11392,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" s="7">
         <v>92</v>
@@ -11385,7 +11400,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" s="7">
         <v>93</v>
@@ -11393,7 +11408,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B95" s="7">
         <v>94</v>
@@ -11401,7 +11416,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B96" s="7">
         <v>95</v>
@@ -11409,7 +11424,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B97" s="7">
         <v>96</v>
@@ -11417,7 +11432,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B98" s="7">
         <v>97</v>
@@ -11425,7 +11440,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B99" s="7">
         <v>98</v>
@@ -11433,7 +11448,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B100" s="7">
         <v>99</v>
@@ -11441,7 +11456,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
@@ -11449,7 +11464,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B102" s="7">
         <v>101</v>
@@ -11457,7 +11472,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B103" s="7">
         <v>102</v>
@@ -11465,7 +11480,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B104" s="7">
         <v>103</v>
@@ -11473,7 +11488,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B105" s="7">
         <v>104</v>
@@ -11481,7 +11496,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" s="7">
         <v>105</v>
@@ -11489,7 +11504,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B107" s="7">
         <v>106</v>
@@ -11497,7 +11512,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" s="7">
         <v>107</v>
@@ -11505,7 +11520,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B109" s="7">
         <v>108</v>
@@ -11513,7 +11528,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B110" s="7">
         <v>109</v>
@@ -11521,7 +11536,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B111" s="7">
         <v>110</v>
@@ -11529,7 +11544,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B112" s="7">
         <v>111</v>
@@ -11537,7 +11552,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B113" s="7">
         <v>112</v>
@@ -11545,7 +11560,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B114" s="7">
         <v>113</v>
@@ -11553,7 +11568,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B115" s="7">
         <v>114</v>
@@ -11561,7 +11576,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B116" s="7">
         <v>115</v>
@@ -11569,7 +11584,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B117" s="7">
         <v>116</v>
@@ -11577,7 +11592,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B118" s="7">
         <v>117</v>
@@ -11585,7 +11600,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B119" s="7">
         <v>118</v>
@@ -11593,7 +11608,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B120" s="7">
         <v>119</v>
@@ -11601,7 +11616,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B121" s="7">
         <v>120</v>
@@ -11609,7 +11624,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="7">
         <v>121</v>
@@ -11617,7 +11632,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B123" s="7">
         <v>122</v>
@@ -11625,7 +11640,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B124" s="7">
         <v>123</v>
@@ -11633,7 +11648,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B125" s="7">
         <v>124</v>
@@ -11641,7 +11656,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B126" s="7">
         <v>125</v>
@@ -11649,7 +11664,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B127" s="7">
         <v>126</v>
@@ -11657,7 +11672,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B128" s="7">
         <v>127</v>
@@ -11665,7 +11680,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B129" s="7">
         <v>128</v>
@@ -11673,7 +11688,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B130" s="7">
         <v>129</v>
@@ -11681,7 +11696,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B131" s="7">
         <v>130</v>
@@ -11689,7 +11704,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132" s="7">
         <v>131</v>
@@ -11697,7 +11712,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B133" s="7">
         <v>132</v>
@@ -11705,7 +11720,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B134" s="7">
         <v>133</v>
@@ -11713,7 +11728,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B135" s="7">
         <v>134</v>
@@ -11721,7 +11736,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" s="7">
         <v>135</v>
@@ -11729,7 +11744,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="7" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="B137" s="7">
         <v>136</v>
@@ -17049,7 +17064,7 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B802" s="7">
         <v>801</v>
@@ -17057,7 +17072,7 @@
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B803" s="7">
         <v>802</v>
@@ -17073,7 +17088,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B805" s="7">
         <v>804</v>
@@ -17081,7 +17096,7 @@
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B806" s="7">
         <v>805</v>
@@ -17089,7 +17104,7 @@
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B807" s="7">
         <v>806</v>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="804" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -500,49 +500,49 @@
     <t>黄月英</t>
   </si>
   <si>
+    <t>李严</t>
+  </si>
+  <si>
+    <t>曹昂</t>
+  </si>
+  <si>
+    <t>孙翊</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>0,10,5</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>0,7,5</t>
+  </si>
+  <si>
+    <t>张苞</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>0,43,5</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>李典</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
     <t>廖化</t>
-  </si>
-  <si>
-    <t>李严</t>
-  </si>
-  <si>
-    <t>曹昂</t>
-  </si>
-  <si>
-    <t>孙翊</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>0,10,5</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>郭嘉</t>
-  </si>
-  <si>
-    <t>0,7,5</t>
-  </si>
-  <si>
-    <t>张苞</t>
-  </si>
-  <si>
-    <t>荀彧</t>
-  </si>
-  <si>
-    <t>0,43,5</t>
-  </si>
-  <si>
-    <t>严颜</t>
-  </si>
-  <si>
-    <t>李典</t>
-  </si>
-  <si>
-    <t>黄盖</t>
   </si>
   <si>
     <t>华佗</t>
@@ -3645,14 +3645,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3679,16 +3733,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3704,69 +3751,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3780,9 +3765,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3851,13 +3851,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3875,19 +3941,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3905,109 +4007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4019,19 +4025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4063,8 +4063,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4080,15 +4089,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4111,8 +4111,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4132,17 +4132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4157,6 +4146,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4165,10 +4165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4177,115 +4177,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4294,16 +4297,13 @@
     <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4533,7 +4533,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="1590675"/>
+          <a:off x="4937760" y="1518285"/>
           <a:ext cx="590550" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4580,8 +4580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5019675" y="1276350"/>
-          <a:ext cx="581025" cy="285750"/>
+          <a:off x="4937760" y="1215390"/>
+          <a:ext cx="571500" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4627,8 +4627,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6007100" y="1200150"/>
-          <a:ext cx="879475" cy="396875"/>
+          <a:off x="5904230" y="1150620"/>
+          <a:ext cx="868045" cy="374015"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4674,8 +4674,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6099175" y="1165225"/>
-          <a:ext cx="771525" cy="0"/>
+          <a:off x="5996305" y="1115695"/>
+          <a:ext cx="760095" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4721,8 +4721,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1016000" y="1200150"/>
-          <a:ext cx="4327525" cy="368300"/>
+          <a:off x="1004570" y="1150620"/>
+          <a:ext cx="4247515" cy="345440"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4768,8 +4768,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1069975" y="1593850"/>
-          <a:ext cx="771525" cy="0"/>
+          <a:off x="1058545" y="1521460"/>
+          <a:ext cx="760095" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4815,8 +4815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1044575" y="1139825"/>
-          <a:ext cx="831850" cy="384175"/>
+          <a:off x="1033145" y="1090295"/>
+          <a:ext cx="818515" cy="361315"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4862,8 +4862,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2286635" y="1590675"/>
-          <a:ext cx="808990" cy="8255"/>
+          <a:off x="2252345" y="1518285"/>
+          <a:ext cx="797560" cy="8255"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4909,8 +4909,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2514600" y="1685925"/>
-          <a:ext cx="3114675" cy="314325"/>
+          <a:off x="2468880" y="1609725"/>
+          <a:ext cx="3068955" cy="302895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4956,8 +4956,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2381250" y="1752600"/>
-          <a:ext cx="3276600" cy="657225"/>
+          <a:off x="2346960" y="1676400"/>
+          <a:ext cx="3208020" cy="622935"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5003,8 +5003,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="3673475"/>
-          <a:ext cx="1885950" cy="0"/>
+          <a:off x="6172200" y="3502025"/>
+          <a:ext cx="1851660" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5050,8 +5050,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6346825" y="3238500"/>
-          <a:ext cx="558800" cy="0"/>
+          <a:off x="6232525" y="3089910"/>
+          <a:ext cx="556895" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5097,8 +5097,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6359525" y="2851150"/>
-          <a:ext cx="555625" cy="0"/>
+          <a:off x="6245225" y="2717800"/>
+          <a:ext cx="544195" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5144,8 +5144,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6384925" y="4086225"/>
-          <a:ext cx="1787525" cy="0"/>
+          <a:off x="6270625" y="3891915"/>
+          <a:ext cx="1753235" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5191,7 +5191,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="3270250"/>
+          <a:off x="4937760" y="3121660"/>
           <a:ext cx="612775" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5238,8 +5238,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4930775" y="2816225"/>
-          <a:ext cx="571500" cy="9525"/>
+          <a:off x="4850765" y="2682875"/>
+          <a:ext cx="560070" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5285,8 +5285,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="2857500"/>
-          <a:ext cx="685800" cy="742950"/>
+          <a:off x="4892040" y="2724150"/>
+          <a:ext cx="662940" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5332,8 +5332,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="2838450"/>
-          <a:ext cx="647700" cy="0"/>
+          <a:off x="2442210" y="2705100"/>
+          <a:ext cx="636270" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5379,8 +5379,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390775" y="2943225"/>
-          <a:ext cx="752475" cy="1733550"/>
+          <a:off x="2356485" y="2806065"/>
+          <a:ext cx="729615" cy="1649730"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5426,8 +5426,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3762375" y="4171950"/>
-          <a:ext cx="1895475" cy="523875"/>
+          <a:off x="3703320" y="3977640"/>
+          <a:ext cx="1851660" cy="497205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5473,8 +5473,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="4102100"/>
-          <a:ext cx="628650" cy="3175"/>
+          <a:off x="4937760" y="3907790"/>
+          <a:ext cx="617220" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5520,8 +5520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5092700" y="3673475"/>
-          <a:ext cx="571500" cy="9525"/>
+          <a:off x="5001260" y="3502025"/>
+          <a:ext cx="560070" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5567,8 +5567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5095875" y="2857500"/>
-          <a:ext cx="561975" cy="762000"/>
+          <a:off x="5004435" y="2724150"/>
+          <a:ext cx="550545" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5614,8 +5614,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5099050" y="3324225"/>
-          <a:ext cx="615950" cy="336550"/>
+          <a:off x="5007610" y="3175635"/>
+          <a:ext cx="604520" cy="313690"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5661,8 +5661,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5060950" y="1771650"/>
-          <a:ext cx="635000" cy="1822450"/>
+          <a:off x="4969510" y="1695450"/>
+          <a:ext cx="623570" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5708,8 +5708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="2847975"/>
-          <a:ext cx="593725" cy="374650"/>
+          <a:off x="4911090" y="2714625"/>
+          <a:ext cx="582295" cy="359410"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5755,8 +5755,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3594100" y="1569085"/>
-          <a:ext cx="748665" cy="8255"/>
+          <a:off x="3536950" y="1496695"/>
+          <a:ext cx="737235" cy="8255"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5802,8 +5802,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3775075" y="2841625"/>
-          <a:ext cx="647700" cy="0"/>
+          <a:off x="3706495" y="2708275"/>
+          <a:ext cx="636270" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5849,8 +5849,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3635375" y="3238500"/>
-          <a:ext cx="765175" cy="225425"/>
+          <a:off x="3578225" y="3089910"/>
+          <a:ext cx="742315" cy="213995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5896,8 +5896,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="3505200"/>
-          <a:ext cx="790575" cy="171450"/>
+          <a:off x="3581400" y="3345180"/>
+          <a:ext cx="767715" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5943,8 +5943,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2432050" y="2898775"/>
-          <a:ext cx="711200" cy="568325"/>
+          <a:off x="2397760" y="2765425"/>
+          <a:ext cx="688340" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5990,8 +5990,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4505325" y="1190625"/>
-          <a:ext cx="1152525" cy="2790825"/>
+          <a:off x="4425315" y="1141095"/>
+          <a:ext cx="1129665" cy="2646045"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6037,8 +6037,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4508500" y="695325"/>
-          <a:ext cx="1177925" cy="3308350"/>
+          <a:off x="4428490" y="668655"/>
+          <a:ext cx="1155065" cy="3140710"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6360,7 +6360,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6391,7 +6391,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6410,7 +6410,7 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6426,18 +6426,18 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.55454545454545" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.55555555555556" style="22" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3363636363636" style="1" customWidth="1"/>
-    <col min="4" max="9" width="8.89090909090909" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.10909090909091" style="36" customWidth="1"/>
-    <col min="11" max="11" width="4.22727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="9" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.11111111111111" style="36" customWidth="1"/>
+    <col min="11" max="11" width="4.23148148148148" style="1" customWidth="1"/>
     <col min="12" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="4.44545454545455" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44444444444444" style="1" customWidth="1"/>
     <col min="18" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="10.1090909090909" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1111111111111" style="1" customWidth="1"/>
     <col min="21" max="21" width="4" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
@@ -7825,7 +7825,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -7882,21 +7882,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="8.89090909090909" style="1"/>
-    <col min="3" max="3" width="9.10909090909091" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="9.11111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.55454545454545" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77272727272727" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.10909090909091" style="1"/>
-    <col min="10" max="10" width="9.25454545454545" style="1"/>
-    <col min="11" max="11" width="8.75454545454545" style="1" customWidth="1"/>
-    <col min="12" max="26" width="8.89090909090909" style="1"/>
+    <col min="6" max="6" width="10.8703703703704" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.76851851851852" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.11111111111111" style="1"/>
+    <col min="10" max="10" width="9.25" style="1"/>
+    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
+    <col min="12" max="26" width="8.88888888888889" style="1"/>
     <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="16384" width="8.89090909090909" style="1"/>
+    <col min="28" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -7940,7 +7940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" ht="16.2" spans="2:21">
       <c r="B3" s="1">
         <v>6</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" ht="16.2" spans="2:22">
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" ht="16.2" spans="2:22">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" ht="16.2" spans="2:22">
       <c r="B6" s="24">
         <v>3</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" ht="16.2" spans="2:23">
       <c r="B7" s="24">
         <v>2</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" ht="16.2" spans="2:22">
       <c r="B8" s="24">
         <v>1</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:22">
+    <row r="9" ht="16.2" spans="3:22">
       <c r="C9" s="1">
         <f>SUM(C3:C8)</f>
         <v>891</v>
@@ -8304,14 +8304,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" ht="16.2" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" ht="16.2" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" ht="16.2" spans="2:23">
       <c r="B19" s="27">
         <v>4</v>
       </c>
@@ -8888,9 +8888,9 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="9" width="10.1090909090909" customWidth="1"/>
+    <col min="5" max="9" width="10.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9574,13 +9574,13 @@
   <dimension ref="A2:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.62727272727273" customWidth="1"/>
-    <col min="5" max="5" width="3.75454545454545" customWidth="1"/>
+    <col min="1" max="1" width="4.62962962962963" customWidth="1"/>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22">
@@ -9718,47 +9718,47 @@
         <v>100</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f>CONCATENATE("0,",VLOOKUP(G5,$B:$C,2,FALSE),",5")</f>
-        <v>0,340,5</v>
+        <f>CONCATENATE("0,",VLOOKUP(G5,$B:$C,2,FALSE),",10")</f>
+        <v>0,316,10</v>
       </c>
       <c r="I5" s="12">
         <v>3</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="9" t="str">
-        <f>CONCATENATE("0,",VLOOKUP(J5,$B:$C,2,FALSE),",5")</f>
-        <v>0,316,5</v>
+        <f>CONCATENATE("0,",VLOOKUP(J5,$B:$C,2,FALSE),",10")</f>
+        <v>0,316,10</v>
       </c>
       <c r="L5" s="12">
         <v>3</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f>CONCATENATE("0,",VLOOKUP(M5,$B:$C,2,FALSE),",5")</f>
-        <v>0,256,5</v>
+        <f>CONCATENATE("0,",VLOOKUP(M5,$B:$C,2,FALSE),",10")</f>
+        <v>0,256,10</v>
       </c>
       <c r="O5" s="12">
         <v>3</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="9" t="str">
-        <f>CONCATENATE("0,",VLOOKUP(P5,$B:$C,2,FALSE),",5")</f>
-        <v>0,192,5</v>
+        <f>CONCATENATE("0,",VLOOKUP(P5,$B:$C,2,FALSE),",10")</f>
+        <v>0,192,10</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" t="s">
         <v>104</v>
-      </c>
-      <c r="T5" t="s">
-        <v>105</v>
       </c>
       <c r="U5">
         <f>VLOOKUP(S5,武将表!$A:$B,2,FALSE)</f>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(B6,武将表!$A:$B,2,FALSE)</f>
@@ -9800,10 +9800,10 @@
         <v>4</v>
       </c>
       <c r="S6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6">
@@ -9812,7 +9812,7 @@
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <f>VLOOKUP(B7,武将表!$A:$B,2,FALSE)</f>
@@ -9842,10 +9842,10 @@
         <v>5</v>
       </c>
       <c r="S7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7">
@@ -9854,7 +9854,7 @@
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>136</v>
@@ -9863,7 +9863,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,$B:$C,2,FALSE),",5")</f>
@@ -9873,7 +9873,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,$B:$C,2,FALSE),",5")</f>
@@ -9883,7 +9883,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,$B:$C,2,FALSE),",5")</f>
@@ -9893,7 +9893,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,$B:$C,2,FALSE),",5")</f>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="13" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <f>VLOOKUP(B9,武将表!$A:$B,2,FALSE)</f>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="10" spans="2:22">
       <c r="B10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <f>VLOOKUP(B10,武将表!$A:$B,2,FALSE)</f>
@@ -10129,7 +10129,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,$B:$C,2,FALSE),",5")</f>
@@ -10139,7 +10139,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,$B:$C,2,FALSE),",5")</f>
@@ -10149,7 +10149,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,$B:$C,2,FALSE),",5")</f>
@@ -10159,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,$B:$C,2,FALSE),",5")</f>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="16" spans="2:22">
       <c r="B16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16">
         <f>VLOOKUP(B16,武将表!$A:$B,2,FALSE)</f>
@@ -10263,7 +10263,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,$B:$C,2,FALSE),",5")</f>
@@ -10273,7 +10273,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" s="9" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,$B:$C,2,FALSE),",5")</f>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <f>VLOOKUP(B18,武将表!$A:$B,2,FALSE)</f>
@@ -10565,7 +10565,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <f>VLOOKUP(B26,武将表!$A:$B,2,FALSE)</f>
@@ -10574,7 +10574,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <f>VLOOKUP(B27,武将表!$A:$B,2,FALSE)</f>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="15:15">
@@ -10652,7 +10652,7 @@
       <selection activeCell="D976" sqref="D976"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
@@ -10712,7 +10712,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -11000,7 +11000,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
@@ -11320,7 +11320,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="7">
         <v>83</v>
@@ -11456,7 +11456,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B137" s="7">
         <v>136</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B148" s="7">
         <v>147</v>
@@ -11848,7 +11848,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B150" s="7">
         <v>149</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B193" s="7">
         <v>192</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B257" s="7">
         <v>256</v>
@@ -13184,7 +13184,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B317" s="7">
         <v>316</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B341" s="7">
         <v>340</v>
@@ -18677,10 +18677,10 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.87272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.87037037037037" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -18761,12 +18761,12 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" ht="16.2" spans="2:15">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -18810,7 +18810,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" ht="16.2" spans="2:10">
       <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
@@ -18841,7 +18841,7 @@
     <row r="13" spans="8:8">
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="4:12">
+    <row r="14" ht="16.2" spans="4:12">
       <c r="D14" s="5" t="s">
         <v>1106</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="20" spans="8:14">
+    <row r="20" ht="16.2" spans="8:14">
       <c r="H20" s="5" t="s">
         <v>1119</v>
       </c>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -3590,11 +3590,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="28">
@@ -3661,30 +3661,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3697,11 +3689,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3720,8 +3711,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3744,23 +3758,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3775,21 +3790,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3798,7 +3798,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3873,7 +3873,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3885,13 +3945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3903,7 +3957,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3915,133 +4041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4053,7 +4053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4082,13 +4082,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4104,54 +4108,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4174,6 +4130,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -4187,10 +4187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4199,137 +4199,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4354,29 +4354,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4384,28 +4399,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6462,11 +6477,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.55555555555556" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.55555555555556" style="31" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="9" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.11111111111111" style="40" customWidth="1"/>
+    <col min="10" max="10" width="2.11111111111111" style="45" customWidth="1"/>
     <col min="11" max="11" width="4.23148148148148" style="1" customWidth="1"/>
     <col min="12" max="16" width="9" style="1"/>
     <col min="17" max="17" width="4.44444444444444" style="1" customWidth="1"/>
@@ -6477,130 +6492,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42">
+      <c r="D1" s="47">
         <v>1</v>
       </c>
-      <c r="E1" s="42">
+      <c r="E1" s="47">
         <v>2</v>
       </c>
-      <c r="F1" s="42">
+      <c r="F1" s="47">
         <v>3</v>
       </c>
-      <c r="G1" s="42">
+      <c r="G1" s="47">
         <v>4</v>
       </c>
-      <c r="H1" s="42">
+      <c r="H1" s="47">
         <v>5</v>
       </c>
-      <c r="I1" s="42">
+      <c r="I1" s="47">
         <v>6</v>
       </c>
       <c r="N1" s="1">
         <v>2</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="47">
         <f>T3</f>
         <v>250</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="47">
         <f>T4</f>
         <v>375</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="47">
         <f>T5</f>
         <v>500</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="47">
         <f>T6</f>
         <v>625</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="47">
         <f>T7</f>
         <v>750</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="47">
         <f>T8</f>
         <v>875</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="50" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="42">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="47">
         <f t="shared" ref="C3:C8" si="0">O3</f>
         <v>50</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="48">
         <f>D$2/$C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="48">
         <f>E$2/$C3</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="48">
         <f>F$2/$C3</f>
         <v>10</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="48">
         <f>G$2/$C3</f>
         <v>12.5</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="48">
         <f>H$2/$C3</f>
         <v>15</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="48">
         <f>I$2/$C3</f>
         <v>17.5</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="50">
         <v>1</v>
       </c>
       <c r="L3" s="1">
@@ -6613,63 +6628,63 @@
         <f>L3*$N$1</f>
         <v>100</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="51">
         <f t="shared" ref="O3:O8" si="1">M3*N3+(1-M3)*L3</f>
         <v>50</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="50">
         <v>1</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="53">
         <v>250</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="51">
         <f t="shared" ref="T3:T8" si="2">R3*(1+S3)</f>
         <v>250</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="42">
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="47">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="48">
         <f>D$2/$C4</f>
         <v>3.17460317460317</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="48">
         <f>E$2/$C4</f>
         <v>4.76190476190476</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="48">
         <f>F$2/$C4</f>
         <v>6.34920634920635</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="48">
         <f>G$2/$C4</f>
         <v>7.93650793650794</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="48">
         <f>H$2/$C4</f>
         <v>9.52380952380952</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="48">
         <f>I$2/$C4</f>
         <v>11.1111111111111</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="50">
         <v>2</v>
       </c>
       <c r="L4" s="1">
@@ -6682,21 +6697,21 @@
         <f>L4*$N$1</f>
         <v>150</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="51">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="50">
         <v>2</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="53">
         <f>R3+125</f>
         <v>375</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="51">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
@@ -6708,38 +6723,38 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="42">
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="47">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="48">
         <f>D$2/$C5</f>
         <v>2.27272727272727</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="48">
         <f>E$2/$C5</f>
         <v>3.40909090909091</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="48">
         <f>F$2/$C5</f>
         <v>4.54545454545455</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="48">
         <f>G$2/$C5</f>
         <v>5.68181818181818</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="48">
         <f>H$2/$C5</f>
         <v>6.81818181818182</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="48">
         <f>I$2/$C5</f>
         <v>7.95454545454545</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="50">
         <v>3</v>
       </c>
       <c r="L5" s="1">
@@ -6752,58 +6767,58 @@
         <f>L5*$N$1</f>
         <v>200</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="51">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="50">
         <v>3</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="53">
         <f>R4+125</f>
         <v>500</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="51">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="42">
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="47">
         <f t="shared" si="0"/>
         <v>143.75</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="48">
         <f>D$2/$C6</f>
         <v>1.73913043478261</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="48">
         <f>E$2/$C6</f>
         <v>2.60869565217391</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="48">
         <f>F$2/$C6</f>
         <v>3.47826086956522</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="48">
         <f>G$2/$C6</f>
         <v>4.34782608695652</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="48">
         <f>H$2/$C6</f>
         <v>5.21739130434783</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="48">
         <f>I$2/$C6</f>
         <v>6.08695652173913</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="50">
         <v>4</v>
       </c>
       <c r="L6" s="1">
@@ -6816,58 +6831,58 @@
         <f>L6*$N$1</f>
         <v>250</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="51">
         <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="50">
         <v>4</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="53">
         <f>R5+125</f>
         <v>625</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="51">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="42">
+      <c r="B7" s="47">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="47">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="48">
         <f>D$2/$C7</f>
         <v>1.38888888888889</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="48">
         <f>E$2/$C7</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="48">
         <f>F$2/$C7</f>
         <v>2.77777777777778</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="48">
         <f>G$2/$C7</f>
         <v>3.47222222222222</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="48">
         <f>H$2/$C7</f>
         <v>4.16666666666667</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="48">
         <f>I$2/$C7</f>
         <v>4.86111111111111</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="50">
         <v>5</v>
       </c>
       <c r="L7" s="1">
@@ -6880,58 +6895,58 @@
         <f>L7*$N$1</f>
         <v>300</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="51">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="50">
         <v>5</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="53">
         <f>R6+125</f>
         <v>750</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="51">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="42">
+      <c r="B8" s="47">
         <v>6</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="47">
         <f t="shared" si="0"/>
         <v>218.75</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="48">
         <f>D$2/$C8</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="48">
         <f>E$2/$C8</f>
         <v>1.71428571428571</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="48">
         <f>F$2/$C8</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="48">
         <f>G$2/$C8</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="48">
         <f>H$2/$C8</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="48">
         <f>I$2/$C8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="50">
         <v>6</v>
       </c>
       <c r="L8" s="1">
@@ -6944,49 +6959,49 @@
         <f>L8*$N$1</f>
         <v>350</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="51">
         <f t="shared" si="1"/>
         <v>218.75</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="50">
         <v>6</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="53">
         <f>R7+125</f>
         <v>875</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="51">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="47">
         <v>2</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="47">
         <v>3</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="47">
         <v>4</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="47">
         <v>5</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="47">
         <v>6</v>
       </c>
       <c r="N10" s="1">
@@ -6994,91 +7009,91 @@
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="47">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="47">
         <f>T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="47">
         <f>T14</f>
         <v>588.235294117647</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="47">
         <f>T15</f>
         <v>781.25</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="47">
         <f>T16</f>
         <v>1000</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="47">
         <f>T17</f>
         <v>1250</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45" t="s">
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="42">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="49">
         <f t="shared" ref="C12:C17" si="3">O12</f>
         <v>51.25</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="48">
         <f t="shared" ref="D12:D17" si="4">D$11/$C12</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="48">
         <f t="shared" ref="E12:E17" si="5">E$11/$C12</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="48">
         <f t="shared" ref="F12:F17" si="6">F$11/$C12</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="48">
         <f t="shared" ref="G12:G17" si="7">G$11/$C12</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="48">
         <f t="shared" ref="H12:H17" si="8">H$11/$C12</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="48">
         <f t="shared" ref="I12:I17" si="9">I$11/$C12</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="50">
         <v>1</v>
       </c>
       <c r="L12" s="1">
@@ -7088,62 +7103,62 @@
       <c r="M12" s="1">
         <v>0.05</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="32">
         <f t="shared" ref="N12:N17" si="11">L12*$N$10</f>
         <v>75</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="52">
         <f>M3*N3+M12*N12+(1-M12-M3)*L12</f>
         <v>51.25</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="50">
         <v>1</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="32">
         <f t="shared" ref="R12:R17" si="12">T3</f>
         <v>250</v>
       </c>
       <c r="S12" s="1">
         <v>0.05</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="51">
         <f>R12/(1-S12)</f>
         <v>263.157894736842</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="42">
+      <c r="B13" s="47">
         <v>2</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="49">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="48">
         <f t="shared" si="4"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="48">
         <f t="shared" si="5"/>
         <v>5.05050505050505</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="48">
         <f t="shared" si="6"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="48">
         <f t="shared" si="7"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="48">
         <f t="shared" si="8"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="48">
         <f t="shared" si="9"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="50">
         <v>2</v>
       </c>
       <c r="L13" s="1">
@@ -7153,62 +7168,62 @@
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="32">
         <f t="shared" si="11"/>
         <v>112.5</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="52">
         <f t="shared" ref="O12:O17" si="13">M4*N4+M13*N13+(1-M13-M4)*L13</f>
         <v>82.5</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="50">
         <v>2</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="32">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
       <c r="S13" s="1">
         <v>0.1</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="51">
         <f t="shared" ref="T12:T17" si="14">R13/(1-S13)</f>
         <v>416.666666666667</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="42">
+      <c r="B14" s="47">
         <v>3</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="49">
         <f t="shared" si="3"/>
         <v>117.5</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="48">
         <f t="shared" si="4"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="48">
         <f t="shared" si="5"/>
         <v>3.54609929078014</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="48">
         <f t="shared" si="6"/>
         <v>5.00625782227785</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="48">
         <f t="shared" si="7"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="48">
         <f t="shared" si="8"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="48">
         <f t="shared" si="9"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="50">
         <v>3</v>
       </c>
       <c r="L14" s="1">
@@ -7218,62 +7233,62 @@
       <c r="M14" s="1">
         <v>0.15</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="32">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="52">
         <f t="shared" si="13"/>
         <v>117.5</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="50">
         <v>3</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="32">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="S14" s="1">
         <v>0.15</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="51">
         <f t="shared" si="14"/>
         <v>588.235294117647</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="42">
+      <c r="B15" s="47">
         <v>4</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="49">
         <f t="shared" si="3"/>
         <v>156.25</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="48">
         <f t="shared" si="4"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="48">
         <f t="shared" si="5"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="48">
         <f t="shared" si="6"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="48">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="48">
         <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="48">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="50">
         <v>4</v>
       </c>
       <c r="L15" s="1">
@@ -7283,62 +7298,62 @@
       <c r="M15" s="1">
         <v>0.2</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="32">
         <f t="shared" si="11"/>
         <v>187.5</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="52">
         <f t="shared" si="13"/>
         <v>156.25</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="50">
         <v>4</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="32">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
       <c r="S15" s="1">
         <v>0.2</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="51">
         <f t="shared" si="14"/>
         <v>781.25</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="42">
+      <c r="B16" s="47">
         <v>5</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="49">
         <f t="shared" si="3"/>
         <v>198.75</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="48">
         <f t="shared" si="4"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="48">
         <f t="shared" si="5"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="48">
         <f t="shared" si="6"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="48">
         <f t="shared" si="7"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="48">
         <f t="shared" si="8"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="48">
         <f t="shared" si="9"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="50">
         <v>5</v>
       </c>
       <c r="L16" s="1">
@@ -7348,62 +7363,62 @@
       <c r="M16" s="1">
         <v>0.25</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="32">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="52">
         <f t="shared" si="13"/>
         <v>198.75</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="50">
         <v>5</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="32">
         <f t="shared" si="12"/>
         <v>750</v>
       </c>
       <c r="S16" s="1">
         <v>0.25</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="51">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="42">
+      <c r="B17" s="47">
         <v>6</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="49">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="48">
         <f t="shared" si="4"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="48">
         <f t="shared" si="5"/>
         <v>1.70068027210884</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="48">
         <f t="shared" si="6"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="48">
         <f t="shared" si="7"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="48">
         <f t="shared" si="8"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="48">
         <f t="shared" si="9"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="50">
         <v>6</v>
       </c>
       <c r="L17" s="1">
@@ -7413,435 +7428,435 @@
       <c r="M17" s="1">
         <v>0.3</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="32">
         <f t="shared" si="11"/>
         <v>262.5</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="52">
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="50">
         <v>6</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="32">
         <f t="shared" si="12"/>
         <v>875</v>
       </c>
       <c r="S17" s="1">
         <v>0.3</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="51">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="47">
         <v>1</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="47">
         <v>2</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="47">
         <v>3</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="47">
         <v>4</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="47">
         <v>5</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="47">
         <f>S21</f>
         <v>394.736842105263</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="47">
         <f>S22</f>
         <v>625.000000000001</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="47">
         <f>S23</f>
         <v>882.35294117647</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="47">
         <f>S24</f>
         <v>1171.875</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="47">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="47">
         <f>S26</f>
         <v>1875</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45" t="s">
+      <c r="K20" s="50"/>
+      <c r="L20" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45" t="s">
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="45" t="s">
+      <c r="S20" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="42">
+      <c r="B21" s="47">
         <v>1</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="49">
         <f t="shared" ref="C21:C26" si="15">M21</f>
         <v>76.875</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="48">
         <f t="shared" ref="D21:D26" si="16">D$20/$C21</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="48">
         <f t="shared" ref="E21:E26" si="17">E$20/$C21</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="48">
         <f t="shared" ref="F21:F26" si="18">F$20/$C21</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="48">
         <f t="shared" ref="G21:G26" si="19">G$20/$C21</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="48">
         <f t="shared" ref="H21:H26" si="20">H$20/$C21</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="48">
         <f t="shared" ref="I21:I26" si="21">I$20/$C21</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="50">
         <v>1</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="32">
         <f>O12</f>
         <v>51.25</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="32">
         <f t="shared" ref="M21:M26" si="22">L21*1.5</f>
         <v>76.875</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="50">
         <v>1</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="32">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="32">
         <f>R21*1.5</f>
         <v>394.736842105263</v>
       </c>
-      <c r="T21" s="27"/>
+      <c r="T21" s="32"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="42">
+      <c r="B22" s="47">
         <v>2</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="49">
         <f t="shared" si="15"/>
         <v>123.75</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="48">
         <f t="shared" si="16"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="48">
         <f t="shared" si="17"/>
         <v>5.05050505050506</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="48">
         <f t="shared" si="18"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="48">
         <f t="shared" si="19"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="48">
         <f t="shared" si="20"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="48">
         <f t="shared" si="21"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="50">
         <v>2</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="32">
         <f>O13</f>
         <v>82.5</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="32">
         <f t="shared" si="22"/>
         <v>123.75</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="50">
         <v>2</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="32">
         <f t="shared" ref="R21:R26" si="23">T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="32">
         <f t="shared" ref="S21:S26" si="24">R22*1.5</f>
         <v>625.000000000001</v>
       </c>
-      <c r="T22" s="27"/>
+      <c r="T22" s="32"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="42">
+      <c r="B23" s="47">
         <v>3</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="49">
         <f t="shared" si="15"/>
         <v>176.25</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="48">
         <f t="shared" si="16"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="48">
         <f t="shared" si="17"/>
         <v>3.54609929078015</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="48">
         <f t="shared" si="18"/>
         <v>5.00625782227784</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="48">
         <f t="shared" si="19"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="48">
         <f t="shared" si="20"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="48">
         <f t="shared" si="21"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="50">
         <v>3</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="32">
         <f t="shared" ref="L21:L26" si="25">O14</f>
         <v>117.5</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="32">
         <f t="shared" si="22"/>
         <v>176.25</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="50">
         <v>3</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="32">
         <f t="shared" si="23"/>
         <v>588.235294117647</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="32">
         <f t="shared" si="24"/>
         <v>882.35294117647</v>
       </c>
-      <c r="T23" s="27"/>
+      <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="42">
+      <c r="B24" s="47">
         <v>4</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="49">
         <f t="shared" si="15"/>
         <v>234.375</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="48">
         <f t="shared" si="16"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="48">
         <f t="shared" si="17"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="48">
         <f t="shared" si="18"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="48">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="48">
         <f t="shared" si="20"/>
         <v>6.4</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="48">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="50">
         <v>4</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="32">
         <f t="shared" si="25"/>
         <v>156.25</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="32">
         <f t="shared" si="22"/>
         <v>234.375</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="50">
         <v>4</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="32">
         <f t="shared" si="23"/>
         <v>781.25</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="32">
         <f t="shared" si="24"/>
         <v>1171.875</v>
       </c>
-      <c r="T24" s="27"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="42">
+      <c r="B25" s="47">
         <v>5</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="49">
         <f t="shared" si="15"/>
         <v>298.125</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="48">
         <f t="shared" si="16"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="48">
         <f t="shared" si="17"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="48">
         <f t="shared" si="18"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="48">
         <f t="shared" si="19"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="48">
         <f t="shared" si="20"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="48">
         <f t="shared" si="21"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="50">
         <v>5</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="32">
         <f t="shared" si="25"/>
         <v>198.75</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="32">
         <f t="shared" si="22"/>
         <v>298.125</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="50">
         <v>5</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="32">
         <f t="shared" si="23"/>
         <v>1000</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="32">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="T25" s="27"/>
+      <c r="T25" s="32"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="42">
+      <c r="B26" s="47">
         <v>6</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="49">
         <f t="shared" si="15"/>
         <v>367.5</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="48">
         <f t="shared" si="16"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="48">
         <f t="shared" si="17"/>
         <v>1.70068027210885</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="48">
         <f t="shared" si="18"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="48">
         <f t="shared" si="19"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="48">
         <f t="shared" si="20"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="48">
         <f t="shared" si="21"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="50">
         <v>6</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="32">
         <f t="shared" si="25"/>
         <v>245</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="32">
         <f t="shared" si="22"/>
         <v>367.5</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="50">
         <v>6</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="32">
         <f t="shared" si="23"/>
         <v>1250</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="32">
         <f t="shared" si="24"/>
         <v>1875</v>
       </c>
-      <c r="T26" s="27"/>
+      <c r="T26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8021,7 +8036,7 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="31">
         <v>0.5</v>
       </c>
       <c r="G3" s="1">
@@ -8030,7 +8045,7 @@
       <c r="I3" s="1">
         <v>24</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="31">
         <f>F3*I3</f>
         <v>12</v>
       </c>
@@ -8045,25 +8060,25 @@
       <c r="N3" s="1">
         <v>12</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="37">
         <v>1</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="37">
         <v>2</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="37">
         <v>3</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="37">
         <v>4</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="37">
         <v>5</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="37">
         <v>6</v>
       </c>
     </row>
@@ -8080,20 +8095,20 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="31">
         <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="32">
         <f>(F4/E4)/(F3/E3)</f>
         <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="31">
         <f>F4*I4</f>
         <v>24</v>
       </c>
@@ -8105,21 +8120,21 @@
         <f>J4*7+T14*2</f>
         <v>188</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="36" t="s">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
       <c r="V4" s="1">
         <v>50</v>
       </c>
@@ -8137,20 +8152,20 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="31">
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="32">
         <f>(F5/E5)/(F$4/E$4)</f>
         <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="31">
         <f>F5*I5</f>
         <v>24</v>
       </c>
@@ -8162,133 +8177,133 @@
         <f>J5*7+S15+S14*2</f>
         <v>168</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="36" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="33"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="6" ht="16.2" spans="2:22">
-      <c r="B6" s="28">
+      <c r="B6" s="33">
         <v>3</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="33">
         <v>261</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="33">
         <v>10</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="34">
         <v>0.75</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="33">
         <v>50</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="35">
         <f>(F6/E6)/(F$5/E$5)</f>
         <v>1.5</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="33">
         <v>24</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="34">
         <f t="shared" ref="J6:J12" si="0">F6*I6</f>
         <v>18</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="33">
         <f t="shared" ref="K6:K12" si="1">G6*J6</f>
         <v>900</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="33">
         <f>J6*7+Q14*2+R15</f>
         <v>141</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="36" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="33"/>
+      <c r="U6" s="38"/>
       <c r="V6" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="7" ht="16.2" spans="2:23">
-      <c r="B7" s="28">
+      <c r="B7" s="33">
         <v>2</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="33">
         <v>364</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="33">
         <v>13</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="33">
         <v>5</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="33">
         <v>20</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="35">
         <f>(F7/E7)/(F6/E6)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="33">
         <v>24</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="33">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="33">
         <f>J7*7</f>
         <v>168</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="36" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="36" t="s">
+      <c r="U7" s="41" t="s">
         <v>40</v>
       </c>
       <c r="V7" s="1">
@@ -8300,38 +8315,38 @@
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:22">
-      <c r="B8" s="28">
+      <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="33">
         <v>91</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28">
+      <c r="F8" s="34"/>
+      <c r="G8" s="33">
         <v>10</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="O8" s="33" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="O8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="36" t="s">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="36" t="s">
+      <c r="U8" s="41" t="s">
         <v>40</v>
       </c>
       <c r="V8" s="1">
@@ -8347,25 +8362,25 @@
         <f>SUM(E3:E8)</f>
         <v>35</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="K9" s="34">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="K9" s="39">
         <f>SUM(K3:K8)</f>
         <v>14580</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="36" t="s">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="36" t="s">
+      <c r="U9" s="41" t="s">
         <v>40</v>
       </c>
       <c r="V9" s="1">
@@ -8376,8 +8391,8 @@
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
@@ -8392,17 +8407,17 @@
       <c r="E11" s="1">
         <v>15</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="32">
         <f>(F11/E11)/(F$4/E$4)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="40">
         <v>12</v>
       </c>
       <c r="J11" s="1">
@@ -8434,17 +8449,17 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="31">
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="32">
         <f>(F12/E12)/(F$5/E$5)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="40">
         <v>12</v>
       </c>
       <c r="J12" s="1">
@@ -8459,25 +8474,25 @@
         <f>J12*7</f>
         <v>84</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="37">
         <v>2</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="42">
         <v>3</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="37">
         <v>5</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="37">
         <v>6</v>
       </c>
     </row>
@@ -8485,21 +8500,21 @@
       <c r="N13" s="1">
         <v>12</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="38" t="s">
+      <c r="P13" s="38"/>
+      <c r="Q13" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="S13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
       <c r="V13" s="1">
         <v>50</v>
       </c>
@@ -8526,21 +8541,21 @@
         <f>W19</f>
         <v>5170</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="36">
+      <c r="P14" s="38"/>
+      <c r="Q14" s="41">
         <v>5</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="41">
         <v>5</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="36">
+      <c r="S14" s="38"/>
+      <c r="T14" s="41">
         <v>10</v>
       </c>
-      <c r="U14" s="33"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="1">
         <v>300</v>
       </c>
@@ -8556,13 +8571,13 @@
       </c>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="36" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -8574,19 +8589,19 @@
       <c r="K15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="36">
+      <c r="P15" s="38"/>
+      <c r="Q15" s="41">
         <v>5</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="41">
         <v>5</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="36">
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="41">
         <v>10</v>
       </c>
       <c r="V15" s="1">
@@ -8604,20 +8619,20 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="31">
+      <c r="B16" s="36">
         <v>1</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="36">
         <v>5</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="36">
         <v>100</v>
       </c>
       <c r="F16" s="1">
         <f>SUM(C$16:C16)*$J$14</f>
         <v>100</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="32">
         <f>F16/$L$3</f>
         <v>1.06382978723404</v>
       </c>
@@ -8625,26 +8640,26 @@
         <f>SUM(D$16:D16)*$J$14</f>
         <v>2000</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="32">
         <f>J16/$L$14</f>
         <v>0.386847195357834</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="31">
+      <c r="B17" s="36">
         <v>2</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="36">
         <v>5</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="36">
         <v>500</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(C$16:C17)*$J$14</f>
         <v>200</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="32">
         <f t="shared" ref="G17:G26" si="2">F17/$L$3</f>
         <v>2.12765957446808</v>
       </c>
@@ -8652,26 +8667,26 @@
         <f>SUM(D$16:D17)*$J$14</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="32">
         <f t="shared" ref="K17:K26" si="3">J17/$L$14</f>
         <v>2.321083172147</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="31">
+      <c r="B18" s="36">
         <v>3</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="36">
         <v>10</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="36">
         <v>1000</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(C$16:C18)*$J$14</f>
         <v>400</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="32">
         <f t="shared" si="2"/>
         <v>4.25531914893617</v>
       </c>
@@ -8679,7 +8694,7 @@
         <f>SUM(D$16:D18)*$J$14</f>
         <v>32000</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="32">
         <f t="shared" si="3"/>
         <v>6.18955512572534</v>
       </c>
@@ -8696,20 +8711,20 @@
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:23">
-      <c r="B19" s="31">
+      <c r="B19" s="36">
         <v>4</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="36">
         <v>20</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="36">
         <v>2000</v>
       </c>
       <c r="F19" s="1">
         <f>SUM(C$16:C19)*$J$14</f>
         <v>800</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="32">
         <f t="shared" si="2"/>
         <v>8.51063829787234</v>
       </c>
@@ -8717,30 +8732,30 @@
         <f>SUM(D$16:D19)*$J$14</f>
         <v>72000</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="32">
         <f t="shared" si="3"/>
         <v>13.926499032882</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="39">
         <f>SUM(W4:W18)</f>
         <v>5170</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="31">
+      <c r="B20" s="36">
         <v>5</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="36">
         <v>40</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="36">
         <v>4000</v>
       </c>
       <c r="F20" s="1">
         <f>SUM(C$16:C20)*$J$14</f>
         <v>1600</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="32">
         <f t="shared" si="2"/>
         <v>17.0212765957447</v>
       </c>
@@ -8748,26 +8763,26 @@
         <f>SUM(D$16:D20)*$J$14</f>
         <v>152000</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="32">
         <f t="shared" si="3"/>
         <v>29.4003868471954</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="31">
+      <c r="B21" s="36">
         <v>6</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="36">
         <v>60</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="36">
         <v>8000</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(C$16:C21)*$J$14</f>
         <v>2800</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="32">
         <f t="shared" si="2"/>
         <v>29.7872340425532</v>
       </c>
@@ -8775,26 +8790,26 @@
         <f>SUM(D$16:D21)*$J$14</f>
         <v>312000</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="32">
         <f t="shared" si="3"/>
         <v>60.3481624758221</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="31">
+      <c r="B22" s="36">
         <v>7</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="36">
         <v>100</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="36">
         <v>15000</v>
       </c>
       <c r="F22" s="1">
         <f>SUM(C$16:C22)*$J$14</f>
         <v>4800</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="32">
         <f t="shared" si="2"/>
         <v>51.063829787234</v>
       </c>
@@ -8802,26 +8817,26 @@
         <f>SUM(D$16:D22)*$J$14</f>
         <v>612000</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="32">
         <f t="shared" si="3"/>
         <v>118.375241779497</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="31">
+      <c r="B23" s="36">
         <v>8</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="36">
         <v>150</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="36">
         <v>30000</v>
       </c>
       <c r="F23" s="1">
         <f>SUM(C$16:C23)*$J$14</f>
         <v>7800</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="32">
         <f t="shared" si="2"/>
         <v>82.9787234042553</v>
       </c>
@@ -8829,27 +8844,27 @@
         <f>SUM(D$16:D23)*$J$14</f>
         <v>1212000</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="32">
         <f t="shared" si="3"/>
         <v>234.429400386847</v>
       </c>
-      <c r="V23" s="35"/>
+      <c r="V23" s="40"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="31">
+      <c r="B24" s="36">
         <v>9</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="36">
         <v>200</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="36">
         <v>45000</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(C$16:C24)*$J$14</f>
         <v>11800</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="32">
         <f t="shared" si="2"/>
         <v>125.531914893617</v>
       </c>
@@ -8857,26 +8872,26 @@
         <f>SUM(D$16:D24)*$J$14</f>
         <v>2112000</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="32">
         <f t="shared" si="3"/>
         <v>408.510638297872</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="31">
+      <c r="B25" s="36">
         <v>10</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="36">
         <v>300</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="36">
         <v>60000</v>
       </c>
       <c r="F25" s="1">
         <f>SUM(C$16:C25)*$J$14</f>
         <v>17800</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="32">
         <f t="shared" si="2"/>
         <v>189.36170212766</v>
       </c>
@@ -8884,26 +8899,26 @@
         <f>SUM(D$16:D25)*$J$14</f>
         <v>3312000</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="32">
         <f t="shared" si="3"/>
         <v>640.618955512572</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="31">
+      <c r="B26" s="36">
         <v>11</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="36">
         <v>500</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="36">
         <v>80000</v>
       </c>
       <c r="F26" s="1">
         <f>SUM(C$16:C26)*$J$14</f>
         <v>27800</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="32">
         <f t="shared" si="2"/>
         <v>295.744680851064</v>
       </c>
@@ -8911,7 +8926,7 @@
         <f>SUM(D$16:D26)*$J$14</f>
         <v>4912000</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="32">
         <f t="shared" si="3"/>
         <v>950.096711798839</v>
       </c>
@@ -8952,17 +8967,17 @@
   <sheetPr/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
-    <col min="6" max="7" width="10.1111111111111" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.1111111111111" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.1111111111111" style="16" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" style="16"/>
+    <col min="6" max="7" width="10.1111111111111" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.1111111111111" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.1111111111111" style="21" customWidth="1"/>
+    <col min="10" max="10" width="8.88888888888889" style="21"/>
     <col min="13" max="13" width="9.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8982,19 +8997,19 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="21" t="s">
         <v>77</v>
       </c>
       <c r="L1" t="s">
@@ -9022,23 +9037,23 @@
         <f>L6</f>
         <v>245</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="23">
         <f>C2/$D$2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="24">
         <v>1</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="24">
         <v>1</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="25">
         <v>1</v>
       </c>
       <c r="I2" s="24">
         <v>2</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="21">
         <v>1</v>
       </c>
       <c r="L2">
@@ -9071,23 +9086,23 @@
         <f>SUM(B$2:B3)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="23">
         <f>C3/$D$2</f>
         <v>0.0122448979591837</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="24">
         <v>1</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="I3" s="24">
         <v>3</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="21">
         <v>1</v>
       </c>
       <c r="L3">
@@ -9120,23 +9135,23 @@
         <f>SUM(B$2:B4)</f>
         <v>9</v>
       </c>
-      <c r="E4" s="18">
-        <f t="shared" ref="E3:E21" si="0">C4/$D$2</f>
+      <c r="E4" s="23">
+        <f t="shared" ref="E3:E23" si="0">C4/$D$2</f>
         <v>0.036734693877551</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="24">
         <v>1</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="24">
         <v>1</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="25" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="24">
         <v>4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="21">
         <v>1</v>
       </c>
       <c r="L4">
@@ -9166,23 +9181,23 @@
         <f>SUM(B$2:B5)</f>
         <v>19</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>0.0775510204081633</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="24">
         <v>1</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="25" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="24">
         <v>5</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="21">
         <v>1</v>
       </c>
     </row>
@@ -9197,23 +9212,23 @@
         <f>SUM(B$2:B6)</f>
         <v>39</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>0.159183673469388</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="24">
         <v>1</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="25" t="s">
         <v>83</v>
       </c>
       <c r="I6" s="24">
         <v>6</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="21">
         <v>2</v>
       </c>
       <c r="L6">
@@ -9234,7 +9249,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="12">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7">
@@ -9244,36 +9259,36 @@
         <f>SUM(B$2:B7)</f>
         <v>89</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>0.363265306122449</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="24">
         <v>2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="24">
         <v>1</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="25" t="s">
         <v>83</v>
       </c>
       <c r="I7" s="24">
         <v>7</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="21">
         <v>2</v>
       </c>
       <c r="L7">
         <f>M7*9*5</f>
         <v>294</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="30">
         <f>N6/45</f>
         <v>6.53333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8">
@@ -9283,23 +9298,23 @@
         <f>SUM(B$2:B8)</f>
         <v>189</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>0.771428571428571</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="24">
         <v>1</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="25" t="s">
         <v>83</v>
       </c>
       <c r="I8" s="24">
         <v>8</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="21">
         <v>2</v>
       </c>
     </row>
@@ -9314,28 +9329,28 @@
         <f>SUM(B$2:B9)</f>
         <v>389</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>1.58775510204082</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="24">
         <v>2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="24">
         <v>2</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="25" t="s">
         <v>85</v>
       </c>
       <c r="I9" s="24">
         <v>9</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10">
@@ -9345,28 +9360,28 @@
         <f>SUM(B$2:B10)</f>
         <v>689</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>2.81224489795918</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="24">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="24">
         <v>2</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="28" t="s">
         <v>86</v>
       </c>
       <c r="I10" s="24">
         <v>10</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11">
@@ -9376,23 +9391,23 @@
         <f>SUM(B$2:B11)</f>
         <v>1109</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>4.5265306122449</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="24">
         <v>2</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I11" s="24">
         <v>11</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="21">
         <v>3</v>
       </c>
     </row>
@@ -9407,28 +9422,28 @@
         <f>SUM(B$2:B12)</f>
         <v>1649</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="23">
         <f t="shared" si="0"/>
         <v>6.73061224489796</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="24">
         <v>2</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="24">
         <v>12</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13">
@@ -9438,28 +9453,28 @@
         <f>SUM(B$2:B13)</f>
         <v>2309</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>9.42448979591837</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="24">
         <v>3</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="24">
         <v>2</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I13" s="24">
         <v>13</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14">
@@ -9469,28 +9484,28 @@
         <f>SUM(B$2:B14)</f>
         <v>3089</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>12.6081632653061</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="24">
         <v>3</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="24">
         <v>3</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="29" t="s">
         <v>88</v>
       </c>
       <c r="I14" s="24">
         <v>14</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15">
@@ -9500,28 +9515,28 @@
         <f>SUM(B$2:B15)</f>
         <v>3989</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>16.2816326530612</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="24">
         <v>4</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="24">
         <v>3</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="29" t="s">
         <v>88</v>
       </c>
       <c r="I15" s="24">
         <v>15</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16">
@@ -9531,28 +9546,28 @@
         <f>SUM(B$2:B16)</f>
         <v>5189</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>21.1795918367347</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="24">
         <v>4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="24">
         <v>3</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="29" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="24">
         <v>16</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17">
@@ -9562,23 +9577,23 @@
         <f>SUM(B$2:B17)</f>
         <v>6789</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>27.7102040816327</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="24">
         <v>4</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="24">
         <v>3</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="29" t="s">
         <v>88</v>
       </c>
       <c r="I17" s="24">
         <v>17</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9593,23 +9608,23 @@
         <f>SUM(B$2:B18)</f>
         <v>8989</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>36.6897959183673</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="24">
         <v>4</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="24">
         <v>4</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="29" t="s">
         <v>89</v>
       </c>
       <c r="I18" s="24">
         <v>18</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9624,23 +9639,23 @@
         <f>SUM(B$2:B19)</f>
         <v>11989</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>48.934693877551</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="24">
         <v>5</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="24">
         <v>4</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="29" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="24">
         <v>19</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9655,23 +9670,23 @@
         <f>SUM(B$2:B20)</f>
         <v>16489</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>67.3020408163265</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="24">
         <v>5</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="24">
         <v>4</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="28" t="s">
         <v>90</v>
       </c>
       <c r="I20" s="24">
         <v>20</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9686,23 +9701,23 @@
         <f>SUM(B$2:B21)</f>
         <v>22489</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
         <v>91.7918367346939</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="24">
         <v>5</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="24">
         <v>4</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="28" t="s">
         <v>90</v>
       </c>
       <c r="I21" s="24">
         <v>21</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9717,20 +9732,20 @@
         <f>SUM(B$2:B22)</f>
         <v>31489</v>
       </c>
-      <c r="E22" s="18">
-        <f>C22/$D$2</f>
+      <c r="E22" s="23">
+        <f t="shared" si="0"/>
         <v>128.526530612245</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="21">
         <v>6</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="21">
         <v>5</v>
       </c>
       <c r="I22" s="24">
         <v>21</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9745,20 +9760,20 @@
         <f>SUM(B$2:B23)</f>
         <v>43489</v>
       </c>
-      <c r="E23" s="18">
-        <f>C23/$D$2</f>
+      <c r="E23" s="23">
+        <f t="shared" si="0"/>
         <v>177.50612244898</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="21">
         <v>6</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="21">
         <v>5</v>
       </c>
       <c r="I23" s="24">
         <v>21</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="21">
         <v>5</v>
       </c>
     </row>
@@ -9773,1067 +9788,1090 @@
   <sheetPr/>
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:R$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.62962962962963" customWidth="1"/>
-    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="4.62962962962963" style="8" customWidth="1"/>
+    <col min="2" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="3.75" style="8" customWidth="1"/>
+    <col min="6" max="7" width="9" style="8"/>
+    <col min="8" max="8" width="9" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9"/>
+    <col min="10" max="10" width="9" style="8"/>
+    <col min="11" max="11" width="9" style="8" customWidth="1"/>
+    <col min="12" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="9" style="8"/>
+    <col min="14" max="14" width="9" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9" style="9"/>
+    <col min="16" max="16" width="9" style="8"/>
+    <col min="17" max="17" width="9" style="8" customWidth="1"/>
+    <col min="18" max="18" width="9" style="9"/>
+    <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
+    <row r="2" ht="16.2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <f>VLOOKUP(B2,武将表!$A:$B,2,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="R2" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="V2" t="s">
+      <c r="S2" s="19"/>
+      <c r="V2" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <f>VLOOKUP(B3,武将表!$A:$B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="9">
         <v>1</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="9">
         <v>1</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="8">
         <f>VLOOKUP(S3,武将表!$A:$B,2,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <f>VLOOKUP(B4,武将表!$A:$B,2,FALSE)</f>
         <v>59</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="9">
         <v>2</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="9">
         <v>2</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="9">
         <v>2</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="8">
         <f>VLOOKUP(S4,武将表!$A:$B,2,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="10" t="s">
+    <row r="5" ht="16.2" spans="2:22">
+      <c r="B5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <f>VLOOKUP(B5,武将表!$A:$B,2,FALSE)</f>
         <v>61</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,$B:$C,2,FALSE),",10")</f>
         <v>0,316,10</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="9" t="str">
+      <c r="K5" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,$B:$C,2,FALSE),",10")</f>
         <v>0,316,10</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>3</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="9" t="str">
+      <c r="N5" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,$B:$C,2,FALSE),",10")</f>
         <v>0,256,10</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>3</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="9" t="str">
+      <c r="Q5" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,$B:$C,2,FALSE),",10")</f>
         <v>0,192,10</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="9">
         <v>3</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="8">
         <f>VLOOKUP(S5,武将表!$A:$B,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <f>VLOOKUP(B6,武将表!$A:$B,2,FALSE)</f>
         <v>149</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="9">
         <v>4</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="9">
         <v>4</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="9">
         <v>4</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="9">
         <v>4</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6">
+      <c r="U6" s="13"/>
+      <c r="V6" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <f>VLOOKUP(B7,武将表!$A:$B,2,FALSE)</f>
         <v>147</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="9">
         <v>5</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9">
         <v>5</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7">
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="9">
         <v>5</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="9">
         <v>5</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7">
+      <c r="U7" s="13"/>
+      <c r="V7" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="14" t="s">
+    <row r="8" ht="16.2" spans="2:21">
+      <c r="B8" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>136</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>6</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,$B:$C,2,FALSE),",5")</f>
         <v>0,147,5</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>6</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K8" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,$B:$C,2,FALSE),",5")</f>
         <v>0,136,5</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>6</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="9" t="str">
+      <c r="N8" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,$B:$C,2,FALSE),",5")</f>
         <v>0,100,5</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>6</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="Q8" s="9" t="str">
+      <c r="Q8" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,$B:$C,2,FALSE),",5")</f>
         <v>0,83,5</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="9">
         <v>6</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <f>VLOOKUP(B9,武将表!$A:$B,2,FALSE)</f>
         <v>340</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>7</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="9">
         <v>7</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="9">
         <v>7</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="9">
         <v>7</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="9">
         <v>7</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <f>VLOOKUP(B10,武将表!$A:$B,2,FALSE)</f>
         <v>316</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>8</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="9">
         <v>8</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="9">
         <v>8</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="9">
         <v>8</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="9">
         <v>8</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10">
+      <c r="S10" s="14"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="10" t="s">
+    <row r="11" ht="16.2" spans="2:22">
+      <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <f>VLOOKUP(B11,武将表!$A:$B,2,FALSE)</f>
         <v>66</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,$B:$C,2,FALSE),",5")</f>
         <v>0,59,5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="9" t="str">
+      <c r="K11" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,$B:$C,2,FALSE),",5")</f>
         <v>0,66,5</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>9</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="9" t="str">
+      <c r="N11" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,$B:$C,2,FALSE),",5")</f>
         <v>0,39,5</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>9</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q11" s="9" t="str">
+      <c r="Q11" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,$B:$C,2,FALSE),",5")</f>
         <v>0,26,5</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="9">
         <v>9</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11">
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f>VLOOKUP(B12,武将表!$A:$B,2,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9">
         <v>10</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="9">
         <v>10</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="9">
         <v>10</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="9">
         <v>10</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12">
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="8"/>
-      <c r="C13" t="e">
+      <c r="B13" s="17"/>
+      <c r="C13" s="8" t="e">
         <f>VLOOKUP(B13,武将表!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>11</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9">
         <v>11</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="9">
         <v>11</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13">
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9">
         <v>11</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="9">
         <v>11</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13">
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="10" t="s">
+    <row r="14" ht="16.2" spans="2:22">
+      <c r="B14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <f>VLOOKUP(B14,武将表!$A:$B,2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>12</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="9" t="str">
+      <c r="H14" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,$B:$C,2,FALSE),",5")</f>
         <v>0,147,5</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>12</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="9" t="str">
+      <c r="K14" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,$B:$C,2,FALSE),",5")</f>
         <v>0,136,5</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>12</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="9" t="str">
+      <c r="N14" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,$B:$C,2,FALSE),",5")</f>
         <v>0,100,5</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>12</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="9" t="str">
+      <c r="Q14" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,$B:$C,2,FALSE),",5")</f>
         <v>0,83,5</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="9">
         <v>12</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14">
+      <c r="S14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <f>VLOOKUP(B15,武将表!$A:$B,2,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <v>13</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="9">
         <v>13</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="9">
         <v>13</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="9">
         <v>13</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="9">
         <v>13</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15">
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <f>VLOOKUP(B16,武将表!$A:$B,2,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <v>14</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="9">
         <v>14</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="9">
         <v>14</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="9">
         <v>14</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="9">
         <v>14</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16">
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="14" t="s">
+    <row r="17" ht="16.2" spans="2:22">
+      <c r="B17" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <f>VLOOKUP(B17,武将表!$A:$B,2,FALSE)</f>
         <v>121</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>15</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="H17" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,$B:$C,2,FALSE),",5")</f>
         <v>0,149,5</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>15</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="9" t="str">
+      <c r="K17" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,$B:$C,2,FALSE),",5")</f>
         <v>0,149,5</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>15</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="9" t="str">
+      <c r="N17" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,$B:$C,2,FALSE),",5")</f>
         <v>0,121,5</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>15</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="Q17" s="9" t="str">
+      <c r="Q17" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,$B:$C,2,FALSE),",5")</f>
         <v>0,82,5</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="9">
         <v>15</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17">
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <f>VLOOKUP(B18,武将表!$A:$B,2,FALSE)</f>
         <v>256</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>16</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="9">
         <v>16</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="9">
         <v>16</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="9">
         <v>16</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="9">
         <v>16</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18">
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="13"/>
-      <c r="C19" t="e">
+      <c r="B19" s="18"/>
+      <c r="C19" s="8" t="e">
         <f>VLOOKUP(B19,武将表!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>17</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="9">
         <v>17</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="9">
         <v>17</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19">
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="9">
         <v>17</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="9">
         <v>17</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19">
+      <c r="S19" s="14"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="6:22">
-      <c r="F20" s="12">
+    <row r="20" ht="16.2" spans="6:22">
+      <c r="F20" s="11">
         <v>18</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="9" t="str">
+      <c r="H20" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,$B:$C,2,FALSE),",5")</f>
         <v>0,61,5</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>18</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="9" t="str">
+      <c r="K20" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,$B:$C,2,FALSE),",5")</f>
         <v>0,59,5</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>18</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N20" s="9" t="str">
+      <c r="N20" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,$B:$C,2,FALSE),",5")</f>
         <v>0,48,5</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <v>18</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q20" s="9" t="str">
+      <c r="Q20" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P20,$B:$C,2,FALSE),",5")</f>
         <v>0,33,5</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="9">
         <v>18</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20">
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <f>VLOOKUP(B21,武将表!$A:$B,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <v>19</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="9">
         <v>19</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="9">
         <v>19</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="9">
         <v>19</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="9">
         <v>19</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21">
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="8"/>
-      <c r="C22" t="e">
+    <row r="22" ht="16.2" spans="2:22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="8" t="e">
         <f>VLOOKUP(B22,武将表!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>20</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="9" t="str">
+      <c r="H22" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,$B:$C,2,FALSE),",5")</f>
         <v>0,17,5</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>20</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="9" t="str">
+      <c r="K22" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,$B:$C,2,FALSE),",5")</f>
         <v>0,16,5</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>20</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N22" s="9" t="e">
+      <c r="N22" s="13" t="e">
         <f>CONCATENATE("0,",VLOOKUP(M22,$B:$C,2,FALSE),",5")</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <v>20</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="Q22" s="9" t="str">
+      <c r="Q22" s="14" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P22,$B:$C,2,FALSE),",5")</f>
         <v>0,0,5</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="9">
         <v>20</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22">
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <f>VLOOKUP(B23,武将表!$A:$B,2,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23">
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <f>VLOOKUP(B24,武将表!$A:$B,2,FALSE)</f>
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <f>VLOOKUP(B25,武将表!$A:$B,2,FALSE)</f>
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <f>VLOOKUP(B26,武将表!$A:$B,2,FALSE)</f>
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <f>VLOOKUP(B27,武将表!$A:$B,2,FALSE)</f>
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="13"/>
-      <c r="O28" s="12" t="s">
+    <row r="28" ht="16.2" spans="2:15">
+      <c r="B28" s="18"/>
+      <c r="O28" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="29" spans="15:15">
-      <c r="O29" t="s">
+      <c r="O29" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="15:15">
-      <c r="O30" t="s">
+      <c r="O30" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="15:15">
-      <c r="O31" t="s">
+      <c r="O31" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="15:15">
-      <c r="O32" t="s">
+      <c r="O32" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="15:15">
-      <c r="O34" t="s">
+      <c r="O34" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="15:15">
-      <c r="O35" t="s">
+      <c r="O35" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="15:15">
-      <c r="O36" t="s">
+      <c r="O36" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="15:15">
-      <c r="O37" t="s">
+      <c r="O37" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" spans="15:15">
-      <c r="O39" t="s">
+      <c r="O39" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="15:15">
-      <c r="O40" t="s">
+      <c r="O40" s="20" t="s">
         <v>136</v>
       </c>
     </row>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -3589,10 +3589,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -3674,14 +3674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3696,8 +3688,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3728,22 +3743,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3758,10 +3758,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3776,29 +3799,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3873,25 +3873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3915,13 +3903,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3933,127 +4053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4097,6 +4097,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4112,16 +4127,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4132,6 +4147,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4155,30 +4179,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4187,10 +4187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4199,137 +4199,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4354,9 +4354,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4365,12 +4362,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -4381,17 +4372,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4421,9 +4403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4467,9 +4446,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6477,11 +6453,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.55555555555556" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.55555555555556" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="9" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.11111111111111" style="45" customWidth="1"/>
+    <col min="10" max="10" width="2.11111111111111" style="38" customWidth="1"/>
     <col min="11" max="11" width="4.23148148148148" style="1" customWidth="1"/>
     <col min="12" max="16" width="9" style="1"/>
     <col min="17" max="17" width="4.44444444444444" style="1" customWidth="1"/>
@@ -6492,130 +6468,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="47">
+      <c r="D1" s="39">
         <v>1</v>
       </c>
-      <c r="E1" s="47">
+      <c r="E1" s="39">
         <v>2</v>
       </c>
-      <c r="F1" s="47">
+      <c r="F1" s="39">
         <v>3</v>
       </c>
-      <c r="G1" s="47">
+      <c r="G1" s="39">
         <v>4</v>
       </c>
-      <c r="H1" s="47">
+      <c r="H1" s="39">
         <v>5</v>
       </c>
-      <c r="I1" s="47">
+      <c r="I1" s="39">
         <v>6</v>
       </c>
       <c r="N1" s="1">
         <v>2</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="39">
         <f>T3</f>
         <v>250</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="39">
         <f>T4</f>
         <v>375</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="39">
         <f>T5</f>
         <v>500</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="39">
         <f>T6</f>
         <v>625</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="39">
         <f>T7</f>
         <v>750</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="39">
         <f>T8</f>
         <v>875</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="42" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="47">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="39">
         <f t="shared" ref="C3:C8" si="0">O3</f>
         <v>50</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="40">
         <f>D$2/$C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="40">
         <f>E$2/$C3</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="40">
         <f>F$2/$C3</f>
         <v>10</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="40">
         <f>G$2/$C3</f>
         <v>12.5</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="40">
         <f>H$2/$C3</f>
         <v>15</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="40">
         <f>I$2/$C3</f>
         <v>17.5</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="42">
         <v>1</v>
       </c>
       <c r="L3" s="1">
@@ -6628,63 +6604,63 @@
         <f>L3*$N$1</f>
         <v>100</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="43">
         <f t="shared" ref="O3:O8" si="1">M3*N3+(1-M3)*L3</f>
         <v>50</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="42">
         <v>1</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="45">
         <v>250</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="51">
+      <c r="T3" s="43">
         <f t="shared" ref="T3:T8" si="2">R3*(1+S3)</f>
         <v>250</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="39">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="40">
         <f>D$2/$C4</f>
         <v>3.17460317460317</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="40">
         <f>E$2/$C4</f>
         <v>4.76190476190476</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="40">
         <f>F$2/$C4</f>
         <v>6.34920634920635</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="40">
         <f>G$2/$C4</f>
         <v>7.93650793650794</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="40">
         <f>H$2/$C4</f>
         <v>9.52380952380952</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="40">
         <f>I$2/$C4</f>
         <v>11.1111111111111</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="42">
         <v>2</v>
       </c>
       <c r="L4" s="1">
@@ -6697,21 +6673,21 @@
         <f>L4*$N$1</f>
         <v>150</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="43">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="42">
         <v>2</v>
       </c>
-      <c r="R4" s="53">
+      <c r="R4" s="45">
         <f>R3+125</f>
         <v>375</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="43">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
@@ -6723,38 +6699,38 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="47">
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="39">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="40">
         <f>D$2/$C5</f>
         <v>2.27272727272727</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="40">
         <f>E$2/$C5</f>
         <v>3.40909090909091</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="40">
         <f>F$2/$C5</f>
         <v>4.54545454545455</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="40">
         <f>G$2/$C5</f>
         <v>5.68181818181818</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="40">
         <f>H$2/$C5</f>
         <v>6.81818181818182</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="40">
         <f>I$2/$C5</f>
         <v>7.95454545454545</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="42">
         <v>3</v>
       </c>
       <c r="L5" s="1">
@@ -6767,58 +6743,58 @@
         <f>L5*$N$1</f>
         <v>200</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="43">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="42">
         <v>3</v>
       </c>
-      <c r="R5" s="53">
+      <c r="R5" s="45">
         <f>R4+125</f>
         <v>500</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="43">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="47">
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="39">
         <f t="shared" si="0"/>
         <v>143.75</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="40">
         <f>D$2/$C6</f>
         <v>1.73913043478261</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="40">
         <f>E$2/$C6</f>
         <v>2.60869565217391</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="40">
         <f>F$2/$C6</f>
         <v>3.47826086956522</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="40">
         <f>G$2/$C6</f>
         <v>4.34782608695652</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="40">
         <f>H$2/$C6</f>
         <v>5.21739130434783</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="40">
         <f>I$2/$C6</f>
         <v>6.08695652173913</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="42">
         <v>4</v>
       </c>
       <c r="L6" s="1">
@@ -6831,58 +6807,58 @@
         <f>L6*$N$1</f>
         <v>250</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="43">
         <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="42">
         <v>4</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="45">
         <f>R5+125</f>
         <v>625</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="43">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="47">
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="39">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="40">
         <f>D$2/$C7</f>
         <v>1.38888888888889</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="40">
         <f>E$2/$C7</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="40">
         <f>F$2/$C7</f>
         <v>2.77777777777778</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="40">
         <f>G$2/$C7</f>
         <v>3.47222222222222</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="40">
         <f>H$2/$C7</f>
         <v>4.16666666666667</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="40">
         <f>I$2/$C7</f>
         <v>4.86111111111111</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="42">
         <v>5</v>
       </c>
       <c r="L7" s="1">
@@ -6895,58 +6871,58 @@
         <f>L7*$N$1</f>
         <v>300</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="43">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="42">
         <v>5</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="45">
         <f>R6+125</f>
         <v>750</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="43">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="47">
+      <c r="B8" s="39">
         <v>6</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="39">
         <f t="shared" si="0"/>
         <v>218.75</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="40">
         <f>D$2/$C8</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="40">
         <f>E$2/$C8</f>
         <v>1.71428571428571</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="40">
         <f>F$2/$C8</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="40">
         <f>G$2/$C8</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="40">
         <f>H$2/$C8</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="40">
         <f>I$2/$C8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="42">
         <v>6</v>
       </c>
       <c r="L8" s="1">
@@ -6959,49 +6935,49 @@
         <f>L8*$N$1</f>
         <v>350</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="43">
         <f t="shared" si="1"/>
         <v>218.75</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="42">
         <v>6</v>
       </c>
-      <c r="R8" s="53">
+      <c r="R8" s="45">
         <f>R7+125</f>
         <v>875</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="43">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="39">
         <v>1</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="39">
         <v>2</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="39">
         <v>3</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="39">
         <v>4</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="39">
         <v>5</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="39">
         <v>6</v>
       </c>
       <c r="N10" s="1">
@@ -7009,91 +6985,91 @@
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="39">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="39">
         <f>T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="39">
         <f>T14</f>
         <v>588.235294117647</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="39">
         <f>T15</f>
         <v>781.25</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="39">
         <f>T16</f>
         <v>1000</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="39">
         <f>T17</f>
         <v>1250</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="50" t="s">
+      <c r="N11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50" t="s">
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="50" t="s">
+      <c r="S11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="47">
+      <c r="B12" s="39">
         <v>1</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="41">
         <f t="shared" ref="C12:C17" si="3">O12</f>
         <v>51.25</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="40">
         <f t="shared" ref="D12:D17" si="4">D$11/$C12</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="40">
         <f t="shared" ref="E12:E17" si="5">E$11/$C12</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="40">
         <f t="shared" ref="F12:F17" si="6">F$11/$C12</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="40">
         <f t="shared" ref="G12:G17" si="7">G$11/$C12</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="40">
         <f t="shared" ref="H12:H17" si="8">H$11/$C12</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="40">
         <f t="shared" ref="I12:I17" si="9">I$11/$C12</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="42">
         <v>1</v>
       </c>
       <c r="L12" s="1">
@@ -7103,62 +7079,62 @@
       <c r="M12" s="1">
         <v>0.05</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="25">
         <f t="shared" ref="N12:N17" si="11">L12*$N$10</f>
         <v>75</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="44">
         <f>M3*N3+M12*N12+(1-M12-M3)*L12</f>
         <v>51.25</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="42">
         <v>1</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="25">
         <f t="shared" ref="R12:R17" si="12">T3</f>
         <v>250</v>
       </c>
       <c r="S12" s="1">
         <v>0.05</v>
       </c>
-      <c r="T12" s="51">
+      <c r="T12" s="43">
         <f>R12/(1-S12)</f>
         <v>263.157894736842</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="47">
+      <c r="B13" s="39">
         <v>2</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="41">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="40">
         <f t="shared" si="4"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="40">
         <f t="shared" si="5"/>
         <v>5.05050505050505</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="40">
         <f t="shared" si="6"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="40">
         <f t="shared" si="7"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="40">
         <f t="shared" si="8"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="40">
         <f t="shared" si="9"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="42">
         <v>2</v>
       </c>
       <c r="L13" s="1">
@@ -7168,62 +7144,62 @@
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="25">
         <f t="shared" si="11"/>
         <v>112.5</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="44">
         <f t="shared" ref="O12:O17" si="13">M4*N4+M13*N13+(1-M13-M4)*L13</f>
         <v>82.5</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="42">
         <v>2</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="25">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
       <c r="S13" s="1">
         <v>0.1</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="43">
         <f t="shared" ref="T12:T17" si="14">R13/(1-S13)</f>
         <v>416.666666666667</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="47">
+      <c r="B14" s="39">
         <v>3</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="41">
         <f t="shared" si="3"/>
         <v>117.5</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="40">
         <f t="shared" si="4"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="40">
         <f t="shared" si="5"/>
         <v>3.54609929078014</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="40">
         <f t="shared" si="6"/>
         <v>5.00625782227785</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="40">
         <f t="shared" si="7"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="40">
         <f t="shared" si="8"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="40">
         <f t="shared" si="9"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="42">
         <v>3</v>
       </c>
       <c r="L14" s="1">
@@ -7233,62 +7209,62 @@
       <c r="M14" s="1">
         <v>0.15</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="25">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="44">
         <f t="shared" si="13"/>
         <v>117.5</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="42">
         <v>3</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="25">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="S14" s="1">
         <v>0.15</v>
       </c>
-      <c r="T14" s="51">
+      <c r="T14" s="43">
         <f t="shared" si="14"/>
         <v>588.235294117647</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="47">
+      <c r="B15" s="39">
         <v>4</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="41">
         <f t="shared" si="3"/>
         <v>156.25</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="40">
         <f t="shared" si="4"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="40">
         <f t="shared" si="5"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="40">
         <f t="shared" si="6"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="40">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="40">
         <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="40">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="42">
         <v>4</v>
       </c>
       <c r="L15" s="1">
@@ -7298,62 +7274,62 @@
       <c r="M15" s="1">
         <v>0.2</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="25">
         <f t="shared" si="11"/>
         <v>187.5</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="44">
         <f t="shared" si="13"/>
         <v>156.25</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="42">
         <v>4</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="25">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
       <c r="S15" s="1">
         <v>0.2</v>
       </c>
-      <c r="T15" s="51">
+      <c r="T15" s="43">
         <f t="shared" si="14"/>
         <v>781.25</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="47">
+      <c r="B16" s="39">
         <v>5</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="41">
         <f t="shared" si="3"/>
         <v>198.75</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="40">
         <f t="shared" si="4"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="40">
         <f t="shared" si="5"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="40">
         <f t="shared" si="6"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="40">
         <f t="shared" si="7"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="40">
         <f t="shared" si="8"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="40">
         <f t="shared" si="9"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="42">
         <v>5</v>
       </c>
       <c r="L16" s="1">
@@ -7363,62 +7339,62 @@
       <c r="M16" s="1">
         <v>0.25</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="25">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="44">
         <f t="shared" si="13"/>
         <v>198.75</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="42">
         <v>5</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="25">
         <f t="shared" si="12"/>
         <v>750</v>
       </c>
       <c r="S16" s="1">
         <v>0.25</v>
       </c>
-      <c r="T16" s="51">
+      <c r="T16" s="43">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="47">
+      <c r="B17" s="39">
         <v>6</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="41">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="40">
         <f t="shared" si="4"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="40">
         <f t="shared" si="5"/>
         <v>1.70068027210884</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="40">
         <f t="shared" si="6"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="40">
         <f t="shared" si="7"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="40">
         <f t="shared" si="8"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="40">
         <f t="shared" si="9"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="42">
         <v>6</v>
       </c>
       <c r="L17" s="1">
@@ -7428,435 +7404,435 @@
       <c r="M17" s="1">
         <v>0.3</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="25">
         <f t="shared" si="11"/>
         <v>262.5</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="44">
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="42">
         <v>6</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="25">
         <f t="shared" si="12"/>
         <v>875</v>
       </c>
       <c r="S17" s="1">
         <v>0.3</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="43">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="39">
         <v>1</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="39">
         <v>2</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="39">
         <v>3</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="39">
         <v>4</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="39">
         <v>5</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="39">
         <f>S21</f>
         <v>394.736842105263</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="39">
         <f>S22</f>
         <v>625.000000000001</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="39">
         <f>S23</f>
         <v>882.35294117647</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="39">
         <f>S24</f>
         <v>1171.875</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="39">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="39">
         <f>S26</f>
         <v>1875</v>
       </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50" t="s">
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="50" t="s">
+      <c r="S20" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="47">
+      <c r="B21" s="39">
         <v>1</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="41">
         <f t="shared" ref="C21:C26" si="15">M21</f>
         <v>76.875</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="40">
         <f t="shared" ref="D21:D26" si="16">D$20/$C21</f>
         <v>5.13478818998716</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="40">
         <f t="shared" ref="E21:E26" si="17">E$20/$C21</f>
         <v>8.13008130081302</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="40">
         <f t="shared" ref="F21:F26" si="18">F$20/$C21</f>
         <v>11.4777618364419</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="40">
         <f t="shared" ref="G21:G26" si="19">G$20/$C21</f>
         <v>15.2439024390244</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="40">
         <f t="shared" ref="H21:H26" si="20">H$20/$C21</f>
         <v>19.5121951219512</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="40">
         <f t="shared" ref="I21:I26" si="21">I$20/$C21</f>
         <v>24.390243902439</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="42">
         <v>1</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="25">
         <f>O12</f>
         <v>51.25</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="25">
         <f t="shared" ref="M21:M26" si="22">L21*1.5</f>
         <v>76.875</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="42">
         <v>1</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="25">
         <f>T12</f>
         <v>263.157894736842</v>
       </c>
-      <c r="S21" s="32">
+      <c r="S21" s="25">
         <f>R21*1.5</f>
         <v>394.736842105263</v>
       </c>
-      <c r="T21" s="32"/>
+      <c r="T21" s="25"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="47">
+      <c r="B22" s="39">
         <v>2</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="41">
         <f t="shared" si="15"/>
         <v>123.75</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="40">
         <f t="shared" si="16"/>
         <v>3.18979266347687</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="40">
         <f t="shared" si="17"/>
         <v>5.05050505050506</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="40">
         <f t="shared" si="18"/>
         <v>7.1301247771836</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="40">
         <f t="shared" si="19"/>
         <v>9.46969696969697</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="40">
         <f t="shared" si="20"/>
         <v>12.1212121212121</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="40">
         <f t="shared" si="21"/>
         <v>15.1515151515152</v>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="42">
         <v>2</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="25">
         <f>O13</f>
         <v>82.5</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="25">
         <f t="shared" si="22"/>
         <v>123.75</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="42">
         <v>2</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="25">
         <f t="shared" ref="R21:R26" si="23">T13</f>
         <v>416.666666666667</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="25">
         <f t="shared" ref="S21:S26" si="24">R22*1.5</f>
         <v>625.000000000001</v>
       </c>
-      <c r="T22" s="32"/>
+      <c r="T22" s="25"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="47">
+      <c r="B23" s="39">
         <v>3</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="41">
         <f t="shared" si="15"/>
         <v>176.25</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="40">
         <f t="shared" si="16"/>
         <v>2.23964165733483</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="40">
         <f t="shared" si="17"/>
         <v>3.54609929078015</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="40">
         <f t="shared" si="18"/>
         <v>5.00625782227784</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="40">
         <f t="shared" si="19"/>
         <v>6.64893617021277</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="40">
         <f t="shared" si="20"/>
         <v>8.51063829787234</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="40">
         <f t="shared" si="21"/>
         <v>10.6382978723404</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="42">
         <v>3</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="25">
         <f t="shared" ref="L21:L26" si="25">O14</f>
         <v>117.5</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="25">
         <f t="shared" si="22"/>
         <v>176.25</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="42">
         <v>3</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="25">
         <f t="shared" si="23"/>
         <v>588.235294117647</v>
       </c>
-      <c r="S23" s="32">
+      <c r="S23" s="25">
         <f t="shared" si="24"/>
         <v>882.35294117647</v>
       </c>
-      <c r="T23" s="32"/>
+      <c r="T23" s="25"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="47">
+      <c r="B24" s="39">
         <v>4</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="41">
         <f t="shared" si="15"/>
         <v>234.375</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="40">
         <f t="shared" si="16"/>
         <v>1.68421052631579</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="40">
         <f t="shared" si="17"/>
         <v>2.66666666666667</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="40">
         <f t="shared" si="18"/>
         <v>3.76470588235294</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="40">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="40">
         <f t="shared" si="20"/>
         <v>6.4</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="40">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K24" s="50">
+      <c r="K24" s="42">
         <v>4</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="25">
         <f t="shared" si="25"/>
         <v>156.25</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="25">
         <f t="shared" si="22"/>
         <v>234.375</v>
       </c>
-      <c r="Q24" s="50">
+      <c r="Q24" s="42">
         <v>4</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="25">
         <f t="shared" si="23"/>
         <v>781.25</v>
       </c>
-      <c r="S24" s="32">
+      <c r="S24" s="25">
         <f t="shared" si="24"/>
         <v>1171.875</v>
       </c>
-      <c r="T24" s="32"/>
+      <c r="T24" s="25"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="47">
+      <c r="B25" s="39">
         <v>5</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="41">
         <f t="shared" si="15"/>
         <v>298.125</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="40">
         <f t="shared" si="16"/>
         <v>1.32406487917908</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="40">
         <f t="shared" si="17"/>
         <v>2.09643605870021</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="40">
         <f t="shared" si="18"/>
         <v>2.95967443581206</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="40">
         <f t="shared" si="19"/>
         <v>3.93081761006289</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="40">
         <f t="shared" si="20"/>
         <v>5.0314465408805</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="40">
         <f t="shared" si="21"/>
         <v>6.28930817610063</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="42">
         <v>5</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="25">
         <f t="shared" si="25"/>
         <v>198.75</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="25">
         <f t="shared" si="22"/>
         <v>298.125</v>
       </c>
-      <c r="Q25" s="50">
+      <c r="Q25" s="42">
         <v>5</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="25">
         <f t="shared" si="23"/>
         <v>1000</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="25">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="T25" s="32"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="47">
+      <c r="B26" s="39">
         <v>6</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="41">
         <f t="shared" si="15"/>
         <v>367.5</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="40">
         <f t="shared" si="16"/>
         <v>1.07411385606874</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="40">
         <f t="shared" si="17"/>
         <v>1.70068027210885</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="40">
         <f t="shared" si="18"/>
         <v>2.40096038415366</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="40">
         <f t="shared" si="19"/>
         <v>3.18877551020408</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="40">
         <f t="shared" si="20"/>
         <v>4.08163265306122</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="40">
         <f t="shared" si="21"/>
         <v>5.10204081632653</v>
       </c>
-      <c r="K26" s="50">
+      <c r="K26" s="42">
         <v>6</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="25">
         <f t="shared" si="25"/>
         <v>245</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="25">
         <f t="shared" si="22"/>
         <v>367.5</v>
       </c>
-      <c r="Q26" s="50">
+      <c r="Q26" s="42">
         <v>6</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="25">
         <f t="shared" si="23"/>
         <v>1250</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="25">
         <f t="shared" si="24"/>
         <v>1875</v>
       </c>
-      <c r="T26" s="32"/>
+      <c r="T26" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7870,8 +7846,8 @@
   <sheetPr/>
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
@@ -8036,7 +8012,7 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="14">
         <v>0.5</v>
       </c>
       <c r="G3" s="1">
@@ -8045,7 +8021,7 @@
       <c r="I3" s="1">
         <v>24</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="14">
         <f>F3*I3</f>
         <v>12</v>
       </c>
@@ -8060,25 +8036,25 @@
       <c r="N3" s="1">
         <v>12</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="30">
         <v>1</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="30">
         <v>2</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="30">
         <v>3</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="30">
         <v>4</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3" s="30">
         <v>5</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="30">
         <v>6</v>
       </c>
     </row>
@@ -8095,20 +8071,20 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="25">
         <f>(F4/E4)/(F3/E3)</f>
         <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="14">
         <f>F4*I4</f>
         <v>24</v>
       </c>
@@ -8120,21 +8096,21 @@
         <f>J4*7+T14*2</f>
         <v>188</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="41" t="s">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
       <c r="V4" s="1">
         <v>50</v>
       </c>
@@ -8152,20 +8128,20 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="25">
         <f>(F5/E5)/(F$4/E$4)</f>
         <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="14">
         <f>F5*I5</f>
         <v>24</v>
       </c>
@@ -8177,133 +8153,133 @@
         <f>J5*7+S15+S14*2</f>
         <v>168</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="41" t="s">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="38"/>
+      <c r="U5" s="31"/>
       <c r="V5" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="6" ht="16.2" spans="2:22">
-      <c r="B6" s="33">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="26">
         <v>261</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="26">
         <v>10</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="27">
         <v>0.75</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>50</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="28">
         <f>(F6/E6)/(F$5/E$5)</f>
         <v>1.5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="26">
         <v>24</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="27">
         <f t="shared" ref="J6:J12" si="0">F6*I6</f>
         <v>18</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="26">
         <f t="shared" ref="K6:K12" si="1">G6*J6</f>
         <v>900</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="26">
         <f>J6*7+Q14*2+R15</f>
         <v>141</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="41" t="s">
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="T6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="38"/>
+      <c r="U6" s="31"/>
       <c r="V6" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="7" ht="16.2" spans="2:23">
-      <c r="B7" s="33">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>364</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <v>13</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="26">
         <v>5</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="27">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>20</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="28">
         <f>(F7/E7)/(F6/E6)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="26">
         <v>24</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="26">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="26">
         <f>J7*7</f>
         <v>168</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="41" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="41" t="s">
+      <c r="T7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V7" s="1">
@@ -8315,38 +8291,38 @@
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:22">
-      <c r="B8" s="33">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="26">
         <v>91</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33">
+      <c r="F8" s="27"/>
+      <c r="G8" s="26">
         <v>10</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="O8" s="38" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="O8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="41" t="s">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="41" t="s">
+      <c r="U8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V8" s="1">
@@ -8362,25 +8338,25 @@
         <f>SUM(E3:E8)</f>
         <v>35</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="K9" s="39">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="K9" s="32">
         <f>SUM(K3:K8)</f>
         <v>14580</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="41" t="s">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="T9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V9" s="1">
@@ -8391,8 +8367,8 @@
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
@@ -8407,17 +8383,17 @@
       <c r="E11" s="1">
         <v>15</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="14">
         <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="25">
         <f>(F11/E11)/(F$4/E$4)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="33">
         <v>12</v>
       </c>
       <c r="J11" s="1">
@@ -8449,17 +8425,17 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="14">
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="25">
         <f>(F12/E12)/(F$5/E$5)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="33">
         <v>12</v>
       </c>
       <c r="J12" s="1">
@@ -8474,25 +8450,25 @@
         <f>J12*7</f>
         <v>84</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="30">
         <v>1</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="30">
         <v>2</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="35">
         <v>3</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="30">
         <v>5</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U12" s="30">
         <v>6</v>
       </c>
     </row>
@@ -8500,21 +8476,21 @@
       <c r="N13" s="1">
         <v>12</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="43" t="s">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="43" t="s">
+      <c r="R13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
       <c r="V13" s="1">
         <v>50</v>
       </c>
@@ -8541,21 +8517,21 @@
         <f>W19</f>
         <v>5170</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="41">
+      <c r="P14" s="31"/>
+      <c r="Q14" s="34">
         <v>5</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="34">
         <v>5</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="41">
+      <c r="S14" s="31"/>
+      <c r="T14" s="34">
         <v>10</v>
       </c>
-      <c r="U14" s="38"/>
+      <c r="U14" s="31"/>
       <c r="V14" s="1">
         <v>300</v>
       </c>
@@ -8571,13 +8547,13 @@
       </c>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -8589,19 +8565,19 @@
       <c r="K15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="41">
+      <c r="P15" s="31"/>
+      <c r="Q15" s="34">
         <v>5</v>
       </c>
-      <c r="R15" s="41">
+      <c r="R15" s="34">
         <v>5</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="41">
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="34">
         <v>10</v>
       </c>
       <c r="V15" s="1">
@@ -8619,20 +8595,20 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="36">
+      <c r="B16" s="29">
         <v>1</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="29">
         <v>5</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="29">
         <v>100</v>
       </c>
       <c r="F16" s="1">
         <f>SUM(C$16:C16)*$J$14</f>
         <v>100</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="25">
         <f>F16/$L$3</f>
         <v>1.06382978723404</v>
       </c>
@@ -8640,26 +8616,26 @@
         <f>SUM(D$16:D16)*$J$14</f>
         <v>2000</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="25">
         <f>J16/$L$14</f>
         <v>0.386847195357834</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="36">
+      <c r="B17" s="29">
         <v>2</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="29">
         <v>5</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="29">
         <v>500</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(C$16:C17)*$J$14</f>
         <v>200</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="25">
         <f t="shared" ref="G17:G26" si="2">F17/$L$3</f>
         <v>2.12765957446808</v>
       </c>
@@ -8667,26 +8643,26 @@
         <f>SUM(D$16:D17)*$J$14</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="25">
         <f t="shared" ref="K17:K26" si="3">J17/$L$14</f>
         <v>2.321083172147</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="36">
+      <c r="B18" s="29">
         <v>3</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="29">
         <v>10</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="29">
         <v>1000</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(C$16:C18)*$J$14</f>
         <v>400</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="25">
         <f t="shared" si="2"/>
         <v>4.25531914893617</v>
       </c>
@@ -8694,7 +8670,7 @@
         <f>SUM(D$16:D18)*$J$14</f>
         <v>32000</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="25">
         <f t="shared" si="3"/>
         <v>6.18955512572534</v>
       </c>
@@ -8711,20 +8687,20 @@
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:23">
-      <c r="B19" s="36">
+      <c r="B19" s="29">
         <v>4</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="29">
         <v>20</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="29">
         <v>2000</v>
       </c>
       <c r="F19" s="1">
         <f>SUM(C$16:C19)*$J$14</f>
         <v>800</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="25">
         <f t="shared" si="2"/>
         <v>8.51063829787234</v>
       </c>
@@ -8732,30 +8708,30 @@
         <f>SUM(D$16:D19)*$J$14</f>
         <v>72000</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="25">
         <f t="shared" si="3"/>
         <v>13.926499032882</v>
       </c>
-      <c r="W19" s="39">
+      <c r="W19" s="32">
         <f>SUM(W4:W18)</f>
         <v>5170</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="36">
+      <c r="B20" s="29">
         <v>5</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="29">
         <v>40</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="29">
         <v>4000</v>
       </c>
       <c r="F20" s="1">
         <f>SUM(C$16:C20)*$J$14</f>
         <v>1600</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="25">
         <f t="shared" si="2"/>
         <v>17.0212765957447</v>
       </c>
@@ -8763,26 +8739,26 @@
         <f>SUM(D$16:D20)*$J$14</f>
         <v>152000</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="25">
         <f t="shared" si="3"/>
         <v>29.4003868471954</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="36">
+      <c r="B21" s="29">
         <v>6</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="29">
         <v>60</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="29">
         <v>8000</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(C$16:C21)*$J$14</f>
         <v>2800</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="25">
         <f t="shared" si="2"/>
         <v>29.7872340425532</v>
       </c>
@@ -8790,26 +8766,26 @@
         <f>SUM(D$16:D21)*$J$14</f>
         <v>312000</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="25">
         <f t="shared" si="3"/>
         <v>60.3481624758221</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="36">
+      <c r="B22" s="29">
         <v>7</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="29">
         <v>100</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="29">
         <v>15000</v>
       </c>
       <c r="F22" s="1">
         <f>SUM(C$16:C22)*$J$14</f>
         <v>4800</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="25">
         <f t="shared" si="2"/>
         <v>51.063829787234</v>
       </c>
@@ -8817,26 +8793,26 @@
         <f>SUM(D$16:D22)*$J$14</f>
         <v>612000</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="25">
         <f t="shared" si="3"/>
         <v>118.375241779497</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="36">
+      <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="29">
         <v>150</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="29">
         <v>30000</v>
       </c>
       <c r="F23" s="1">
         <f>SUM(C$16:C23)*$J$14</f>
         <v>7800</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="25">
         <f t="shared" si="2"/>
         <v>82.9787234042553</v>
       </c>
@@ -8844,27 +8820,27 @@
         <f>SUM(D$16:D23)*$J$14</f>
         <v>1212000</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="25">
         <f t="shared" si="3"/>
         <v>234.429400386847</v>
       </c>
-      <c r="V23" s="40"/>
+      <c r="V23" s="33"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="36">
+      <c r="B24" s="29">
         <v>9</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="29">
         <v>200</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="29">
         <v>45000</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(C$16:C24)*$J$14</f>
         <v>11800</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="25">
         <f t="shared" si="2"/>
         <v>125.531914893617</v>
       </c>
@@ -8872,26 +8848,26 @@
         <f>SUM(D$16:D24)*$J$14</f>
         <v>2112000</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="25">
         <f t="shared" si="3"/>
         <v>408.510638297872</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="36">
+      <c r="B25" s="29">
         <v>10</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="29">
         <v>300</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="29">
         <v>60000</v>
       </c>
       <c r="F25" s="1">
         <f>SUM(C$16:C25)*$J$14</f>
         <v>17800</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="25">
         <f t="shared" si="2"/>
         <v>189.36170212766</v>
       </c>
@@ -8899,26 +8875,26 @@
         <f>SUM(D$16:D25)*$J$14</f>
         <v>3312000</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="25">
         <f t="shared" si="3"/>
         <v>640.618955512572</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="36">
+      <c r="B26" s="29">
         <v>11</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="29">
         <v>500</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="29">
         <v>80000</v>
       </c>
       <c r="F26" s="1">
         <f>SUM(C$16:C26)*$J$14</f>
         <v>27800</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="25">
         <f t="shared" si="2"/>
         <v>295.744680851064</v>
       </c>
@@ -8926,7 +8902,7 @@
         <f>SUM(D$16:D26)*$J$14</f>
         <v>4912000</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="25">
         <f t="shared" si="3"/>
         <v>950.096711798839</v>
       </c>
@@ -8974,10 +8950,10 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
-    <col min="6" max="7" width="10.1111111111111" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.1111111111111" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.1111111111111" style="21" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" style="21"/>
+    <col min="6" max="7" width="10.1111111111111" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10.1111111111111" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.1111111111111" style="15" customWidth="1"/>
+    <col min="10" max="10" width="8.88888888888889" style="15"/>
     <col min="13" max="13" width="9.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8997,19 +8973,19 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>77</v>
       </c>
       <c r="L1" t="s">
@@ -9037,23 +9013,23 @@
         <f>L6</f>
         <v>245</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="17">
         <f>C2/$D$2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="19">
         <v>1</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="15">
         <v>1</v>
       </c>
       <c r="L2">
@@ -9086,23 +9062,23 @@
         <f>SUM(B$2:B3)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <f>C3/$D$2</f>
         <v>0.0122448979591837</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="18">
         <v>3</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="15">
         <v>1</v>
       </c>
       <c r="L3">
@@ -9135,23 +9111,23 @@
         <f>SUM(B$2:B4)</f>
         <v>9</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <f t="shared" ref="E3:E23" si="0">C4/$D$2</f>
         <v>0.036734693877551</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="18">
         <v>4</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
       <c r="L4">
@@ -9181,23 +9157,23 @@
         <f>SUM(B$2:B5)</f>
         <v>19</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0.0775510204081633</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="18">
         <v>5</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <v>1</v>
       </c>
     </row>
@@ -9212,23 +9188,23 @@
         <f>SUM(B$2:B6)</f>
         <v>39</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>0.159183673469388</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="18">
         <v>6</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="15">
         <v>2</v>
       </c>
       <c r="L6">
@@ -9249,7 +9225,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="26">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7">
@@ -9259,36 +9235,36 @@
         <f>SUM(B$2:B7)</f>
         <v>89</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>0.363265306122449</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="18">
         <v>2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="18">
         <v>7</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="15">
         <v>2</v>
       </c>
       <c r="L7">
         <f>M7*9*5</f>
         <v>294</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="24">
         <f>N6/45</f>
         <v>6.53333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8">
@@ -9298,23 +9274,23 @@
         <f>SUM(B$2:B8)</f>
         <v>189</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.771428571428571</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <v>2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="18">
         <v>8</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
     </row>
@@ -9329,28 +9305,28 @@
         <f>SUM(B$2:B9)</f>
         <v>389</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>1.58775510204082</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <v>2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="18">
         <v>2</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="18">
         <v>9</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="26">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10">
@@ -9360,28 +9336,28 @@
         <f>SUM(B$2:B10)</f>
         <v>689</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>2.81224489795918</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>2</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="18">
         <v>10</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11">
@@ -9391,23 +9367,23 @@
         <f>SUM(B$2:B11)</f>
         <v>1109</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>4.5265306122449</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>2</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
         <v>11</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="15">
         <v>3</v>
       </c>
     </row>
@@ -9422,28 +9398,28 @@
         <f>SUM(B$2:B12)</f>
         <v>1649</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>6.73061224489796</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>2</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="18">
         <v>12</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="26">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13">
@@ -9453,28 +9429,28 @@
         <f>SUM(B$2:B13)</f>
         <v>2309</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>9.42448979591837</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <v>3</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>2</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="18">
         <v>13</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14">
@@ -9484,28 +9460,28 @@
         <f>SUM(B$2:B14)</f>
         <v>3089</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>12.6081632653061</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="18">
         <v>3</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>3</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
         <v>14</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="26">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15">
@@ -9515,28 +9491,28 @@
         <f>SUM(B$2:B15)</f>
         <v>3989</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>16.2816326530612</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="18">
         <v>4</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="18">
         <v>3</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="18">
         <v>15</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16">
@@ -9546,28 +9522,28 @@
         <f>SUM(B$2:B16)</f>
         <v>5189</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>21.1795918367347</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>4</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="18">
         <v>3</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="18">
         <v>16</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17">
@@ -9577,23 +9553,23 @@
         <f>SUM(B$2:B17)</f>
         <v>6789</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>27.7102040816327</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>4</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>3</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="18">
         <v>17</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9608,23 +9584,23 @@
         <f>SUM(B$2:B18)</f>
         <v>8989</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>36.6897959183673</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="18">
         <v>4</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
         <v>4</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <v>18</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9639,23 +9615,23 @@
         <f>SUM(B$2:B19)</f>
         <v>11989</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>48.934693877551</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="18">
         <v>5</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="18">
         <v>4</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="18">
         <v>19</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9670,23 +9646,23 @@
         <f>SUM(B$2:B20)</f>
         <v>16489</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="17">
         <f t="shared" si="0"/>
         <v>67.3020408163265</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="18">
         <v>5</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>4</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="18">
         <v>20</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9701,23 +9677,23 @@
         <f>SUM(B$2:B21)</f>
         <v>22489</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
         <v>91.7918367346939</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
         <v>5</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="18">
         <v>4</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="18">
         <v>21</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9732,20 +9708,20 @@
         <f>SUM(B$2:B22)</f>
         <v>31489</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>128.526530612245</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="15">
         <v>6</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="15">
         <v>5</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="18">
         <v>21</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9760,20 +9736,20 @@
         <f>SUM(B$2:B23)</f>
         <v>43489</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
         <v>177.50612244898</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="15">
         <v>6</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="15">
         <v>5</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="18">
         <v>21</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="15">
         <v>5</v>
       </c>
     </row>
@@ -9788,111 +9764,111 @@
   <sheetPr/>
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G$1:R$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.62962962962963" style="8" customWidth="1"/>
-    <col min="2" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="3.75" style="8" customWidth="1"/>
-    <col min="6" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="9" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9" style="9"/>
-    <col min="10" max="10" width="9" style="8"/>
-    <col min="11" max="11" width="9" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9" style="9"/>
-    <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="9" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9" style="9"/>
-    <col min="16" max="16" width="9" style="8"/>
-    <col min="17" max="17" width="9" style="8" customWidth="1"/>
-    <col min="18" max="18" width="9" style="9"/>
-    <col min="19" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="4.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="3.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="8"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="8"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1">
         <f>VLOOKUP(B2,武将表!$A:$B,2,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="19"/>
+      <c r="S2" s="14"/>
       <c r="V2" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <f>VLOOKUP(B3,武将表!$A:$B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="9">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="8">
         <v>1</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="9">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="8">
         <v>1</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>100</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="1">
         <f>VLOOKUP(S3,武将表!$A:$B,2,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9900,44 +9876,44 @@
       <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1">
         <f>VLOOKUP(B4,武将表!$A:$B,2,FALSE)</f>
         <v>59</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="9">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="9">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8">
         <v>2</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="9">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="8">
         <v>2</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="9">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="8">
         <v>2</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>102</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="1">
         <f>VLOOKUP(S4,武将表!$A:$B,2,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -9945,278 +9921,278 @@
       <c r="B5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <f>VLOOKUP(B5,武将表!$A:$B,2,FALSE)</f>
         <v>61</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="14" t="str">
+      <c r="H5" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,$B:$C,2,FALSE),",10")</f>
         <v>0,316,10</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>3</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="14" t="str">
+      <c r="K5" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,$B:$C,2,FALSE),",10")</f>
         <v>0,316,10</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>3</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="14" t="str">
+      <c r="N5" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,$B:$C,2,FALSE),",10")</f>
         <v>0,256,10</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>3</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,$B:$C,2,FALSE),",10")</f>
         <v>0,192,10</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>3</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>108</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="1">
         <f>VLOOKUP(S5,武将表!$A:$B,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <f>VLOOKUP(B6,武将表!$A:$B,2,FALSE)</f>
         <v>149</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="9">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="8">
         <v>4</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="9">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="8">
         <v>4</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="9">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="8">
         <v>4</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="8">
+      <c r="U6" s="11"/>
+      <c r="V6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="1">
         <f>VLOOKUP(B7,武将表!$A:$B,2,FALSE)</f>
         <v>147</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8">
         <v>5</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="9">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="8">
         <v>5</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="9">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="8">
         <v>5</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="9">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="8">
         <v>5</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="8">
+      <c r="U7" s="11"/>
+      <c r="V7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:21">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1">
         <v>136</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>6</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,$B:$C,2,FALSE),",5")</f>
         <v>0,147,5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>6</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="14" t="str">
+      <c r="K8" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,$B:$C,2,FALSE),",5")</f>
         <v>0,136,5</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>6</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="14" t="str">
+      <c r="N8" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,$B:$C,2,FALSE),",5")</f>
         <v>0,100,5</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>6</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,$B:$C,2,FALSE),",5")</f>
         <v>0,83,5</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>6</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1">
         <f>VLOOKUP(B9,武将表!$A:$B,2,FALSE)</f>
         <v>340</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>7</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="9">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="8">
         <v>7</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="9">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="8">
         <v>7</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="9">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="8">
         <v>7</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="8">
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <f>VLOOKUP(B10,武将表!$A:$B,2,FALSE)</f>
         <v>316</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>8</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="9">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8">
         <v>8</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="9">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="8">
         <v>8</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="9">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8">
         <v>8</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="9">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="8">
         <v>8</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="8">
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="1">
         <v>7</v>
       </c>
     </row>
@@ -10224,57 +10200,57 @@
       <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <f>VLOOKUP(B11,武将表!$A:$B,2,FALSE)</f>
         <v>66</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,$B:$C,2,FALSE),",5")</f>
         <v>0,59,5</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>9</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="14" t="str">
+      <c r="K11" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,$B:$C,2,FALSE),",5")</f>
         <v>0,66,5</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>9</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="14" t="str">
+      <c r="N11" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,$B:$C,2,FALSE),",5")</f>
         <v>0,39,5</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>9</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,$B:$C,2,FALSE),",5")</f>
         <v>0,26,5</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>9</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="8">
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="1">
         <v>8</v>
       </c>
     </row>
@@ -10282,76 +10258,76 @@
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <f>VLOOKUP(B12,武将表!$A:$B,2,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>10</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8">
         <v>10</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="9">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="8">
         <v>10</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="9">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8">
         <v>10</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="9">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="8">
         <v>10</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="8">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="17"/>
-      <c r="C13" s="8" t="e">
+      <c r="B13" s="9"/>
+      <c r="C13" s="1" t="e">
         <f>VLOOKUP(B13,武将表!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8">
         <v>11</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="9">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="8">
         <v>11</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="9">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="8">
         <v>11</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="9">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="8">
         <v>11</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="8">
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="1">
         <v>10</v>
       </c>
     </row>
@@ -10359,57 +10335,57 @@
       <c r="B14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <f>VLOOKUP(B14,武将表!$A:$B,2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>12</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,$B:$C,2,FALSE),",5")</f>
         <v>0,147,5</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>12</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="14" t="str">
+      <c r="K14" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,$B:$C,2,FALSE),",5")</f>
         <v>0,136,5</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>12</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="14" t="str">
+      <c r="N14" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,$B:$C,2,FALSE),",5")</f>
         <v>0,100,5</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>12</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="14" t="str">
+      <c r="Q14" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,$B:$C,2,FALSE),",5")</f>
         <v>0,83,5</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <v>12</v>
       </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="8">
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="1">
         <v>11</v>
       </c>
     </row>
@@ -10417,258 +10393,258 @@
       <c r="B15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="1">
         <f>VLOOKUP(B15,武将表!$A:$B,2,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="8">
         <v>13</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="9">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="8">
         <v>13</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="9">
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="8">
         <v>13</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="9">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="8">
         <v>13</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="8">
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <f>VLOOKUP(B16,武将表!$A:$B,2,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8">
         <v>14</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="9">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="8">
         <v>14</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="9">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="8">
         <v>14</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="9">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="8">
         <v>14</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="8">
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="16.2" spans="2:22">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1">
         <f>VLOOKUP(B17,武将表!$A:$B,2,FALSE)</f>
         <v>121</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>15</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,$B:$C,2,FALSE),",5")</f>
         <v>0,149,5</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>15</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="14" t="str">
+      <c r="K17" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,$B:$C,2,FALSE),",5")</f>
         <v>0,149,5</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>15</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="14" t="str">
+      <c r="N17" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,$B:$C,2,FALSE),",5")</f>
         <v>0,121,5</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <v>15</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q17" s="14" t="str">
+      <c r="Q17" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,$B:$C,2,FALSE),",5")</f>
         <v>0,82,5</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <v>15</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="8">
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <f>VLOOKUP(B18,武将表!$A:$B,2,FALSE)</f>
         <v>256</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>16</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8">
         <v>16</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="9">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="8">
         <v>16</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="9">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="8">
         <v>16</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="9">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="8">
         <v>16</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="8">
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="18"/>
-      <c r="C19" s="8" t="e">
+      <c r="B19" s="12"/>
+      <c r="C19" s="1" t="e">
         <f>VLOOKUP(B19,武将表!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>17</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="9">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8">
         <v>17</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="9">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="8">
         <v>17</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="9">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="8">
         <v>17</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="9">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="8">
         <v>17</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="8">
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="6:22">
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>18</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,$B:$C,2,FALSE),",5")</f>
         <v>0,61,5</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="14" t="str">
+      <c r="K20" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,$B:$C,2,FALSE),",5")</f>
         <v>0,59,5</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>18</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N20" s="14" t="str">
+      <c r="N20" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,$B:$C,2,FALSE),",5")</f>
         <v>0,48,5</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="10">
         <v>18</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q20" s="14" t="str">
+      <c r="Q20" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P20,$B:$C,2,FALSE),",5")</f>
         <v>0,33,5</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>18</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="8">
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="1">
         <v>17</v>
       </c>
     </row>
@@ -10676,96 +10652,96 @@
       <c r="A21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="1">
         <f>VLOOKUP(B21,武将表!$A:$B,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>19</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="9">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8">
         <v>19</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="9">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="8">
         <v>19</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="9">
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="8">
         <v>19</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="9">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="8">
         <v>19</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="8">
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="16.2" spans="2:22">
-      <c r="B22" s="17"/>
-      <c r="C22" s="8" t="e">
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="e">
         <f>VLOOKUP(B22,武将表!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,$B:$C,2,FALSE),",5")</f>
         <v>0,17,5</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="14" t="str">
+      <c r="K22" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,$B:$C,2,FALSE),",5")</f>
         <v>0,16,5</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>20</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N22" s="13" t="e">
+      <c r="N22" s="11" t="e">
         <f>CONCATENATE("0,",VLOOKUP(M22,$B:$C,2,FALSE),",5")</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <v>20</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q22" s="14" t="str">
+      <c r="Q22" s="11" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P22,$B:$C,2,FALSE),",5")</f>
         <v>0,0,5</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="8">
         <v>20</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="8">
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="1">
         <v>19</v>
       </c>
     </row>
@@ -10773,13 +10749,13 @@
       <c r="B23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1">
         <f>VLOOKUP(B23,武将表!$A:$B,2,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="8">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="1">
         <v>20</v>
       </c>
     </row>
@@ -10787,91 +10763,91 @@
       <c r="B24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1">
         <f>VLOOKUP(B24,武将表!$A:$B,2,FALSE)</f>
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1">
         <f>VLOOKUP(B25,武将表!$A:$B,2,FALSE)</f>
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <f>VLOOKUP(B26,武将表!$A:$B,2,FALSE)</f>
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="1">
         <f>VLOOKUP(B27,武将表!$A:$B,2,FALSE)</f>
         <v>192</v>
       </c>
     </row>
     <row r="28" ht="16.2" spans="2:15">
-      <c r="B28" s="18"/>
-      <c r="O28" s="11" t="s">
+      <c r="B28" s="12"/>
+      <c r="O28" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="29" spans="15:15">
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="15:15">
-      <c r="O30" s="20" t="s">
+      <c r="O30" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="15:15">
-      <c r="O31" s="20" t="s">
+      <c r="O31" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="15:15">
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="15:15">
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="15:15">
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="15:15">
-      <c r="O36" s="20" t="s">
+      <c r="O36" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="15:15">
-      <c r="O37" s="20" t="s">
+      <c r="O37" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" spans="15:15">
-      <c r="O39" s="20" t="s">
+      <c r="O39" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="15:15">
-      <c r="O40" s="20" t="s">
+      <c r="O40" s="8" t="s">
         <v>136</v>
       </c>
     </row>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -3589,12 +3589,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="28">
@@ -3661,6 +3661,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3668,59 +3675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3735,7 +3690,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3743,7 +3720,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3759,9 +3743,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3781,18 +3765,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3873,66 +3873,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3945,7 +3885,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3957,25 +3975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3987,37 +3999,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4035,25 +4041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4097,17 +4097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4127,6 +4121,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4142,29 +4154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4187,10 +4187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4199,133 +4199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4381,13 +4381,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4396,13 +4396,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -7847,7 +7847,7 @@
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>紫将碎片</t>
   </si>
   <si>
-    <t>五虎将+1自选红将，每个20碎片=100</t>
-  </si>
-  <si>
-    <t>3000玉阙+10万元宝=100</t>
+    <t>五虎将+1自选红将，每个20碎片=100元</t>
+  </si>
+  <si>
+    <t>3000玉阙+10万元宝=100元</t>
   </si>
   <si>
     <t>总数</t>
@@ -3589,12 +3589,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="28">
@@ -3668,14 +3668,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3690,29 +3720,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3728,22 +3744,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3774,7 +3774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3782,7 +3782,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3873,6 +3873,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3885,37 +4041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3927,133 +4053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4083,6 +4083,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4107,16 +4122,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4135,21 +4150,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4187,10 +4187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4199,16 +4199,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4217,115 +4217,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4381,13 +4381,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4396,13 +4396,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -7847,7 +7847,7 @@
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="604">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -659,6 +659,9 @@
     <t>陈宫</t>
   </si>
   <si>
+    <t>华佗</t>
+  </si>
+  <si>
     <t>蜀汉旗</t>
   </si>
   <si>
@@ -821,9 +824,6 @@
     <t>左慈</t>
   </si>
   <si>
-    <t>华佗</t>
-  </si>
-  <si>
     <t>祝融</t>
   </si>
   <si>
@@ -1892,7 +1892,7 @@
     <t>出战数</t>
   </si>
   <si>
-    <t>马良、严颜、张苞、王平、马岱</t>
+    <t>严颜、张苞、王平</t>
   </si>
   <si>
     <t>李严、马休</t>
@@ -1916,10 +1916,10 @@
     <t>弓弩营</t>
   </si>
   <si>
-    <t>曹操、曹仁、张郃、徐晃（稀有）、乐进、于禁</t>
-  </si>
-  <si>
-    <t>曹真、曹纯、戏志才</t>
+    <t>曹操、曹仁、张郃</t>
+  </si>
+  <si>
+    <t>曹纯、戏志才（稀有）</t>
   </si>
   <si>
     <t>曹冲、曹昂</t>
@@ -1935,6 +1935,12 @@
   </si>
   <si>
     <t>骑兵营</t>
+  </si>
+  <si>
+    <t>徐晃（稀有）、乐进、于禁</t>
+  </si>
+  <si>
+    <t>曹彰（稀有）、曹真</t>
   </si>
   <si>
     <t>荀彧（稀有）</t>
@@ -2015,11 +2021,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2090,8 +2096,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2104,38 +2118,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2149,36 +2147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2187,16 +2155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2212,7 +2180,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2227,8 +2202,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2303,7 +2309,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,7 +2399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2333,25 +2417,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,19 +2459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2387,103 +2489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2523,11 +2529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2535,8 +2547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2556,17 +2568,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2588,20 +2596,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2620,6 +2617,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2628,10 +2634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2640,133 +2646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2846,13 +2852,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2861,13 +2867,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4880,7 +4886,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -4988,6 +4994,9 @@
       <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="I6" s="4">
         <v>6</v>
       </c>
@@ -5004,6 +5013,9 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="I8" s="4">
         <v>8</v>
       </c>
@@ -5051,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>462</v>
@@ -5155,7 +5167,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -5258,7 +5270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="31.2" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5324,7 +5336,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5339,11 +5353,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>242</v>
+        <v>579</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>424</v>
@@ -5374,7 +5385,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5389,9 +5402,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>580</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>254</v>
       </c>
@@ -5735,25 +5747,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I10" s="4">
         <v>10</v>
@@ -5803,7 +5815,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4">
@@ -6194,19 +6206,19 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4">
@@ -6234,7 +6246,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>304</v>
@@ -6242,7 +6254,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4">
@@ -6333,7 +6345,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6629,22 +6641,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4">
@@ -6676,7 +6688,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="4">
@@ -6708,7 +6720,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="4">
@@ -10250,8 +10262,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11156,7 +11168,7 @@
         <v>126</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="13:13">
@@ -11164,27 +11176,27 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -11198,7 +11210,7 @@
   <sheetPr/>
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+    <sheetView topLeftCell="A231" workbookViewId="0">
       <selection activeCell="E398" sqref="E398"/>
     </sheetView>
   </sheetViews>
@@ -11214,7 +11226,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -11222,7 +11234,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -11230,7 +11242,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
@@ -11238,7 +11250,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -11246,7 +11258,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -11270,7 +11282,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="15">
         <v>8</v>
@@ -11278,7 +11290,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="15">
         <v>9</v>
@@ -11302,7 +11314,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" s="15">
         <v>12</v>
@@ -11326,7 +11338,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" s="15">
         <v>15</v>
@@ -11350,7 +11362,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" s="15">
         <v>18</v>
@@ -11366,7 +11378,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B21" s="15">
         <v>20</v>
@@ -11374,7 +11386,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15">
         <v>21</v>
@@ -11398,7 +11410,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" s="15">
         <v>24</v>
@@ -11406,7 +11418,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" s="15">
         <v>25</v>
@@ -11430,7 +11442,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" s="15">
         <v>28</v>
@@ -11438,7 +11450,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" s="15">
         <v>29</v>
@@ -11446,7 +11458,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" s="15">
         <v>30</v>
@@ -11454,7 +11466,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="15">
         <v>31</v>
@@ -11462,7 +11474,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" s="15">
         <v>32</v>
@@ -11470,7 +11482,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="15">
         <v>33</v>
@@ -11478,7 +11490,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" s="15">
         <v>34</v>
@@ -11486,7 +11498,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" s="15">
         <v>35</v>
@@ -11494,7 +11506,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" s="15">
         <v>36</v>
@@ -11502,7 +11514,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B38" s="15">
         <v>37</v>
@@ -11510,7 +11522,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B39" s="15">
         <v>38</v>
@@ -11526,7 +11538,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B41" s="15">
         <v>40</v>
@@ -11534,7 +11546,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B42" s="15">
         <v>41</v>
@@ -11542,7 +11554,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B43" s="15">
         <v>42</v>
@@ -11558,7 +11570,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B45" s="15">
         <v>44</v>
@@ -11566,7 +11578,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="15">
         <v>45</v>
@@ -11574,7 +11586,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B47" s="15">
         <v>46</v>
@@ -11582,7 +11594,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B48" s="15">
         <v>47</v>
@@ -11590,7 +11602,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B49" s="15">
         <v>48</v>
@@ -11598,7 +11610,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B50" s="15">
         <v>49</v>
@@ -11614,7 +11626,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B52" s="15">
         <v>51</v>
@@ -11622,7 +11634,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="15">
         <v>52</v>
@@ -11630,7 +11642,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54" s="15">
         <v>53</v>
@@ -11638,7 +11650,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B55" s="15">
         <v>54</v>
@@ -11646,7 +11658,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56" s="15">
         <v>55</v>
@@ -11654,7 +11666,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="15">
         <v>56</v>
@@ -11662,7 +11674,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="15">
         <v>57</v>
@@ -11670,7 +11682,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="15">
         <v>58</v>
@@ -11686,7 +11698,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" s="15">
         <v>60</v>
@@ -11694,7 +11706,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62" s="15">
         <v>61</v>
@@ -11702,7 +11714,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63" s="15">
         <v>62</v>
@@ -11710,7 +11722,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B64" s="15">
         <v>63</v>
@@ -11718,7 +11730,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B65" s="15">
         <v>64</v>
@@ -11726,7 +11738,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B66" s="15">
         <v>65</v>
@@ -11734,7 +11746,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="15" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B67" s="15">
         <v>66</v>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="804" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="626">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -108,13 +108,25 @@
     <t>首冲特价</t>
   </si>
   <si>
-    <t>套餐一</t>
-  </si>
-  <si>
-    <t>五虎上将+1自选蜀红将，每个20碎片（直接3星起飞）=100元</t>
-  </si>
-  <si>
-    <t>套餐二</t>
+    <t>套餐1.1</t>
+  </si>
+  <si>
+    <t>五虎上将+1自选蜀橙/红将，每个20碎片（直接3星起飞）=100元</t>
+  </si>
+  <si>
+    <t>套餐1.2</t>
+  </si>
+  <si>
+    <t>五子良将+1自选魏橙/红将，每个20碎片（直接3星起飞）=100元</t>
+  </si>
+  <si>
+    <t>套餐1.3</t>
+  </si>
+  <si>
+    <t>四都督+1自选吴橙/红将，每个20碎片（直接3星起飞）=100元</t>
+  </si>
+  <si>
+    <t>套餐2</t>
   </si>
   <si>
     <t>3000玉阙+10万元宝=100元</t>
@@ -123,6 +135,9 @@
     <t>常规定制</t>
   </si>
   <si>
+    <t>套餐1</t>
+  </si>
+  <si>
     <t>橙色品质以上武将自选5个（可包含1至2个【稀有武将】），每个10碎片=100元</t>
   </si>
   <si>
@@ -130,12 +145,6 @@
   </si>
   <si>
     <t>注：【稀有武将】是指游戏中战役宝箱无法开出，或者极低概率开出的武将</t>
-  </si>
-  <si>
-    <t>五子良将+1自选魏红将，每个20碎片（直接3星起飞）=100元</t>
-  </si>
-  <si>
-    <t>四都督+1自选吴红将，每个20碎片（直接3星起飞）=100元</t>
   </si>
   <si>
     <t>游戏不氪金也能玩，只要花点功夫研究下游戏中的套路和技巧，每天都能拿够奖励的（群主用小白账号亲测过）</t>
@@ -663,6 +672,9 @@
     <t>华佗</t>
   </si>
   <si>
+    <t>黄月英</t>
+  </si>
+  <si>
     <t>蜀汉旗</t>
   </si>
   <si>
@@ -810,9 +822,6 @@
     <t>徐庶</t>
   </si>
   <si>
-    <t>黄月英</t>
-  </si>
-  <si>
     <t>庞统</t>
   </si>
   <si>
@@ -1906,6 +1915,9 @@
   </si>
   <si>
     <t>八阵图、拒马</t>
+  </si>
+  <si>
+    <t>黄月英（稀有）</t>
   </si>
   <si>
     <t>黄忠（稀有）</t>
@@ -2075,11 +2087,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
@@ -2151,22 +2163,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2180,7 +2179,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2196,24 +2239,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2222,6 +2258,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2234,24 +2277,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2265,31 +2299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2364,25 +2376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,19 +2406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,7 +2430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,13 +2448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,19 +2472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,31 +2508,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,25 +2550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,23 +2617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2644,8 +2641,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2674,21 +2701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2707,10 +2719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2719,133 +2731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4987,12 +4999,12 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B3:B9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -5007,7 +5019,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5025,13 +5037,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5039,25 +5051,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="I2" s="18">
         <v>2</v>
@@ -5076,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I4" s="18">
         <v>4</v>
@@ -5095,10 +5107,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5117,10 +5132,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I8" s="18">
         <v>8</v>
@@ -5139,10 +5154,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5169,13 +5184,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="I13" s="18">
         <v>13</v>
@@ -5289,7 +5304,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5307,13 +5322,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5381,25 +5396,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5415,7 +5430,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18">
@@ -5443,7 +5458,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5460,10 +5475,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F10" s="17"/>
       <c r="H10" s="17"/>
@@ -5492,7 +5507,7 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -5508,10 +5523,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5604,7 +5619,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -5701,7 +5716,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5719,13 +5734,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5853,25 +5868,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5914,14 +5929,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -5950,10 +5965,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -5984,10 +5999,10 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6114,7 +6129,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6132,13 +6147,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6312,19 +6327,19 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -6352,15 +6367,15 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6387,7 +6402,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -6419,7 +6434,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -6451,7 +6466,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -6520,7 +6535,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6538,13 +6553,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6747,22 +6762,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6794,7 +6809,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18">
@@ -6826,7 +6841,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18">
@@ -6917,12 +6932,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -6942,7 +6957,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="6" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6962,7 +6977,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="6" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6982,7 +6997,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="6" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7002,7 +7017,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -7022,7 +7037,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -7042,7 +7057,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="6" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -7062,7 +7077,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="6" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -7082,7 +7097,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="6" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -7102,7 +7117,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -7122,7 +7137,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -7142,7 +7157,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="6" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -7162,7 +7177,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="6" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -7182,7 +7197,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="6" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -7202,7 +7217,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="6" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -7222,7 +7237,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="6" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -7242,7 +7257,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="6" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -7262,7 +7277,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="6" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -7282,7 +7297,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -7302,7 +7317,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>
@@ -8728,10 +8743,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -8821,23 +8836,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:11">
       <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" ht="16.2" spans="2:9">
+      <c r="J9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" s="24">
         <v>2</v>
       </c>
       <c r="C10" s="24">
         <v>5</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -8848,35 +8866,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="24">
         <v>4</v>
       </c>
       <c r="C12" s="24">
         <v>20</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+    </row>
+    <row r="13" ht="16.2" spans="2:9">
       <c r="B13" s="24">
         <v>5</v>
       </c>
       <c r="C13" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="I13" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="24">
         <v>6</v>
       </c>
@@ -8884,37 +8899,43 @@
         <v>80</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>35</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="24">
         <v>7</v>
       </c>
       <c r="C15" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="J15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" s="24">
         <v>8</v>
       </c>
       <c r="C16" s="24">
         <v>150</v>
       </c>
-      <c r="K16" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="24">
         <v>9</v>
       </c>
       <c r="C17" s="24">
         <v>200</v>
       </c>
-      <c r="K17" s="24" t="s">
-        <v>35</v>
+      <c r="J17" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -8933,28 +8954,30 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:3">
       <c r="C21" s="24">
         <f>SUM(C9:C19)</f>
         <v>1410</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10">
-      <c r="J22" s="24" t="s">
-        <v>38</v>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:10">
       <c r="J24" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -8994,40 +9017,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="16.2" spans="2:21">
@@ -9068,7 +9091,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P3" s="47">
         <v>1</v>
@@ -9128,17 +9151,17 @@
         <v>188</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P4" s="48"/>
       <c r="Q4" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
@@ -9185,18 +9208,18 @@
         <v>168</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U5" s="48"/>
       <c r="V5" s="1">
@@ -9242,18 +9265,18 @@
         <v>141</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U6" s="48"/>
       <c r="V6" s="1">
@@ -9299,19 +9322,19 @@
         <v>168</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T7" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U7" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V7" s="1">
         <v>50</v>
@@ -9342,19 +9365,19 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="O8" s="48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="S8" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T8" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V8" s="1">
         <v>50</v>
@@ -9376,19 +9399,19 @@
         <v>14580</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
       <c r="S9" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T9" s="51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U9" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V9" s="1">
         <v>50</v>
@@ -9396,14 +9419,14 @@
     </row>
     <row r="10" ht="16.2" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9440,12 +9463,12 @@
         <v>84</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" ht="16.2" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -9482,7 +9505,7 @@
         <v>84</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P12" s="47">
         <v>1</v>
@@ -9494,7 +9517,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T12" s="47">
         <v>5</v>
@@ -9508,17 +9531,17 @@
         <v>12</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P13" s="48"/>
       <c r="Q13" s="53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R13" s="53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
@@ -9536,20 +9559,20 @@
     </row>
     <row r="14" spans="9:27">
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1">
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L14" s="1">
         <f>W19</f>
         <v>5170</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="51">
@@ -9570,7 +9593,7 @@
         <v>98</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA14" s="1">
         <f>3.5*24*60*60</f>
@@ -9579,25 +9602,25 @@
     </row>
     <row r="15" spans="2:27">
       <c r="B15" s="46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P15" s="48"/>
       <c r="Q15" s="51">
@@ -9618,7 +9641,7 @@
         <v>298</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AA15" s="1">
         <f>7*24*60*60</f>
@@ -9714,7 +9737,7 @@
         <v>1920</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:23">
@@ -9940,7 +9963,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C16:C26)</f>
@@ -9990,43 +10013,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -10076,10 +10099,10 @@
         <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -10125,7 +10148,7 @@
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -10153,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="39">
         <v>4</v>
@@ -10174,7 +10197,7 @@
         <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10199,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -10230,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I6" s="39">
         <v>6</v>
@@ -10277,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I7" s="39">
         <v>7</v>
@@ -10316,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I8" s="39">
         <v>8</v>
@@ -10347,7 +10370,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I9" s="39">
         <v>9</v>
@@ -10378,7 +10401,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I10" s="39">
         <v>10</v>
@@ -10409,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I11" s="39">
         <v>11</v>
@@ -10440,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I12" s="39">
         <v>12</v>
@@ -10471,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I13" s="39">
         <v>13</v>
@@ -10502,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I14" s="39">
         <v>14</v>
@@ -10533,7 +10556,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I15" s="39">
         <v>15</v>
@@ -10564,7 +10587,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I16" s="39">
         <v>16</v>
@@ -10595,7 +10618,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" s="39">
         <v>17</v>
@@ -10626,7 +10649,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I18" s="39">
         <v>18</v>
@@ -10657,7 +10680,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I19" s="39">
         <v>19</v>
@@ -10688,7 +10711,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I20" s="39">
         <v>20</v>
@@ -10719,7 +10742,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I21" s="39">
         <v>21</v>
@@ -10796,7 +10819,7 @@
   <dimension ref="C2:S36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10820,31 +10843,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -10872,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R3" s="1">
         <f>VLOOKUP(P3,武将表!$A:$B,2,FALSE)</f>
@@ -10910,10 +10933,10 @@
         <v>2</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R4" s="1">
         <f>VLOOKUP(P4,武将表!$A:$B,2,FALSE)</f>
@@ -10928,7 +10951,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10938,7 +10961,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10948,7 +10971,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10958,7 +10981,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10968,10 +10991,10 @@
         <v>3</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R5" s="1">
         <f>VLOOKUP(P5,武将表!$A:$B,2,FALSE)</f>
@@ -11006,10 +11029,10 @@
         <v>4</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R6" s="31"/>
       <c r="S6" s="1">
@@ -11041,10 +11064,10 @@
         <v>5</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R7" s="31"/>
       <c r="S7" s="1">
@@ -11056,7 +11079,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11066,7 +11089,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11076,7 +11099,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11086,7 +11109,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11166,7 +11189,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11176,7 +11199,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11186,7 +11209,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11196,7 +11219,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11279,7 +11302,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11289,7 +11312,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11299,7 +11322,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11309,7 +11332,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11392,7 +11415,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11402,7 +11425,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11412,7 +11435,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11422,7 +11445,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11505,7 +11528,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11515,7 +11538,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11525,7 +11548,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11535,7 +11558,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11587,7 +11610,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11597,7 +11620,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11607,7 +11630,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11617,7 +11640,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11642,94 +11665,97 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="29" t="s">
+        <v>156</v>
+      </c>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -11751,7 +11777,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -11759,7 +11785,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -11767,7 +11793,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -11775,7 +11801,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -11783,7 +11809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -11791,7 +11817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -11799,7 +11825,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -11807,7 +11833,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -11815,7 +11841,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -11823,7 +11849,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -11831,7 +11857,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -11839,7 +11865,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -11847,7 +11873,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -11855,7 +11881,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -11863,7 +11889,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -11871,7 +11897,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -11879,7 +11905,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -11887,7 +11913,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -11895,7 +11921,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
@@ -11903,7 +11929,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -11911,7 +11937,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -11919,7 +11945,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
@@ -11927,7 +11953,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -11935,7 +11961,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -11943,7 +11969,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
@@ -11951,7 +11977,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
@@ -11959,7 +11985,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
@@ -11967,7 +11993,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -11975,7 +12001,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
@@ -11983,7 +12009,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
@@ -11991,7 +12017,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -11999,7 +12025,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
@@ -12007,7 +12033,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
@@ -12015,7 +12041,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
@@ -12023,7 +12049,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
@@ -12031,7 +12057,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
@@ -12039,7 +12065,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
@@ -12047,7 +12073,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
@@ -12055,7 +12081,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
@@ -12063,7 +12089,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
@@ -12071,7 +12097,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
@@ -12079,7 +12105,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
@@ -12087,7 +12113,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
@@ -12095,7 +12121,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
@@ -12103,7 +12129,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
@@ -12111,7 +12137,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
@@ -12119,7 +12145,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
@@ -12127,7 +12153,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
@@ -12135,7 +12161,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
@@ -12143,7 +12169,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
@@ -12151,7 +12177,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
@@ -12159,7 +12185,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
@@ -12167,7 +12193,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
@@ -12175,7 +12201,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
@@ -12183,7 +12209,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
@@ -12191,7 +12217,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
@@ -12199,7 +12225,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
@@ -12207,7 +12233,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
@@ -12215,7 +12241,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
@@ -12223,7 +12249,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
@@ -12231,7 +12257,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
@@ -12239,7 +12265,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
@@ -12247,7 +12273,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
@@ -12255,7 +12281,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
@@ -12263,7 +12289,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
@@ -12271,7 +12297,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
@@ -12279,7 +12305,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
@@ -12287,7 +12313,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
@@ -12295,7 +12321,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
@@ -12303,7 +12329,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
@@ -12311,7 +12337,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
@@ -12319,7 +12345,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
@@ -12327,7 +12353,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
@@ -12335,7 +12361,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
@@ -12343,7 +12369,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
@@ -12351,7 +12377,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
@@ -12359,7 +12385,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
@@ -12367,7 +12393,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
@@ -12375,7 +12401,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
@@ -12383,7 +12409,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
@@ -12391,7 +12417,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
@@ -12399,7 +12425,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
@@ -12407,7 +12433,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
@@ -12415,7 +12441,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
@@ -12423,7 +12449,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
@@ -12431,7 +12457,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
@@ -12439,7 +12465,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
@@ -12447,7 +12473,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
@@ -12455,7 +12481,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
@@ -12463,7 +12489,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
@@ -12471,7 +12497,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
@@ -12479,7 +12505,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
@@ -12487,7 +12513,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
@@ -12495,7 +12521,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
@@ -12503,7 +12529,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
@@ -12511,7 +12537,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
@@ -12519,7 +12545,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
@@ -12527,7 +12553,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
@@ -12535,7 +12561,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
@@ -12543,7 +12569,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
@@ -12551,7 +12577,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
@@ -12559,7 +12585,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
@@ -12567,7 +12593,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
@@ -12575,7 +12601,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
@@ -12583,7 +12609,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
@@ -12591,7 +12617,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
@@ -12599,7 +12625,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
@@ -12607,7 +12633,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
@@ -12615,7 +12641,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
@@ -12623,7 +12649,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B110" s="6">
         <v>109</v>
@@ -12631,7 +12657,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B111" s="6">
         <v>110</v>
@@ -12639,7 +12665,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B112" s="6">
         <v>111</v>
@@ -12647,7 +12673,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B113" s="6">
         <v>112</v>
@@ -12655,7 +12681,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B114" s="6">
         <v>113</v>
@@ -12663,7 +12689,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B115" s="6">
         <v>114</v>
@@ -12671,7 +12697,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B116" s="6">
         <v>115</v>
@@ -12679,7 +12705,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B117" s="6">
         <v>116</v>
@@ -12687,7 +12713,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B118" s="6">
         <v>117</v>
@@ -12695,7 +12721,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B119" s="6">
         <v>118</v>
@@ -12703,7 +12729,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B120" s="6">
         <v>119</v>
@@ -12711,7 +12737,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B121" s="6">
         <v>120</v>
@@ -12719,7 +12745,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B122" s="6">
         <v>121</v>
@@ -12727,7 +12753,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B123" s="6">
         <v>122</v>
@@ -12735,7 +12761,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B124" s="6">
         <v>123</v>
@@ -12743,7 +12769,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B125" s="6">
         <v>124</v>
@@ -12751,7 +12777,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B126" s="6">
         <v>125</v>
@@ -12759,7 +12785,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B127" s="6">
         <v>126</v>
@@ -12767,7 +12793,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B128" s="6">
         <v>127</v>
@@ -12775,7 +12801,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B129" s="6">
         <v>128</v>
@@ -12783,7 +12809,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B130" s="6">
         <v>129</v>
@@ -12791,7 +12817,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B131" s="6">
         <v>130</v>
@@ -12799,7 +12825,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B132" s="6">
         <v>131</v>
@@ -12807,7 +12833,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B133" s="6">
         <v>132</v>
@@ -12815,7 +12841,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B134" s="6">
         <v>133</v>
@@ -12823,7 +12849,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B135" s="6">
         <v>134</v>
@@ -12831,7 +12857,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B136" s="6">
         <v>135</v>
@@ -12839,7 +12865,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B137" s="6">
         <v>136</v>
@@ -12847,7 +12873,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B138" s="6">
         <v>137</v>
@@ -12855,7 +12881,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B139" s="6">
         <v>138</v>
@@ -12863,7 +12889,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B140" s="6">
         <v>139</v>
@@ -12871,7 +12897,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B141" s="6">
         <v>140</v>
@@ -12879,7 +12905,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B142" s="6">
         <v>141</v>
@@ -12887,7 +12913,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B143" s="6">
         <v>142</v>
@@ -12895,7 +12921,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B144" s="6">
         <v>143</v>
@@ -12903,7 +12929,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B145" s="6">
         <v>144</v>
@@ -12911,7 +12937,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B146" s="6">
         <v>145</v>
@@ -12919,7 +12945,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B147" s="6">
         <v>146</v>
@@ -12927,7 +12953,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B148" s="6">
         <v>147</v>
@@ -12935,7 +12961,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B149" s="6">
         <v>148</v>
@@ -12943,7 +12969,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B150" s="6">
         <v>149</v>
@@ -12951,7 +12977,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B151" s="6">
         <v>150</v>
@@ -12959,7 +12985,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B152" s="6">
         <v>151</v>
@@ -12967,7 +12993,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B153" s="6">
         <v>152</v>
@@ -12975,7 +13001,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B154" s="6">
         <v>153</v>
@@ -12983,7 +13009,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B155" s="6">
         <v>154</v>
@@ -12991,7 +13017,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B156" s="6">
         <v>155</v>
@@ -12999,7 +13025,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B157" s="6">
         <v>156</v>
@@ -13007,7 +13033,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B158" s="6">
         <v>157</v>
@@ -13015,7 +13041,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B159" s="6">
         <v>158</v>
@@ -13023,7 +13049,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B160" s="6">
         <v>159</v>
@@ -13031,7 +13057,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B161" s="6">
         <v>160</v>
@@ -13039,7 +13065,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B162" s="6">
         <v>161</v>
@@ -13047,7 +13073,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B163" s="6">
         <v>162</v>
@@ -13055,7 +13081,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B164" s="6">
         <v>163</v>
@@ -13063,7 +13089,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B165" s="6">
         <v>164</v>
@@ -13071,7 +13097,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B166" s="6">
         <v>165</v>
@@ -13079,7 +13105,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B167" s="6">
         <v>166</v>
@@ -13087,7 +13113,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B168" s="6">
         <v>167</v>
@@ -13095,7 +13121,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B169" s="6">
         <v>168</v>
@@ -13103,7 +13129,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B170" s="6">
         <v>169</v>
@@ -13111,7 +13137,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B171" s="6">
         <v>170</v>
@@ -13119,7 +13145,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B172" s="6">
         <v>171</v>
@@ -13127,7 +13153,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B173" s="6">
         <v>172</v>
@@ -13135,7 +13161,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B174" s="6">
         <v>173</v>
@@ -13143,7 +13169,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B175" s="6">
         <v>174</v>
@@ -13151,7 +13177,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B176" s="6">
         <v>175</v>
@@ -13159,7 +13185,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B177" s="6">
         <v>176</v>
@@ -13167,7 +13193,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B178" s="6">
         <v>177</v>
@@ -13175,7 +13201,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B179" s="6">
         <v>178</v>
@@ -13183,7 +13209,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B180" s="6">
         <v>179</v>
@@ -13191,7 +13217,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B181" s="6">
         <v>180</v>
@@ -13199,7 +13225,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B182" s="6">
         <v>181</v>
@@ -13207,7 +13233,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B183" s="6">
         <v>182</v>
@@ -13215,7 +13241,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B184" s="6">
         <v>183</v>
@@ -13223,7 +13249,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B185" s="6">
         <v>184</v>
@@ -13231,7 +13257,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B186" s="6">
         <v>185</v>
@@ -13239,7 +13265,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B187" s="6">
         <v>186</v>
@@ -13247,7 +13273,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B188" s="6">
         <v>187</v>
@@ -13255,7 +13281,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B189" s="6">
         <v>188</v>
@@ -13263,7 +13289,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B190" s="6">
         <v>189</v>
@@ -13271,7 +13297,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B191" s="6">
         <v>190</v>
@@ -13279,7 +13305,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B192" s="6">
         <v>191</v>
@@ -13287,7 +13313,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B193" s="6">
         <v>192</v>
@@ -13295,7 +13321,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B194" s="6">
         <v>193</v>
@@ -13303,7 +13329,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B195" s="6">
         <v>194</v>
@@ -13311,7 +13337,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B196" s="6">
         <v>195</v>
@@ -13319,7 +13345,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B197" s="6">
         <v>196</v>
@@ -13327,7 +13353,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B198" s="6">
         <v>197</v>
@@ -13335,7 +13361,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B199" s="6">
         <v>198</v>
@@ -13343,7 +13369,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B200" s="6">
         <v>199</v>
@@ -13351,7 +13377,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B201" s="6">
         <v>200</v>
@@ -13359,7 +13385,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B202" s="6">
         <v>201</v>
@@ -13367,7 +13393,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B203" s="6">
         <v>202</v>
@@ -13375,7 +13401,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B204" s="6">
         <v>203</v>
@@ -13383,7 +13409,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B205" s="6">
         <v>204</v>
@@ -13391,7 +13417,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B206" s="6">
         <v>205</v>
@@ -13399,7 +13425,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B207" s="6">
         <v>206</v>
@@ -13407,7 +13433,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B208" s="6">
         <v>207</v>
@@ -13415,7 +13441,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B209" s="6">
         <v>208</v>
@@ -13423,7 +13449,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B210" s="6">
         <v>209</v>
@@ -13431,7 +13457,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B211" s="6">
         <v>210</v>
@@ -13439,7 +13465,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B212" s="6">
         <v>211</v>
@@ -13447,7 +13473,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B213" s="6">
         <v>212</v>
@@ -13455,7 +13481,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B214" s="6">
         <v>213</v>
@@ -13463,7 +13489,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B215" s="6">
         <v>214</v>
@@ -13471,7 +13497,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B216" s="6">
         <v>215</v>
@@ -13479,7 +13505,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B217" s="6">
         <v>216</v>
@@ -13487,7 +13513,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B218" s="6">
         <v>217</v>
@@ -13495,7 +13521,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B219" s="6">
         <v>218</v>
@@ -13503,7 +13529,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B220" s="6">
         <v>219</v>
@@ -13511,7 +13537,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B221" s="6">
         <v>220</v>
@@ -13519,7 +13545,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B222" s="6">
         <v>221</v>
@@ -13527,7 +13553,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B223" s="6">
         <v>222</v>
@@ -13535,7 +13561,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B224" s="6">
         <v>223</v>
@@ -13543,7 +13569,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B225" s="6">
         <v>224</v>
@@ -13551,7 +13577,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B226" s="6">
         <v>225</v>
@@ -13559,7 +13585,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B227" s="6">
         <v>226</v>
@@ -13567,7 +13593,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B228" s="6">
         <v>227</v>
@@ -13575,7 +13601,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B229" s="6">
         <v>228</v>
@@ -13583,7 +13609,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B230" s="6">
         <v>229</v>
@@ -13591,7 +13617,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B231" s="6">
         <v>230</v>
@@ -13599,7 +13625,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B232" s="6">
         <v>231</v>
@@ -13607,7 +13633,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B233" s="6">
         <v>232</v>
@@ -13615,7 +13641,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B234" s="6">
         <v>233</v>
@@ -13623,7 +13649,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B235" s="6">
         <v>234</v>
@@ -13631,7 +13657,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B236" s="6">
         <v>235</v>
@@ -13639,7 +13665,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B237" s="6">
         <v>236</v>
@@ -13647,7 +13673,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B238" s="6">
         <v>237</v>
@@ -13655,7 +13681,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B239" s="6">
         <v>238</v>
@@ -13663,7 +13689,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B240" s="6">
         <v>239</v>
@@ -13671,7 +13697,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B241" s="6">
         <v>240</v>
@@ -13679,7 +13705,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B242" s="6">
         <v>241</v>
@@ -13687,7 +13713,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B243" s="6">
         <v>242</v>
@@ -13695,7 +13721,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B244" s="6">
         <v>243</v>
@@ -13703,7 +13729,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B245" s="6">
         <v>244</v>
@@ -13711,7 +13737,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B246" s="6">
         <v>245</v>
@@ -13719,7 +13745,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B247" s="6">
         <v>246</v>
@@ -13727,7 +13753,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B248" s="6">
         <v>247</v>
@@ -13735,7 +13761,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B249" s="6">
         <v>248</v>
@@ -13743,7 +13769,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B250" s="6">
         <v>249</v>
@@ -13751,7 +13777,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B251" s="6">
         <v>250</v>
@@ -13759,7 +13785,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B252" s="6">
         <v>251</v>
@@ -13767,7 +13793,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B253" s="6">
         <v>252</v>
@@ -13775,7 +13801,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B254" s="6">
         <v>253</v>
@@ -13783,7 +13809,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B255" s="6">
         <v>254</v>
@@ -13791,7 +13817,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B256" s="6">
         <v>255</v>
@@ -13799,7 +13825,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B257" s="6">
         <v>256</v>
@@ -13807,7 +13833,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B258" s="6">
         <v>257</v>
@@ -13815,7 +13841,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B259" s="6">
         <v>258</v>
@@ -13823,7 +13849,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B260" s="6">
         <v>259</v>
@@ -13831,7 +13857,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B261" s="6">
         <v>260</v>
@@ -13839,7 +13865,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B262" s="6">
         <v>261</v>
@@ -13847,7 +13873,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B263" s="6">
         <v>262</v>
@@ -13855,7 +13881,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B264" s="6">
         <v>263</v>
@@ -13863,7 +13889,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B265" s="6">
         <v>264</v>
@@ -13871,7 +13897,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B266" s="6">
         <v>265</v>
@@ -13879,7 +13905,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B267" s="6">
         <v>266</v>
@@ -13887,7 +13913,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="6" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B268" s="6">
         <v>267</v>
@@ -13895,7 +13921,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B269" s="6">
         <v>268</v>
@@ -13903,7 +13929,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B270" s="6">
         <v>269</v>
@@ -13911,7 +13937,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B271" s="6">
         <v>270</v>
@@ -13919,7 +13945,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B272" s="6">
         <v>271</v>
@@ -13927,7 +13953,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B273" s="6">
         <v>272</v>
@@ -13935,7 +13961,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B274" s="6">
         <v>273</v>
@@ -13943,7 +13969,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B275" s="6">
         <v>274</v>
@@ -13951,7 +13977,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B276" s="6">
         <v>275</v>
@@ -13959,7 +13985,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B277" s="6">
         <v>276</v>
@@ -13967,7 +13993,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B278" s="6">
         <v>277</v>
@@ -13975,7 +14001,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B279" s="6">
         <v>278</v>
@@ -13983,7 +14009,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="6" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B280" s="6">
         <v>279</v>
@@ -13991,7 +14017,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B281" s="6">
         <v>280</v>
@@ -13999,7 +14025,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B282" s="6">
         <v>281</v>
@@ -14007,7 +14033,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B283" s="6">
         <v>282</v>
@@ -14015,7 +14041,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B284" s="6">
         <v>283</v>
@@ -14023,7 +14049,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B285" s="6">
         <v>284</v>
@@ -14031,7 +14057,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B286" s="6">
         <v>285</v>
@@ -14039,7 +14065,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B287" s="6">
         <v>286</v>
@@ -14047,7 +14073,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B288" s="6">
         <v>287</v>
@@ -14055,7 +14081,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B289" s="6">
         <v>288</v>
@@ -14063,7 +14089,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B290" s="6">
         <v>289</v>
@@ -14071,7 +14097,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B291" s="6">
         <v>290</v>
@@ -14079,7 +14105,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B292" s="6">
         <v>291</v>
@@ -14087,7 +14113,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B293" s="6">
         <v>292</v>
@@ -14095,7 +14121,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B294" s="6">
         <v>293</v>
@@ -14103,7 +14129,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B295" s="6">
         <v>294</v>
@@ -14111,7 +14137,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B296" s="6">
         <v>295</v>
@@ -14119,7 +14145,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B297" s="6">
         <v>296</v>
@@ -14127,7 +14153,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B298" s="6">
         <v>297</v>
@@ -14135,7 +14161,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B299" s="6">
         <v>298</v>
@@ -14143,7 +14169,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B300" s="6">
         <v>299</v>
@@ -14151,7 +14177,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B301" s="6">
         <v>300</v>
@@ -14159,7 +14185,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B302" s="6">
         <v>301</v>
@@ -14167,7 +14193,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B303" s="6">
         <v>302</v>
@@ -14175,7 +14201,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B304" s="6">
         <v>303</v>
@@ -14183,7 +14209,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B305" s="6">
         <v>304</v>
@@ -14191,7 +14217,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B306" s="6">
         <v>305</v>
@@ -14199,7 +14225,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B307" s="6">
         <v>306</v>
@@ -14207,7 +14233,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B308" s="6">
         <v>307</v>
@@ -14215,7 +14241,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B309" s="6">
         <v>308</v>
@@ -14223,7 +14249,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B310" s="6">
         <v>309</v>
@@ -14231,7 +14257,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B311" s="6">
         <v>310</v>
@@ -14239,7 +14265,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B312" s="6">
         <v>311</v>
@@ -14247,7 +14273,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B313" s="6">
         <v>312</v>
@@ -14255,7 +14281,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B314" s="6">
         <v>313</v>
@@ -14263,7 +14289,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B315" s="6">
         <v>314</v>
@@ -14271,7 +14297,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B316" s="6">
         <v>315</v>
@@ -14279,7 +14305,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B317" s="6">
         <v>316</v>
@@ -14287,7 +14313,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B318" s="6">
         <v>317</v>
@@ -14295,7 +14321,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B319" s="6">
         <v>318</v>
@@ -14303,7 +14329,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B320" s="6">
         <v>319</v>
@@ -14311,7 +14337,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B321" s="6">
         <v>320</v>
@@ -14319,7 +14345,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B322" s="6">
         <v>321</v>
@@ -14327,7 +14353,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B323" s="6">
         <v>322</v>
@@ -14335,7 +14361,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B324" s="6">
         <v>323</v>
@@ -14343,7 +14369,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B325" s="6">
         <v>324</v>
@@ -14351,7 +14377,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B326" s="6">
         <v>325</v>
@@ -14359,7 +14385,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B327" s="6">
         <v>326</v>
@@ -14367,7 +14393,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B328" s="6">
         <v>327</v>
@@ -14375,7 +14401,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B329" s="6">
         <v>328</v>
@@ -14383,7 +14409,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B330" s="6">
         <v>329</v>
@@ -14391,7 +14417,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="6" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B331" s="6">
         <v>330</v>
@@ -14399,7 +14425,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B332" s="6">
         <v>331</v>
@@ -14407,7 +14433,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B333" s="6">
         <v>332</v>
@@ -14415,7 +14441,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B334" s="6">
         <v>333</v>
@@ -14423,7 +14449,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B335" s="6">
         <v>334</v>
@@ -14431,7 +14457,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B336" s="6">
         <v>335</v>
@@ -14439,7 +14465,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B337" s="6">
         <v>336</v>
@@ -14447,7 +14473,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B338" s="6">
         <v>337</v>
@@ -14455,7 +14481,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B339" s="6">
         <v>338</v>
@@ -14463,7 +14489,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B340" s="6">
         <v>339</v>
@@ -14471,7 +14497,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B341" s="6">
         <v>340</v>
@@ -14479,7 +14505,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B342" s="6">
         <v>341</v>
@@ -14487,7 +14513,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B343" s="6">
         <v>342</v>
@@ -14495,7 +14521,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B344" s="6">
         <v>343</v>
@@ -14503,7 +14529,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B345" s="6">
         <v>344</v>
@@ -14511,7 +14537,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B346" s="6">
         <v>345</v>
@@ -14519,7 +14545,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B347" s="6">
         <v>346</v>
@@ -14527,7 +14553,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="6" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B348" s="6">
         <v>347</v>
@@ -14535,7 +14561,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B349" s="6">
         <v>348</v>
@@ -14543,7 +14569,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B350" s="6">
         <v>349</v>
@@ -14551,7 +14577,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B351" s="6">
         <v>350</v>
@@ -14559,7 +14585,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B352" s="6">
         <v>351</v>
@@ -14567,7 +14593,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B353" s="6">
         <v>352</v>
@@ -14575,7 +14601,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B354" s="6">
         <v>353</v>
@@ -14583,7 +14609,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B355" s="6">
         <v>354</v>
@@ -14591,7 +14617,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="6" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B356" s="6">
         <v>355</v>
@@ -14599,7 +14625,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B357" s="6">
         <v>356</v>
@@ -14607,7 +14633,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B358" s="6">
         <v>357</v>
@@ -14615,7 +14641,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B359" s="6">
         <v>358</v>
@@ -14623,7 +14649,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B360" s="6">
         <v>359</v>
@@ -14631,7 +14657,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B361" s="6">
         <v>360</v>
@@ -14639,7 +14665,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B362" s="6">
         <v>361</v>
@@ -14647,7 +14673,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B363" s="6">
         <v>362</v>
@@ -14655,7 +14681,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B364" s="6">
         <v>363</v>
@@ -14663,7 +14689,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="6" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B365" s="6">
         <v>364</v>
@@ -14671,7 +14697,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B366" s="6">
         <v>365</v>
@@ -14679,7 +14705,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B367" s="6">
         <v>366</v>
@@ -14687,7 +14713,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B368" s="6">
         <v>367</v>
@@ -14695,7 +14721,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B369" s="6">
         <v>368</v>
@@ -14703,7 +14729,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B370" s="6">
         <v>369</v>
@@ -14711,7 +14737,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B371" s="6">
         <v>370</v>
@@ -14719,7 +14745,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="6" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B372" s="6">
         <v>371</v>
@@ -14727,7 +14753,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B373" s="6">
         <v>372</v>
@@ -14735,7 +14761,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B374" s="6">
         <v>373</v>
@@ -14743,7 +14769,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B375" s="6">
         <v>374</v>
@@ -14751,7 +14777,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B376" s="6">
         <v>375</v>
@@ -14759,7 +14785,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B377" s="6">
         <v>376</v>
@@ -14767,7 +14793,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="6" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B378" s="6">
         <v>377</v>
@@ -14775,7 +14801,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B379" s="6">
         <v>378</v>
@@ -14783,7 +14809,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B380" s="6">
         <v>379</v>
@@ -14791,7 +14817,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B381" s="6">
         <v>380</v>
@@ -14799,7 +14825,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B382" s="6">
         <v>381</v>
@@ -14807,7 +14833,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="6" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B383" s="6">
         <v>382</v>
@@ -14815,7 +14841,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B384" s="6">
         <v>383</v>
@@ -14823,7 +14849,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B385" s="6">
         <v>384</v>
@@ -14831,7 +14857,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B386" s="6">
         <v>385</v>
@@ -14839,7 +14865,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B387" s="6">
         <v>386</v>
@@ -14847,7 +14873,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="6" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B388" s="6">
         <v>387</v>
@@ -14855,7 +14881,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B389" s="6">
         <v>388</v>
@@ -14863,7 +14889,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B390" s="6">
         <v>389</v>
@@ -14871,7 +14897,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B391" s="6">
         <v>390</v>
@@ -14879,7 +14905,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B392" s="6">
         <v>391</v>
@@ -14887,7 +14913,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="6" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B393" s="6">
         <v>392</v>
@@ -14895,7 +14921,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="6" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B394" s="6">
         <v>393</v>
@@ -14903,7 +14929,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="6" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B395" s="6">
         <v>394</v>
@@ -14911,7 +14937,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B396" s="6">
         <v>395</v>
@@ -14919,7 +14945,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B397" s="6">
         <v>396</v>
@@ -14927,7 +14953,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B398" s="6">
         <v>397</v>
@@ -14935,7 +14961,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B399" s="6">
         <v>398</v>
@@ -14943,7 +14969,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B400" s="6">
         <v>399</v>
@@ -14951,7 +14977,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="6" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B401" s="6">
         <v>400</v>
@@ -14981,64 +15007,64 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="24" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="24" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="24" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="24" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="24" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="24" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -15065,27 +15091,27 @@
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="28" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="28" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="O2" s="25"/>
     </row>
@@ -15096,41 +15122,41 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:10">
       <c r="B8" s="26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="26" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="8:8">
@@ -15138,61 +15164,61 @@
     </row>
     <row r="14" ht="16.2" spans="4:12">
       <c r="D14" s="27" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="8:16">
       <c r="H16" s="24" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="24" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="8:14">
       <c r="H18" s="24" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="8:14">
       <c r="H20" s="27" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -15201,7 +15227,7 @@
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="24" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -597,36 +597,39 @@
     <t>刘备</t>
   </si>
   <si>
+    <t>华佗</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>马良</t>
+  </si>
+  <si>
+    <t>曹纯</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>马岱</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
     <t>马云禄</t>
   </si>
   <si>
-    <t>曹操</t>
-  </si>
-  <si>
-    <t>孙权</t>
-  </si>
-  <si>
-    <t>马良</t>
-  </si>
-  <si>
-    <t>曹纯</t>
-  </si>
-  <si>
-    <t>程普</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>马岱</t>
-  </si>
-  <si>
-    <t>戏志才</t>
-  </si>
-  <si>
-    <t>蒋钦</t>
-  </si>
-  <si>
     <t>张郃</t>
   </si>
   <si>
@@ -667,9 +670,6 @@
   </si>
   <si>
     <t>陈宫</t>
-  </si>
-  <si>
-    <t>华佗</t>
   </si>
   <si>
     <t>黄月英</t>
@@ -2087,12 +2087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2163,30 +2163,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2200,28 +2186,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2246,18 +2233,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,15 +2277,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2299,9 +2300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,7 +2376,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,25 +2514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,37 +2538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,103 +2550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2618,6 +2618,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2640,9 +2649,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2662,30 +2697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2700,17 +2711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2719,10 +2719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,133 +2731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2976,22 +2976,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>130</v>
@@ -5088,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I4" s="18">
         <v>4</v>
@@ -5157,7 +5157,7 @@
         <v>573</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5396,7 +5396,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>575</v>
@@ -8745,7 +8745,7 @@
   <sheetPr/>
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -10818,8 +10818,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="H11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
-        <v>0,139,5</v>
+        <v>0,66,5</v>
       </c>
       <c r="I11" s="30">
         <v>9</v>
@@ -11528,7 +11528,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11548,7 +11548,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11558,7 +11558,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11610,7 +11610,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11620,7 +11620,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11630,7 +11630,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11640,7 +11640,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11665,10 +11665,10 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="3:14">
@@ -11682,19 +11682,19 @@
         <v>133</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="3:14">
@@ -11708,10 +11708,10 @@
         <v>136</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" s="29" t="s">
         <v>113</v>
@@ -11724,7 +11724,7 @@
         <v>129</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="12:13">
@@ -11749,7 +11749,7 @@
         <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>161</v>
@@ -11777,7 +11777,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B140" s="6">
         <v>139</v>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -2087,12 +2087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2163,11 +2163,78 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2179,23 +2246,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2216,14 +2277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2233,13 +2286,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2248,60 +2294,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,7 +2376,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,19 +2496,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,151 +2550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,24 +2614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2647,13 +2629,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2682,32 +2701,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2719,10 +2719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,133 +2731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2976,22 +2976,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -8745,8 +8745,8 @@
   <sheetPr/>
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10818,7 +10818,7 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -2087,12 +2087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2164,12 +2164,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2186,6 +2194,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2193,9 +2209,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2207,9 +2263,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2230,45 +2292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2277,31 +2300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,7 +2376,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,49 +2472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,13 +2490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2466,61 +2520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,25 +2538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,6 +2614,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2629,17 +2640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2653,11 +2664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2680,34 +2697,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2719,10 +2719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,133 +2731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2976,22 +2976,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -8746,7 +8746,7 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="621">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -546,15 +546,9 @@
     <t>赵云</t>
   </si>
   <si>
-    <t>0,14,5</t>
-  </si>
-  <si>
     <t>马超</t>
   </si>
   <si>
-    <t>0,13,5</t>
-  </si>
-  <si>
     <t>李严</t>
   </si>
   <si>
@@ -567,31 +561,31 @@
     <t>许褚</t>
   </si>
   <si>
-    <t>0,10,5</t>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张苞</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>曹真</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>典韦</t>
   </si>
   <si>
     <t>郭嘉</t>
   </si>
   <si>
-    <t>0,7,5</t>
-  </si>
-  <si>
-    <t>荀彧</t>
-  </si>
-  <si>
-    <t>0,43,5</t>
-  </si>
-  <si>
-    <t>张苞</t>
-  </si>
-  <si>
-    <t>严颜</t>
-  </si>
-  <si>
-    <t>曹真</t>
-  </si>
-  <si>
-    <t>黄盖</t>
+    <t>张辽</t>
   </si>
   <si>
     <t>刘备</t>
@@ -636,15 +630,9 @@
     <t>陆逊</t>
   </si>
   <si>
-    <t>张飞</t>
-  </si>
-  <si>
     <t>黄忠</t>
   </si>
   <si>
-    <t>张辽</t>
-  </si>
-  <si>
     <t>周瑜</t>
   </si>
   <si>
@@ -709,9 +697,6 @@
   </si>
   <si>
     <t>邓艾</t>
-  </si>
-  <si>
-    <t>典韦</t>
   </si>
   <si>
     <t>诸葛亮</t>
@@ -2087,12 +2072,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2163,6 +2148,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2177,9 +2178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,9 +2192,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,29 +2238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2239,39 +2246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,15 +2270,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,7 +2361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,13 +2409,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,31 +2493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,19 +2505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2466,31 +2523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,55 +2535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,11 +2601,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2640,41 +2638,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2703,11 +2682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2719,10 +2704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,133 +2716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2976,22 +2961,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -3111,8 +3096,8 @@
     <mruColors>
       <color rgb="00FFFF00"/>
       <color rgb="00FA26DF"/>
+      <color rgb="00000000"/>
       <color rgb="00FF0000"/>
-      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5037,13 +5022,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5051,25 +5036,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I2" s="18">
         <v>2</v>
@@ -5088,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I4" s="18">
         <v>4</v>
@@ -5107,13 +5092,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5132,10 +5117,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" s="18">
         <v>8</v>
@@ -5154,10 +5139,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5184,13 +5169,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I13" s="18">
         <v>13</v>
@@ -5322,13 +5307,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5396,25 +5381,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>575</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>580</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5430,7 +5415,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18">
@@ -5458,7 +5443,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5475,10 +5460,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F10" s="17"/>
       <c r="H10" s="17"/>
@@ -5507,7 +5492,7 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -5523,10 +5508,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5619,7 +5604,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -5734,13 +5719,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5868,25 +5853,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="H10" s="17" t="s">
         <v>586</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>591</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5929,14 +5914,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -5965,10 +5950,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -5999,10 +5984,10 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6147,13 +6132,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6327,19 +6312,19 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -6367,15 +6352,15 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6402,7 +6387,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -6434,7 +6419,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -6466,7 +6451,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -6553,13 +6538,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6762,22 +6747,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>600</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>605</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6809,7 +6794,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18">
@@ -6841,7 +6826,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18">
@@ -6932,12 +6917,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -6957,7 +6942,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6977,7 +6962,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6997,7 +6982,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7017,7 +7002,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -7037,7 +7022,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="6" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -7057,7 +7042,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="6" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -7077,7 +7062,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -7097,7 +7082,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="6" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -7117,7 +7102,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -7137,7 +7122,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -7157,7 +7142,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -7177,7 +7162,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -7197,7 +7182,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -7217,7 +7202,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="6" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -7237,7 +7222,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -7257,7 +7242,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -7277,7 +7262,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="6" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -7297,7 +7282,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -7317,7 +7302,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>
@@ -8745,7 +8730,7 @@
   <sheetPr/>
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -10818,8 +10803,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10897,8 +10882,9 @@
       <c r="P3" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>114</v>
+      <c r="Q3" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,14,5</v>
       </c>
       <c r="R3" s="1">
         <f>VLOOKUP(P3,武将表!$A:$B,2,FALSE)</f>
@@ -10933,10 +10919,11 @@
         <v>2</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="Q4" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,13,5</v>
       </c>
       <c r="R4" s="1">
         <f>VLOOKUP(P4,武将表!$A:$B,2,FALSE)</f>
@@ -10951,7 +10938,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10961,7 +10948,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10971,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10981,7 +10968,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10991,10 +10978,11 @@
         <v>3</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="Q5" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,10,5</v>
       </c>
       <c r="R5" s="1">
         <f>VLOOKUP(P5,武将表!$A:$B,2,FALSE)</f>
@@ -11029,10 +11017,11 @@
         <v>4</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="Q6" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,43,5</v>
       </c>
       <c r="R6" s="31"/>
       <c r="S6" s="1">
@@ -11064,10 +11053,11 @@
         <v>5</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="Q7" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,17,5</v>
       </c>
       <c r="R7" s="31"/>
       <c r="S7" s="1">
@@ -11079,7 +11069,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11089,7 +11079,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11099,7 +11089,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11109,7 +11099,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11118,8 +11108,13 @@
       <c r="O8" s="29">
         <v>6</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,9,5</v>
+      </c>
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="3:19">
@@ -11146,8 +11141,13 @@
       <c r="O9" s="29">
         <v>7</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,7,5</v>
+      </c>
       <c r="R9" s="31"/>
       <c r="S9" s="1">
         <v>6</v>
@@ -11177,8 +11177,13 @@
       <c r="O10" s="29">
         <v>8</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="P10" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,6,5</v>
+      </c>
       <c r="R10" s="31"/>
       <c r="S10" s="1">
         <v>7</v>
@@ -11189,7 +11194,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11199,7 +11204,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11209,7 +11214,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11219,7 +11224,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11302,7 +11307,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11312,7 +11317,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11322,7 +11327,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11332,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11415,7 +11420,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11425,7 +11430,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11435,7 +11440,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11445,7 +11450,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11528,7 +11533,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11538,7 +11543,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11548,7 +11553,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11558,7 +11563,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11610,7 +11615,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11620,7 +11625,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11630,7 +11635,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11640,7 +11645,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11665,53 +11670,53 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L32" s="29" t="s">
         <v>113</v>
@@ -11721,41 +11726,41 @@
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -11777,7 +11782,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -11785,7 +11790,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -11793,7 +11798,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -11801,7 +11806,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -11809,7 +11814,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -11817,7 +11822,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -11825,7 +11830,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -11833,7 +11838,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -11841,7 +11846,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -11849,7 +11854,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -11857,7 +11862,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -11865,7 +11870,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -11873,7 +11878,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -11881,7 +11886,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -11897,7 +11902,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -11905,7 +11910,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -11913,7 +11918,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -11921,7 +11926,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
@@ -11929,7 +11934,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -11937,7 +11942,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -11945,7 +11950,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
@@ -11953,7 +11958,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -11961,7 +11966,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -11969,7 +11974,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
@@ -11977,7 +11982,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
@@ -11985,7 +11990,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
@@ -11993,7 +11998,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -12001,7 +12006,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
@@ -12009,7 +12014,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
@@ -12017,7 +12022,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -12025,7 +12030,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
@@ -12033,7 +12038,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
@@ -12041,7 +12046,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
@@ -12049,7 +12054,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
@@ -12057,7 +12062,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
@@ -12065,7 +12070,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
@@ -12073,7 +12078,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
@@ -12081,7 +12086,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
@@ -12089,7 +12094,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
@@ -12097,7 +12102,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
@@ -12105,7 +12110,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
@@ -12113,7 +12118,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
@@ -12121,7 +12126,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
@@ -12129,7 +12134,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
@@ -12137,7 +12142,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
@@ -12145,7 +12150,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
@@ -12153,7 +12158,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
@@ -12161,7 +12166,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
@@ -12169,7 +12174,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
@@ -12177,7 +12182,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
@@ -12185,7 +12190,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
@@ -12193,7 +12198,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
@@ -12201,7 +12206,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
@@ -12209,7 +12214,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
@@ -12217,7 +12222,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
@@ -12225,7 +12230,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
@@ -12233,7 +12238,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
@@ -12241,7 +12246,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
@@ -12249,7 +12254,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
@@ -12257,7 +12262,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
@@ -12265,7 +12270,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
@@ -12273,7 +12278,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
@@ -12281,7 +12286,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
@@ -12289,7 +12294,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
@@ -12297,7 +12302,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
@@ -12305,7 +12310,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
@@ -12313,7 +12318,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
@@ -12321,7 +12326,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
@@ -12329,7 +12334,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
@@ -12337,7 +12342,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
@@ -12345,7 +12350,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
@@ -12353,7 +12358,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
@@ -12361,7 +12366,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
@@ -12369,7 +12374,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
@@ -12377,7 +12382,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
@@ -12385,7 +12390,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
@@ -12393,7 +12398,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
@@ -12401,7 +12406,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
@@ -12409,7 +12414,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
@@ -12417,7 +12422,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
@@ -12425,7 +12430,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
@@ -12433,7 +12438,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
@@ -12441,7 +12446,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
@@ -12449,7 +12454,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
@@ -12457,7 +12462,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
@@ -12465,7 +12470,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
@@ -12473,7 +12478,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
@@ -12481,7 +12486,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
@@ -12489,7 +12494,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
@@ -12497,7 +12502,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
@@ -12505,7 +12510,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
@@ -12513,7 +12518,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
@@ -12521,7 +12526,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
@@ -12529,7 +12534,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
@@ -12537,7 +12542,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
@@ -12545,7 +12550,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
@@ -12553,7 +12558,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
@@ -12561,7 +12566,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
@@ -12569,7 +12574,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
@@ -12577,7 +12582,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
@@ -12585,7 +12590,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
@@ -12593,7 +12598,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
@@ -12601,7 +12606,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
@@ -12609,7 +12614,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
@@ -12617,7 +12622,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
@@ -12625,7 +12630,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
@@ -12633,7 +12638,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
@@ -12641,7 +12646,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
@@ -12649,7 +12654,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B110" s="6">
         <v>109</v>
@@ -12657,7 +12662,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B111" s="6">
         <v>110</v>
@@ -12665,7 +12670,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B112" s="6">
         <v>111</v>
@@ -12673,7 +12678,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B113" s="6">
         <v>112</v>
@@ -12681,7 +12686,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B114" s="6">
         <v>113</v>
@@ -12689,7 +12694,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" s="6">
         <v>114</v>
@@ -12697,7 +12702,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B116" s="6">
         <v>115</v>
@@ -12705,7 +12710,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B117" s="6">
         <v>116</v>
@@ -12713,7 +12718,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B118" s="6">
         <v>117</v>
@@ -12721,7 +12726,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B119" s="6">
         <v>118</v>
@@ -12729,7 +12734,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B120" s="6">
         <v>119</v>
@@ -12737,7 +12742,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B121" s="6">
         <v>120</v>
@@ -12745,7 +12750,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B122" s="6">
         <v>121</v>
@@ -12753,7 +12758,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B123" s="6">
         <v>122</v>
@@ -12761,7 +12766,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B124" s="6">
         <v>123</v>
@@ -12769,7 +12774,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B125" s="6">
         <v>124</v>
@@ -12777,7 +12782,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B126" s="6">
         <v>125</v>
@@ -12785,7 +12790,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B127" s="6">
         <v>126</v>
@@ -12793,7 +12798,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B128" s="6">
         <v>127</v>
@@ -12801,7 +12806,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B129" s="6">
         <v>128</v>
@@ -12809,7 +12814,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B130" s="6">
         <v>129</v>
@@ -12817,7 +12822,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B131" s="6">
         <v>130</v>
@@ -12825,7 +12830,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B132" s="6">
         <v>131</v>
@@ -12833,7 +12838,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B133" s="6">
         <v>132</v>
@@ -12841,7 +12846,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" s="6">
         <v>133</v>
@@ -12849,7 +12854,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B135" s="6">
         <v>134</v>
@@ -12857,7 +12862,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B136" s="6">
         <v>135</v>
@@ -12865,7 +12870,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B137" s="6">
         <v>136</v>
@@ -12873,7 +12878,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B138" s="6">
         <v>137</v>
@@ -12881,7 +12886,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B139" s="6">
         <v>138</v>
@@ -12889,7 +12894,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140" s="6">
         <v>139</v>
@@ -12897,7 +12902,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B141" s="6">
         <v>140</v>
@@ -12905,7 +12910,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B142" s="6">
         <v>141</v>
@@ -12913,7 +12918,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B143" s="6">
         <v>142</v>
@@ -12921,7 +12926,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B144" s="6">
         <v>143</v>
@@ -12929,7 +12934,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B145" s="6">
         <v>144</v>
@@ -12937,7 +12942,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B146" s="6">
         <v>145</v>
@@ -12945,7 +12950,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B147" s="6">
         <v>146</v>
@@ -12953,7 +12958,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B148" s="6">
         <v>147</v>
@@ -12961,7 +12966,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B149" s="6">
         <v>148</v>
@@ -12969,7 +12974,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B150" s="6">
         <v>149</v>
@@ -12977,7 +12982,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B151" s="6">
         <v>150</v>
@@ -12985,7 +12990,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B152" s="6">
         <v>151</v>
@@ -12993,7 +12998,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B153" s="6">
         <v>152</v>
@@ -13001,7 +13006,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B154" s="6">
         <v>153</v>
@@ -13009,7 +13014,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B155" s="6">
         <v>154</v>
@@ -13017,7 +13022,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B156" s="6">
         <v>155</v>
@@ -13025,7 +13030,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B157" s="6">
         <v>156</v>
@@ -13033,7 +13038,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B158" s="6">
         <v>157</v>
@@ -13041,7 +13046,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B159" s="6">
         <v>158</v>
@@ -13049,7 +13054,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B160" s="6">
         <v>159</v>
@@ -13057,7 +13062,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B161" s="6">
         <v>160</v>
@@ -13065,7 +13070,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B162" s="6">
         <v>161</v>
@@ -13073,7 +13078,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B163" s="6">
         <v>162</v>
@@ -13081,7 +13086,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B164" s="6">
         <v>163</v>
@@ -13089,7 +13094,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B165" s="6">
         <v>164</v>
@@ -13097,7 +13102,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B166" s="6">
         <v>165</v>
@@ -13105,7 +13110,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B167" s="6">
         <v>166</v>
@@ -13113,7 +13118,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B168" s="6">
         <v>167</v>
@@ -13121,7 +13126,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B169" s="6">
         <v>168</v>
@@ -13129,7 +13134,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B170" s="6">
         <v>169</v>
@@ -13137,7 +13142,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B171" s="6">
         <v>170</v>
@@ -13145,7 +13150,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B172" s="6">
         <v>171</v>
@@ -13153,7 +13158,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B173" s="6">
         <v>172</v>
@@ -13161,7 +13166,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B174" s="6">
         <v>173</v>
@@ -13169,7 +13174,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B175" s="6">
         <v>174</v>
@@ -13177,7 +13182,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B176" s="6">
         <v>175</v>
@@ -13185,7 +13190,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B177" s="6">
         <v>176</v>
@@ -13193,7 +13198,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B178" s="6">
         <v>177</v>
@@ -13201,7 +13206,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B179" s="6">
         <v>178</v>
@@ -13209,7 +13214,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B180" s="6">
         <v>179</v>
@@ -13217,7 +13222,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B181" s="6">
         <v>180</v>
@@ -13225,7 +13230,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B182" s="6">
         <v>181</v>
@@ -13233,7 +13238,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B183" s="6">
         <v>182</v>
@@ -13241,7 +13246,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B184" s="6">
         <v>183</v>
@@ -13249,7 +13254,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B185" s="6">
         <v>184</v>
@@ -13257,7 +13262,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B186" s="6">
         <v>185</v>
@@ -13265,7 +13270,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B187" s="6">
         <v>186</v>
@@ -13273,7 +13278,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B188" s="6">
         <v>187</v>
@@ -13281,7 +13286,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B189" s="6">
         <v>188</v>
@@ -13289,7 +13294,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B190" s="6">
         <v>189</v>
@@ -13297,7 +13302,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B191" s="6">
         <v>190</v>
@@ -13305,7 +13310,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B192" s="6">
         <v>191</v>
@@ -13313,7 +13318,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B193" s="6">
         <v>192</v>
@@ -13321,7 +13326,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B194" s="6">
         <v>193</v>
@@ -13329,7 +13334,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B195" s="6">
         <v>194</v>
@@ -13337,7 +13342,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B196" s="6">
         <v>195</v>
@@ -13345,7 +13350,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B197" s="6">
         <v>196</v>
@@ -13353,7 +13358,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B198" s="6">
         <v>197</v>
@@ -13361,7 +13366,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B199" s="6">
         <v>198</v>
@@ -13369,7 +13374,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B200" s="6">
         <v>199</v>
@@ -13377,7 +13382,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B201" s="6">
         <v>200</v>
@@ -13385,7 +13390,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B202" s="6">
         <v>201</v>
@@ -13393,7 +13398,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B203" s="6">
         <v>202</v>
@@ -13401,7 +13406,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B204" s="6">
         <v>203</v>
@@ -13409,7 +13414,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B205" s="6">
         <v>204</v>
@@ -13417,7 +13422,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B206" s="6">
         <v>205</v>
@@ -13425,7 +13430,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B207" s="6">
         <v>206</v>
@@ -13433,7 +13438,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B208" s="6">
         <v>207</v>
@@ -13441,7 +13446,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B209" s="6">
         <v>208</v>
@@ -13449,7 +13454,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B210" s="6">
         <v>209</v>
@@ -13457,7 +13462,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B211" s="6">
         <v>210</v>
@@ -13465,7 +13470,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B212" s="6">
         <v>211</v>
@@ -13473,7 +13478,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B213" s="6">
         <v>212</v>
@@ -13481,7 +13486,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B214" s="6">
         <v>213</v>
@@ -13489,7 +13494,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B215" s="6">
         <v>214</v>
@@ -13497,7 +13502,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B216" s="6">
         <v>215</v>
@@ -13505,7 +13510,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B217" s="6">
         <v>216</v>
@@ -13513,7 +13518,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B218" s="6">
         <v>217</v>
@@ -13521,7 +13526,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B219" s="6">
         <v>218</v>
@@ -13529,7 +13534,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B220" s="6">
         <v>219</v>
@@ -13537,7 +13542,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B221" s="6">
         <v>220</v>
@@ -13545,7 +13550,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B222" s="6">
         <v>221</v>
@@ -13553,7 +13558,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B223" s="6">
         <v>222</v>
@@ -13561,7 +13566,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B224" s="6">
         <v>223</v>
@@ -13569,7 +13574,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B225" s="6">
         <v>224</v>
@@ -13577,7 +13582,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B226" s="6">
         <v>225</v>
@@ -13585,7 +13590,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B227" s="6">
         <v>226</v>
@@ -13593,7 +13598,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B228" s="6">
         <v>227</v>
@@ -13601,7 +13606,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B229" s="6">
         <v>228</v>
@@ -13609,7 +13614,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B230" s="6">
         <v>229</v>
@@ -13617,7 +13622,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B231" s="6">
         <v>230</v>
@@ -13625,7 +13630,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B232" s="6">
         <v>231</v>
@@ -13633,7 +13638,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B233" s="6">
         <v>232</v>
@@ -13641,7 +13646,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B234" s="6">
         <v>233</v>
@@ -13649,7 +13654,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B235" s="6">
         <v>234</v>
@@ -13657,7 +13662,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B236" s="6">
         <v>235</v>
@@ -13665,7 +13670,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B237" s="6">
         <v>236</v>
@@ -13673,7 +13678,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B238" s="6">
         <v>237</v>
@@ -13681,7 +13686,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B239" s="6">
         <v>238</v>
@@ -13689,7 +13694,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B240" s="6">
         <v>239</v>
@@ -13697,7 +13702,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B241" s="6">
         <v>240</v>
@@ -13705,7 +13710,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B242" s="6">
         <v>241</v>
@@ -13713,7 +13718,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B243" s="6">
         <v>242</v>
@@ -13721,7 +13726,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B244" s="6">
         <v>243</v>
@@ -13729,7 +13734,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B245" s="6">
         <v>244</v>
@@ -13737,7 +13742,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B246" s="6">
         <v>245</v>
@@ -13745,7 +13750,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B247" s="6">
         <v>246</v>
@@ -13753,7 +13758,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B248" s="6">
         <v>247</v>
@@ -13761,7 +13766,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B249" s="6">
         <v>248</v>
@@ -13769,7 +13774,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B250" s="6">
         <v>249</v>
@@ -13777,7 +13782,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B251" s="6">
         <v>250</v>
@@ -13785,7 +13790,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B252" s="6">
         <v>251</v>
@@ -13793,7 +13798,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B253" s="6">
         <v>252</v>
@@ -13801,7 +13806,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B254" s="6">
         <v>253</v>
@@ -13809,7 +13814,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B255" s="6">
         <v>254</v>
@@ -13817,7 +13822,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B256" s="6">
         <v>255</v>
@@ -13825,7 +13830,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B257" s="6">
         <v>256</v>
@@ -13833,7 +13838,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B258" s="6">
         <v>257</v>
@@ -13841,7 +13846,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B259" s="6">
         <v>258</v>
@@ -13849,7 +13854,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B260" s="6">
         <v>259</v>
@@ -13857,7 +13862,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B261" s="6">
         <v>260</v>
@@ -13865,7 +13870,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B262" s="6">
         <v>261</v>
@@ -13873,7 +13878,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B263" s="6">
         <v>262</v>
@@ -13881,7 +13886,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B264" s="6">
         <v>263</v>
@@ -13889,7 +13894,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B265" s="6">
         <v>264</v>
@@ -13897,7 +13902,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B266" s="6">
         <v>265</v>
@@ -13905,7 +13910,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B267" s="6">
         <v>266</v>
@@ -13913,7 +13918,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B268" s="6">
         <v>267</v>
@@ -13921,7 +13926,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B269" s="6">
         <v>268</v>
@@ -13929,7 +13934,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B270" s="6">
         <v>269</v>
@@ -13937,7 +13942,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B271" s="6">
         <v>270</v>
@@ -13945,7 +13950,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B272" s="6">
         <v>271</v>
@@ -13953,7 +13958,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B273" s="6">
         <v>272</v>
@@ -13961,7 +13966,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B274" s="6">
         <v>273</v>
@@ -13969,7 +13974,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B275" s="6">
         <v>274</v>
@@ -13977,7 +13982,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B276" s="6">
         <v>275</v>
@@ -13985,7 +13990,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B277" s="6">
         <v>276</v>
@@ -13993,7 +13998,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B278" s="6">
         <v>277</v>
@@ -14001,7 +14006,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B279" s="6">
         <v>278</v>
@@ -14009,7 +14014,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B280" s="6">
         <v>279</v>
@@ -14017,7 +14022,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B281" s="6">
         <v>280</v>
@@ -14025,7 +14030,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B282" s="6">
         <v>281</v>
@@ -14033,7 +14038,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B283" s="6">
         <v>282</v>
@@ -14041,7 +14046,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B284" s="6">
         <v>283</v>
@@ -14049,7 +14054,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B285" s="6">
         <v>284</v>
@@ -14057,7 +14062,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B286" s="6">
         <v>285</v>
@@ -14065,7 +14070,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B287" s="6">
         <v>286</v>
@@ -14073,7 +14078,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B288" s="6">
         <v>287</v>
@@ -14081,7 +14086,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B289" s="6">
         <v>288</v>
@@ -14089,7 +14094,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B290" s="6">
         <v>289</v>
@@ -14097,7 +14102,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B291" s="6">
         <v>290</v>
@@ -14105,7 +14110,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B292" s="6">
         <v>291</v>
@@ -14113,7 +14118,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B293" s="6">
         <v>292</v>
@@ -14121,7 +14126,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B294" s="6">
         <v>293</v>
@@ -14129,7 +14134,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B295" s="6">
         <v>294</v>
@@ -14137,7 +14142,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B296" s="6">
         <v>295</v>
@@ -14145,7 +14150,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B297" s="6">
         <v>296</v>
@@ -14153,7 +14158,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B298" s="6">
         <v>297</v>
@@ -14161,7 +14166,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B299" s="6">
         <v>298</v>
@@ -14169,7 +14174,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B300" s="6">
         <v>299</v>
@@ -14177,7 +14182,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B301" s="6">
         <v>300</v>
@@ -14185,7 +14190,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B302" s="6">
         <v>301</v>
@@ -14193,7 +14198,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B303" s="6">
         <v>302</v>
@@ -14201,7 +14206,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B304" s="6">
         <v>303</v>
@@ -14209,7 +14214,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B305" s="6">
         <v>304</v>
@@ -14217,7 +14222,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B306" s="6">
         <v>305</v>
@@ -14225,7 +14230,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B307" s="6">
         <v>306</v>
@@ -14233,7 +14238,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B308" s="6">
         <v>307</v>
@@ -14241,7 +14246,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B309" s="6">
         <v>308</v>
@@ -14249,7 +14254,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B310" s="6">
         <v>309</v>
@@ -14257,7 +14262,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B311" s="6">
         <v>310</v>
@@ -14265,7 +14270,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B312" s="6">
         <v>311</v>
@@ -14273,7 +14278,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B313" s="6">
         <v>312</v>
@@ -14281,7 +14286,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B314" s="6">
         <v>313</v>
@@ -14289,7 +14294,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B315" s="6">
         <v>314</v>
@@ -14297,7 +14302,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B316" s="6">
         <v>315</v>
@@ -14305,7 +14310,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B317" s="6">
         <v>316</v>
@@ -14313,7 +14318,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B318" s="6">
         <v>317</v>
@@ -14321,7 +14326,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B319" s="6">
         <v>318</v>
@@ -14329,7 +14334,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B320" s="6">
         <v>319</v>
@@ -14337,7 +14342,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B321" s="6">
         <v>320</v>
@@ -14345,7 +14350,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B322" s="6">
         <v>321</v>
@@ -14353,7 +14358,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B323" s="6">
         <v>322</v>
@@ -14361,7 +14366,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B324" s="6">
         <v>323</v>
@@ -14369,7 +14374,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B325" s="6">
         <v>324</v>
@@ -14377,7 +14382,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B326" s="6">
         <v>325</v>
@@ -14385,7 +14390,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B327" s="6">
         <v>326</v>
@@ -14393,7 +14398,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B328" s="6">
         <v>327</v>
@@ -14401,7 +14406,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B329" s="6">
         <v>328</v>
@@ -14409,7 +14414,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B330" s="6">
         <v>329</v>
@@ -14417,7 +14422,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B331" s="6">
         <v>330</v>
@@ -14425,7 +14430,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B332" s="6">
         <v>331</v>
@@ -14433,7 +14438,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B333" s="6">
         <v>332</v>
@@ -14441,7 +14446,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B334" s="6">
         <v>333</v>
@@ -14449,7 +14454,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B335" s="6">
         <v>334</v>
@@ -14457,7 +14462,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B336" s="6">
         <v>335</v>
@@ -14465,7 +14470,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B337" s="6">
         <v>336</v>
@@ -14473,7 +14478,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B338" s="6">
         <v>337</v>
@@ -14481,7 +14486,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B339" s="6">
         <v>338</v>
@@ -14489,7 +14494,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B340" s="6">
         <v>339</v>
@@ -14497,7 +14502,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B341" s="6">
         <v>340</v>
@@ -14505,7 +14510,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B342" s="6">
         <v>341</v>
@@ -14513,7 +14518,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B343" s="6">
         <v>342</v>
@@ -14521,7 +14526,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B344" s="6">
         <v>343</v>
@@ -14529,7 +14534,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B345" s="6">
         <v>344</v>
@@ -14537,7 +14542,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B346" s="6">
         <v>345</v>
@@ -14545,7 +14550,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B347" s="6">
         <v>346</v>
@@ -14553,7 +14558,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B348" s="6">
         <v>347</v>
@@ -14561,7 +14566,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B349" s="6">
         <v>348</v>
@@ -14569,7 +14574,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B350" s="6">
         <v>349</v>
@@ -14577,7 +14582,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B351" s="6">
         <v>350</v>
@@ -14585,7 +14590,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B352" s="6">
         <v>351</v>
@@ -14593,7 +14598,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B353" s="6">
         <v>352</v>
@@ -14601,7 +14606,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B354" s="6">
         <v>353</v>
@@ -14609,7 +14614,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B355" s="6">
         <v>354</v>
@@ -14617,7 +14622,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B356" s="6">
         <v>355</v>
@@ -14625,7 +14630,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B357" s="6">
         <v>356</v>
@@ -14633,7 +14638,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B358" s="6">
         <v>357</v>
@@ -14641,7 +14646,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B359" s="6">
         <v>358</v>
@@ -14649,7 +14654,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B360" s="6">
         <v>359</v>
@@ -14657,7 +14662,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B361" s="6">
         <v>360</v>
@@ -14665,7 +14670,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B362" s="6">
         <v>361</v>
@@ -14673,7 +14678,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B363" s="6">
         <v>362</v>
@@ -14681,7 +14686,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B364" s="6">
         <v>363</v>
@@ -14689,7 +14694,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B365" s="6">
         <v>364</v>
@@ -14697,7 +14702,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B366" s="6">
         <v>365</v>
@@ -14705,7 +14710,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B367" s="6">
         <v>366</v>
@@ -14713,7 +14718,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B368" s="6">
         <v>367</v>
@@ -14721,7 +14726,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B369" s="6">
         <v>368</v>
@@ -14729,7 +14734,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B370" s="6">
         <v>369</v>
@@ -14737,7 +14742,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B371" s="6">
         <v>370</v>
@@ -14745,7 +14750,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="6" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B372" s="6">
         <v>371</v>
@@ -14753,7 +14758,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B373" s="6">
         <v>372</v>
@@ -14761,7 +14766,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B374" s="6">
         <v>373</v>
@@ -14769,7 +14774,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B375" s="6">
         <v>374</v>
@@ -14777,7 +14782,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B376" s="6">
         <v>375</v>
@@ -14785,7 +14790,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B377" s="6">
         <v>376</v>
@@ -14793,7 +14798,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B378" s="6">
         <v>377</v>
@@ -14801,7 +14806,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B379" s="6">
         <v>378</v>
@@ -14809,7 +14814,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B380" s="6">
         <v>379</v>
@@ -14817,7 +14822,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B381" s="6">
         <v>380</v>
@@ -14825,7 +14830,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B382" s="6">
         <v>381</v>
@@ -14833,7 +14838,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B383" s="6">
         <v>382</v>
@@ -14841,7 +14846,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B384" s="6">
         <v>383</v>
@@ -14849,7 +14854,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B385" s="6">
         <v>384</v>
@@ -14857,7 +14862,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B386" s="6">
         <v>385</v>
@@ -14865,7 +14870,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B387" s="6">
         <v>386</v>
@@ -14873,7 +14878,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B388" s="6">
         <v>387</v>
@@ -14881,7 +14886,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B389" s="6">
         <v>388</v>
@@ -14889,7 +14894,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B390" s="6">
         <v>389</v>
@@ -14897,7 +14902,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B391" s="6">
         <v>390</v>
@@ -14905,7 +14910,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B392" s="6">
         <v>391</v>
@@ -14913,7 +14918,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B393" s="6">
         <v>392</v>
@@ -14921,7 +14926,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B394" s="6">
         <v>393</v>
@@ -14929,7 +14934,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B395" s="6">
         <v>394</v>
@@ -14937,7 +14942,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B396" s="6">
         <v>395</v>
@@ -14945,7 +14950,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B397" s="6">
         <v>396</v>
@@ -14953,7 +14958,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B398" s="6">
         <v>397</v>
@@ -14961,7 +14966,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B399" s="6">
         <v>398</v>
@@ -14969,7 +14974,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B400" s="6">
         <v>399</v>
@@ -14977,7 +14982,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B401" s="6">
         <v>400</v>
@@ -15007,10 +15012,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="24" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -15018,7 +15023,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -15028,25 +15033,25 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="24" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="24" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="3:3">
@@ -15056,15 +15061,15 @@
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="24" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -15091,27 +15096,27 @@
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="28" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="28" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="O2" s="25"/>
     </row>
@@ -15128,7 +15133,7 @@
         <v>47</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:10">
@@ -15143,15 +15148,15 @@
         <v>53</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="26" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="4:4">
@@ -15164,61 +15169,61 @@
     </row>
     <row r="14" ht="16.2" spans="4:12">
       <c r="D14" s="27" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="8:16">
       <c r="H16" s="24" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="8:14">
       <c r="H18" s="24" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="8:14">
       <c r="H20" s="27" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -15227,7 +15232,7 @@
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="24" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="630">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -132,6 +132,12 @@
     <t>3000玉阙+10万元宝=100元</t>
   </si>
   <si>
+    <t>套餐3</t>
+  </si>
+  <si>
+    <t>500体力=50元</t>
+  </si>
+  <si>
     <t>常规定制</t>
   </si>
   <si>
@@ -144,7 +150,112 @@
     <t>2000玉阙+20万元宝=100元</t>
   </si>
   <si>
+    <t>100体力=15元</t>
+  </si>
+  <si>
     <t>注：【稀有武将】是指游戏中战役宝箱无法开出，或者极低概率开出的武将</t>
+  </si>
+  <si>
+    <t>稀缺武将</t>
+  </si>
+  <si>
+    <t>刘备军团</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
+    <t>黄月英</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>曹操军团</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>孙权军团</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>孙策</t>
+  </si>
+  <si>
+    <t>陆逊</t>
+  </si>
+  <si>
+    <t>小乔</t>
+  </si>
+  <si>
+    <t>大乔</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>袁绍军团</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>麴义</t>
+  </si>
+  <si>
+    <t>吕布军团</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>吕玲绮</t>
   </si>
   <si>
     <t>游戏不氪金也能玩，只要花点功夫研究下游戏中的套路和技巧，每天都能拿够奖励的（群主用小白账号亲测过）</t>
@@ -543,9 +654,6 @@
     <t>魔王</t>
   </si>
   <si>
-    <t>赵云</t>
-  </si>
-  <si>
     <t>马超</t>
   </si>
   <si>
@@ -558,12 +666,6 @@
     <t>孙翊</t>
   </si>
   <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>荀彧</t>
-  </si>
-  <si>
     <t>张飞</t>
   </si>
   <si>
@@ -579,15 +681,6 @@
     <t>黄盖</t>
   </si>
   <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>郭嘉</t>
-  </si>
-  <si>
-    <t>张辽</t>
-  </si>
-  <si>
     <t>刘备</t>
   </si>
   <si>
@@ -624,18 +717,6 @@
     <t>马云禄</t>
   </si>
   <si>
-    <t>张郃</t>
-  </si>
-  <si>
-    <t>陆逊</t>
-  </si>
-  <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>周瑜</t>
-  </si>
-  <si>
     <t>初始</t>
   </si>
   <si>
@@ -645,9 +726,6 @@
     <t>袁绍</t>
   </si>
   <si>
-    <t>吕布</t>
-  </si>
-  <si>
     <t>关羽</t>
   </si>
   <si>
@@ -660,7 +738,7 @@
     <t>陈宫</t>
   </si>
   <si>
-    <t>黄月英</t>
+    <t>陈登</t>
   </si>
   <si>
     <t>蜀汉旗</t>
@@ -681,27 +759,15 @@
     <t>营寨</t>
   </si>
   <si>
-    <t>孙策</t>
-  </si>
-  <si>
-    <t>孙坚</t>
-  </si>
-  <si>
     <t>吕蒙</t>
   </si>
   <si>
-    <t>甘宁</t>
-  </si>
-  <si>
     <t>司马懿</t>
   </si>
   <si>
     <t>邓艾</t>
   </si>
   <si>
-    <t>诸葛亮</t>
-  </si>
-  <si>
     <t>姜维</t>
   </si>
   <si>
@@ -714,18 +780,6 @@
     <t>董卓</t>
   </si>
   <si>
-    <t>文丑</t>
-  </si>
-  <si>
-    <t>麴义</t>
-  </si>
-  <si>
-    <t>小乔</t>
-  </si>
-  <si>
-    <t>鲁肃</t>
-  </si>
-  <si>
     <t>孙尚香</t>
   </si>
   <si>
@@ -747,15 +801,9 @@
     <t>张纮</t>
   </si>
   <si>
-    <t>张昭</t>
-  </si>
-  <si>
     <t>陆抗</t>
   </si>
   <si>
-    <t>陈登</t>
-  </si>
-  <si>
     <t>贾诩</t>
   </si>
   <si>
@@ -780,9 +828,6 @@
     <t>文聘</t>
   </si>
   <si>
-    <t>徐晃</t>
-  </si>
-  <si>
     <t>庞德</t>
   </si>
   <si>
@@ -795,21 +840,12 @@
     <t>张绣</t>
   </si>
   <si>
-    <t>程昱</t>
-  </si>
-  <si>
     <t>于禁</t>
   </si>
   <si>
     <t>钟会</t>
   </si>
   <si>
-    <t>徐庶</t>
-  </si>
-  <si>
-    <t>庞统</t>
-  </si>
-  <si>
     <t>魏延</t>
   </si>
   <si>
@@ -822,12 +858,6 @@
     <t>祝融</t>
   </si>
   <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>吕玲绮</t>
-  </si>
-  <si>
     <t>羊祜</t>
   </si>
   <si>
@@ -852,9 +882,6 @@
     <t>田丰</t>
   </si>
   <si>
-    <t>大乔</t>
-  </si>
-  <si>
     <t>诸葛瑾</t>
   </si>
   <si>
@@ -1914,7 +1941,7 @@
     <t>弓弩营</t>
   </si>
   <si>
-    <t>曹操、曹仁、张郃</t>
+    <t>曹操、曹仁、张郃（稀有）</t>
   </si>
   <si>
     <t>曹纯、戏志才（稀有）</t>
@@ -2072,12 +2099,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2148,6 +2175,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2157,10 +2200,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2172,28 +2237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,33 +2252,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2246,23 +2273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2279,6 +2291,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2287,6 +2307,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2367,7 +2394,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,55 +2526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,91 +2538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,6 +2557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,15 +2626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2641,8 +2659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2654,6 +2672,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2677,7 +2704,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2704,10 +2731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2716,133 +2743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2961,22 +2988,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4989,7 +5016,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -5004,7 +5031,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5022,13 +5049,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5036,25 +5063,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="I2" s="18">
         <v>2</v>
@@ -5073,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I4" s="18">
         <v>4</v>
@@ -5092,13 +5119,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5117,10 +5144,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="I8" s="18">
         <v>8</v>
@@ -5139,10 +5166,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5169,13 +5196,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="I13" s="18">
         <v>13</v>
@@ -5273,7 +5300,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C16" sqref="B5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -5289,7 +5316,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5307,13 +5334,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5381,25 +5408,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5415,7 +5442,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18">
@@ -5427,7 +5454,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -5443,7 +5472,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5460,10 +5489,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F10" s="17"/>
       <c r="H10" s="17"/>
@@ -5491,9 +5520,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5508,10 +5535,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5604,7 +5631,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -5685,7 +5712,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -5701,7 +5728,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5719,13 +5746,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5853,25 +5880,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5914,14 +5941,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -5950,10 +5977,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -5984,10 +6011,10 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6114,7 +6141,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6132,13 +6159,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6312,19 +6339,19 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -6352,15 +6379,15 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6387,7 +6414,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -6419,7 +6446,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -6451,7 +6478,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -6520,7 +6547,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6538,13 +6565,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6747,22 +6774,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6794,7 +6821,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18">
@@ -6826,7 +6853,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18">
@@ -6917,12 +6944,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="3" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -6942,7 +6969,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="6" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6962,7 +6989,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="6" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6982,7 +7009,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="6" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7002,7 +7029,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="6" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -7022,7 +7049,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="6" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -7042,7 +7069,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="6" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -7062,7 +7089,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="6" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -7082,7 +7109,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="6" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -7102,7 +7129,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="6" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -7122,7 +7149,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -7142,7 +7169,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="6" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -7162,7 +7189,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="6" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -7182,7 +7209,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="6" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -7202,7 +7229,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="6" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -7222,7 +7249,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="6" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -7242,7 +7269,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="6" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -7262,7 +7289,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="6" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -7282,7 +7309,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -7302,7 +7329,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>
@@ -8728,10 +8755,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M27"/>
+  <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -8857,12 +8884,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:11">
       <c r="B12" s="24">
         <v>4</v>
       </c>
       <c r="C12" s="24">
         <v>20</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="16.2" spans="2:9">
@@ -8873,7 +8906,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -8884,10 +8917,10 @@
         <v>80</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -8901,34 +8934,40 @@
         <v>32</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="24">
         <v>8</v>
       </c>
       <c r="C16" s="24">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="J16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="24">
         <v>9</v>
       </c>
       <c r="C17" s="24">
         <v>200</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="24">
         <v>10</v>
       </c>
       <c r="C18" s="24">
         <v>300</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -8939,30 +8978,145 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="20" ht="16.2" spans="9:9">
+      <c r="I20" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21" s="24">
         <f>SUM(C9:C19)</f>
         <v>1410</v>
       </c>
-    </row>
-    <row r="23" spans="10:10">
+      <c r="J21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="10:19">
       <c r="J23" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10">
+        <v>58</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13">
       <c r="J24" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10">
+        <v>68</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14">
       <c r="J25" s="24" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" s="24" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -9002,40 +9156,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="16.2" spans="2:21">
@@ -9076,7 +9230,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P3" s="47">
         <v>1</v>
@@ -9136,17 +9290,17 @@
         <v>188</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P4" s="48"/>
       <c r="Q4" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
@@ -9193,18 +9347,18 @@
         <v>168</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="U5" s="48"/>
       <c r="V5" s="1">
@@ -9250,18 +9404,18 @@
         <v>141</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="U6" s="48"/>
       <c r="V6" s="1">
@@ -9307,19 +9461,19 @@
         <v>168</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="T7" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="U7" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="V7" s="1">
         <v>50</v>
@@ -9350,19 +9504,19 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="O8" s="48" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="S8" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="T8" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="V8" s="1">
         <v>50</v>
@@ -9384,19 +9538,19 @@
         <v>14580</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
       <c r="S9" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="T9" s="51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="U9" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="V9" s="1">
         <v>50</v>
@@ -9404,14 +9558,14 @@
     </row>
     <row r="10" ht="16.2" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9448,12 +9602,12 @@
         <v>84</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="16.2" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -9490,7 +9644,7 @@
         <v>84</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="P12" s="47">
         <v>1</v>
@@ -9502,7 +9656,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="T12" s="47">
         <v>5</v>
@@ -9516,17 +9670,17 @@
         <v>12</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="P13" s="48"/>
       <c r="Q13" s="53" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="R13" s="53" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
@@ -9544,20 +9698,20 @@
     </row>
     <row r="14" spans="9:27">
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1">
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="L14" s="1">
         <f>W19</f>
         <v>5170</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="51">
@@ -9578,7 +9732,7 @@
         <v>98</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AA14" s="1">
         <f>3.5*24*60*60</f>
@@ -9587,25 +9741,25 @@
     </row>
     <row r="15" spans="2:27">
       <c r="B15" s="46" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="P15" s="48"/>
       <c r="Q15" s="51">
@@ -9626,7 +9780,7 @@
         <v>298</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AA15" s="1">
         <f>7*24*60*60</f>
@@ -9722,7 +9876,7 @@
         <v>1920</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:23">
@@ -9948,7 +10102,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C16:C26)</f>
@@ -9998,43 +10152,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -10084,10 +10238,10 @@
         <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -10133,7 +10287,7 @@
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -10161,7 +10315,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I4" s="39">
         <v>4</v>
@@ -10182,7 +10336,7 @@
         <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10207,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -10238,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I6" s="39">
         <v>6</v>
@@ -10285,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I7" s="39">
         <v>7</v>
@@ -10324,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I8" s="39">
         <v>8</v>
@@ -10355,7 +10509,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="I9" s="39">
         <v>9</v>
@@ -10386,7 +10540,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="I10" s="39">
         <v>10</v>
@@ -10417,7 +10571,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="I11" s="39">
         <v>11</v>
@@ -10448,7 +10602,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="I12" s="39">
         <v>12</v>
@@ -10479,7 +10633,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="I13" s="39">
         <v>13</v>
@@ -10510,7 +10664,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I14" s="39">
         <v>14</v>
@@ -10541,7 +10695,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I15" s="39">
         <v>15</v>
@@ -10572,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I16" s="39">
         <v>16</v>
@@ -10603,7 +10757,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I17" s="39">
         <v>17</v>
@@ -10634,7 +10788,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="I18" s="39">
         <v>18</v>
@@ -10665,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="I19" s="39">
         <v>19</v>
@@ -10696,7 +10850,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I20" s="39">
         <v>20</v>
@@ -10727,7 +10881,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I21" s="39">
         <v>21</v>
@@ -10803,8 +10957,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10828,31 +10982,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="30" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="30" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="P2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -10880,15 +11034,11 @@
         <v>1</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,14,5</v>
-      </c>
-      <c r="R3" s="1">
-        <f>VLOOKUP(P3,武将表!$A:$B,2,FALSE)</f>
-        <v>14</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -10919,16 +11069,12 @@
         <v>2</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,13,5</v>
       </c>
-      <c r="R4" s="1">
-        <f>VLOOKUP(P4,武将表!$A:$B,2,FALSE)</f>
-        <v>13</v>
-      </c>
       <c r="S4" s="1">
         <v>2</v>
       </c>
@@ -10938,7 +11084,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10948,7 +11094,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10958,7 +11104,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="K5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10968,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -10978,15 +11124,11 @@
         <v>3</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,10,5</v>
-      </c>
-      <c r="R5" s="1">
-        <f>VLOOKUP(P5,武将表!$A:$B,2,FALSE)</f>
-        <v>10</v>
       </c>
       <c r="S5" s="1">
         <v>3</v>
@@ -11017,7 +11159,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11053,7 +11195,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11064,12 +11206,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="16.2" spans="3:18">
+    <row r="8" ht="16.2" spans="3:19">
       <c r="C8" s="30">
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11079,7 +11221,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11089,7 +11231,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="K8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11099,7 +11241,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="N8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11109,13 +11251,16 @@
         <v>6</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,9,5</v>
       </c>
       <c r="R8" s="31"/>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="29">
@@ -11142,7 +11287,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11150,7 +11295,7 @@
       </c>
       <c r="R9" s="31"/>
       <c r="S9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:19">
@@ -11178,7 +11323,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11186,7 +11331,7 @@
       </c>
       <c r="R10" s="31"/>
       <c r="S10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="16.2" spans="3:19">
@@ -11194,7 +11339,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="E11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11204,7 +11349,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11214,7 +11359,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11224,7 +11369,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="N11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11237,7 +11382,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:19">
@@ -11268,7 +11413,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:19">
@@ -11299,7 +11444,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="16.2" spans="3:19">
@@ -11307,7 +11452,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11317,7 +11462,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11327,7 +11472,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="K14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11337,7 +11482,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="N14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11350,7 +11495,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:19">
@@ -11381,7 +11526,7 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:19">
@@ -11412,7 +11557,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
       <c r="S16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="16.2" spans="3:19">
@@ -11420,7 +11565,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11430,7 +11575,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11440,7 +11585,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="K17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11450,7 +11595,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="N17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11463,7 +11608,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
       <c r="S17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:19">
@@ -11494,7 +11639,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
       <c r="S18" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:19">
@@ -11525,7 +11670,7 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="3:19">
@@ -11533,7 +11678,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11543,7 +11688,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11553,7 +11698,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="K20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11563,7 +11708,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="N20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11576,7 +11721,7 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
       <c r="S20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:19">
@@ -11607,7 +11752,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
       <c r="S21" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="16.2" spans="3:19">
@@ -11615,7 +11760,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11625,7 +11770,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11635,7 +11780,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="K22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11645,7 +11790,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="N22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11658,109 +11803,108 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
       <c r="S22" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="17:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="17:18">
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="1">
-        <v>20</v>
-      </c>
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M32" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="29" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -11782,7 +11926,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -11790,7 +11934,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -11798,7 +11942,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -11806,7 +11950,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -11814,7 +11958,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -11822,7 +11966,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -11830,7 +11974,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -11838,7 +11982,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -11846,7 +11990,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -11854,7 +11998,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -11862,7 +12006,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -11870,7 +12014,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -11878,7 +12022,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -11886,7 +12030,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -11894,7 +12038,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -11902,7 +12046,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -11910,7 +12054,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -11918,7 +12062,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -11926,7 +12070,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
@@ -11934,7 +12078,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -11942,7 +12086,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -11950,7 +12094,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
@@ -11958,7 +12102,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -11966,7 +12110,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -11974,7 +12118,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
@@ -11982,7 +12126,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
@@ -11990,7 +12134,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
@@ -11998,7 +12142,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -12006,7 +12150,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
@@ -12014,7 +12158,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
@@ -12022,7 +12166,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -12030,7 +12174,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
@@ -12038,7 +12182,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
@@ -12046,7 +12190,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
@@ -12054,7 +12198,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
@@ -12062,7 +12206,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
@@ -12070,7 +12214,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
@@ -12078,7 +12222,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
@@ -12086,7 +12230,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
@@ -12094,7 +12238,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
@@ -12102,7 +12246,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
@@ -12110,7 +12254,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
@@ -12118,7 +12262,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
@@ -12126,7 +12270,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
@@ -12134,7 +12278,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
@@ -12142,7 +12286,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
@@ -12150,7 +12294,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
@@ -12158,7 +12302,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
@@ -12166,7 +12310,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
@@ -12174,7 +12318,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
@@ -12182,7 +12326,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
@@ -12190,7 +12334,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
@@ -12198,7 +12342,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
@@ -12206,7 +12350,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
@@ -12214,7 +12358,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
@@ -12222,7 +12366,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
@@ -12230,7 +12374,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
@@ -12238,7 +12382,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
@@ -12246,7 +12390,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
@@ -12254,7 +12398,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
@@ -12262,7 +12406,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
@@ -12270,7 +12414,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
@@ -12278,7 +12422,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
@@ -12286,7 +12430,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
@@ -12294,7 +12438,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
@@ -12302,7 +12446,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
@@ -12310,7 +12454,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
@@ -12318,7 +12462,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
@@ -12326,7 +12470,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
@@ -12334,7 +12478,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
@@ -12342,7 +12486,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
@@ -12350,7 +12494,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
@@ -12358,7 +12502,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
@@ -12366,7 +12510,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
@@ -12374,7 +12518,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
@@ -12382,7 +12526,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
@@ -12390,7 +12534,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
@@ -12398,7 +12542,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
@@ -12406,7 +12550,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
@@ -12414,7 +12558,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
@@ -12422,7 +12566,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
@@ -12430,7 +12574,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
@@ -12438,7 +12582,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
@@ -12446,7 +12590,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
@@ -12454,7 +12598,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
@@ -12462,7 +12606,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
@@ -12470,7 +12614,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
@@ -12478,7 +12622,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
@@ -12486,7 +12630,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
@@ -12494,7 +12638,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
@@ -12502,7 +12646,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
@@ -12510,7 +12654,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
@@ -12518,7 +12662,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
@@ -12526,7 +12670,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
@@ -12534,7 +12678,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
@@ -12542,7 +12686,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
@@ -12550,7 +12694,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
@@ -12558,7 +12702,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
@@ -12566,7 +12710,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
@@ -12574,7 +12718,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
@@ -12582,7 +12726,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
@@ -12590,7 +12734,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
@@ -12598,7 +12742,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
@@ -12606,7 +12750,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
@@ -12614,7 +12758,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
@@ -12622,7 +12766,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
@@ -12630,7 +12774,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
@@ -12638,7 +12782,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
@@ -12646,7 +12790,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
@@ -12654,7 +12798,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B110" s="6">
         <v>109</v>
@@ -12662,7 +12806,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B111" s="6">
         <v>110</v>
@@ -12670,7 +12814,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B112" s="6">
         <v>111</v>
@@ -12678,7 +12822,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B113" s="6">
         <v>112</v>
@@ -12686,7 +12830,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B114" s="6">
         <v>113</v>
@@ -12694,7 +12838,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B115" s="6">
         <v>114</v>
@@ -12702,7 +12846,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B116" s="6">
         <v>115</v>
@@ -12710,7 +12854,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B117" s="6">
         <v>116</v>
@@ -12718,7 +12862,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B118" s="6">
         <v>117</v>
@@ -12726,7 +12870,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B119" s="6">
         <v>118</v>
@@ -12734,7 +12878,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B120" s="6">
         <v>119</v>
@@ -12742,7 +12886,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B121" s="6">
         <v>120</v>
@@ -12750,7 +12894,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B122" s="6">
         <v>121</v>
@@ -12758,7 +12902,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B123" s="6">
         <v>122</v>
@@ -12766,7 +12910,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B124" s="6">
         <v>123</v>
@@ -12774,7 +12918,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B125" s="6">
         <v>124</v>
@@ -12782,7 +12926,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B126" s="6">
         <v>125</v>
@@ -12790,7 +12934,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B127" s="6">
         <v>126</v>
@@ -12798,7 +12942,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B128" s="6">
         <v>127</v>
@@ -12806,7 +12950,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B129" s="6">
         <v>128</v>
@@ -12814,7 +12958,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B130" s="6">
         <v>129</v>
@@ -12822,7 +12966,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B131" s="6">
         <v>130</v>
@@ -12830,7 +12974,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B132" s="6">
         <v>131</v>
@@ -12838,7 +12982,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B133" s="6">
         <v>132</v>
@@ -12846,7 +12990,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B134" s="6">
         <v>133</v>
@@ -12854,7 +12998,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B135" s="6">
         <v>134</v>
@@ -12862,7 +13006,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B136" s="6">
         <v>135</v>
@@ -12870,7 +13014,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B137" s="6">
         <v>136</v>
@@ -12878,7 +13022,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B138" s="6">
         <v>137</v>
@@ -12886,7 +13030,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B139" s="6">
         <v>138</v>
@@ -12894,7 +13038,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B140" s="6">
         <v>139</v>
@@ -12902,7 +13046,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B141" s="6">
         <v>140</v>
@@ -12910,7 +13054,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B142" s="6">
         <v>141</v>
@@ -12918,7 +13062,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B143" s="6">
         <v>142</v>
@@ -12926,7 +13070,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B144" s="6">
         <v>143</v>
@@ -12934,7 +13078,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B145" s="6">
         <v>144</v>
@@ -12942,7 +13086,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B146" s="6">
         <v>145</v>
@@ -12950,7 +13094,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B147" s="6">
         <v>146</v>
@@ -12958,7 +13102,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B148" s="6">
         <v>147</v>
@@ -12966,7 +13110,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B149" s="6">
         <v>148</v>
@@ -12974,7 +13118,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B150" s="6">
         <v>149</v>
@@ -12982,7 +13126,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B151" s="6">
         <v>150</v>
@@ -12990,7 +13134,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B152" s="6">
         <v>151</v>
@@ -12998,7 +13142,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B153" s="6">
         <v>152</v>
@@ -13006,7 +13150,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B154" s="6">
         <v>153</v>
@@ -13014,7 +13158,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B155" s="6">
         <v>154</v>
@@ -13022,7 +13166,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B156" s="6">
         <v>155</v>
@@ -13030,7 +13174,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B157" s="6">
         <v>156</v>
@@ -13038,7 +13182,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B158" s="6">
         <v>157</v>
@@ -13046,7 +13190,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B159" s="6">
         <v>158</v>
@@ -13054,7 +13198,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B160" s="6">
         <v>159</v>
@@ -13062,7 +13206,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B161" s="6">
         <v>160</v>
@@ -13070,7 +13214,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B162" s="6">
         <v>161</v>
@@ -13078,7 +13222,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B163" s="6">
         <v>162</v>
@@ -13086,7 +13230,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B164" s="6">
         <v>163</v>
@@ -13094,7 +13238,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B165" s="6">
         <v>164</v>
@@ -13102,7 +13246,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B166" s="6">
         <v>165</v>
@@ -13110,7 +13254,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B167" s="6">
         <v>166</v>
@@ -13118,7 +13262,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B168" s="6">
         <v>167</v>
@@ -13126,7 +13270,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B169" s="6">
         <v>168</v>
@@ -13134,7 +13278,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B170" s="6">
         <v>169</v>
@@ -13142,7 +13286,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B171" s="6">
         <v>170</v>
@@ -13150,7 +13294,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B172" s="6">
         <v>171</v>
@@ -13158,7 +13302,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B173" s="6">
         <v>172</v>
@@ -13166,7 +13310,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="6" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B174" s="6">
         <v>173</v>
@@ -13174,7 +13318,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B175" s="6">
         <v>174</v>
@@ -13182,7 +13326,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B176" s="6">
         <v>175</v>
@@ -13190,7 +13334,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B177" s="6">
         <v>176</v>
@@ -13198,7 +13342,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="6" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B178" s="6">
         <v>177</v>
@@ -13206,7 +13350,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="6" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B179" s="6">
         <v>178</v>
@@ -13214,7 +13358,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B180" s="6">
         <v>179</v>
@@ -13222,7 +13366,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B181" s="6">
         <v>180</v>
@@ -13230,7 +13374,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B182" s="6">
         <v>181</v>
@@ -13238,7 +13382,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B183" s="6">
         <v>182</v>
@@ -13246,7 +13390,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B184" s="6">
         <v>183</v>
@@ -13254,7 +13398,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B185" s="6">
         <v>184</v>
@@ -13262,7 +13406,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B186" s="6">
         <v>185</v>
@@ -13270,7 +13414,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B187" s="6">
         <v>186</v>
@@ -13278,7 +13422,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B188" s="6">
         <v>187</v>
@@ -13286,7 +13430,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="6" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B189" s="6">
         <v>188</v>
@@ -13294,7 +13438,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="6" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B190" s="6">
         <v>189</v>
@@ -13302,7 +13446,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="6" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B191" s="6">
         <v>190</v>
@@ -13310,7 +13454,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="6" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B192" s="6">
         <v>191</v>
@@ -13318,7 +13462,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="6" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B193" s="6">
         <v>192</v>
@@ -13326,7 +13470,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="6" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B194" s="6">
         <v>193</v>
@@ -13334,7 +13478,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B195" s="6">
         <v>194</v>
@@ -13342,7 +13486,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="6" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B196" s="6">
         <v>195</v>
@@ -13350,7 +13494,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B197" s="6">
         <v>196</v>
@@ -13358,7 +13502,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B198" s="6">
         <v>197</v>
@@ -13366,7 +13510,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B199" s="6">
         <v>198</v>
@@ -13374,7 +13518,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B200" s="6">
         <v>199</v>
@@ -13382,7 +13526,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B201" s="6">
         <v>200</v>
@@ -13390,7 +13534,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B202" s="6">
         <v>201</v>
@@ -13398,7 +13542,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="6" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B203" s="6">
         <v>202</v>
@@ -13406,7 +13550,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B204" s="6">
         <v>203</v>
@@ -13414,7 +13558,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B205" s="6">
         <v>204</v>
@@ -13422,7 +13566,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B206" s="6">
         <v>205</v>
@@ -13430,7 +13574,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B207" s="6">
         <v>206</v>
@@ -13438,7 +13582,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B208" s="6">
         <v>207</v>
@@ -13446,7 +13590,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="6" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B209" s="6">
         <v>208</v>
@@ -13454,7 +13598,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B210" s="6">
         <v>209</v>
@@ -13462,7 +13606,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B211" s="6">
         <v>210</v>
@@ -13470,7 +13614,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B212" s="6">
         <v>211</v>
@@ -13478,7 +13622,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="6" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B213" s="6">
         <v>212</v>
@@ -13486,7 +13630,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="6" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B214" s="6">
         <v>213</v>
@@ -13494,7 +13638,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="6" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B215" s="6">
         <v>214</v>
@@ -13502,7 +13646,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B216" s="6">
         <v>215</v>
@@ -13510,7 +13654,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B217" s="6">
         <v>216</v>
@@ -13518,7 +13662,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B218" s="6">
         <v>217</v>
@@ -13526,7 +13670,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B219" s="6">
         <v>218</v>
@@ -13534,7 +13678,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="6" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B220" s="6">
         <v>219</v>
@@ -13542,7 +13686,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B221" s="6">
         <v>220</v>
@@ -13550,7 +13694,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B222" s="6">
         <v>221</v>
@@ -13558,7 +13702,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B223" s="6">
         <v>222</v>
@@ -13566,7 +13710,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B224" s="6">
         <v>223</v>
@@ -13574,7 +13718,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B225" s="6">
         <v>224</v>
@@ -13582,7 +13726,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B226" s="6">
         <v>225</v>
@@ -13590,7 +13734,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="6" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B227" s="6">
         <v>226</v>
@@ -13598,7 +13742,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="6" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B228" s="6">
         <v>227</v>
@@ -13606,7 +13750,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="6" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B229" s="6">
         <v>228</v>
@@ -13614,7 +13758,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="6" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B230" s="6">
         <v>229</v>
@@ -13622,7 +13766,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B231" s="6">
         <v>230</v>
@@ -13630,7 +13774,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="6" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B232" s="6">
         <v>231</v>
@@ -13638,7 +13782,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="6" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B233" s="6">
         <v>232</v>
@@ -13646,7 +13790,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="6" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B234" s="6">
         <v>233</v>
@@ -13654,7 +13798,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B235" s="6">
         <v>234</v>
@@ -13662,7 +13806,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="6" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B236" s="6">
         <v>235</v>
@@ -13670,7 +13814,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B237" s="6">
         <v>236</v>
@@ -13678,7 +13822,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="6" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B238" s="6">
         <v>237</v>
@@ -13686,7 +13830,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B239" s="6">
         <v>238</v>
@@ -13694,7 +13838,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B240" s="6">
         <v>239</v>
@@ -13702,7 +13846,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="6" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B241" s="6">
         <v>240</v>
@@ -13710,7 +13854,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="6" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B242" s="6">
         <v>241</v>
@@ -13718,7 +13862,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="6" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B243" s="6">
         <v>242</v>
@@ -13726,7 +13870,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="6" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B244" s="6">
         <v>243</v>
@@ -13734,7 +13878,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="6" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B245" s="6">
         <v>244</v>
@@ -13742,7 +13886,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="6" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B246" s="6">
         <v>245</v>
@@ -13750,7 +13894,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B247" s="6">
         <v>246</v>
@@ -13758,7 +13902,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="6" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B248" s="6">
         <v>247</v>
@@ -13766,7 +13910,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="6" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B249" s="6">
         <v>248</v>
@@ -13774,7 +13918,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="6" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B250" s="6">
         <v>249</v>
@@ -13782,7 +13926,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B251" s="6">
         <v>250</v>
@@ -13790,7 +13934,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B252" s="6">
         <v>251</v>
@@ -13798,7 +13942,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B253" s="6">
         <v>252</v>
@@ -13806,7 +13950,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="6" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B254" s="6">
         <v>253</v>
@@ -13814,7 +13958,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B255" s="6">
         <v>254</v>
@@ -13822,7 +13966,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B256" s="6">
         <v>255</v>
@@ -13830,7 +13974,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B257" s="6">
         <v>256</v>
@@ -13838,7 +13982,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="6" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B258" s="6">
         <v>257</v>
@@ -13846,7 +13990,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="6" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B259" s="6">
         <v>258</v>
@@ -13854,7 +13998,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B260" s="6">
         <v>259</v>
@@ -13862,7 +14006,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="6" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B261" s="6">
         <v>260</v>
@@ -13870,7 +14014,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B262" s="6">
         <v>261</v>
@@ -13878,7 +14022,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="6" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B263" s="6">
         <v>262</v>
@@ -13886,7 +14030,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B264" s="6">
         <v>263</v>
@@ -13894,7 +14038,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B265" s="6">
         <v>264</v>
@@ -13902,7 +14046,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B266" s="6">
         <v>265</v>
@@ -13910,7 +14054,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B267" s="6">
         <v>266</v>
@@ -13918,7 +14062,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B268" s="6">
         <v>267</v>
@@ -13926,7 +14070,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="6" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B269" s="6">
         <v>268</v>
@@ -13934,7 +14078,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B270" s="6">
         <v>269</v>
@@ -13942,7 +14086,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B271" s="6">
         <v>270</v>
@@ -13950,7 +14094,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="6" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B272" s="6">
         <v>271</v>
@@ -13958,7 +14102,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B273" s="6">
         <v>272</v>
@@ -13966,7 +14110,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B274" s="6">
         <v>273</v>
@@ -13974,7 +14118,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B275" s="6">
         <v>274</v>
@@ -13982,7 +14126,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B276" s="6">
         <v>275</v>
@@ -13990,7 +14134,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B277" s="6">
         <v>276</v>
@@ -13998,7 +14142,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B278" s="6">
         <v>277</v>
@@ -14006,7 +14150,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B279" s="6">
         <v>278</v>
@@ -14014,7 +14158,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="6" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B280" s="6">
         <v>279</v>
@@ -14022,7 +14166,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B281" s="6">
         <v>280</v>
@@ -14030,7 +14174,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="6" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B282" s="6">
         <v>281</v>
@@ -14038,7 +14182,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="6" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B283" s="6">
         <v>282</v>
@@ -14046,7 +14190,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B284" s="6">
         <v>283</v>
@@ -14054,7 +14198,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="6" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B285" s="6">
         <v>284</v>
@@ -14062,7 +14206,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B286" s="6">
         <v>285</v>
@@ -14070,7 +14214,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B287" s="6">
         <v>286</v>
@@ -14078,7 +14222,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="6" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B288" s="6">
         <v>287</v>
@@ -14086,7 +14230,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="6" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B289" s="6">
         <v>288</v>
@@ -14094,7 +14238,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B290" s="6">
         <v>289</v>
@@ -14102,7 +14246,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="6" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B291" s="6">
         <v>290</v>
@@ -14110,7 +14254,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="6" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B292" s="6">
         <v>291</v>
@@ -14118,7 +14262,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B293" s="6">
         <v>292</v>
@@ -14126,7 +14270,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="6" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B294" s="6">
         <v>293</v>
@@ -14134,7 +14278,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="6" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B295" s="6">
         <v>294</v>
@@ -14142,7 +14286,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="6" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B296" s="6">
         <v>295</v>
@@ -14150,7 +14294,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="6" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B297" s="6">
         <v>296</v>
@@ -14158,7 +14302,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B298" s="6">
         <v>297</v>
@@ -14166,7 +14310,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="6" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B299" s="6">
         <v>298</v>
@@ -14174,7 +14318,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B300" s="6">
         <v>299</v>
@@ -14182,7 +14326,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="6" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B301" s="6">
         <v>300</v>
@@ -14190,7 +14334,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="6" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B302" s="6">
         <v>301</v>
@@ -14198,7 +14342,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="6" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B303" s="6">
         <v>302</v>
@@ -14206,7 +14350,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B304" s="6">
         <v>303</v>
@@ -14214,7 +14358,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="6" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B305" s="6">
         <v>304</v>
@@ -14222,7 +14366,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B306" s="6">
         <v>305</v>
@@ -14230,7 +14374,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B307" s="6">
         <v>306</v>
@@ -14238,7 +14382,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="6" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B308" s="6">
         <v>307</v>
@@ -14246,7 +14390,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="6" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B309" s="6">
         <v>308</v>
@@ -14254,7 +14398,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B310" s="6">
         <v>309</v>
@@ -14262,7 +14406,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="6" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B311" s="6">
         <v>310</v>
@@ -14270,7 +14414,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="6" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B312" s="6">
         <v>311</v>
@@ -14278,7 +14422,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="6" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B313" s="6">
         <v>312</v>
@@ -14286,7 +14430,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="6" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B314" s="6">
         <v>313</v>
@@ -14294,7 +14438,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B315" s="6">
         <v>314</v>
@@ -14302,7 +14446,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="6" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B316" s="6">
         <v>315</v>
@@ -14310,7 +14454,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B317" s="6">
         <v>316</v>
@@ -14318,7 +14462,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="6" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B318" s="6">
         <v>317</v>
@@ -14326,7 +14470,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="6" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B319" s="6">
         <v>318</v>
@@ -14334,7 +14478,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="6" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B320" s="6">
         <v>319</v>
@@ -14342,7 +14486,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="6" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B321" s="6">
         <v>320</v>
@@ -14350,7 +14494,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="6" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B322" s="6">
         <v>321</v>
@@ -14358,7 +14502,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="6" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B323" s="6">
         <v>322</v>
@@ -14366,7 +14510,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B324" s="6">
         <v>323</v>
@@ -14374,7 +14518,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="6" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B325" s="6">
         <v>324</v>
@@ -14382,7 +14526,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="6" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B326" s="6">
         <v>325</v>
@@ -14390,7 +14534,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="6" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B327" s="6">
         <v>326</v>
@@ -14398,7 +14542,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="6" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B328" s="6">
         <v>327</v>
@@ -14406,7 +14550,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="6" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B329" s="6">
         <v>328</v>
@@ -14414,7 +14558,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="6" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B330" s="6">
         <v>329</v>
@@ -14422,7 +14566,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="6" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B331" s="6">
         <v>330</v>
@@ -14430,7 +14574,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="6" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B332" s="6">
         <v>331</v>
@@ -14438,7 +14582,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="6" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B333" s="6">
         <v>332</v>
@@ -14446,7 +14590,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="6" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B334" s="6">
         <v>333</v>
@@ -14454,7 +14598,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="6" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B335" s="6">
         <v>334</v>
@@ -14462,7 +14606,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="6" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B336" s="6">
         <v>335</v>
@@ -14470,7 +14614,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="6" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B337" s="6">
         <v>336</v>
@@ -14478,7 +14622,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="6" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B338" s="6">
         <v>337</v>
@@ -14486,7 +14630,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B339" s="6">
         <v>338</v>
@@ -14494,7 +14638,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="6" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B340" s="6">
         <v>339</v>
@@ -14502,7 +14646,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="6" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B341" s="6">
         <v>340</v>
@@ -14510,7 +14654,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="6" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B342" s="6">
         <v>341</v>
@@ -14518,7 +14662,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="6" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B343" s="6">
         <v>342</v>
@@ -14526,7 +14670,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="6" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B344" s="6">
         <v>343</v>
@@ -14534,7 +14678,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="6" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B345" s="6">
         <v>344</v>
@@ -14542,7 +14686,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="6" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B346" s="6">
         <v>345</v>
@@ -14550,7 +14694,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="6" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B347" s="6">
         <v>346</v>
@@ -14558,7 +14702,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="6" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B348" s="6">
         <v>347</v>
@@ -14566,7 +14710,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B349" s="6">
         <v>348</v>
@@ -14574,7 +14718,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="6" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B350" s="6">
         <v>349</v>
@@ -14582,7 +14726,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B351" s="6">
         <v>350</v>
@@ -14590,7 +14734,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="6" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B352" s="6">
         <v>351</v>
@@ -14598,7 +14742,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="6" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B353" s="6">
         <v>352</v>
@@ -14606,7 +14750,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="6" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B354" s="6">
         <v>353</v>
@@ -14614,7 +14758,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="6" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B355" s="6">
         <v>354</v>
@@ -14622,7 +14766,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="6" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B356" s="6">
         <v>355</v>
@@ -14630,7 +14774,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="6" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B357" s="6">
         <v>356</v>
@@ -14638,7 +14782,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="6" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B358" s="6">
         <v>357</v>
@@ -14646,7 +14790,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="6" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B359" s="6">
         <v>358</v>
@@ -14654,7 +14798,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B360" s="6">
         <v>359</v>
@@ -14662,7 +14806,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="6" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B361" s="6">
         <v>360</v>
@@ -14670,7 +14814,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B362" s="6">
         <v>361</v>
@@ -14678,7 +14822,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B363" s="6">
         <v>362</v>
@@ -14686,7 +14830,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B364" s="6">
         <v>363</v>
@@ -14694,7 +14838,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="6" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B365" s="6">
         <v>364</v>
@@ -14702,7 +14846,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="6" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B366" s="6">
         <v>365</v>
@@ -14710,7 +14854,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="6" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B367" s="6">
         <v>366</v>
@@ -14718,7 +14862,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B368" s="6">
         <v>367</v>
@@ -14726,7 +14870,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B369" s="6">
         <v>368</v>
@@ -14734,7 +14878,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B370" s="6">
         <v>369</v>
@@ -14742,7 +14886,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="6" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B371" s="6">
         <v>370</v>
@@ -14750,7 +14894,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="6" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B372" s="6">
         <v>371</v>
@@ -14758,7 +14902,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B373" s="6">
         <v>372</v>
@@ -14766,7 +14910,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B374" s="6">
         <v>373</v>
@@ -14774,7 +14918,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B375" s="6">
         <v>374</v>
@@ -14782,7 +14926,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B376" s="6">
         <v>375</v>
@@ -14790,7 +14934,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B377" s="6">
         <v>376</v>
@@ -14798,7 +14942,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="6" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B378" s="6">
         <v>377</v>
@@ -14806,7 +14950,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="6" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B379" s="6">
         <v>378</v>
@@ -14814,7 +14958,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="6" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B380" s="6">
         <v>379</v>
@@ -14822,7 +14966,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B381" s="6">
         <v>380</v>
@@ -14830,7 +14974,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="6" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B382" s="6">
         <v>381</v>
@@ -14838,7 +14982,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="6" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B383" s="6">
         <v>382</v>
@@ -14846,7 +14990,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B384" s="6">
         <v>383</v>
@@ -14854,7 +14998,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B385" s="6">
         <v>384</v>
@@ -14862,7 +15006,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B386" s="6">
         <v>385</v>
@@ -14870,7 +15014,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B387" s="6">
         <v>386</v>
@@ -14878,7 +15022,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B388" s="6">
         <v>387</v>
@@ -14886,7 +15030,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="6" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B389" s="6">
         <v>388</v>
@@ -14894,7 +15038,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B390" s="6">
         <v>389</v>
@@ -14902,7 +15046,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B391" s="6">
         <v>390</v>
@@ -14910,7 +15054,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B392" s="6">
         <v>391</v>
@@ -14918,7 +15062,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="6" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B393" s="6">
         <v>392</v>
@@ -14926,7 +15070,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="6" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B394" s="6">
         <v>393</v>
@@ -14934,7 +15078,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="6" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B395" s="6">
         <v>394</v>
@@ -14942,7 +15086,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="6" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B396" s="6">
         <v>395</v>
@@ -14950,7 +15094,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B397" s="6">
         <v>396</v>
@@ -14958,7 +15102,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B398" s="6">
         <v>397</v>
@@ -14966,7 +15110,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B399" s="6">
         <v>398</v>
@@ -14974,7 +15118,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B400" s="6">
         <v>399</v>
@@ -14982,7 +15126,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="6" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B401" s="6">
         <v>400</v>
@@ -15012,64 +15156,64 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="24" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="24" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="24" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="24" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="24" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="24" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="24" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="24" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="24" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -15096,27 +15240,27 @@
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="28" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="28" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O2" s="25"/>
     </row>
@@ -15127,41 +15271,41 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="26" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:10">
       <c r="B8" s="26" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="24" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="26" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="26" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="8:8">
@@ -15169,61 +15313,61 @@
     </row>
     <row r="14" ht="16.2" spans="4:12">
       <c r="D14" s="27" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="8:16">
       <c r="H16" s="24" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="24" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="8:14">
       <c r="H18" s="24" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="8:14">
       <c r="H20" s="27" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -15232,7 +15376,7 @@
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="24" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="632">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>四都督+1自选吴橙/红将，每个20碎片（直接3星起飞）=100元</t>
+  </si>
+  <si>
+    <t>套餐1.4</t>
+  </si>
+  <si>
+    <t>河北四庭柱+麴义，每个20碎片（直接3星起飞）=100元</t>
   </si>
   <si>
     <t>套餐2</t>
@@ -2099,12 +2105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2175,6 +2181,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2183,47 +2197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2243,6 +2218,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2251,8 +2241,70 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2267,53 +2319,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2388,13 +2394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,7 +2430,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,19 +2502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,13 +2532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,49 +2562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,61 +2574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2626,17 +2632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2660,7 +2660,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2672,15 +2687,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2703,8 +2709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2731,10 +2737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2743,133 +2749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5031,7 +5037,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5049,13 +5055,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5063,25 +5069,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I2" s="18">
         <v>2</v>
@@ -5100,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I4" s="18">
         <v>4</v>
@@ -5119,13 +5125,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5144,10 +5150,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I8" s="18">
         <v>8</v>
@@ -5166,10 +5172,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5196,13 +5202,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I13" s="18">
         <v>13</v>
@@ -5316,7 +5322,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5334,13 +5340,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5408,25 +5414,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5442,7 +5448,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18">
@@ -5455,7 +5461,7 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -5472,7 +5478,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5489,10 +5495,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F10" s="17"/>
       <c r="H10" s="17"/>
@@ -5535,10 +5541,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5631,7 +5637,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -5728,7 +5734,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5746,13 +5752,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5880,25 +5886,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5941,14 +5947,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -5977,10 +5983,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -6011,10 +6017,10 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6141,7 +6147,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6159,13 +6165,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6339,19 +6345,19 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -6379,15 +6385,15 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6414,7 +6420,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -6446,7 +6452,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -6478,7 +6484,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -6547,7 +6553,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6565,13 +6571,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6774,22 +6780,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6821,7 +6827,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18">
@@ -6853,7 +6859,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18">
@@ -6944,12 +6950,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -6969,7 +6975,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6989,7 +6995,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7009,7 +7015,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7029,7 +7035,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -7049,7 +7055,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="6" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -7089,7 +7095,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -7109,7 +7115,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -7129,7 +7135,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -7149,7 +7155,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -7189,7 +7195,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -7209,7 +7215,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -7229,7 +7235,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="6" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -7269,7 +7275,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -7289,7 +7295,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -7309,7 +7315,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -7329,7 +7335,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>
@@ -8757,8 +8763,8 @@
   <sheetPr/>
   <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:R19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T26" sqref="H5:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -8862,12 +8868,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:11">
       <c r="B10" s="24">
         <v>2</v>
       </c>
       <c r="C10" s="24">
         <v>5</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -8878,10 +8890,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -8892,10 +8904,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="16.2" spans="2:9">
@@ -8906,7 +8918,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -8917,10 +8929,10 @@
         <v>80</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -8931,10 +8943,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -8945,10 +8957,10 @@
         <v>150</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -8967,7 +8979,7 @@
         <v>300</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -8980,7 +8992,7 @@
     </row>
     <row r="20" ht="16.2" spans="9:9">
       <c r="I20" s="55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:16">
@@ -8989,134 +9001,134 @@
         <v>1410</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O21" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="10:19">
       <c r="J23" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S23" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="10:13">
       <c r="J24" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="10:14">
       <c r="J25" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -9156,40 +9168,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" ht="16.2" spans="2:21">
@@ -9230,7 +9242,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P3" s="47">
         <v>1</v>
@@ -9290,17 +9302,17 @@
         <v>188</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="48"/>
       <c r="Q4" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
@@ -9347,18 +9359,18 @@
         <v>168</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U5" s="48"/>
       <c r="V5" s="1">
@@ -9404,18 +9416,18 @@
         <v>141</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U6" s="48"/>
       <c r="V6" s="1">
@@ -9461,19 +9473,19 @@
         <v>168</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T7" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U7" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V7" s="1">
         <v>50</v>
@@ -9504,19 +9516,19 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="O8" s="48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="S8" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T8" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V8" s="1">
         <v>50</v>
@@ -9538,19 +9550,19 @@
         <v>14580</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
       <c r="S9" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T9" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U9" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V9" s="1">
         <v>50</v>
@@ -9558,14 +9570,14 @@
     </row>
     <row r="10" ht="16.2" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9602,12 +9614,12 @@
         <v>84</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="16.2" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -9644,7 +9656,7 @@
         <v>84</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P12" s="47">
         <v>1</v>
@@ -9656,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="T12" s="47">
         <v>5</v>
@@ -9670,17 +9682,17 @@
         <v>12</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P13" s="48"/>
       <c r="Q13" s="53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R13" s="53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
@@ -9698,20 +9710,20 @@
     </row>
     <row r="14" spans="9:27">
       <c r="I14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J14" s="1">
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" s="1">
         <f>W19</f>
         <v>5170</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="51">
@@ -9732,7 +9744,7 @@
         <v>98</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA14" s="1">
         <f>3.5*24*60*60</f>
@@ -9741,25 +9753,25 @@
     </row>
     <row r="15" spans="2:27">
       <c r="B15" s="46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P15" s="48"/>
       <c r="Q15" s="51">
@@ -9780,7 +9792,7 @@
         <v>298</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA15" s="1">
         <f>7*24*60*60</f>
@@ -9876,7 +9888,7 @@
         <v>1920</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:23">
@@ -10102,7 +10114,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C16:C26)</f>
@@ -10152,43 +10164,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -10238,10 +10250,10 @@
         <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -10287,7 +10299,7 @@
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -10315,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I4" s="39">
         <v>4</v>
@@ -10336,7 +10348,7 @@
         <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10361,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -10392,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I6" s="39">
         <v>6</v>
@@ -10439,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I7" s="39">
         <v>7</v>
@@ -10478,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" s="39">
         <v>8</v>
@@ -10509,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I9" s="39">
         <v>9</v>
@@ -10540,7 +10552,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I10" s="39">
         <v>10</v>
@@ -10571,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I11" s="39">
         <v>11</v>
@@ -10602,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I12" s="39">
         <v>12</v>
@@ -10633,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I13" s="39">
         <v>13</v>
@@ -10664,7 +10676,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I14" s="39">
         <v>14</v>
@@ -10695,7 +10707,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I15" s="39">
         <v>15</v>
@@ -10726,7 +10738,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I16" s="39">
         <v>16</v>
@@ -10757,7 +10769,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I17" s="39">
         <v>17</v>
@@ -10788,7 +10800,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I18" s="39">
         <v>18</v>
@@ -10819,7 +10831,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I19" s="39">
         <v>19</v>
@@ -10850,7 +10862,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I20" s="39">
         <v>20</v>
@@ -10881,7 +10893,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I21" s="39">
         <v>21</v>
@@ -10957,8 +10969,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P11:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10982,31 +10994,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -11034,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11069,7 +11081,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11084,7 +11096,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11094,7 +11106,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11104,7 +11116,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11114,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11124,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11159,7 +11171,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11195,7 +11207,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11211,7 +11223,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11221,7 +11233,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11231,7 +11243,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11241,7 +11253,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11251,7 +11263,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11287,7 +11299,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11323,7 +11335,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11339,7 +11351,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11349,7 +11361,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11359,7 +11371,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11369,7 +11381,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11378,8 +11390,13 @@
       <c r="O11" s="29">
         <v>9</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
+      <c r="P11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P11,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,2,5</v>
+      </c>
       <c r="R11" s="31"/>
       <c r="S11" s="1">
         <v>9</v>
@@ -11409,8 +11426,13 @@
       <c r="O12" s="29">
         <v>10</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="31" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,56,5</v>
+      </c>
       <c r="R12" s="31"/>
       <c r="S12" s="1">
         <v>10</v>
@@ -11452,7 +11474,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11462,7 +11484,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11472,7 +11494,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11482,7 +11504,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11565,7 +11587,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11575,7 +11597,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11585,7 +11607,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11595,7 +11617,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11678,7 +11700,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11688,7 +11710,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11698,7 +11720,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11708,7 +11730,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11760,7 +11782,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11770,7 +11792,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11780,7 +11802,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11790,7 +11812,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11812,99 +11834,99 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -11918,7 +11940,7 @@
   <sheetPr/>
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="E398" sqref="E398"/>
     </sheetView>
   </sheetViews>
@@ -11926,7 +11948,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -11934,7 +11956,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -11942,7 +11964,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -11950,7 +11972,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -11958,7 +11980,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -11966,7 +11988,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -11974,7 +11996,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -11982,7 +12004,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -11990,7 +12012,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -11998,7 +12020,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -12006,7 +12028,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -12014,7 +12036,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -12022,7 +12044,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -12030,7 +12052,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -12038,7 +12060,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -12046,7 +12068,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -12054,7 +12076,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -12062,7 +12084,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -12070,7 +12092,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
@@ -12078,7 +12100,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -12086,7 +12108,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -12094,7 +12116,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
@@ -12102,7 +12124,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -12110,7 +12132,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -12118,7 +12140,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
@@ -12126,7 +12148,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
@@ -12134,7 +12156,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
@@ -12142,7 +12164,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -12150,7 +12172,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
@@ -12158,7 +12180,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
@@ -12166,7 +12188,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -12174,7 +12196,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
@@ -12182,7 +12204,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
@@ -12190,7 +12212,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
@@ -12198,7 +12220,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
@@ -12206,7 +12228,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
@@ -12214,7 +12236,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
@@ -12222,7 +12244,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
@@ -12230,7 +12252,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
@@ -12238,7 +12260,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
@@ -12246,7 +12268,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
@@ -12254,7 +12276,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
@@ -12262,7 +12284,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
@@ -12270,7 +12292,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
@@ -12278,7 +12300,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
@@ -12286,7 +12308,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
@@ -12294,7 +12316,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
@@ -12302,7 +12324,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
@@ -12310,7 +12332,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
@@ -12318,7 +12340,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
@@ -12326,7 +12348,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
@@ -12334,7 +12356,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
@@ -12342,7 +12364,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
@@ -12350,7 +12372,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
@@ -12358,7 +12380,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
@@ -12366,7 +12388,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
@@ -12374,7 +12396,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
@@ -12382,7 +12404,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
@@ -12390,7 +12412,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
@@ -12398,7 +12420,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
@@ -12406,7 +12428,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
@@ -12414,7 +12436,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
@@ -12422,7 +12444,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
@@ -12430,7 +12452,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
@@ -12438,7 +12460,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
@@ -12446,7 +12468,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
@@ -12454,7 +12476,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
@@ -12462,7 +12484,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
@@ -12470,7 +12492,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
@@ -12478,7 +12500,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
@@ -12486,7 +12508,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
@@ -12494,7 +12516,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
@@ -12502,7 +12524,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
@@ -12510,7 +12532,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
@@ -12518,7 +12540,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
@@ -12526,7 +12548,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
@@ -12534,7 +12556,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
@@ -12542,7 +12564,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
@@ -12550,7 +12572,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
@@ -12558,7 +12580,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
@@ -12566,7 +12588,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
@@ -12574,7 +12596,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
@@ -12582,7 +12604,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
@@ -12590,7 +12612,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
@@ -12598,7 +12620,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
@@ -12606,7 +12628,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
@@ -12614,7 +12636,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
@@ -12622,7 +12644,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
@@ -12630,7 +12652,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
@@ -12638,7 +12660,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
@@ -12646,7 +12668,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
@@ -12654,7 +12676,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
@@ -12662,7 +12684,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
@@ -12670,7 +12692,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
@@ -12678,7 +12700,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
@@ -12686,7 +12708,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
@@ -12694,7 +12716,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
@@ -12702,7 +12724,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
@@ -12710,7 +12732,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
@@ -12718,7 +12740,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
@@ -12726,7 +12748,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
@@ -12734,7 +12756,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
@@ -12742,7 +12764,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
@@ -12750,7 +12772,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
@@ -12758,7 +12780,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
@@ -12766,7 +12788,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
@@ -12774,7 +12796,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
@@ -12782,7 +12804,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
@@ -12790,7 +12812,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
@@ -12798,7 +12820,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B110" s="6">
         <v>109</v>
@@ -12806,7 +12828,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B111" s="6">
         <v>110</v>
@@ -12814,7 +12836,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B112" s="6">
         <v>111</v>
@@ -12822,7 +12844,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B113" s="6">
         <v>112</v>
@@ -12830,7 +12852,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B114" s="6">
         <v>113</v>
@@ -12838,7 +12860,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B115" s="6">
         <v>114</v>
@@ -12846,7 +12868,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B116" s="6">
         <v>115</v>
@@ -12854,7 +12876,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B117" s="6">
         <v>116</v>
@@ -12862,7 +12884,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B118" s="6">
         <v>117</v>
@@ -12870,7 +12892,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B119" s="6">
         <v>118</v>
@@ -12878,7 +12900,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B120" s="6">
         <v>119</v>
@@ -12886,7 +12908,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B121" s="6">
         <v>120</v>
@@ -12894,7 +12916,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B122" s="6">
         <v>121</v>
@@ -12902,7 +12924,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B123" s="6">
         <v>122</v>
@@ -12910,7 +12932,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B124" s="6">
         <v>123</v>
@@ -12918,7 +12940,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B125" s="6">
         <v>124</v>
@@ -12926,7 +12948,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B126" s="6">
         <v>125</v>
@@ -12934,7 +12956,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B127" s="6">
         <v>126</v>
@@ -12942,7 +12964,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B128" s="6">
         <v>127</v>
@@ -12950,7 +12972,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B129" s="6">
         <v>128</v>
@@ -12958,7 +12980,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B130" s="6">
         <v>129</v>
@@ -12966,7 +12988,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B131" s="6">
         <v>130</v>
@@ -12974,7 +12996,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B132" s="6">
         <v>131</v>
@@ -12982,7 +13004,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B133" s="6">
         <v>132</v>
@@ -12990,7 +13012,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B134" s="6">
         <v>133</v>
@@ -12998,7 +13020,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B135" s="6">
         <v>134</v>
@@ -13006,7 +13028,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B136" s="6">
         <v>135</v>
@@ -13014,7 +13036,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B137" s="6">
         <v>136</v>
@@ -13022,7 +13044,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B138" s="6">
         <v>137</v>
@@ -13030,7 +13052,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B139" s="6">
         <v>138</v>
@@ -13038,7 +13060,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B140" s="6">
         <v>139</v>
@@ -13046,7 +13068,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B141" s="6">
         <v>140</v>
@@ -13054,7 +13076,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B142" s="6">
         <v>141</v>
@@ -13062,7 +13084,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B143" s="6">
         <v>142</v>
@@ -13070,7 +13092,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B144" s="6">
         <v>143</v>
@@ -13078,7 +13100,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B145" s="6">
         <v>144</v>
@@ -13086,7 +13108,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B146" s="6">
         <v>145</v>
@@ -13094,7 +13116,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B147" s="6">
         <v>146</v>
@@ -13102,7 +13124,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B148" s="6">
         <v>147</v>
@@ -13110,7 +13132,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B149" s="6">
         <v>148</v>
@@ -13118,7 +13140,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B150" s="6">
         <v>149</v>
@@ -13126,7 +13148,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B151" s="6">
         <v>150</v>
@@ -13134,7 +13156,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B152" s="6">
         <v>151</v>
@@ -13142,7 +13164,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B153" s="6">
         <v>152</v>
@@ -13150,7 +13172,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B154" s="6">
         <v>153</v>
@@ -13158,7 +13180,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B155" s="6">
         <v>154</v>
@@ -13166,7 +13188,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B156" s="6">
         <v>155</v>
@@ -13174,7 +13196,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B157" s="6">
         <v>156</v>
@@ -13182,7 +13204,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B158" s="6">
         <v>157</v>
@@ -13190,7 +13212,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B159" s="6">
         <v>158</v>
@@ -13198,7 +13220,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B160" s="6">
         <v>159</v>
@@ -13206,7 +13228,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B161" s="6">
         <v>160</v>
@@ -13214,7 +13236,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B162" s="6">
         <v>161</v>
@@ -13222,7 +13244,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B163" s="6">
         <v>162</v>
@@ -13230,7 +13252,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B164" s="6">
         <v>163</v>
@@ -13238,7 +13260,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B165" s="6">
         <v>164</v>
@@ -13246,7 +13268,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B166" s="6">
         <v>165</v>
@@ -13254,7 +13276,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B167" s="6">
         <v>166</v>
@@ -13262,7 +13284,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B168" s="6">
         <v>167</v>
@@ -13270,7 +13292,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B169" s="6">
         <v>168</v>
@@ -13278,7 +13300,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B170" s="6">
         <v>169</v>
@@ -13286,7 +13308,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B171" s="6">
         <v>170</v>
@@ -13294,7 +13316,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B172" s="6">
         <v>171</v>
@@ -13302,7 +13324,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B173" s="6">
         <v>172</v>
@@ -13310,7 +13332,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B174" s="6">
         <v>173</v>
@@ -13318,7 +13340,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B175" s="6">
         <v>174</v>
@@ -13326,7 +13348,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B176" s="6">
         <v>175</v>
@@ -13334,7 +13356,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B177" s="6">
         <v>176</v>
@@ -13342,7 +13364,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B178" s="6">
         <v>177</v>
@@ -13350,7 +13372,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B179" s="6">
         <v>178</v>
@@ -13358,7 +13380,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B180" s="6">
         <v>179</v>
@@ -13366,7 +13388,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B181" s="6">
         <v>180</v>
@@ -13374,7 +13396,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B182" s="6">
         <v>181</v>
@@ -13382,7 +13404,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B183" s="6">
         <v>182</v>
@@ -13390,7 +13412,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B184" s="6">
         <v>183</v>
@@ -13398,7 +13420,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B185" s="6">
         <v>184</v>
@@ -13406,7 +13428,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B186" s="6">
         <v>185</v>
@@ -13414,7 +13436,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B187" s="6">
         <v>186</v>
@@ -13422,7 +13444,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B188" s="6">
         <v>187</v>
@@ -13430,7 +13452,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B189" s="6">
         <v>188</v>
@@ -13438,7 +13460,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B190" s="6">
         <v>189</v>
@@ -13446,7 +13468,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B191" s="6">
         <v>190</v>
@@ -13454,7 +13476,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B192" s="6">
         <v>191</v>
@@ -13462,7 +13484,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B193" s="6">
         <v>192</v>
@@ -13470,7 +13492,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B194" s="6">
         <v>193</v>
@@ -13478,7 +13500,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B195" s="6">
         <v>194</v>
@@ -13486,7 +13508,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B196" s="6">
         <v>195</v>
@@ -13494,7 +13516,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B197" s="6">
         <v>196</v>
@@ -13502,7 +13524,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B198" s="6">
         <v>197</v>
@@ -13510,7 +13532,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B199" s="6">
         <v>198</v>
@@ -13518,7 +13540,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B200" s="6">
         <v>199</v>
@@ -13526,7 +13548,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B201" s="6">
         <v>200</v>
@@ -13534,7 +13556,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B202" s="6">
         <v>201</v>
@@ -13542,7 +13564,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B203" s="6">
         <v>202</v>
@@ -13550,7 +13572,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B204" s="6">
         <v>203</v>
@@ -13558,7 +13580,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B205" s="6">
         <v>204</v>
@@ -13566,7 +13588,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B206" s="6">
         <v>205</v>
@@ -13574,7 +13596,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B207" s="6">
         <v>206</v>
@@ -13582,7 +13604,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B208" s="6">
         <v>207</v>
@@ -13590,7 +13612,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B209" s="6">
         <v>208</v>
@@ -13598,7 +13620,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B210" s="6">
         <v>209</v>
@@ -13606,7 +13628,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B211" s="6">
         <v>210</v>
@@ -13614,7 +13636,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B212" s="6">
         <v>211</v>
@@ -13622,7 +13644,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B213" s="6">
         <v>212</v>
@@ -13630,7 +13652,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B214" s="6">
         <v>213</v>
@@ -13638,7 +13660,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B215" s="6">
         <v>214</v>
@@ -13646,7 +13668,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B216" s="6">
         <v>215</v>
@@ -13654,7 +13676,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B217" s="6">
         <v>216</v>
@@ -13662,7 +13684,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B218" s="6">
         <v>217</v>
@@ -13670,7 +13692,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B219" s="6">
         <v>218</v>
@@ -13678,7 +13700,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B220" s="6">
         <v>219</v>
@@ -13686,7 +13708,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B221" s="6">
         <v>220</v>
@@ -13694,7 +13716,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B222" s="6">
         <v>221</v>
@@ -13702,7 +13724,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B223" s="6">
         <v>222</v>
@@ -13710,7 +13732,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B224" s="6">
         <v>223</v>
@@ -13718,7 +13740,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B225" s="6">
         <v>224</v>
@@ -13726,7 +13748,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B226" s="6">
         <v>225</v>
@@ -13734,7 +13756,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B227" s="6">
         <v>226</v>
@@ -13742,7 +13764,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B228" s="6">
         <v>227</v>
@@ -13750,7 +13772,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B229" s="6">
         <v>228</v>
@@ -13758,7 +13780,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B230" s="6">
         <v>229</v>
@@ -13766,7 +13788,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B231" s="6">
         <v>230</v>
@@ -13774,7 +13796,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B232" s="6">
         <v>231</v>
@@ -13782,7 +13804,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B233" s="6">
         <v>232</v>
@@ -13790,7 +13812,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B234" s="6">
         <v>233</v>
@@ -13798,7 +13820,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B235" s="6">
         <v>234</v>
@@ -13806,7 +13828,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B236" s="6">
         <v>235</v>
@@ -13814,7 +13836,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B237" s="6">
         <v>236</v>
@@ -13822,7 +13844,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B238" s="6">
         <v>237</v>
@@ -13830,7 +13852,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B239" s="6">
         <v>238</v>
@@ -13838,7 +13860,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B240" s="6">
         <v>239</v>
@@ -13846,7 +13868,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B241" s="6">
         <v>240</v>
@@ -13854,7 +13876,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B242" s="6">
         <v>241</v>
@@ -13862,7 +13884,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B243" s="6">
         <v>242</v>
@@ -13870,7 +13892,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B244" s="6">
         <v>243</v>
@@ -13878,7 +13900,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B245" s="6">
         <v>244</v>
@@ -13886,7 +13908,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B246" s="6">
         <v>245</v>
@@ -13894,7 +13916,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B247" s="6">
         <v>246</v>
@@ -13902,7 +13924,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B248" s="6">
         <v>247</v>
@@ -13910,7 +13932,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B249" s="6">
         <v>248</v>
@@ -13918,7 +13940,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B250" s="6">
         <v>249</v>
@@ -13926,7 +13948,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B251" s="6">
         <v>250</v>
@@ -13934,7 +13956,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B252" s="6">
         <v>251</v>
@@ -13942,7 +13964,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B253" s="6">
         <v>252</v>
@@ -13950,7 +13972,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B254" s="6">
         <v>253</v>
@@ -13958,7 +13980,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B255" s="6">
         <v>254</v>
@@ -13966,7 +13988,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B256" s="6">
         <v>255</v>
@@ -13974,7 +13996,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B257" s="6">
         <v>256</v>
@@ -13982,7 +14004,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B258" s="6">
         <v>257</v>
@@ -13990,7 +14012,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B259" s="6">
         <v>258</v>
@@ -13998,7 +14020,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B260" s="6">
         <v>259</v>
@@ -14006,7 +14028,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B261" s="6">
         <v>260</v>
@@ -14014,7 +14036,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B262" s="6">
         <v>261</v>
@@ -14022,7 +14044,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B263" s="6">
         <v>262</v>
@@ -14030,7 +14052,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B264" s="6">
         <v>263</v>
@@ -14038,7 +14060,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B265" s="6">
         <v>264</v>
@@ -14046,7 +14068,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B266" s="6">
         <v>265</v>
@@ -14054,7 +14076,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B267" s="6">
         <v>266</v>
@@ -14062,7 +14084,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B268" s="6">
         <v>267</v>
@@ -14070,7 +14092,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B269" s="6">
         <v>268</v>
@@ -14078,7 +14100,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B270" s="6">
         <v>269</v>
@@ -14086,7 +14108,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B271" s="6">
         <v>270</v>
@@ -14094,7 +14116,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B272" s="6">
         <v>271</v>
@@ -14102,7 +14124,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B273" s="6">
         <v>272</v>
@@ -14110,7 +14132,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B274" s="6">
         <v>273</v>
@@ -14118,7 +14140,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B275" s="6">
         <v>274</v>
@@ -14126,7 +14148,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B276" s="6">
         <v>275</v>
@@ -14134,7 +14156,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B277" s="6">
         <v>276</v>
@@ -14142,7 +14164,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B278" s="6">
         <v>277</v>
@@ -14150,7 +14172,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B279" s="6">
         <v>278</v>
@@ -14158,7 +14180,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B280" s="6">
         <v>279</v>
@@ -14166,7 +14188,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B281" s="6">
         <v>280</v>
@@ -14174,7 +14196,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B282" s="6">
         <v>281</v>
@@ -14182,7 +14204,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B283" s="6">
         <v>282</v>
@@ -14190,7 +14212,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B284" s="6">
         <v>283</v>
@@ -14198,7 +14220,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B285" s="6">
         <v>284</v>
@@ -14206,7 +14228,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B286" s="6">
         <v>285</v>
@@ -14214,7 +14236,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B287" s="6">
         <v>286</v>
@@ -14222,7 +14244,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B288" s="6">
         <v>287</v>
@@ -14230,7 +14252,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B289" s="6">
         <v>288</v>
@@ -14238,7 +14260,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B290" s="6">
         <v>289</v>
@@ -14246,7 +14268,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B291" s="6">
         <v>290</v>
@@ -14254,7 +14276,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B292" s="6">
         <v>291</v>
@@ -14262,7 +14284,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B293" s="6">
         <v>292</v>
@@ -14270,7 +14292,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B294" s="6">
         <v>293</v>
@@ -14278,7 +14300,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B295" s="6">
         <v>294</v>
@@ -14286,7 +14308,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B296" s="6">
         <v>295</v>
@@ -14294,7 +14316,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B297" s="6">
         <v>296</v>
@@ -14302,7 +14324,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B298" s="6">
         <v>297</v>
@@ -14310,7 +14332,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B299" s="6">
         <v>298</v>
@@ -14318,7 +14340,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B300" s="6">
         <v>299</v>
@@ -14326,7 +14348,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B301" s="6">
         <v>300</v>
@@ -14334,7 +14356,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B302" s="6">
         <v>301</v>
@@ -14342,7 +14364,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B303" s="6">
         <v>302</v>
@@ -14350,7 +14372,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B304" s="6">
         <v>303</v>
@@ -14358,7 +14380,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B305" s="6">
         <v>304</v>
@@ -14366,7 +14388,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B306" s="6">
         <v>305</v>
@@ -14374,7 +14396,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B307" s="6">
         <v>306</v>
@@ -14382,7 +14404,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B308" s="6">
         <v>307</v>
@@ -14390,7 +14412,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B309" s="6">
         <v>308</v>
@@ -14398,7 +14420,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B310" s="6">
         <v>309</v>
@@ -14406,7 +14428,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B311" s="6">
         <v>310</v>
@@ -14414,7 +14436,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B312" s="6">
         <v>311</v>
@@ -14422,7 +14444,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B313" s="6">
         <v>312</v>
@@ -14430,7 +14452,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B314" s="6">
         <v>313</v>
@@ -14438,7 +14460,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B315" s="6">
         <v>314</v>
@@ -14446,7 +14468,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B316" s="6">
         <v>315</v>
@@ -14454,7 +14476,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B317" s="6">
         <v>316</v>
@@ -14462,7 +14484,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B318" s="6">
         <v>317</v>
@@ -14470,7 +14492,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B319" s="6">
         <v>318</v>
@@ -14478,7 +14500,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B320" s="6">
         <v>319</v>
@@ -14486,7 +14508,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B321" s="6">
         <v>320</v>
@@ -14494,7 +14516,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B322" s="6">
         <v>321</v>
@@ -14502,7 +14524,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B323" s="6">
         <v>322</v>
@@ -14510,7 +14532,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B324" s="6">
         <v>323</v>
@@ -14518,7 +14540,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B325" s="6">
         <v>324</v>
@@ -14526,7 +14548,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B326" s="6">
         <v>325</v>
@@ -14534,7 +14556,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B327" s="6">
         <v>326</v>
@@ -14542,7 +14564,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B328" s="6">
         <v>327</v>
@@ -14550,7 +14572,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B329" s="6">
         <v>328</v>
@@ -14558,7 +14580,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B330" s="6">
         <v>329</v>
@@ -14566,7 +14588,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B331" s="6">
         <v>330</v>
@@ -14574,7 +14596,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B332" s="6">
         <v>331</v>
@@ -14582,7 +14604,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B333" s="6">
         <v>332</v>
@@ -14590,7 +14612,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B334" s="6">
         <v>333</v>
@@ -14598,7 +14620,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B335" s="6">
         <v>334</v>
@@ -14606,7 +14628,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B336" s="6">
         <v>335</v>
@@ -14614,7 +14636,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B337" s="6">
         <v>336</v>
@@ -14622,7 +14644,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B338" s="6">
         <v>337</v>
@@ -14630,7 +14652,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B339" s="6">
         <v>338</v>
@@ -14638,7 +14660,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B340" s="6">
         <v>339</v>
@@ -14646,7 +14668,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B341" s="6">
         <v>340</v>
@@ -14654,7 +14676,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B342" s="6">
         <v>341</v>
@@ -14662,7 +14684,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B343" s="6">
         <v>342</v>
@@ -14670,7 +14692,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B344" s="6">
         <v>343</v>
@@ -14678,7 +14700,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B345" s="6">
         <v>344</v>
@@ -14686,7 +14708,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B346" s="6">
         <v>345</v>
@@ -14694,7 +14716,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B347" s="6">
         <v>346</v>
@@ -14702,7 +14724,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B348" s="6">
         <v>347</v>
@@ -14710,7 +14732,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B349" s="6">
         <v>348</v>
@@ -14718,7 +14740,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B350" s="6">
         <v>349</v>
@@ -14726,7 +14748,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B351" s="6">
         <v>350</v>
@@ -14734,7 +14756,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B352" s="6">
         <v>351</v>
@@ -14742,7 +14764,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B353" s="6">
         <v>352</v>
@@ -14750,7 +14772,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B354" s="6">
         <v>353</v>
@@ -14758,7 +14780,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B355" s="6">
         <v>354</v>
@@ -14766,7 +14788,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B356" s="6">
         <v>355</v>
@@ -14774,7 +14796,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B357" s="6">
         <v>356</v>
@@ -14782,7 +14804,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B358" s="6">
         <v>357</v>
@@ -14790,7 +14812,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B359" s="6">
         <v>358</v>
@@ -14798,7 +14820,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B360" s="6">
         <v>359</v>
@@ -14806,7 +14828,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B361" s="6">
         <v>360</v>
@@ -14814,7 +14836,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B362" s="6">
         <v>361</v>
@@ -14822,7 +14844,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B363" s="6">
         <v>362</v>
@@ -14830,7 +14852,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B364" s="6">
         <v>363</v>
@@ -14838,7 +14860,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B365" s="6">
         <v>364</v>
@@ -14846,7 +14868,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B366" s="6">
         <v>365</v>
@@ -14854,7 +14876,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B367" s="6">
         <v>366</v>
@@ -14862,7 +14884,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B368" s="6">
         <v>367</v>
@@ -14870,7 +14892,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="6" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B369" s="6">
         <v>368</v>
@@ -14878,7 +14900,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B370" s="6">
         <v>369</v>
@@ -14886,7 +14908,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B371" s="6">
         <v>370</v>
@@ -14894,7 +14916,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B372" s="6">
         <v>371</v>
@@ -14902,7 +14924,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B373" s="6">
         <v>372</v>
@@ -14910,7 +14932,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B374" s="6">
         <v>373</v>
@@ -14918,7 +14940,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B375" s="6">
         <v>374</v>
@@ -14926,7 +14948,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B376" s="6">
         <v>375</v>
@@ -14934,7 +14956,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B377" s="6">
         <v>376</v>
@@ -14942,7 +14964,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B378" s="6">
         <v>377</v>
@@ -14950,7 +14972,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B379" s="6">
         <v>378</v>
@@ -14958,7 +14980,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B380" s="6">
         <v>379</v>
@@ -14966,7 +14988,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B381" s="6">
         <v>380</v>
@@ -14974,7 +14996,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B382" s="6">
         <v>381</v>
@@ -14982,7 +15004,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B383" s="6">
         <v>382</v>
@@ -14990,7 +15012,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B384" s="6">
         <v>383</v>
@@ -14998,7 +15020,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B385" s="6">
         <v>384</v>
@@ -15006,7 +15028,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B386" s="6">
         <v>385</v>
@@ -15014,7 +15036,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B387" s="6">
         <v>386</v>
@@ -15022,7 +15044,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B388" s="6">
         <v>387</v>
@@ -15030,7 +15052,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B389" s="6">
         <v>388</v>
@@ -15038,7 +15060,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B390" s="6">
         <v>389</v>
@@ -15046,7 +15068,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B391" s="6">
         <v>390</v>
@@ -15054,7 +15076,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B392" s="6">
         <v>391</v>
@@ -15062,7 +15084,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B393" s="6">
         <v>392</v>
@@ -15070,7 +15092,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B394" s="6">
         <v>393</v>
@@ -15078,7 +15100,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B395" s="6">
         <v>394</v>
@@ -15086,7 +15108,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B396" s="6">
         <v>395</v>
@@ -15094,7 +15116,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B397" s="6">
         <v>396</v>
@@ -15102,7 +15124,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B398" s="6">
         <v>397</v>
@@ -15110,7 +15132,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B399" s="6">
         <v>398</v>
@@ -15118,7 +15140,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B400" s="6">
         <v>399</v>
@@ -15126,7 +15148,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B401" s="6">
         <v>400</v>
@@ -15156,64 +15178,64 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="24" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="24" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="24" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="24" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -15240,27 +15262,27 @@
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="28" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="28" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O2" s="25"/>
     </row>
@@ -15271,41 +15293,41 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:10">
       <c r="B8" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="26" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="8:8">
@@ -15313,61 +15335,61 @@
     </row>
     <row r="14" ht="16.2" spans="4:12">
       <c r="D14" s="27" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="8:16">
       <c r="H16" s="24" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="24" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="8:14">
       <c r="H18" s="24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="8:14">
       <c r="H20" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -15376,7 +15398,7 @@
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="634">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -111,25 +111,31 @@
     <t>套餐1.1</t>
   </si>
   <si>
-    <t>五虎上将+1自选蜀橙/红将，每个20碎片（直接3星起飞）=100元</t>
+    <t>五虎上将+1军团自选橙/红将，每个20碎片（直接3星起飞）=100元</t>
   </si>
   <si>
     <t>套餐1.2</t>
   </si>
   <si>
-    <t>五子良将+1自选魏橙/红将，每个20碎片（直接3星起飞）=100元</t>
+    <t>五子良将+1军团自选橙/红将，每个20碎片（直接3星起飞）=100元</t>
   </si>
   <si>
     <t>套餐1.3</t>
   </si>
   <si>
-    <t>四都督+1自选吴橙/红将，每个20碎片（直接3星起飞）=100元</t>
+    <t>四都督+1军团自选橙/红将，每个20碎片（直接3星起飞）=100元</t>
   </si>
   <si>
     <t>套餐1.4</t>
   </si>
   <si>
-    <t>河北四庭柱+麴义，每个20碎片（直接3星起飞）=100元</t>
+    <t>河北四庭柱+1军团自选橙/红将，每个20碎片（直接3星起飞）=100元</t>
+  </si>
+  <si>
+    <t>套餐1.5</t>
+  </si>
+  <si>
+    <t>吕布、张辽、陈宫+1军团自选橙/红将，每个20碎片（直接3星起飞）=100元</t>
   </si>
   <si>
     <t>套餐2</t>
@@ -156,7 +162,7 @@
     <t>2000玉阙+20万元宝=100元</t>
   </si>
   <si>
-    <t>100体力=15元</t>
+    <t>500体力=100元</t>
   </si>
   <si>
     <t>注：【稀有武将】是指游戏中战役宝箱无法开出，或者极低概率开出的武将</t>
@@ -2106,10 +2112,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
@@ -2181,8 +2187,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2197,24 +2270,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2226,77 +2286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2320,6 +2312,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2394,7 +2400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,7 +2454,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,67 +2556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,73 +2568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,12 +2581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,15 +2638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2658,8 +2655,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2682,11 +2681,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,10 +2743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2749,34 +2755,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2785,97 +2788,100 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2994,22 +3000,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -5037,7 +5043,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5055,13 +5061,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5069,25 +5075,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I2" s="18">
         <v>2</v>
@@ -5106,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I4" s="18">
         <v>4</v>
@@ -5125,13 +5131,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5150,10 +5156,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I8" s="18">
         <v>8</v>
@@ -5172,10 +5178,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5202,13 +5208,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I13" s="18">
         <v>13</v>
@@ -5322,7 +5328,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5340,13 +5346,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5414,25 +5420,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I6" s="18">
         <v>6</v>
@@ -5448,7 +5454,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18">
@@ -5461,7 +5467,7 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -5478,7 +5484,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5495,10 +5501,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F10" s="17"/>
       <c r="H10" s="17"/>
@@ -5541,10 +5547,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5637,7 +5643,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -5734,7 +5740,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -5752,13 +5758,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -5886,25 +5892,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -5947,14 +5953,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -5983,10 +5989,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -6017,10 +6023,10 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6147,7 +6153,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6165,13 +6171,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6345,19 +6351,19 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
@@ -6385,15 +6391,15 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6420,7 +6426,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -6452,7 +6458,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -6484,7 +6490,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -6553,7 +6559,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="20">
         <v>6</v>
@@ -6571,13 +6577,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -6780,22 +6786,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18">
@@ -6827,7 +6833,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18">
@@ -6859,7 +6865,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18">
@@ -6950,12 +6956,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -6975,7 +6981,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6995,7 +7001,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7015,7 +7021,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="6" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7035,7 +7041,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -7055,7 +7061,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -7075,7 +7081,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -7095,7 +7101,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -7115,7 +7121,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -7135,7 +7141,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="6" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -7155,7 +7161,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -7175,7 +7181,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -7195,7 +7201,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -7215,7 +7221,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -7235,7 +7241,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -7255,7 +7261,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -7275,7 +7281,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -7295,7 +7301,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -7315,7 +7321,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -7335,7 +7341,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>
@@ -8761,10 +8767,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:S31"/>
+  <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T26" sqref="H5:T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -8910,28 +8916,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="16.2" spans="2:9">
+    <row r="13" spans="2:11">
       <c r="B13" s="24">
         <v>5</v>
       </c>
       <c r="C13" s="24">
         <v>40</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="J13" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="K13" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="16.2" spans="2:9">
       <c r="B14" s="24">
         <v>6</v>
       </c>
       <c r="C14" s="24">
         <v>80</v>
       </c>
-      <c r="J14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="24" t="s">
+      <c r="I14" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8943,10 +8949,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -8960,175 +8966,181 @@
         <v>36</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="24">
         <v>9</v>
       </c>
       <c r="C17" s="24">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="J17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="24">
         <v>10</v>
       </c>
       <c r="C18" s="24">
         <v>300</v>
       </c>
-      <c r="J18" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="24">
         <v>11</v>
       </c>
       <c r="C19" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" ht="16.2" spans="9:9">
-      <c r="I20" s="55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16">
+      <c r="J19" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="16.2" spans="3:9">
       <c r="C21" s="24">
         <f>SUM(C9:C19)</f>
         <v>1410</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="34" t="s">
+      <c r="I21" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="34" t="s">
+    </row>
+    <row r="22" spans="10:16">
+      <c r="J22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="K22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="L22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="M22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="N22" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="24" t="s">
+      <c r="O22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="P22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="34" t="s">
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="K23" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="L23" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="M23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="N23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="O23" s="34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="10:19">
-      <c r="J23" s="24" t="s">
+      <c r="P23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="Q23" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="34" t="s">
+    </row>
+    <row r="24" spans="10:19">
+      <c r="J24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="K24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="L24" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="M24" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="N24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="O24" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="P24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="Q24" s="25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="10:13">
-      <c r="J24" s="24" t="s">
+      <c r="R24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="S24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="25" t="s">
+    </row>
+    <row r="25" spans="10:13">
+      <c r="J25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="10:14">
-      <c r="J25" s="24" t="s">
+      <c r="K25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="L25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="34" t="s">
+    </row>
+    <row r="26" spans="10:14">
+      <c r="J26" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="K26" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="L26" s="34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" s="24" t="s">
+      <c r="M26" s="25" t="s">
         <v>78</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" s="24" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10">
+      <c r="J32" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -9168,40 +9180,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" ht="16.2" spans="2:21">
@@ -9242,7 +9254,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P3" s="47">
         <v>1</v>
@@ -9302,17 +9314,17 @@
         <v>188</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="48"/>
       <c r="Q4" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
@@ -9359,18 +9371,18 @@
         <v>168</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U5" s="48"/>
       <c r="V5" s="1">
@@ -9416,18 +9428,18 @@
         <v>141</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U6" s="48"/>
       <c r="V6" s="1">
@@ -9473,19 +9485,19 @@
         <v>168</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T7" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U7" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V7" s="1">
         <v>50</v>
@@ -9516,19 +9528,19 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="O8" s="48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="S8" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T8" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V8" s="1">
         <v>50</v>
@@ -9550,19 +9562,19 @@
         <v>14580</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
       <c r="S9" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T9" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U9" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V9" s="1">
         <v>50</v>
@@ -9570,14 +9582,14 @@
     </row>
     <row r="10" ht="16.2" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="16.2" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9614,12 +9626,12 @@
         <v>84</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" ht="16.2" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -9656,7 +9668,7 @@
         <v>84</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P12" s="47">
         <v>1</v>
@@ -9668,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T12" s="47">
         <v>5</v>
@@ -9682,17 +9694,17 @@
         <v>12</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P13" s="48"/>
       <c r="Q13" s="53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R13" s="53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
@@ -9710,20 +9722,20 @@
     </row>
     <row r="14" spans="9:27">
       <c r="I14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J14" s="1">
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1">
         <f>W19</f>
         <v>5170</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="51">
@@ -9744,7 +9756,7 @@
         <v>98</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA14" s="1">
         <f>3.5*24*60*60</f>
@@ -9753,25 +9765,25 @@
     </row>
     <row r="15" spans="2:27">
       <c r="B15" s="46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P15" s="48"/>
       <c r="Q15" s="51">
@@ -9792,7 +9804,7 @@
         <v>298</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA15" s="1">
         <f>7*24*60*60</f>
@@ -9888,7 +9900,7 @@
         <v>1920</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:23">
@@ -10114,7 +10126,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C16:C26)</f>
@@ -10164,43 +10176,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -10250,10 +10262,10 @@
         <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -10299,7 +10311,7 @@
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -10327,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4" s="39">
         <v>4</v>
@@ -10348,7 +10360,7 @@
         <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10373,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -10404,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I6" s="39">
         <v>6</v>
@@ -10451,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I7" s="39">
         <v>7</v>
@@ -10490,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I8" s="39">
         <v>8</v>
@@ -10521,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I9" s="39">
         <v>9</v>
@@ -10552,7 +10564,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I10" s="39">
         <v>10</v>
@@ -10583,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I11" s="39">
         <v>11</v>
@@ -10614,7 +10626,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I12" s="39">
         <v>12</v>
@@ -10645,7 +10657,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I13" s="39">
         <v>13</v>
@@ -10676,7 +10688,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I14" s="39">
         <v>14</v>
@@ -10707,7 +10719,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I15" s="39">
         <v>15</v>
@@ -10738,7 +10750,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I16" s="39">
         <v>16</v>
@@ -10769,7 +10781,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I17" s="39">
         <v>17</v>
@@ -10800,7 +10812,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I18" s="39">
         <v>18</v>
@@ -10831,7 +10843,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I19" s="39">
         <v>19</v>
@@ -10862,7 +10874,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I20" s="39">
         <v>20</v>
@@ -10893,7 +10905,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I21" s="39">
         <v>21</v>
@@ -10969,7 +10981,7 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P11:P12"/>
     </sheetView>
   </sheetViews>
@@ -10994,31 +11006,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -11046,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11081,7 +11093,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11096,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11106,7 +11118,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11116,7 +11128,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11126,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11136,7 +11148,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11171,7 +11183,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11207,7 +11219,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11223,7 +11235,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11233,7 +11245,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11243,7 +11255,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11253,7 +11265,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11263,7 +11275,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11299,7 +11311,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11335,7 +11347,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11351,7 +11363,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11361,7 +11373,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11371,7 +11383,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11381,7 +11393,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11391,7 +11403,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11427,7 +11439,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11474,7 +11486,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11484,7 +11496,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11494,7 +11506,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11504,7 +11516,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N14" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11587,7 +11599,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11597,7 +11609,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11607,7 +11619,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11617,7 +11629,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N17" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11700,7 +11712,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11710,7 +11722,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11720,7 +11732,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11730,7 +11742,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N20" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11782,7 +11794,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11792,7 +11804,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11802,7 +11814,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11812,7 +11824,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N22" s="31" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11834,99 +11846,99 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -11948,7 +11960,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -11956,7 +11968,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -11964,7 +11976,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -11972,7 +11984,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -11980,7 +11992,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -11988,7 +12000,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -11996,7 +12008,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -12004,7 +12016,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -12012,7 +12024,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -12020,7 +12032,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -12028,7 +12040,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -12036,7 +12048,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -12044,7 +12056,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -12052,7 +12064,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -12060,7 +12072,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -12068,7 +12080,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -12076,7 +12088,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -12084,7 +12096,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -12092,7 +12104,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
@@ -12100,7 +12112,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -12108,7 +12120,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -12116,7 +12128,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
@@ -12124,7 +12136,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -12132,7 +12144,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -12140,7 +12152,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
@@ -12148,7 +12160,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
@@ -12156,7 +12168,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
@@ -12164,7 +12176,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -12172,7 +12184,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
@@ -12180,7 +12192,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
@@ -12188,7 +12200,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -12196,7 +12208,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
@@ -12204,7 +12216,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
@@ -12212,7 +12224,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
@@ -12220,7 +12232,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
@@ -12228,7 +12240,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
@@ -12236,7 +12248,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
@@ -12244,7 +12256,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
@@ -12252,7 +12264,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
@@ -12260,7 +12272,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
@@ -12268,7 +12280,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
@@ -12276,7 +12288,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
@@ -12284,7 +12296,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
@@ -12292,7 +12304,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
@@ -12300,7 +12312,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
@@ -12308,7 +12320,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
@@ -12316,7 +12328,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
@@ -12324,7 +12336,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
@@ -12332,7 +12344,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
@@ -12340,7 +12352,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
@@ -12348,7 +12360,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
@@ -12356,7 +12368,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
@@ -12364,7 +12376,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
@@ -12372,7 +12384,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
@@ -12380,7 +12392,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
@@ -12388,7 +12400,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
@@ -12396,7 +12408,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
@@ -12404,7 +12416,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
@@ -12412,7 +12424,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
@@ -12420,7 +12432,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
@@ -12428,7 +12440,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
@@ -12436,7 +12448,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
@@ -12444,7 +12456,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
@@ -12452,7 +12464,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
@@ -12460,7 +12472,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
@@ -12468,7 +12480,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
@@ -12476,7 +12488,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
@@ -12484,7 +12496,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
@@ -12492,7 +12504,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
@@ -12500,7 +12512,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
@@ -12508,7 +12520,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
@@ -12516,7 +12528,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
@@ -12524,7 +12536,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
@@ -12532,7 +12544,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
@@ -12540,7 +12552,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
@@ -12548,7 +12560,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
@@ -12556,7 +12568,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
@@ -12564,7 +12576,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
@@ -12572,7 +12584,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
@@ -12580,7 +12592,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
@@ -12588,7 +12600,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
@@ -12596,7 +12608,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
@@ -12604,7 +12616,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
@@ -12612,7 +12624,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
@@ -12620,7 +12632,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
@@ -12628,7 +12640,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
@@ -12636,7 +12648,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
@@ -12644,7 +12656,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
@@ -12652,7 +12664,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
@@ -12660,7 +12672,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
@@ -12668,7 +12680,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
@@ -12676,7 +12688,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
@@ -12684,7 +12696,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
@@ -12692,7 +12704,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
@@ -12700,7 +12712,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
@@ -12708,7 +12720,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
@@ -12716,7 +12728,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
@@ -12724,7 +12736,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
@@ -12732,7 +12744,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
@@ -12740,7 +12752,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
@@ -12748,7 +12760,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
@@ -12756,7 +12768,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
@@ -12764,7 +12776,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
@@ -12772,7 +12784,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
@@ -12780,7 +12792,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
@@ -12788,7 +12800,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
@@ -12796,7 +12808,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
@@ -12804,7 +12816,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
@@ -12812,7 +12824,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
@@ -12820,7 +12832,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B110" s="6">
         <v>109</v>
@@ -12828,7 +12840,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B111" s="6">
         <v>110</v>
@@ -12836,7 +12848,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B112" s="6">
         <v>111</v>
@@ -12844,7 +12856,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B113" s="6">
         <v>112</v>
@@ -12852,7 +12864,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B114" s="6">
         <v>113</v>
@@ -12860,7 +12872,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B115" s="6">
         <v>114</v>
@@ -12868,7 +12880,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B116" s="6">
         <v>115</v>
@@ -12876,7 +12888,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B117" s="6">
         <v>116</v>
@@ -12884,7 +12896,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B118" s="6">
         <v>117</v>
@@ -12892,7 +12904,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B119" s="6">
         <v>118</v>
@@ -12900,7 +12912,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B120" s="6">
         <v>119</v>
@@ -12908,7 +12920,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B121" s="6">
         <v>120</v>
@@ -12916,7 +12928,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B122" s="6">
         <v>121</v>
@@ -12924,7 +12936,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B123" s="6">
         <v>122</v>
@@ -12932,7 +12944,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B124" s="6">
         <v>123</v>
@@ -12940,7 +12952,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B125" s="6">
         <v>124</v>
@@ -12948,7 +12960,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B126" s="6">
         <v>125</v>
@@ -12956,7 +12968,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B127" s="6">
         <v>126</v>
@@ -12964,7 +12976,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B128" s="6">
         <v>127</v>
@@ -12972,7 +12984,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B129" s="6">
         <v>128</v>
@@ -12980,7 +12992,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B130" s="6">
         <v>129</v>
@@ -12988,7 +13000,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B131" s="6">
         <v>130</v>
@@ -12996,7 +13008,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B132" s="6">
         <v>131</v>
@@ -13004,7 +13016,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B133" s="6">
         <v>132</v>
@@ -13012,7 +13024,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B134" s="6">
         <v>133</v>
@@ -13020,7 +13032,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B135" s="6">
         <v>134</v>
@@ -13028,7 +13040,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B136" s="6">
         <v>135</v>
@@ -13036,7 +13048,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B137" s="6">
         <v>136</v>
@@ -13044,7 +13056,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B138" s="6">
         <v>137</v>
@@ -13052,7 +13064,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B139" s="6">
         <v>138</v>
@@ -13060,7 +13072,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B140" s="6">
         <v>139</v>
@@ -13068,7 +13080,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B141" s="6">
         <v>140</v>
@@ -13076,7 +13088,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B142" s="6">
         <v>141</v>
@@ -13084,7 +13096,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B143" s="6">
         <v>142</v>
@@ -13092,7 +13104,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B144" s="6">
         <v>143</v>
@@ -13100,7 +13112,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B145" s="6">
         <v>144</v>
@@ -13108,7 +13120,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B146" s="6">
         <v>145</v>
@@ -13116,7 +13128,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B147" s="6">
         <v>146</v>
@@ -13124,7 +13136,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B148" s="6">
         <v>147</v>
@@ -13132,7 +13144,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B149" s="6">
         <v>148</v>
@@ -13140,7 +13152,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B150" s="6">
         <v>149</v>
@@ -13148,7 +13160,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B151" s="6">
         <v>150</v>
@@ -13156,7 +13168,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B152" s="6">
         <v>151</v>
@@ -13164,7 +13176,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B153" s="6">
         <v>152</v>
@@ -13172,7 +13184,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B154" s="6">
         <v>153</v>
@@ -13180,7 +13192,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B155" s="6">
         <v>154</v>
@@ -13188,7 +13200,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B156" s="6">
         <v>155</v>
@@ -13196,7 +13208,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B157" s="6">
         <v>156</v>
@@ -13204,7 +13216,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B158" s="6">
         <v>157</v>
@@ -13212,7 +13224,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B159" s="6">
         <v>158</v>
@@ -13220,7 +13232,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B160" s="6">
         <v>159</v>
@@ -13228,7 +13240,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B161" s="6">
         <v>160</v>
@@ -13236,7 +13248,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B162" s="6">
         <v>161</v>
@@ -13244,7 +13256,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B163" s="6">
         <v>162</v>
@@ -13252,7 +13264,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B164" s="6">
         <v>163</v>
@@ -13260,7 +13272,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B165" s="6">
         <v>164</v>
@@ -13268,7 +13280,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B166" s="6">
         <v>165</v>
@@ -13276,7 +13288,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B167" s="6">
         <v>166</v>
@@ -13284,7 +13296,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B168" s="6">
         <v>167</v>
@@ -13292,7 +13304,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B169" s="6">
         <v>168</v>
@@ -13300,7 +13312,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B170" s="6">
         <v>169</v>
@@ -13308,7 +13320,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B171" s="6">
         <v>170</v>
@@ -13316,7 +13328,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B172" s="6">
         <v>171</v>
@@ -13324,7 +13336,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B173" s="6">
         <v>172</v>
@@ -13332,7 +13344,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B174" s="6">
         <v>173</v>
@@ -13340,7 +13352,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B175" s="6">
         <v>174</v>
@@ -13348,7 +13360,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B176" s="6">
         <v>175</v>
@@ -13356,7 +13368,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B177" s="6">
         <v>176</v>
@@ -13364,7 +13376,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B178" s="6">
         <v>177</v>
@@ -13372,7 +13384,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B179" s="6">
         <v>178</v>
@@ -13380,7 +13392,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B180" s="6">
         <v>179</v>
@@ -13388,7 +13400,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B181" s="6">
         <v>180</v>
@@ -13396,7 +13408,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B182" s="6">
         <v>181</v>
@@ -13404,7 +13416,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B183" s="6">
         <v>182</v>
@@ -13412,7 +13424,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B184" s="6">
         <v>183</v>
@@ -13420,7 +13432,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B185" s="6">
         <v>184</v>
@@ -13428,7 +13440,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B186" s="6">
         <v>185</v>
@@ -13436,7 +13448,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B187" s="6">
         <v>186</v>
@@ -13444,7 +13456,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B188" s="6">
         <v>187</v>
@@ -13452,7 +13464,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B189" s="6">
         <v>188</v>
@@ -13460,7 +13472,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B190" s="6">
         <v>189</v>
@@ -13468,7 +13480,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B191" s="6">
         <v>190</v>
@@ -13476,7 +13488,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B192" s="6">
         <v>191</v>
@@ -13484,7 +13496,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B193" s="6">
         <v>192</v>
@@ -13492,7 +13504,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B194" s="6">
         <v>193</v>
@@ -13500,7 +13512,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B195" s="6">
         <v>194</v>
@@ -13508,7 +13520,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B196" s="6">
         <v>195</v>
@@ -13516,7 +13528,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B197" s="6">
         <v>196</v>
@@ -13524,7 +13536,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B198" s="6">
         <v>197</v>
@@ -13532,7 +13544,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B199" s="6">
         <v>198</v>
@@ -13540,7 +13552,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B200" s="6">
         <v>199</v>
@@ -13548,7 +13560,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B201" s="6">
         <v>200</v>
@@ -13556,7 +13568,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B202" s="6">
         <v>201</v>
@@ -13564,7 +13576,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B203" s="6">
         <v>202</v>
@@ -13572,7 +13584,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B204" s="6">
         <v>203</v>
@@ -13580,7 +13592,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B205" s="6">
         <v>204</v>
@@ -13588,7 +13600,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B206" s="6">
         <v>205</v>
@@ -13596,7 +13608,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B207" s="6">
         <v>206</v>
@@ -13604,7 +13616,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B208" s="6">
         <v>207</v>
@@ -13612,7 +13624,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B209" s="6">
         <v>208</v>
@@ -13620,7 +13632,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B210" s="6">
         <v>209</v>
@@ -13628,7 +13640,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B211" s="6">
         <v>210</v>
@@ -13636,7 +13648,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B212" s="6">
         <v>211</v>
@@ -13644,7 +13656,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B213" s="6">
         <v>212</v>
@@ -13652,7 +13664,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B214" s="6">
         <v>213</v>
@@ -13660,7 +13672,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B215" s="6">
         <v>214</v>
@@ -13668,7 +13680,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B216" s="6">
         <v>215</v>
@@ -13676,7 +13688,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B217" s="6">
         <v>216</v>
@@ -13684,7 +13696,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B218" s="6">
         <v>217</v>
@@ -13692,7 +13704,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B219" s="6">
         <v>218</v>
@@ -13700,7 +13712,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B220" s="6">
         <v>219</v>
@@ -13708,7 +13720,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B221" s="6">
         <v>220</v>
@@ -13716,7 +13728,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B222" s="6">
         <v>221</v>
@@ -13724,7 +13736,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B223" s="6">
         <v>222</v>
@@ -13732,7 +13744,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B224" s="6">
         <v>223</v>
@@ -13740,7 +13752,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B225" s="6">
         <v>224</v>
@@ -13748,7 +13760,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B226" s="6">
         <v>225</v>
@@ -13756,7 +13768,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B227" s="6">
         <v>226</v>
@@ -13764,7 +13776,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B228" s="6">
         <v>227</v>
@@ -13772,7 +13784,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B229" s="6">
         <v>228</v>
@@ -13780,7 +13792,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B230" s="6">
         <v>229</v>
@@ -13788,7 +13800,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B231" s="6">
         <v>230</v>
@@ -13796,7 +13808,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B232" s="6">
         <v>231</v>
@@ -13804,7 +13816,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B233" s="6">
         <v>232</v>
@@ -13812,7 +13824,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B234" s="6">
         <v>233</v>
@@ -13820,7 +13832,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B235" s="6">
         <v>234</v>
@@ -13828,7 +13840,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B236" s="6">
         <v>235</v>
@@ -13836,7 +13848,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B237" s="6">
         <v>236</v>
@@ -13844,7 +13856,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B238" s="6">
         <v>237</v>
@@ -13852,7 +13864,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B239" s="6">
         <v>238</v>
@@ -13860,7 +13872,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B240" s="6">
         <v>239</v>
@@ -13868,7 +13880,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B241" s="6">
         <v>240</v>
@@ -13876,7 +13888,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B242" s="6">
         <v>241</v>
@@ -13884,7 +13896,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B243" s="6">
         <v>242</v>
@@ -13892,7 +13904,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B244" s="6">
         <v>243</v>
@@ -13900,7 +13912,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B245" s="6">
         <v>244</v>
@@ -13908,7 +13920,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B246" s="6">
         <v>245</v>
@@ -13916,7 +13928,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B247" s="6">
         <v>246</v>
@@ -13924,7 +13936,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B248" s="6">
         <v>247</v>
@@ -13932,7 +13944,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B249" s="6">
         <v>248</v>
@@ -13940,7 +13952,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B250" s="6">
         <v>249</v>
@@ -13948,7 +13960,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B251" s="6">
         <v>250</v>
@@ -13956,7 +13968,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B252" s="6">
         <v>251</v>
@@ -13964,7 +13976,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B253" s="6">
         <v>252</v>
@@ -13972,7 +13984,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B254" s="6">
         <v>253</v>
@@ -13980,7 +13992,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B255" s="6">
         <v>254</v>
@@ -13988,7 +14000,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B256" s="6">
         <v>255</v>
@@ -13996,7 +14008,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B257" s="6">
         <v>256</v>
@@ -14004,7 +14016,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B258" s="6">
         <v>257</v>
@@ -14012,7 +14024,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B259" s="6">
         <v>258</v>
@@ -14020,7 +14032,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B260" s="6">
         <v>259</v>
@@ -14028,7 +14040,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B261" s="6">
         <v>260</v>
@@ -14036,7 +14048,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B262" s="6">
         <v>261</v>
@@ -14044,7 +14056,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B263" s="6">
         <v>262</v>
@@ -14052,7 +14064,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B264" s="6">
         <v>263</v>
@@ -14060,7 +14072,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B265" s="6">
         <v>264</v>
@@ -14068,7 +14080,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B266" s="6">
         <v>265</v>
@@ -14076,7 +14088,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B267" s="6">
         <v>266</v>
@@ -14084,7 +14096,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B268" s="6">
         <v>267</v>
@@ -14092,7 +14104,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B269" s="6">
         <v>268</v>
@@ -14100,7 +14112,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B270" s="6">
         <v>269</v>
@@ -14108,7 +14120,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B271" s="6">
         <v>270</v>
@@ -14116,7 +14128,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B272" s="6">
         <v>271</v>
@@ -14124,7 +14136,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B273" s="6">
         <v>272</v>
@@ -14132,7 +14144,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B274" s="6">
         <v>273</v>
@@ -14140,7 +14152,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B275" s="6">
         <v>274</v>
@@ -14148,7 +14160,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B276" s="6">
         <v>275</v>
@@ -14156,7 +14168,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B277" s="6">
         <v>276</v>
@@ -14164,7 +14176,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B278" s="6">
         <v>277</v>
@@ -14172,7 +14184,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B279" s="6">
         <v>278</v>
@@ -14180,7 +14192,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B280" s="6">
         <v>279</v>
@@ -14188,7 +14200,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B281" s="6">
         <v>280</v>
@@ -14196,7 +14208,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B282" s="6">
         <v>281</v>
@@ -14204,7 +14216,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B283" s="6">
         <v>282</v>
@@ -14212,7 +14224,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B284" s="6">
         <v>283</v>
@@ -14220,7 +14232,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B285" s="6">
         <v>284</v>
@@ -14228,7 +14240,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B286" s="6">
         <v>285</v>
@@ -14236,7 +14248,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B287" s="6">
         <v>286</v>
@@ -14244,7 +14256,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B288" s="6">
         <v>287</v>
@@ -14252,7 +14264,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B289" s="6">
         <v>288</v>
@@ -14260,7 +14272,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B290" s="6">
         <v>289</v>
@@ -14268,7 +14280,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B291" s="6">
         <v>290</v>
@@ -14276,7 +14288,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B292" s="6">
         <v>291</v>
@@ -14284,7 +14296,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B293" s="6">
         <v>292</v>
@@ -14292,7 +14304,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B294" s="6">
         <v>293</v>
@@ -14300,7 +14312,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B295" s="6">
         <v>294</v>
@@ -14308,7 +14320,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B296" s="6">
         <v>295</v>
@@ -14316,7 +14328,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B297" s="6">
         <v>296</v>
@@ -14324,7 +14336,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B298" s="6">
         <v>297</v>
@@ -14332,7 +14344,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B299" s="6">
         <v>298</v>
@@ -14340,7 +14352,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B300" s="6">
         <v>299</v>
@@ -14348,7 +14360,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B301" s="6">
         <v>300</v>
@@ -14356,7 +14368,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B302" s="6">
         <v>301</v>
@@ -14364,7 +14376,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B303" s="6">
         <v>302</v>
@@ -14372,7 +14384,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B304" s="6">
         <v>303</v>
@@ -14380,7 +14392,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B305" s="6">
         <v>304</v>
@@ -14388,7 +14400,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B306" s="6">
         <v>305</v>
@@ -14396,7 +14408,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B307" s="6">
         <v>306</v>
@@ -14404,7 +14416,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B308" s="6">
         <v>307</v>
@@ -14412,7 +14424,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B309" s="6">
         <v>308</v>
@@ -14420,7 +14432,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B310" s="6">
         <v>309</v>
@@ -14428,7 +14440,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B311" s="6">
         <v>310</v>
@@ -14436,7 +14448,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B312" s="6">
         <v>311</v>
@@ -14444,7 +14456,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B313" s="6">
         <v>312</v>
@@ -14452,7 +14464,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B314" s="6">
         <v>313</v>
@@ -14460,7 +14472,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B315" s="6">
         <v>314</v>
@@ -14468,7 +14480,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B316" s="6">
         <v>315</v>
@@ -14476,7 +14488,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B317" s="6">
         <v>316</v>
@@ -14484,7 +14496,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B318" s="6">
         <v>317</v>
@@ -14492,7 +14504,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B319" s="6">
         <v>318</v>
@@ -14500,7 +14512,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B320" s="6">
         <v>319</v>
@@ -14508,7 +14520,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B321" s="6">
         <v>320</v>
@@ -14516,7 +14528,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B322" s="6">
         <v>321</v>
@@ -14524,7 +14536,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B323" s="6">
         <v>322</v>
@@ -14532,7 +14544,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B324" s="6">
         <v>323</v>
@@ -14540,7 +14552,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B325" s="6">
         <v>324</v>
@@ -14548,7 +14560,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B326" s="6">
         <v>325</v>
@@ -14556,7 +14568,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B327" s="6">
         <v>326</v>
@@ -14564,7 +14576,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B328" s="6">
         <v>327</v>
@@ -14572,7 +14584,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B329" s="6">
         <v>328</v>
@@ -14580,7 +14592,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B330" s="6">
         <v>329</v>
@@ -14588,7 +14600,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B331" s="6">
         <v>330</v>
@@ -14596,7 +14608,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B332" s="6">
         <v>331</v>
@@ -14604,7 +14616,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B333" s="6">
         <v>332</v>
@@ -14612,7 +14624,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B334" s="6">
         <v>333</v>
@@ -14620,7 +14632,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B335" s="6">
         <v>334</v>
@@ -14628,7 +14640,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B336" s="6">
         <v>335</v>
@@ -14636,7 +14648,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B337" s="6">
         <v>336</v>
@@ -14644,7 +14656,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B338" s="6">
         <v>337</v>
@@ -14652,7 +14664,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B339" s="6">
         <v>338</v>
@@ -14660,7 +14672,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B340" s="6">
         <v>339</v>
@@ -14668,7 +14680,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B341" s="6">
         <v>340</v>
@@ -14676,7 +14688,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B342" s="6">
         <v>341</v>
@@ -14684,7 +14696,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B343" s="6">
         <v>342</v>
@@ -14692,7 +14704,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B344" s="6">
         <v>343</v>
@@ -14700,7 +14712,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B345" s="6">
         <v>344</v>
@@ -14708,7 +14720,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B346" s="6">
         <v>345</v>
@@ -14716,7 +14728,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B347" s="6">
         <v>346</v>
@@ -14724,7 +14736,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B348" s="6">
         <v>347</v>
@@ -14732,7 +14744,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B349" s="6">
         <v>348</v>
@@ -14740,7 +14752,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B350" s="6">
         <v>349</v>
@@ -14748,7 +14760,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B351" s="6">
         <v>350</v>
@@ -14756,7 +14768,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B352" s="6">
         <v>351</v>
@@ -14764,7 +14776,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B353" s="6">
         <v>352</v>
@@ -14772,7 +14784,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B354" s="6">
         <v>353</v>
@@ -14780,7 +14792,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B355" s="6">
         <v>354</v>
@@ -14788,7 +14800,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B356" s="6">
         <v>355</v>
@@ -14796,7 +14808,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B357" s="6">
         <v>356</v>
@@ -14804,7 +14816,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B358" s="6">
         <v>357</v>
@@ -14812,7 +14824,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B359" s="6">
         <v>358</v>
@@ -14820,7 +14832,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B360" s="6">
         <v>359</v>
@@ -14828,7 +14840,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B361" s="6">
         <v>360</v>
@@ -14836,7 +14848,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B362" s="6">
         <v>361</v>
@@ -14844,7 +14856,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B363" s="6">
         <v>362</v>
@@ -14852,7 +14864,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B364" s="6">
         <v>363</v>
@@ -14860,7 +14872,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B365" s="6">
         <v>364</v>
@@ -14868,7 +14880,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="6" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B366" s="6">
         <v>365</v>
@@ -14876,7 +14888,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="6" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B367" s="6">
         <v>366</v>
@@ -14884,7 +14896,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B368" s="6">
         <v>367</v>
@@ -14892,7 +14904,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B369" s="6">
         <v>368</v>
@@ -14900,7 +14912,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B370" s="6">
         <v>369</v>
@@ -14908,7 +14920,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="6" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B371" s="6">
         <v>370</v>
@@ -14916,7 +14928,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B372" s="6">
         <v>371</v>
@@ -14924,7 +14936,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B373" s="6">
         <v>372</v>
@@ -14932,7 +14944,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B374" s="6">
         <v>373</v>
@@ -14940,7 +14952,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B375" s="6">
         <v>374</v>
@@ -14948,7 +14960,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B376" s="6">
         <v>375</v>
@@ -14956,7 +14968,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B377" s="6">
         <v>376</v>
@@ -14964,7 +14976,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B378" s="6">
         <v>377</v>
@@ -14972,7 +14984,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B379" s="6">
         <v>378</v>
@@ -14980,7 +14992,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B380" s="6">
         <v>379</v>
@@ -14988,7 +15000,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B381" s="6">
         <v>380</v>
@@ -14996,7 +15008,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B382" s="6">
         <v>381</v>
@@ -15004,7 +15016,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B383" s="6">
         <v>382</v>
@@ -15012,7 +15024,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B384" s="6">
         <v>383</v>
@@ -15020,7 +15032,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B385" s="6">
         <v>384</v>
@@ -15028,7 +15040,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B386" s="6">
         <v>385</v>
@@ -15036,7 +15048,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B387" s="6">
         <v>386</v>
@@ -15044,7 +15056,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="6" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B388" s="6">
         <v>387</v>
@@ -15052,7 +15064,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B389" s="6">
         <v>388</v>
@@ -15060,7 +15072,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B390" s="6">
         <v>389</v>
@@ -15068,7 +15080,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B391" s="6">
         <v>390</v>
@@ -15076,7 +15088,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B392" s="6">
         <v>391</v>
@@ -15084,7 +15096,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B393" s="6">
         <v>392</v>
@@ -15092,7 +15104,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B394" s="6">
         <v>393</v>
@@ -15100,7 +15112,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B395" s="6">
         <v>394</v>
@@ -15108,7 +15120,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B396" s="6">
         <v>395</v>
@@ -15116,7 +15128,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B397" s="6">
         <v>396</v>
@@ -15124,7 +15136,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B398" s="6">
         <v>397</v>
@@ -15132,7 +15144,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B399" s="6">
         <v>398</v>
@@ -15140,7 +15152,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B400" s="6">
         <v>399</v>
@@ -15148,7 +15160,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B401" s="6">
         <v>400</v>
@@ -15178,64 +15190,64 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="24" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="24" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="24" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="24" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -15262,27 +15274,27 @@
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="28" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="28" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O2" s="25"/>
     </row>
@@ -15293,41 +15305,41 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="2:10">
       <c r="B8" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="26" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="8:8">
@@ -15335,61 +15347,61 @@
     </row>
     <row r="14" ht="16.2" spans="4:12">
       <c r="D14" s="27" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="8:16">
       <c r="H16" s="24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="24" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="8:14">
       <c r="H18" s="24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="8:14">
       <c r="H20" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -15398,7 +15410,7 @@
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -2111,10 +2111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -2188,36 +2188,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2239,6 +2217,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2248,7 +2257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2262,27 +2271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2294,24 +2286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2324,8 +2301,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2400,7 +2400,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,37 +2502,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2454,25 +2550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,103 +2574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,6 +2638,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2649,17 +2678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2682,17 +2700,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2708,15 +2717,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2743,10 +2743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2755,133 +2755,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8770,7 +8770,7 @@
   <dimension ref="B2:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/【英雄绘卷】数值.xlsx
+++ b/策划文档/【英雄绘卷】数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="804" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="634">
   <si>
     <t>武将稀有度体现在属性上</t>
   </si>
@@ -2112,11 +2112,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
@@ -2188,14 +2188,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2209,11 +2279,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2234,61 +2303,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2301,31 +2324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2400,7 +2400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,7 +2418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,43 +2460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" t